--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D05EB-70B1-408B-AF2F-A0D0F614914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -124,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +194,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,435 +491,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>641927</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>450203</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>607200</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>686613</v>
       </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="B7">
         <v>656427</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="B8">
         <v>663623</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="B9">
         <v>605488</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>666200</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="B11">
         <v>434378</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>592332</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="B13">
         <v>689017</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="B14">
         <v>671106</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>622491</v>
       </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>608331</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="B17">
         <v>518876</v>
       </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>608379</v>
       </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>656605</v>
       </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="B20">
         <v>666157</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="B22">
         <v>681190</v>
       </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>663372</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="B24">
         <v>686752</v>
       </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>680732</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>684007</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="B27">
         <v>680885</v>
       </c>
-      <c r="D27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>641816</v>
       </c>
-      <c r="D28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="B29">
         <v>656731</v>
       </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="B30">
         <v>621111</v>
       </c>
-      <c r="D30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="B31">
         <v>579328</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>34</v>
       </c>
     </row>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7D05EB-70B1-408B-AF2F-A0D0F614914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Savant Name</t>
   </si>
@@ -31,6 +25,87 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Carmen Mlodzinski</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Cole Ragans</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Martín Pérez</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Ryan Gusto</t>
+  </si>
+  <si>
     <t>Bailey Ober</t>
   </si>
   <si>
@@ -121,17 +196,17 @@
     <t>Yusei Kikuchi</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,21 +269,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +313,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -280,7 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -315,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,348 +556,898 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>671096</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>670102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>693433</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>693821</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>700249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>607074</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>669387</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>663978</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>666142</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>607067</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>669203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>656849</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>642547</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>669372</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>594798</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>657277</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>527048</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>571945</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>645261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <v>542881</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>808967</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>554430</v>
+      </c>
+      <c r="D25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>695549</v>
+      </c>
+      <c r="D26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>690928</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>687473</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
         <v>641927</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>450203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C32">
+        <v>607200</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>686613</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>450203</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>656427</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>663623</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>607200</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>605488</v>
+      </c>
+      <c r="D36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>686613</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>666200</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>656427</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>434378</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>663623</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>592332</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>605488</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>689017</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>666200</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>671106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>434378</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>622491</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>592332</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>608331</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>689017</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>518876</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>671106</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>608379</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>622491</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>656605</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>608331</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>666157</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>518876</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>608379</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>681190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>656605</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>663372</v>
+      </c>
+      <c r="D50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>666157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>686752</v>
+      </c>
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>680732</v>
+      </c>
+      <c r="D52" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>681190</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>684007</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>663372</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>680885</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>686752</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>641816</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>680732</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>656731</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>684007</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>621111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>680885</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>579328</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58">
         <v>29</v>
-      </c>
-      <c r="B28">
-        <v>641816</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>656731</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>621111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31">
-        <v>579328</v>
-      </c>
-      <c r="C31" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Savant Name</t>
   </si>
@@ -25,9 +25,102 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Unnamed: 0.2</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
     <t>Unnamed: 0</t>
   </si>
   <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Bryce Miller</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Osvaldo Bido</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Ronel Blanco</t>
+  </si>
+  <si>
+    <t>Ryan Feltner</t>
+  </si>
+  <si>
+    <t>Shota Imanaga</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Nathan Wiles</t>
+  </si>
+  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
@@ -106,9 +199,6 @@
     <t>Ryan Gusto</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
@@ -121,9 +211,6 @@
     <t>Hunter Brown</t>
   </si>
   <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>Jake Irvin</t>
   </si>
   <si>
@@ -169,18 +256,12 @@
     <t>Randy Vásquez</t>
   </si>
   <si>
-    <t>Ryan Feltner</t>
-  </si>
-  <si>
     <t>Ryan Pepiot</t>
   </si>
   <si>
     <t>Sean Burke</t>
   </si>
   <si>
-    <t>Shota Imanaga</t>
-  </si>
-  <si>
     <t>Spencer Schwellenbach</t>
   </si>
   <si>
@@ -196,10 +277,10 @@
     <t>Yusei Kikuchi</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -557,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,877 +657,1533 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>671096</v>
+        <v>669467</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>670102</v>
+        <v>663559</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>693433</v>
+        <v>641927</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>693821</v>
+        <v>694297</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>700249</v>
+        <v>678394</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>607074</v>
+        <v>682243</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>669387</v>
+        <v>605135</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>663978</v>
+        <v>650911</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>666142</v>
+        <v>663436</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>607067</v>
+        <v>665152</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>669203</v>
-      </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>656849</v>
+        <v>665795</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>656288</v>
+      </c>
       <c r="D14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>642547</v>
+        <v>656427</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>669372</v>
+        <v>663855</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>500779</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>667755</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>663460</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="C17">
-        <v>594798</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>680730</v>
+      </c>
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="C18">
-        <v>657277</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>607259</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>601713</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>527048</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>674370</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="C21">
-        <v>571945</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>571578</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>645261</v>
-      </c>
-      <c r="D22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>669854</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="C23">
-        <v>542881</v>
-      </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>663372</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="C24">
-        <v>808967</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>684007</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="C25">
-        <v>554430</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>695549</v>
-      </c>
-      <c r="D26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>690928</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>687473</v>
+        <v>676440</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>641927</v>
+        <v>701542</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>450203</v>
+        <v>641793</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>686249</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <v>607200</v>
+        <v>671096</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <v>686613</v>
+        <v>670102</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>656427</v>
+        <v>693433</v>
       </c>
       <c r="D34" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>663623</v>
+        <v>693821</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>605488</v>
+        <v>700249</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <v>666200</v>
+        <v>607074</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E37">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <v>434378</v>
+        <v>669387</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <v>592332</v>
+        <v>663978</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <v>689017</v>
+        <v>666142</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>671106</v>
+        <v>607067</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E41">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>622491</v>
+        <v>669203</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>608331</v>
+        <v>656849</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C44">
-        <v>518876</v>
+        <v>642547</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45">
-        <v>608379</v>
+        <v>669372</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E45">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46">
-        <v>656605</v>
+        <v>594798</v>
       </c>
       <c r="D46" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E46">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47">
-        <v>666157</v>
+        <v>657277</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E47">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E48">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49">
-        <v>681190</v>
+        <v>527048</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E49">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>663372</v>
+        <v>571945</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E50">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C51">
-        <v>686752</v>
+        <v>645261</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E51">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C52">
-        <v>680732</v>
+        <v>542881</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E52">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C53">
-        <v>684007</v>
+        <v>808967</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>680885</v>
+        <v>554430</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E54">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C55">
-        <v>641816</v>
+        <v>695549</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E55">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C56">
-        <v>656731</v>
+        <v>690928</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E56">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C57">
-        <v>621111</v>
+        <v>687473</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E57">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>26</v>
+      </c>
+      <c r="F57">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58">
+        <v>450203</v>
+      </c>
+      <c r="D58" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58">
+        <v>28</v>
+      </c>
+      <c r="F58">
+        <v>28</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>29</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <v>607200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>87</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60">
+        <v>30</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="C58">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>686613</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61">
+        <v>31</v>
+      </c>
+      <c r="F61">
+        <v>31</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <v>663623</v>
+      </c>
+      <c r="D62" t="s">
+        <v>87</v>
+      </c>
+      <c r="E62">
+        <v>33</v>
+      </c>
+      <c r="F62">
+        <v>33</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63">
+        <v>605488</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>34</v>
+      </c>
+      <c r="G63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>666200</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64">
+        <v>35</v>
+      </c>
+      <c r="F64">
+        <v>35</v>
+      </c>
+      <c r="G64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65">
+        <v>434378</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65">
+        <v>36</v>
+      </c>
+      <c r="F65">
+        <v>36</v>
+      </c>
+      <c r="G65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>592332</v>
+      </c>
+      <c r="D66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66">
+        <v>37</v>
+      </c>
+      <c r="F66">
+        <v>37</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>689017</v>
+      </c>
+      <c r="D67" t="s">
+        <v>87</v>
+      </c>
+      <c r="E67">
+        <v>38</v>
+      </c>
+      <c r="F67">
+        <v>38</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68">
+        <v>671106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
+      </c>
+      <c r="F68">
+        <v>39</v>
+      </c>
+      <c r="G68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69">
+        <v>622491</v>
+      </c>
+      <c r="D69" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>40</v>
+      </c>
+      <c r="G69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>608331</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <v>41</v>
+      </c>
+      <c r="G70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71">
+        <v>518876</v>
+      </c>
+      <c r="D71" t="s">
+        <v>87</v>
+      </c>
+      <c r="E71">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>42</v>
+      </c>
+      <c r="G71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>608379</v>
+      </c>
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+      <c r="E72">
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <v>43</v>
+      </c>
+      <c r="G72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73">
+        <v>656605</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73">
+        <v>44</v>
+      </c>
+      <c r="F73">
+        <v>44</v>
+      </c>
+      <c r="G73">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74">
+        <v>666157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <v>45</v>
+      </c>
+      <c r="G74">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>87</v>
+      </c>
+      <c r="E75">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>46</v>
+      </c>
+      <c r="G75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76">
+        <v>681190</v>
+      </c>
+      <c r="D76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E76">
+        <v>47</v>
+      </c>
+      <c r="F76">
+        <v>47</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>686752</v>
+      </c>
+      <c r="D77" t="s">
+        <v>87</v>
+      </c>
+      <c r="E77">
+        <v>49</v>
+      </c>
+      <c r="F77">
+        <v>49</v>
+      </c>
+      <c r="G77">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>680732</v>
+      </c>
+      <c r="D78" t="s">
+        <v>87</v>
+      </c>
+      <c r="E78">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>680885</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79">
+        <v>52</v>
+      </c>
+      <c r="F79">
+        <v>52</v>
+      </c>
+      <c r="G79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>641816</v>
+      </c>
+      <c r="D80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80">
+        <v>53</v>
+      </c>
+      <c r="F80">
+        <v>53</v>
+      </c>
+      <c r="G80">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>656731</v>
+      </c>
+      <c r="D81" t="s">
+        <v>87</v>
+      </c>
+      <c r="E81">
+        <v>54</v>
+      </c>
+      <c r="F81">
+        <v>54</v>
+      </c>
+      <c r="G81">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>621111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82">
+        <v>55</v>
+      </c>
+      <c r="F82">
+        <v>55</v>
+      </c>
+      <c r="G82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
         <v>579328</v>
       </c>
-      <c r="D58" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58">
+      <c r="D83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83">
+        <v>56</v>
+      </c>
+      <c r="F83">
+        <v>56</v>
+      </c>
+      <c r="G83">
         <v>29</v>
       </c>
     </row>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6B2212-9C14-4758-9BBD-3EC23EF6678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5292E72-98EA-4203-B58E-438FA9E4127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="86">
-  <si>
-    <t>Savant Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Savant ID</t>
   </si>
@@ -278,6 +275,9 @@
   </si>
   <si>
     <t>LHP</t>
+  </si>
+  <si>
+    <t>Baseball_Savant_Name</t>
   </si>
 </sst>
 </file>
@@ -645,138 +645,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>669467</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>663559</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>641927</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>694297</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>678394</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>682243</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>605135</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>650911</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>663436</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>665152</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>665795</v>
+      </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>665795</v>
+        <v>656288</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -795,10 +801,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>656288</v>
+        <v>656427</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,10 +812,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>656427</v>
+        <v>663855</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>663855</v>
+        <v>500779</v>
       </c>
       <c r="C16" t="s">
         <v>84</v>
@@ -828,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>500779</v>
+        <v>667755</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -839,7 +845,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>667755</v>
+        <v>663460</v>
       </c>
       <c r="C18" t="s">
         <v>84</v>
@@ -850,10 +856,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>663460</v>
+        <v>680730</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -861,10 +867,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>680730</v>
+        <v>607259</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -872,10 +878,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>607259</v>
+        <v>601713</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -883,10 +889,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>601713</v>
+        <v>674370</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -894,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>674370</v>
+        <v>571578</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
@@ -905,10 +911,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>571578</v>
+        <v>669854</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -916,10 +922,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>669854</v>
+        <v>663372</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -927,7 +933,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>663372</v>
+        <v>684007</v>
       </c>
       <c r="C26" t="s">
         <v>84</v>
@@ -938,10 +944,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>684007</v>
+        <v>676440</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -949,10 +955,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>676440</v>
+        <v>701542</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -960,10 +966,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>701542</v>
+        <v>641793</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -971,10 +977,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>641793</v>
+        <v>686249</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -982,7 +988,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>686249</v>
+        <v>671096</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
@@ -993,10 +999,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>671096</v>
+        <v>670102</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1004,10 +1010,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>670102</v>
+        <v>693433</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1015,10 +1021,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>693433</v>
+        <v>693821</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1026,7 +1032,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>693821</v>
+        <v>700249</v>
       </c>
       <c r="C35" t="s">
         <v>84</v>
@@ -1037,10 +1043,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>700249</v>
+        <v>607074</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1048,10 +1054,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>607074</v>
+        <v>669387</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1059,10 +1065,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>669387</v>
+        <v>663978</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1070,7 +1076,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>663978</v>
+        <v>666142</v>
       </c>
       <c r="C39" t="s">
         <v>84</v>
@@ -1081,10 +1087,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>666142</v>
+        <v>607067</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,10 +1098,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>607067</v>
+        <v>669203</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1103,7 +1109,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>669203</v>
+        <v>656849</v>
       </c>
       <c r="C42" t="s">
         <v>84</v>
@@ -1114,10 +1120,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>656849</v>
+        <v>642547</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1125,10 +1131,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>642547</v>
+        <v>669372</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1136,10 +1142,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>669372</v>
+        <v>594798</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1147,27 +1153,27 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>594798</v>
+        <v>657277</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>657277</v>
-      </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
+      <c r="B48">
+        <v>527048</v>
+      </c>
       <c r="C48" t="s">
         <v>84</v>
       </c>
@@ -1177,10 +1183,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>527048</v>
+        <v>571945</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,10 +1194,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>571945</v>
+        <v>645261</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,7 +1205,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>645261</v>
+        <v>542881</v>
       </c>
       <c r="C51" t="s">
         <v>84</v>
@@ -1210,10 +1216,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>542881</v>
+        <v>808967</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,10 +1227,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>808967</v>
+        <v>554430</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,10 +1238,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>554430</v>
+        <v>695549</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,10 +1249,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>695549</v>
+        <v>690928</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,10 +1260,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>690928</v>
+        <v>687473</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,29 +1271,29 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>687473</v>
+        <v>450203</v>
       </c>
       <c r="C57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>450203</v>
-      </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
+      <c r="B59">
+        <v>607200</v>
+      </c>
       <c r="C59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1295,10 +1301,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>607200</v>
+        <v>686613</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1306,10 +1312,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>686613</v>
+        <v>663623</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1317,7 +1323,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>663623</v>
+        <v>605488</v>
       </c>
       <c r="C62" t="s">
         <v>84</v>
@@ -1328,10 +1334,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>605488</v>
+        <v>666200</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1339,10 +1345,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>666200</v>
+        <v>434378</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1350,10 +1356,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>434378</v>
+        <v>592332</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1361,10 +1367,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>592332</v>
+        <v>689017</v>
       </c>
       <c r="C66" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1372,7 +1378,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>689017</v>
+        <v>671106</v>
       </c>
       <c r="C67" t="s">
         <v>84</v>
@@ -1383,10 +1389,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>671106</v>
+        <v>622491</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1394,7 +1400,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>622491</v>
+        <v>608331</v>
       </c>
       <c r="C69" t="s">
         <v>84</v>
@@ -1405,10 +1411,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>608331</v>
+        <v>518876</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1416,10 +1422,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>518876</v>
+        <v>608379</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1427,10 +1433,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>608379</v>
+        <v>656605</v>
       </c>
       <c r="C72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1438,7 +1444,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>656605</v>
+        <v>666157</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
@@ -1448,19 +1454,19 @@
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>666157</v>
-      </c>
       <c r="C74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
+      <c r="B75">
+        <v>681190</v>
+      </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1468,10 +1474,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>681190</v>
+        <v>686752</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1479,10 +1485,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>686752</v>
+        <v>680732</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1490,10 +1496,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>680732</v>
+        <v>680885</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,10 +1507,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>680885</v>
+        <v>641816</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1512,10 +1518,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>641816</v>
+        <v>656731</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1523,10 +1529,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>656731</v>
+        <v>621111</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1534,21 +1540,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>621111</v>
+        <v>579328</v>
       </c>
       <c r="C82" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83">
-        <v>579328</v>
-      </c>
-      <c r="C83" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,69 +25,102 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Ben Lively</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Michael King</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Tanner Houck</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Ryan Gusto</t>
+  </si>
+  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
-    <t>Ben Lively</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
     <t>Hayden Wesneski</t>
   </si>
   <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
     <t>Jeffrey Springs</t>
   </si>
   <si>
     <t>José Ureña</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Lucas Giolito</t>
   </si>
   <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
     <t>Pablo López</t>
   </si>
   <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
@@ -109,12 +142,6 @@
     <t>Chad Patrick</t>
   </si>
   <si>
-    <t>Jackson Jobe</t>
-  </si>
-  <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
     <t>Brad Lord</t>
   </si>
   <si>
@@ -199,9 +226,6 @@
     <t>Erick Fedde</t>
   </si>
   <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
     <t>Garrett Crochet</t>
   </si>
   <si>
@@ -283,9 +307,6 @@
     <t>Framber Valdez</t>
   </si>
   <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
@@ -310,12 +331,6 @@
     <t>Max Fried</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
@@ -370,18 +385,6 @@
     <t>Taijuan Walker</t>
   </si>
   <si>
-    <t>Tanner Houck</t>
-  </si>
-  <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Ryan Gusto</t>
-  </si>
-  <si>
     <t>Jacob Lopez</t>
   </si>
   <si>
@@ -421,9 +424,6 @@
     <t>Brandon Pfaadt</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
     <t>Davis Martin</t>
   </si>
   <si>
@@ -484,10 +484,10 @@
     <t>Walker Buehler</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>671096</v>
+        <v>594902</v>
       </c>
       <c r="C2" t="s">
         <v>156</v>
@@ -878,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>594902</v>
+        <v>615698</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>700249</v>
+        <v>657376</v>
       </c>
       <c r="C4" t="s">
         <v>156</v>
@@ -900,10 +900,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>615698</v>
+        <v>607067</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -911,10 +911,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>519242</v>
+        <v>650911</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>657376</v>
+        <v>656849</v>
       </c>
       <c r="C7" t="s">
         <v>157</v>
@@ -933,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>607067</v>
+        <v>676106</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -944,45 +944,51 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>656849</v>
+        <v>642547</v>
       </c>
       <c r="C9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>656550</v>
+      </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>676106</v>
+        <v>663623</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>669713</v>
+        <v>434378</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>663623</v>
+        <v>669461</v>
       </c>
       <c r="C13" t="s">
         <v>157</v>
@@ -990,10 +996,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>605488</v>
+        <v>518876</v>
       </c>
       <c r="C14" t="s">
         <v>156</v>
@@ -1001,51 +1007,54 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>570632</v>
+        <v>650633</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>434378</v>
+        <v>608379</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>608337</v>
+        <v>694973</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>656557</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>669461</v>
+        <v>641816</v>
       </c>
       <c r="C19" t="s">
         <v>156</v>
@@ -1053,10 +1062,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>650633</v>
+        <v>579328</v>
       </c>
       <c r="C20" t="s">
         <v>157</v>
@@ -1064,43 +1073,43 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>543135</v>
+        <v>695549</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>641154</v>
+        <v>801403</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>694973</v>
+        <v>687473</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>680732</v>
+        <v>671096</v>
       </c>
       <c r="C24" t="s">
         <v>157</v>
@@ -1108,10 +1117,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>607625</v>
+        <v>700249</v>
       </c>
       <c r="C25" t="s">
         <v>157</v>
@@ -1119,22 +1128,16 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>664062</v>
+        <v>519242</v>
       </c>
       <c r="C26" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>542881</v>
-      </c>
       <c r="C27" t="s">
         <v>156</v>
       </c>
@@ -1144,10 +1147,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>668678</v>
+        <v>669713</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1155,7 +1158,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>554430</v>
+        <v>605488</v>
       </c>
       <c r="C29" t="s">
         <v>157</v>
@@ -1166,10 +1169,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>694477</v>
+        <v>570632</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1177,21 +1180,18 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>695549</v>
+        <v>608337</v>
       </c>
       <c r="C31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>801403</v>
-      </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1199,10 +1199,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>695418</v>
+        <v>543135</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1210,10 +1210,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>700363</v>
+        <v>641154</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1221,10 +1221,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>663903</v>
+        <v>680732</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1232,10 +1232,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>682243</v>
+        <v>607625</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>607074</v>
+        <v>664062</v>
       </c>
       <c r="C37" t="s">
         <v>156</v>
@@ -1254,7 +1254,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>669387</v>
+        <v>542881</v>
       </c>
       <c r="C38" t="s">
         <v>157</v>
@@ -1265,7 +1265,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>666142</v>
+        <v>668678</v>
       </c>
       <c r="C39" t="s">
         <v>156</v>
@@ -1276,10 +1276,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>656288</v>
+        <v>554430</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>689017</v>
+        <v>694477</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1298,10 +1298,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>622663</v>
+        <v>695418</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1309,7 +1309,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>571510</v>
+        <v>700363</v>
       </c>
       <c r="C43" t="s">
         <v>156</v>
@@ -1320,10 +1320,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>571945</v>
+        <v>663903</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1331,10 +1331,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>601713</v>
+        <v>682243</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1342,7 +1342,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>669854</v>
+        <v>607074</v>
       </c>
       <c r="C46" t="s">
         <v>157</v>
@@ -1353,10 +1353,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>669194</v>
+        <v>669387</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>645261</v>
+        <v>666142</v>
       </c>
       <c r="C48" t="s">
         <v>157</v>
@@ -1375,10 +1375,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>668964</v>
+        <v>656288</v>
       </c>
       <c r="C49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1386,10 +1386,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>681343</v>
+        <v>689017</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1397,10 +1397,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>676508</v>
+        <v>622663</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1408,7 +1408,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>669467</v>
+        <v>571510</v>
       </c>
       <c r="C52" t="s">
         <v>157</v>
@@ -1419,7 +1419,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>571760</v>
+        <v>571945</v>
       </c>
       <c r="C53" t="s">
         <v>156</v>
@@ -1430,10 +1430,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>670102</v>
+        <v>601713</v>
       </c>
       <c r="C54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>693821</v>
+        <v>669854</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>669060</v>
+        <v>669194</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>663978</v>
+        <v>645261</v>
       </c>
       <c r="C57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1474,7 +1474,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>593958</v>
+        <v>668964</v>
       </c>
       <c r="C58" t="s">
         <v>156</v>
@@ -1485,10 +1485,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>665795</v>
+        <v>681343</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>607200</v>
+        <v>676508</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>642547</v>
+        <v>669467</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1518,10 +1518,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>676979</v>
+        <v>571760</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1529,10 +1529,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>608566</v>
+        <v>670102</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>686799</v>
+        <v>693821</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>594798</v>
+        <v>669060</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1562,7 +1562,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>676664</v>
+        <v>663978</v>
       </c>
       <c r="C66" t="s">
         <v>156</v>
@@ -1573,7 +1573,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>502043</v>
+        <v>593958</v>
       </c>
       <c r="C67" t="s">
         <v>157</v>
@@ -1584,10 +1584,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>657277</v>
+        <v>665795</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>669022</v>
+        <v>607200</v>
       </c>
       <c r="C69" t="s">
         <v>156</v>
@@ -1606,7 +1606,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>547179</v>
+        <v>676979</v>
       </c>
       <c r="C70" t="s">
         <v>157</v>
@@ -1617,10 +1617,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>607259</v>
+        <v>608566</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1628,7 +1628,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>624133</v>
+        <v>686799</v>
       </c>
       <c r="C72" t="s">
         <v>156</v>
@@ -1639,10 +1639,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>681857</v>
+        <v>594798</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1650,10 +1650,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>684007</v>
+        <v>676664</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1661,10 +1661,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>671737</v>
+        <v>502043</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1672,10 +1672,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>676440</v>
+        <v>657277</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1683,7 +1683,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>656731</v>
+        <v>669022</v>
       </c>
       <c r="C77" t="s">
         <v>157</v>
@@ -1694,10 +1694,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>701542</v>
+        <v>547179</v>
       </c>
       <c r="C78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1705,10 +1705,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>694918</v>
+        <v>607259</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1716,7 +1716,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>663568</v>
+        <v>624133</v>
       </c>
       <c r="C80" t="s">
         <v>157</v>
@@ -1727,10 +1727,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>688138</v>
+        <v>681857</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1738,7 +1738,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>676962</v>
+        <v>684007</v>
       </c>
       <c r="C82" t="s">
         <v>157</v>
@@ -1749,10 +1749,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>678394</v>
+        <v>671737</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1760,10 +1760,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>693433</v>
+        <v>676440</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1771,10 +1771,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>605135</v>
+        <v>656731</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1782,10 +1782,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>665152</v>
+        <v>701542</v>
       </c>
       <c r="C86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1793,10 +1793,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>656302</v>
+        <v>694918</v>
       </c>
       <c r="C87" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1804,7 +1804,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>664285</v>
+        <v>663568</v>
       </c>
       <c r="C88" t="s">
         <v>156</v>
@@ -1815,10 +1815,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>656550</v>
+        <v>688138</v>
       </c>
       <c r="C89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1826,10 +1826,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>668881</v>
+        <v>676962</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1837,10 +1837,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>683004</v>
+        <v>678394</v>
       </c>
       <c r="C91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1848,7 +1848,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>666200</v>
+        <v>693433</v>
       </c>
       <c r="C92" t="s">
         <v>156</v>
@@ -1859,10 +1859,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>657746</v>
+        <v>605135</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1870,10 +1870,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>686563</v>
+        <v>665152</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1881,10 +1881,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>667755</v>
+        <v>656302</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1892,10 +1892,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>671106</v>
+        <v>664285</v>
       </c>
       <c r="C96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1903,7 +1903,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>608331</v>
+        <v>668881</v>
       </c>
       <c r="C97" t="s">
         <v>156</v>
@@ -1914,10 +1914,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>518876</v>
+        <v>683004</v>
       </c>
       <c r="C98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1925,7 +1925,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>608379</v>
+        <v>666200</v>
       </c>
       <c r="C99" t="s">
         <v>157</v>
@@ -1936,10 +1936,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>656605</v>
+        <v>657746</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1947,7 +1947,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>680730</v>
+        <v>686563</v>
       </c>
       <c r="C101" t="s">
         <v>156</v>
@@ -1958,7 +1958,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>592662</v>
+        <v>667755</v>
       </c>
       <c r="C102" t="s">
         <v>156</v>
@@ -1969,7 +1969,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>686752</v>
+        <v>671106</v>
       </c>
       <c r="C103" t="s">
         <v>157</v>
@@ -1980,7 +1980,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>543243</v>
+        <v>608331</v>
       </c>
       <c r="C104" t="s">
         <v>157</v>
@@ -1991,7 +1991,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>669373</v>
+        <v>656605</v>
       </c>
       <c r="C105" t="s">
         <v>156</v>
@@ -2002,10 +2002,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>641302</v>
+        <v>680730</v>
       </c>
       <c r="C106" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2013,7 +2013,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>678368</v>
+        <v>592662</v>
       </c>
       <c r="C107" t="s">
         <v>157</v>
@@ -2024,10 +2024,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>808967</v>
+        <v>686752</v>
       </c>
       <c r="C108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2035,10 +2035,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>680684</v>
+        <v>543243</v>
       </c>
       <c r="C109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2046,7 +2046,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>682990</v>
+        <v>669373</v>
       </c>
       <c r="C110" t="s">
         <v>157</v>
@@ -2057,7 +2057,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>663554</v>
+        <v>641302</v>
       </c>
       <c r="C111" t="s">
         <v>157</v>
@@ -2068,10 +2068,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>621244</v>
+        <v>678368</v>
       </c>
       <c r="C112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2079,10 +2079,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>673540</v>
+        <v>808967</v>
       </c>
       <c r="C113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2090,7 +2090,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>607536</v>
+        <v>680684</v>
       </c>
       <c r="C114" t="s">
         <v>156</v>
@@ -2101,10 +2101,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669358</v>
+        <v>682990</v>
       </c>
       <c r="C115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2112,10 +2112,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>680573</v>
+        <v>663554</v>
       </c>
       <c r="C116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2123,10 +2123,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>592836</v>
+        <v>621244</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2134,10 +2134,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>656557</v>
+        <v>673540</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2145,7 +2145,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>641816</v>
+        <v>607536</v>
       </c>
       <c r="C119" t="s">
         <v>157</v>
@@ -2156,7 +2156,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>579328</v>
+        <v>669358</v>
       </c>
       <c r="C120" t="s">
         <v>156</v>
@@ -2167,10 +2167,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>687473</v>
+        <v>680573</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2178,7 +2178,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>682052</v>
+        <v>592836</v>
       </c>
       <c r="C122" t="s">
         <v>156</v>
@@ -2189,7 +2189,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>641927</v>
+        <v>682052</v>
       </c>
       <c r="C123" t="s">
         <v>157</v>
@@ -2200,10 +2200,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>668909</v>
+        <v>641927</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2211,10 +2211,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>656427</v>
+        <v>668909</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2222,7 +2222,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>571578</v>
+        <v>656427</v>
       </c>
       <c r="C126" t="s">
         <v>156</v>
@@ -2233,7 +2233,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>663372</v>
+        <v>571578</v>
       </c>
       <c r="C127" t="s">
         <v>157</v>
@@ -2244,10 +2244,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>592866</v>
+        <v>663372</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2255,10 +2255,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>608372</v>
+        <v>592866</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2266,10 +2266,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>471911</v>
+        <v>608372</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2277,10 +2277,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>543294</v>
+        <v>471911</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2288,10 +2288,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>669302</v>
+        <v>543294</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2299,7 +2299,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>663559</v>
+        <v>669302</v>
       </c>
       <c r="C133" t="s">
         <v>156</v>
@@ -2310,7 +2310,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>694297</v>
+        <v>663559</v>
       </c>
       <c r="C134" t="s">
         <v>157</v>
@@ -2321,7 +2321,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>650911</v>
+        <v>694297</v>
       </c>
       <c r="C135" t="s">
         <v>156</v>
@@ -2335,7 +2335,7 @@
         <v>663436</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2346,7 +2346,7 @@
         <v>663855</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2357,7 +2357,7 @@
         <v>500779</v>
       </c>
       <c r="C138" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2368,7 +2368,7 @@
         <v>663460</v>
       </c>
       <c r="C139" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2379,7 +2379,7 @@
         <v>674370</v>
       </c>
       <c r="C140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2390,7 +2390,7 @@
         <v>641793</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2401,7 +2401,7 @@
         <v>686249</v>
       </c>
       <c r="C142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2412,7 +2412,7 @@
         <v>669203</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2423,7 +2423,7 @@
         <v>669372</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2434,7 +2434,7 @@
         <v>527048</v>
       </c>
       <c r="C145" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2445,7 +2445,7 @@
         <v>690928</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>450203</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>686613</v>
       </c>
       <c r="C148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>592332</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2489,7 +2489,7 @@
         <v>689017</v>
       </c>
       <c r="C150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>622491</v>
       </c>
       <c r="C151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>666157</v>
       </c>
       <c r="C152" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>681190</v>
       </c>
       <c r="C153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2533,7 +2533,7 @@
         <v>680885</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>621111</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="170">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,300 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Cole Ragans</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Bryse Wilson</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Osvaldo Bido</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Matt Sauer</t>
+  </si>
+  <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Chayce McDermott</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Jordan Hicks</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Simeon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>Logan Henderson</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Landon Knack</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Valente Bellozo</t>
+  </si>
+  <si>
     <t>Ben Lively</t>
   </si>
   <si>
@@ -91,21 +385,9 @@
     <t>Ryan Gusto</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Hayden Wesneski</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>José Ureña</t>
   </si>
   <si>
@@ -115,9 +397,6 @@
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
     <t>Pablo López</t>
   </si>
   <si>
@@ -139,30 +418,15 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Brad Lord</t>
   </si>
   <si>
-    <t>AJ Smith-Shawver</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
-    <t>Cole Ragans</t>
-  </si>
-  <si>
     <t>Griffin Canning</t>
   </si>
   <si>
@@ -193,292 +457,64 @@
     <t>Tobias Myers</t>
   </si>
   <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Bowden Francis</t>
-  </si>
-  <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Bryse Wilson</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Kyle Gibson</t>
   </si>
   <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
     <t>Reese Olson</t>
   </si>
   <si>
     <t>Shota Imanaga</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Blade Tidwell</t>
   </si>
   <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
     <t>Tyler Alexander</t>
   </si>
   <si>
-    <t>Valente Bellozo</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Gunnar Hoglund</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
     <t>Casey Mize</t>
   </si>
   <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>Simeon Woods Richardson</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
     <t>Jacob Lopez</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Ryan Feltner</t>
   </si>
   <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Carlos Carrasco</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Jordan Hicks</t>
-  </si>
-  <si>
     <t>Jose Quintana</t>
   </si>
   <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
-    <t>Osvaldo Bido</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
     <t>Nathan Wiles</t>
   </si>
   <si>
-    <t>Corbin Burnes</t>
-  </si>
-  <si>
     <t>J T Ginn</t>
   </si>
   <si>
     <t>Martín Pérez</t>
   </si>
   <si>
-    <t>Hunter Dobbins</t>
-  </si>
-  <si>
     <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
   </si>
   <si>
     <t>Walker Buehler</t>
@@ -845,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,10 +903,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>594902</v>
+        <v>669467</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -878,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>615698</v>
+        <v>571760</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -889,10 +925,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>657376</v>
+        <v>670102</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -900,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>607067</v>
+        <v>663903</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -911,10 +947,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>650911</v>
+        <v>700249</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -922,10 +958,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>656849</v>
+        <v>607074</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -933,10 +969,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>676106</v>
+        <v>519242</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -944,10 +980,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>642547</v>
+        <v>666142</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -955,191 +991,191 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>656550</v>
+        <v>669203</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>663623</v>
-      </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>434378</v>
+        <v>676979</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>669461</v>
+        <v>656427</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>518876</v>
+        <v>686799</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>650633</v>
+        <v>657746</v>
       </c>
       <c r="C15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>608379</v>
+        <v>676664</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>694973</v>
+        <v>657277</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>656557</v>
+        <v>669022</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>641816</v>
+        <v>676974</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>579328</v>
+        <v>543135</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>695549</v>
+        <v>624133</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>801403</v>
+        <v>671737</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>687473</v>
+        <v>676440</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>671096</v>
+        <v>656731</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>700249</v>
+        <v>681343</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>694477</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>519242</v>
-      </c>
-      <c r="C26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B27">
+        <v>663568</v>
+      </c>
       <c r="C27" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1147,10 +1183,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>669713</v>
+        <v>688138</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1158,10 +1194,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>605488</v>
+        <v>690990</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1169,10 +1205,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>570632</v>
+        <v>687223</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1180,18 +1216,21 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>608337</v>
+        <v>700363</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
+      <c r="B32">
+        <v>669060</v>
+      </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1199,10 +1238,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>543135</v>
+        <v>663978</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1210,10 +1249,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>641154</v>
+        <v>686613</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1221,10 +1260,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>680732</v>
+        <v>594798</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1232,10 +1271,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>607625</v>
+        <v>592332</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1243,10 +1282,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>664062</v>
+        <v>607259</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1254,10 +1293,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>542881</v>
+        <v>674370</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1265,10 +1304,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>668678</v>
+        <v>592866</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1276,10 +1315,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>554430</v>
+        <v>641793</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1287,10 +1326,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>694477</v>
+        <v>608372</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1298,10 +1337,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>695418</v>
+        <v>669422</v>
       </c>
       <c r="C42" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1309,10 +1348,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>700363</v>
+        <v>605400</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1320,10 +1359,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>663903</v>
+        <v>663559</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1331,10 +1370,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>682243</v>
+        <v>641927</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1342,10 +1381,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>607074</v>
+        <v>693821</v>
       </c>
       <c r="C46" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1353,10 +1392,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>669387</v>
+        <v>694646</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1364,10 +1403,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>666142</v>
+        <v>605135</v>
       </c>
       <c r="C48" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1375,10 +1414,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>656288</v>
+        <v>663436</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1386,10 +1425,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>689017</v>
+        <v>665152</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1397,10 +1436,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>622663</v>
+        <v>593958</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1408,10 +1447,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>571510</v>
+        <v>607200</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1419,10 +1458,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>571945</v>
+        <v>668909</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1430,10 +1469,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>601713</v>
+        <v>592791</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1441,10 +1480,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>669854</v>
+        <v>666200</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1452,10 +1491,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>669194</v>
+        <v>663855</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1463,10 +1502,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>645261</v>
+        <v>543294</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1474,10 +1513,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>668964</v>
+        <v>622491</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1485,10 +1524,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>681343</v>
+        <v>547179</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1496,10 +1535,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>676508</v>
+        <v>680730</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1507,10 +1546,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>669467</v>
+        <v>666157</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1518,10 +1557,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>571760</v>
+        <v>571578</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1529,10 +1568,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>670102</v>
+        <v>681190</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1540,10 +1579,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>693821</v>
+        <v>686752</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1551,10 +1590,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>669060</v>
+        <v>677960</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1562,10 +1601,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>663978</v>
+        <v>680573</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1573,10 +1612,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>593958</v>
+        <v>543243</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1584,10 +1623,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>665795</v>
+        <v>669373</v>
       </c>
       <c r="C68" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1595,10 +1634,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>607200</v>
+        <v>701542</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1606,10 +1645,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>676979</v>
+        <v>808967</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1617,10 +1656,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>608566</v>
+        <v>690928</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1628,10 +1667,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>686799</v>
+        <v>680684</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1639,10 +1678,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>594798</v>
+        <v>701656</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1650,10 +1689,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>676664</v>
+        <v>676467</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1661,10 +1700,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>502043</v>
+        <v>671096</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1672,10 +1711,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>657277</v>
+        <v>676962</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1683,10 +1722,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669022</v>
+        <v>694297</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1694,10 +1733,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>547179</v>
+        <v>678394</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1705,10 +1744,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>607259</v>
+        <v>693433</v>
       </c>
       <c r="C79" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1716,10 +1755,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>624133</v>
+        <v>656302</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1727,10 +1766,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>681857</v>
+        <v>664285</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1738,10 +1777,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>684007</v>
+        <v>683004</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1749,10 +1788,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>671737</v>
+        <v>605488</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1760,10 +1799,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>676440</v>
+        <v>686563</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1771,10 +1810,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>656731</v>
+        <v>621244</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1782,10 +1821,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>701542</v>
+        <v>667755</v>
       </c>
       <c r="C86" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1793,10 +1832,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>694918</v>
+        <v>672456</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1804,10 +1843,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>663568</v>
+        <v>673540</v>
       </c>
       <c r="C88" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1815,10 +1854,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>688138</v>
+        <v>663460</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1826,10 +1865,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>676962</v>
+        <v>607536</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1837,10 +1876,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>678394</v>
+        <v>689017</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1848,10 +1887,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>693433</v>
+        <v>671106</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1859,10 +1898,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>605135</v>
+        <v>608331</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1870,10 +1909,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>665152</v>
+        <v>647336</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1881,10 +1920,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>656302</v>
+        <v>656605</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1892,10 +1931,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>664285</v>
+        <v>682990</v>
       </c>
       <c r="C96" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1903,10 +1942,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>668881</v>
+        <v>592662</v>
       </c>
       <c r="C97" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1914,10 +1953,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>683004</v>
+        <v>669358</v>
       </c>
       <c r="C98" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1925,10 +1964,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>666200</v>
+        <v>680885</v>
       </c>
       <c r="C99" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1936,10 +1975,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>657746</v>
+        <v>678368</v>
       </c>
       <c r="C100" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1947,10 +1986,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>686563</v>
+        <v>594902</v>
       </c>
       <c r="C101" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1958,10 +1997,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>667755</v>
+        <v>615698</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1969,10 +2008,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>671106</v>
+        <v>657376</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1980,10 +2019,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>608331</v>
+        <v>607067</v>
       </c>
       <c r="C104" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1991,10 +2030,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>656605</v>
+        <v>650911</v>
       </c>
       <c r="C105" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2002,10 +2041,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>680730</v>
+        <v>656849</v>
       </c>
       <c r="C106" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2013,10 +2052,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>592662</v>
+        <v>676106</v>
       </c>
       <c r="C107" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2024,10 +2063,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>686752</v>
+        <v>642547</v>
       </c>
       <c r="C108" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2035,10 +2074,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>543243</v>
+        <v>656550</v>
       </c>
       <c r="C109" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2046,10 +2085,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>669373</v>
+        <v>663623</v>
       </c>
       <c r="C110" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2057,10 +2096,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>641302</v>
+        <v>434378</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2068,10 +2107,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>678368</v>
+        <v>669461</v>
       </c>
       <c r="C112" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2079,10 +2118,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>808967</v>
+        <v>518876</v>
       </c>
       <c r="C113" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2090,10 +2129,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>680684</v>
+        <v>650633</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2101,10 +2140,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>682990</v>
+        <v>608379</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2112,10 +2151,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>663554</v>
+        <v>694973</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2123,10 +2162,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>621244</v>
+        <v>656557</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2134,10 +2173,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>673540</v>
+        <v>641816</v>
       </c>
       <c r="C118" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2145,10 +2184,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>607536</v>
+        <v>579328</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2156,10 +2195,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>669358</v>
+        <v>695549</v>
       </c>
       <c r="C120" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2167,10 +2206,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>680573</v>
+        <v>801403</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2178,10 +2217,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>592836</v>
+        <v>687473</v>
       </c>
       <c r="C122" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2189,10 +2228,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>682052</v>
+        <v>669713</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2200,10 +2239,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>641927</v>
+        <v>570632</v>
       </c>
       <c r="C124" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2211,21 +2250,18 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>668909</v>
+        <v>608337</v>
       </c>
       <c r="C125" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
-      <c r="B126">
-        <v>656427</v>
-      </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2233,10 +2269,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>571578</v>
+        <v>641154</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2244,10 +2280,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>663372</v>
+        <v>680732</v>
       </c>
       <c r="C128" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2255,10 +2291,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>592866</v>
+        <v>607625</v>
       </c>
       <c r="C129" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2266,10 +2302,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>608372</v>
+        <v>664062</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2277,10 +2313,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>471911</v>
+        <v>542881</v>
       </c>
       <c r="C131" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2288,10 +2324,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>543294</v>
+        <v>668678</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2299,10 +2335,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>669302</v>
+        <v>554430</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2310,10 +2346,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>663559</v>
+        <v>695418</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2321,10 +2357,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>694297</v>
+        <v>682243</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2332,10 +2368,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>663436</v>
+        <v>669387</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2343,10 +2379,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>663855</v>
+        <v>656288</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2354,10 +2390,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>500779</v>
+        <v>689017</v>
       </c>
       <c r="C138" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2365,10 +2401,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>663460</v>
+        <v>622663</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2376,10 +2412,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>674370</v>
+        <v>571510</v>
       </c>
       <c r="C140" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2387,10 +2423,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>641793</v>
+        <v>571945</v>
       </c>
       <c r="C141" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2398,10 +2434,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>686249</v>
+        <v>601713</v>
       </c>
       <c r="C142" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2409,10 +2445,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669203</v>
+        <v>669854</v>
       </c>
       <c r="C143" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2420,10 +2456,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>669372</v>
+        <v>669194</v>
       </c>
       <c r="C144" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2431,10 +2467,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>527048</v>
+        <v>645261</v>
       </c>
       <c r="C145" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2442,10 +2478,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>690928</v>
+        <v>668964</v>
       </c>
       <c r="C146" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2453,10 +2489,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>450203</v>
+        <v>676508</v>
       </c>
       <c r="C147" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2464,10 +2500,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>686613</v>
+        <v>665795</v>
       </c>
       <c r="C148" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2475,10 +2511,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>592332</v>
+        <v>608566</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2486,10 +2522,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>689017</v>
+        <v>502043</v>
       </c>
       <c r="C150" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2497,10 +2533,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>622491</v>
+        <v>681857</v>
       </c>
       <c r="C151" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2508,10 +2544,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>666157</v>
+        <v>684007</v>
       </c>
       <c r="C152" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2519,10 +2555,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>681190</v>
+        <v>694918</v>
       </c>
       <c r="C153" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2530,10 +2566,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>680885</v>
+        <v>668881</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2541,10 +2577,142 @@
         <v>155</v>
       </c>
       <c r="B155">
+        <v>641302</v>
+      </c>
+      <c r="C155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>663554</v>
+      </c>
+      <c r="C156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>592836</v>
+      </c>
+      <c r="C157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>682052</v>
+      </c>
+      <c r="C158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>663372</v>
+      </c>
+      <c r="C159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>471911</v>
+      </c>
+      <c r="C160" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>669302</v>
+      </c>
+      <c r="C161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>500779</v>
+      </c>
+      <c r="C162" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>686249</v>
+      </c>
+      <c r="C163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>669372</v>
+      </c>
+      <c r="C164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>527048</v>
+      </c>
+      <c r="C165" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>450203</v>
+      </c>
+      <c r="C166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
         <v>621111</v>
       </c>
-      <c r="C155" t="s">
-        <v>156</v>
+      <c r="C167" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="174">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,90 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Carmen Mlodzinski</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Kyle Gibson</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Pablo López</t>
+  </si>
+  <si>
+    <t>Reese Olson</t>
+  </si>
+  <si>
+    <t>Ronel Blanco</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Tobias Myers</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Chase Petty</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
@@ -325,9 +409,6 @@
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
     <t>Colin Rea</t>
   </si>
   <si>
@@ -337,18 +418,9 @@
     <t>David Peterson</t>
   </si>
   <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
     <t>Freddy Peralta</t>
   </si>
   <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
@@ -370,9 +442,6 @@
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
     <t>Yusei Kikuchi</t>
   </si>
   <si>
@@ -391,85 +460,28 @@
     <t>José Ureña</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Pablo López</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
     <t>Seth Lugo</t>
   </si>
   <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
     <t>Brad Lord</t>
   </si>
   <si>
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Carmen Mlodzinski</t>
-  </si>
-  <si>
-    <t>Griffin Canning</t>
-  </si>
-  <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Ronel Blanco</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Tobias Myers</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
   </si>
   <si>
     <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Kyle Gibson</t>
-  </si>
-  <si>
-    <t>Reese Olson</t>
   </si>
   <si>
     <t>Shota Imanaga</t>
@@ -881,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -903,10 +915,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>669467</v>
+        <v>669387</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -914,10 +926,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>571760</v>
+        <v>657376</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -925,81 +937,81 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>670102</v>
+        <v>477132</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>663903</v>
-      </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>700249</v>
+        <v>676106</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>607074</v>
+        <v>608566</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>519242</v>
+        <v>656550</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>666142</v>
+        <v>656288</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>663623</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>669203</v>
-      </c>
-      <c r="C10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="B11">
+        <v>502043</v>
+      </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1007,10 +1019,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>676979</v>
+        <v>689017</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1018,10 +1030,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>656427</v>
+        <v>608337</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1029,10 +1041,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>686799</v>
+        <v>622663</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1040,10 +1052,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>657746</v>
+        <v>571510</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1051,10 +1063,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>676664</v>
+        <v>571945</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1062,10 +1074,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>657277</v>
+        <v>601713</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1073,10 +1085,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>669022</v>
+        <v>641154</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1084,10 +1096,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>676974</v>
+        <v>681857</v>
       </c>
       <c r="C19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1095,10 +1107,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>543135</v>
+        <v>669854</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1106,10 +1118,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>624133</v>
+        <v>645261</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1117,10 +1129,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>671737</v>
+        <v>680732</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1128,10 +1140,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>676440</v>
+        <v>677944</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1139,10 +1151,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>656731</v>
+        <v>668964</v>
       </c>
       <c r="C24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1150,10 +1162,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>681343</v>
+        <v>542881</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1161,10 +1173,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>694477</v>
+        <v>641816</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1172,10 +1184,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>663568</v>
+        <v>668678</v>
       </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1183,10 +1195,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>688138</v>
+        <v>554430</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1194,10 +1206,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>690990</v>
+        <v>695534</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1205,10 +1217,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>687223</v>
+        <v>702070</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1216,10 +1228,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>700363</v>
+        <v>669467</v>
       </c>
       <c r="C31" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1227,10 +1239,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>669060</v>
+        <v>571760</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1238,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>663978</v>
+        <v>670102</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1249,10 +1261,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>686613</v>
+        <v>663903</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1260,10 +1272,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>594798</v>
+        <v>700249</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1271,10 +1283,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>592332</v>
+        <v>607074</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1282,10 +1294,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>607259</v>
+        <v>519242</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1293,10 +1305,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1304,10 +1316,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>592866</v>
+        <v>669203</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1315,10 +1327,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>641793</v>
+        <v>676979</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1326,10 +1338,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>608372</v>
+        <v>656427</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1337,10 +1349,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>669422</v>
+        <v>686799</v>
       </c>
       <c r="C42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1348,10 +1360,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>605400</v>
+        <v>657746</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1359,10 +1371,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>663559</v>
+        <v>676664</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1370,10 +1382,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>641927</v>
+        <v>657277</v>
       </c>
       <c r="C45" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1381,10 +1393,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>693821</v>
+        <v>669022</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1392,10 +1404,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>694646</v>
+        <v>676974</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1403,10 +1415,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>605135</v>
+        <v>543135</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1414,10 +1426,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>663436</v>
+        <v>624133</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1425,10 +1437,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>665152</v>
+        <v>671737</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1436,10 +1448,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>593958</v>
+        <v>676440</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1447,10 +1459,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>607200</v>
+        <v>656731</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1458,10 +1470,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>668909</v>
+        <v>681343</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1469,10 +1481,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>592791</v>
+        <v>694477</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1480,10 +1492,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>666200</v>
+        <v>663568</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1491,10 +1503,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>663855</v>
+        <v>688138</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1502,10 +1514,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>543294</v>
+        <v>690990</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1513,10 +1525,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>622491</v>
+        <v>687223</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1524,10 +1536,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>547179</v>
+        <v>700363</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1535,10 +1547,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>680730</v>
+        <v>669060</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1546,10 +1558,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>666157</v>
+        <v>663978</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1557,10 +1569,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>571578</v>
+        <v>686613</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1568,10 +1580,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>681190</v>
+        <v>594798</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1579,10 +1591,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>686752</v>
+        <v>592332</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1590,10 +1602,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>677960</v>
+        <v>607259</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1601,10 +1613,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>680573</v>
+        <v>674370</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1612,10 +1624,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>543243</v>
+        <v>592866</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1623,10 +1635,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>669373</v>
+        <v>641793</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1634,10 +1646,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>701542</v>
+        <v>608372</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1645,10 +1657,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>808967</v>
+        <v>669422</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1656,10 +1668,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>690928</v>
+        <v>605400</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1667,10 +1679,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>680684</v>
+        <v>663559</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1678,10 +1690,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>701656</v>
+        <v>641927</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1689,10 +1701,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>676467</v>
+        <v>693821</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1700,10 +1712,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>671096</v>
+        <v>694646</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1711,10 +1723,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>676962</v>
+        <v>605135</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1722,10 +1734,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>694297</v>
+        <v>663436</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1733,10 +1745,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>678394</v>
+        <v>665152</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1744,10 +1756,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>693433</v>
+        <v>593958</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1755,10 +1767,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>656302</v>
+        <v>607200</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1766,10 +1778,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>664285</v>
+        <v>668909</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1777,10 +1789,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>683004</v>
+        <v>592791</v>
       </c>
       <c r="C82" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1788,10 +1800,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>605488</v>
+        <v>666200</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1799,10 +1811,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>686563</v>
+        <v>663855</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1810,10 +1822,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>621244</v>
+        <v>543294</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1821,10 +1833,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>667755</v>
+        <v>622491</v>
       </c>
       <c r="C86" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1832,10 +1844,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>672456</v>
+        <v>547179</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1843,10 +1855,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>673540</v>
+        <v>680730</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1854,10 +1866,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>663460</v>
+        <v>666157</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1865,10 +1877,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>607536</v>
+        <v>571578</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1876,10 +1888,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>689017</v>
+        <v>681190</v>
       </c>
       <c r="C91" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1887,10 +1899,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>671106</v>
+        <v>686752</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1898,10 +1910,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>608331</v>
+        <v>677960</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1909,10 +1921,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>647336</v>
+        <v>680573</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1920,10 +1932,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>656605</v>
+        <v>543243</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1931,10 +1943,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>682990</v>
+        <v>669373</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1942,10 +1954,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>592662</v>
+        <v>701542</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1953,10 +1965,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>669358</v>
+        <v>808967</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1964,10 +1976,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>680885</v>
+        <v>690928</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1975,10 +1987,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>678368</v>
+        <v>680684</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1986,10 +1998,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>594902</v>
+        <v>701656</v>
       </c>
       <c r="C101" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1997,10 +2009,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>615698</v>
+        <v>676467</v>
       </c>
       <c r="C102" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2008,10 +2020,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>657376</v>
+        <v>671096</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2019,10 +2031,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>607067</v>
+        <v>676962</v>
       </c>
       <c r="C104" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2030,10 +2042,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>650911</v>
+        <v>694297</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2041,10 +2053,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656849</v>
+        <v>678394</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2052,10 +2064,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>676106</v>
+        <v>693433</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2063,10 +2075,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>642547</v>
+        <v>656302</v>
       </c>
       <c r="C108" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2074,10 +2086,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>656550</v>
+        <v>664285</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2085,10 +2097,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>663623</v>
+        <v>683004</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2096,10 +2108,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>434378</v>
+        <v>605488</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2107,10 +2119,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>669461</v>
+        <v>686563</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2118,10 +2130,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>518876</v>
+        <v>621244</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2129,10 +2141,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>650633</v>
+        <v>667755</v>
       </c>
       <c r="C114" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2140,10 +2152,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>608379</v>
+        <v>672456</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2151,10 +2163,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>694973</v>
+        <v>673540</v>
       </c>
       <c r="C116" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2162,10 +2174,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>656557</v>
+        <v>663460</v>
       </c>
       <c r="C117" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2173,10 +2185,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>641816</v>
+        <v>607536</v>
       </c>
       <c r="C118" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2184,10 +2196,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>579328</v>
+        <v>689017</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2195,10 +2207,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>695549</v>
+        <v>671106</v>
       </c>
       <c r="C120" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2206,10 +2218,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>801403</v>
+        <v>608331</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2217,10 +2229,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>687473</v>
+        <v>647336</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2228,10 +2240,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>669713</v>
+        <v>656605</v>
       </c>
       <c r="C123" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2239,10 +2251,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>570632</v>
+        <v>682990</v>
       </c>
       <c r="C124" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2250,18 +2262,21 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>608337</v>
+        <v>592662</v>
       </c>
       <c r="C125" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>126</v>
       </c>
+      <c r="B126">
+        <v>669358</v>
+      </c>
       <c r="C126" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2269,10 +2284,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>641154</v>
+        <v>680885</v>
       </c>
       <c r="C127" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2280,10 +2295,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>680732</v>
+        <v>678368</v>
       </c>
       <c r="C128" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2291,10 +2306,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>607625</v>
+        <v>594902</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2302,10 +2317,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>664062</v>
+        <v>615698</v>
       </c>
       <c r="C130" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2313,10 +2328,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>542881</v>
+        <v>607067</v>
       </c>
       <c r="C131" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2324,10 +2339,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>668678</v>
+        <v>650911</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2335,10 +2350,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>554430</v>
+        <v>656849</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2346,10 +2361,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>695418</v>
+        <v>642547</v>
       </c>
       <c r="C134" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2357,10 +2372,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>682243</v>
+        <v>434378</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2368,10 +2383,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>669387</v>
+        <v>669461</v>
       </c>
       <c r="C136" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2379,10 +2394,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>656288</v>
+        <v>518876</v>
       </c>
       <c r="C137" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2390,10 +2405,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>689017</v>
+        <v>650633</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2401,10 +2416,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>622663</v>
+        <v>608379</v>
       </c>
       <c r="C139" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2412,10 +2427,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>571510</v>
+        <v>694973</v>
       </c>
       <c r="C140" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2423,10 +2438,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>571945</v>
+        <v>656557</v>
       </c>
       <c r="C141" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2434,10 +2449,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>601713</v>
+        <v>579328</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2445,10 +2460,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669854</v>
+        <v>695549</v>
       </c>
       <c r="C143" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2456,10 +2471,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>669194</v>
+        <v>801403</v>
       </c>
       <c r="C144" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2467,10 +2482,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>645261</v>
+        <v>687473</v>
       </c>
       <c r="C145" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2478,10 +2493,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>668964</v>
+        <v>669713</v>
       </c>
       <c r="C146" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2489,21 +2504,18 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>676508</v>
+        <v>570632</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
-      <c r="B148">
-        <v>665795</v>
-      </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2511,10 +2523,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>608566</v>
+        <v>607625</v>
       </c>
       <c r="C149" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2522,10 +2534,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>502043</v>
+        <v>664062</v>
       </c>
       <c r="C150" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2533,10 +2545,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>681857</v>
+        <v>695418</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2544,10 +2556,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>684007</v>
+        <v>682243</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2555,10 +2567,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>694918</v>
+        <v>669194</v>
       </c>
       <c r="C153" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2566,10 +2578,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>668881</v>
+        <v>676508</v>
       </c>
       <c r="C154" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2577,10 +2589,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>641302</v>
+        <v>665795</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2588,10 +2600,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>663554</v>
+        <v>684007</v>
       </c>
       <c r="C156" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2599,10 +2611,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>592836</v>
+        <v>694918</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2610,10 +2622,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>682052</v>
+        <v>668881</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2621,10 +2633,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C159" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2632,10 +2644,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>471911</v>
+        <v>663554</v>
       </c>
       <c r="C160" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2643,10 +2655,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>669302</v>
+        <v>592836</v>
       </c>
       <c r="C161" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2654,10 +2666,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>500779</v>
+        <v>682052</v>
       </c>
       <c r="C162" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2665,10 +2677,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C163" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2676,10 +2688,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>669372</v>
+        <v>471911</v>
       </c>
       <c r="C164" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2687,10 +2699,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>527048</v>
+        <v>669302</v>
       </c>
       <c r="C165" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2698,10 +2710,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>450203</v>
+        <v>500779</v>
       </c>
       <c r="C166" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2709,10 +2721,54 @@
         <v>167</v>
       </c>
       <c r="B167">
+        <v>686249</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>669372</v>
+      </c>
+      <c r="C168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>527048</v>
+      </c>
+      <c r="C169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>450203</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
         <v>621111</v>
       </c>
-      <c r="C167" t="s">
-        <v>168</v>
+      <c r="C171" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,168 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Landon Knack</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Michael King</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
@@ -235,9 +397,6 @@
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
@@ -247,12 +406,6 @@
     <t>Chris Bassitt</t>
   </si>
   <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
@@ -274,36 +427,24 @@
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
     <t>Mitchell Parker</t>
   </si>
   <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
     <t>Patrick Corbin</t>
   </si>
   <si>
     <t>Randy Vásquez</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Ryan Weathers</t>
   </si>
   <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
@@ -313,144 +454,24 @@
     <t>Yoshinobu Yamamoto</t>
   </si>
   <si>
-    <t>Hunter Dobbins</t>
-  </si>
-  <si>
     <t>Gunnar Hoglund</t>
   </si>
   <si>
     <t>Logan Henderson</t>
   </si>
   <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
     <t>Valente Bellozo</t>
   </si>
   <si>
     <t>Ben Lively</t>
   </si>
   <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Michael King</t>
-  </si>
-  <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Jackson Jobe</t>
-  </si>
-  <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
     <t>Ryan Gusto</t>
   </si>
   <si>
@@ -460,15 +481,9 @@
     <t>José Ureña</t>
   </si>
   <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
     <t>Seth Lugo</t>
   </si>
   <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
     <t>Brad Lord</t>
   </si>
   <si>
@@ -481,9 +496,6 @@
     <t>Ben Casparius</t>
   </si>
   <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
     <t>Shota Imanaga</t>
   </si>
   <si>
@@ -518,9 +530,6 @@
   </si>
   <si>
     <t>Nathan Wiles</t>
-  </si>
-  <si>
-    <t>J T Ginn</t>
   </si>
   <si>
     <t>Martín Pérez</t>
@@ -893,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>669387</v>
+        <v>641927</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -926,10 +935,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>657376</v>
+        <v>676962</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -937,609 +946,606 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>477132</v>
+        <v>694297</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>650911</v>
+      </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>676106</v>
+        <v>663436</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>608566</v>
+        <v>665152</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>656550</v>
+        <v>665795</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>656288</v>
+        <v>669372</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>663623</v>
+        <v>667755</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>502043</v>
+        <v>672456</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>689017</v>
+        <v>673540</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>608337</v>
+        <v>663460</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>622663</v>
+        <v>607536</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>571510</v>
+        <v>689017</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>571945</v>
+        <v>671106</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>601713</v>
+        <v>622491</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>641154</v>
+        <v>656605</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>681857</v>
+        <v>666157</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>669854</v>
+        <v>682990</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>645261</v>
+        <v>592662</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>680732</v>
+        <v>686752</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>677944</v>
+        <v>543243</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>668964</v>
+        <v>690928</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>542881</v>
+        <v>676467</v>
       </c>
       <c r="C25" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>641816</v>
+        <v>671096</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>668678</v>
+        <v>678394</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>554430</v>
+        <v>693433</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>695534</v>
+        <v>615698</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>702070</v>
+        <v>607067</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>669467</v>
+        <v>656849</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>571760</v>
+        <v>664285</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>670102</v>
+        <v>642547</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>663903</v>
+        <v>683004</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>700249</v>
+        <v>605488</v>
       </c>
       <c r="C35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>607074</v>
+        <v>686563</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>519242</v>
+        <v>621244</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>666142</v>
+        <v>434378</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>669203</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>676979</v>
+        <v>669461</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>656427</v>
+        <v>608331</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>686799</v>
+        <v>518876</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>657746</v>
+        <v>650633</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>676664</v>
+        <v>647336</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>657277</v>
+        <v>608379</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>669022</v>
+        <v>694973</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>676974</v>
+        <v>669358</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>543135</v>
+        <v>680885</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>624133</v>
+        <v>664062</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>671737</v>
+        <v>579328</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>676440</v>
+        <v>621107</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>656731</v>
+        <v>805673</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>681343</v>
+        <v>695549</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>694477</v>
+        <v>801403</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>663568</v>
+        <v>690953</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>688138</v>
+        <v>669387</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>690990</v>
+        <v>657376</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>687223</v>
+        <v>477132</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59">
-        <v>700363</v>
-      </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1547,10 +1553,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>669060</v>
+        <v>676106</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1558,10 +1564,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>663978</v>
+        <v>608566</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1569,10 +1575,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>686613</v>
+        <v>656550</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1580,10 +1586,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>594798</v>
+        <v>656288</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1591,10 +1597,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>592332</v>
+        <v>663623</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1602,10 +1608,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>607259</v>
+        <v>502043</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1613,10 +1619,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>674370</v>
+        <v>689017</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1624,10 +1630,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>592866</v>
+        <v>608337</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1635,10 +1641,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>641793</v>
+        <v>622663</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1646,10 +1652,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>608372</v>
+        <v>571510</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1657,10 +1663,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>669422</v>
+        <v>571945</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1668,10 +1674,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>605400</v>
+        <v>601713</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1679,10 +1685,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>663559</v>
+        <v>641154</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1690,10 +1696,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>641927</v>
+        <v>681857</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1701,10 +1707,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>693821</v>
+        <v>669854</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1712,10 +1718,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>694646</v>
+        <v>645261</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1723,10 +1729,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>605135</v>
+        <v>680732</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1734,10 +1740,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>663436</v>
+        <v>677944</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1745,10 +1751,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>665152</v>
+        <v>668964</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1756,10 +1762,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>593958</v>
+        <v>542881</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1767,10 +1773,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>607200</v>
+        <v>641816</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1778,10 +1784,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>668909</v>
+        <v>668678</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1789,10 +1795,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>592791</v>
+        <v>554430</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1800,10 +1806,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>666200</v>
+        <v>695534</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1811,10 +1817,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>663855</v>
+        <v>702070</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1822,10 +1828,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>543294</v>
+        <v>669467</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1833,10 +1839,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>622491</v>
+        <v>571760</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1844,10 +1850,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>547179</v>
+        <v>670102</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1855,10 +1861,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>680730</v>
+        <v>663903</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1866,10 +1872,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>666157</v>
+        <v>700249</v>
       </c>
       <c r="C89" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1877,10 +1883,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>571578</v>
+        <v>607074</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1888,10 +1894,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>681190</v>
+        <v>519242</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1899,10 +1905,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>686752</v>
+        <v>666142</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1910,10 +1916,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>677960</v>
+        <v>669203</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1921,10 +1927,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>680573</v>
+        <v>676979</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1932,10 +1938,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>543243</v>
+        <v>656427</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1943,10 +1949,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>669373</v>
+        <v>686799</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1954,10 +1960,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>701542</v>
+        <v>657746</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1965,10 +1971,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>808967</v>
+        <v>676664</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1976,10 +1982,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>690928</v>
+        <v>657277</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1987,10 +1993,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>680684</v>
+        <v>669022</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1998,10 +2004,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>701656</v>
+        <v>676974</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2009,10 +2015,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>676467</v>
+        <v>543135</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2020,10 +2026,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>671096</v>
+        <v>624133</v>
       </c>
       <c r="C103" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2031,10 +2037,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>676962</v>
+        <v>671737</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2042,10 +2048,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>694297</v>
+        <v>676440</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2053,10 +2059,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>678394</v>
+        <v>656731</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2064,10 +2070,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>693433</v>
+        <v>681343</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2075,10 +2081,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>656302</v>
+        <v>694477</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2086,10 +2092,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>664285</v>
+        <v>663568</v>
       </c>
       <c r="C109" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2097,10 +2103,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>683004</v>
+        <v>688138</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2108,10 +2114,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>605488</v>
+        <v>690990</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2119,10 +2125,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>686563</v>
+        <v>687223</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2130,10 +2136,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>621244</v>
+        <v>700363</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2141,10 +2147,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>667755</v>
+        <v>669060</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2152,10 +2158,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>672456</v>
+        <v>663978</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2163,10 +2169,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>673540</v>
+        <v>686613</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2174,10 +2180,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>663460</v>
+        <v>594798</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2185,10 +2191,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>607536</v>
+        <v>592332</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2196,10 +2202,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>689017</v>
+        <v>607259</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2207,10 +2213,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>671106</v>
+        <v>674370</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2218,10 +2224,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>608331</v>
+        <v>592866</v>
       </c>
       <c r="C121" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2229,10 +2235,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>647336</v>
+        <v>641793</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2240,10 +2246,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>656605</v>
+        <v>608372</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2251,10 +2257,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>682990</v>
+        <v>669422</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2262,10 +2268,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>592662</v>
+        <v>605400</v>
       </c>
       <c r="C125" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2273,10 +2279,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>669358</v>
+        <v>663559</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2284,10 +2290,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>680885</v>
+        <v>693821</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2295,10 +2301,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>678368</v>
+        <v>694646</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2306,10 +2312,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>594902</v>
+        <v>605135</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2317,10 +2323,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>615698</v>
+        <v>593958</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2328,10 +2334,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>607067</v>
+        <v>607200</v>
       </c>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2339,10 +2345,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>650911</v>
+        <v>668909</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2350,10 +2356,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>656849</v>
+        <v>592791</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2361,10 +2367,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>642547</v>
+        <v>666200</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2372,10 +2378,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>434378</v>
+        <v>663855</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2383,10 +2389,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>669461</v>
+        <v>543294</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2394,10 +2400,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>518876</v>
+        <v>547179</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2405,10 +2411,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>650633</v>
+        <v>680730</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2416,10 +2422,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>608379</v>
+        <v>571578</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2427,10 +2433,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>694973</v>
+        <v>681190</v>
       </c>
       <c r="C140" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2438,10 +2444,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>656557</v>
+        <v>677960</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2449,10 +2455,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>579328</v>
+        <v>680573</v>
       </c>
       <c r="C142" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2460,10 +2466,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>695549</v>
+        <v>669373</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2471,10 +2477,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>801403</v>
+        <v>701542</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2482,10 +2488,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>687473</v>
+        <v>808967</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2493,10 +2499,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>669713</v>
+        <v>680684</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2504,18 +2510,21 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>570632</v>
+        <v>701656</v>
       </c>
       <c r="C147" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
+      <c r="B148">
+        <v>656302</v>
+      </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2523,10 +2532,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>607625</v>
+        <v>678368</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2534,10 +2543,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>664062</v>
+        <v>594902</v>
       </c>
       <c r="C150" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2545,10 +2554,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C151" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2556,10 +2565,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>682243</v>
+        <v>687473</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2567,10 +2576,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669194</v>
+        <v>669713</v>
       </c>
       <c r="C153" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2578,10 +2587,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>676508</v>
+        <v>570632</v>
       </c>
       <c r="C154" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2589,10 +2598,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>665795</v>
+        <v>607625</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2600,10 +2609,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>684007</v>
+        <v>695418</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2611,10 +2620,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>694918</v>
+        <v>682243</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2622,10 +2631,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>668881</v>
+        <v>669194</v>
       </c>
       <c r="C158" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2633,10 +2642,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>641302</v>
+        <v>676508</v>
       </c>
       <c r="C159" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2644,10 +2653,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>663554</v>
+        <v>684007</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2655,10 +2664,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>592836</v>
+        <v>694918</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2666,10 +2675,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>682052</v>
+        <v>668881</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2677,10 +2686,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2688,10 +2697,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>471911</v>
+        <v>663554</v>
       </c>
       <c r="C164" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2699,10 +2708,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>669302</v>
+        <v>592836</v>
       </c>
       <c r="C165" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2710,10 +2719,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>500779</v>
+        <v>682052</v>
       </c>
       <c r="C166" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2721,10 +2730,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C167" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2732,10 +2741,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>669372</v>
+        <v>471911</v>
       </c>
       <c r="C168" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2743,10 +2752,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>527048</v>
+        <v>669302</v>
       </c>
       <c r="C169" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2754,10 +2763,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>450203</v>
+        <v>500779</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2765,10 +2774,43 @@
         <v>171</v>
       </c>
       <c r="B171">
+        <v>686249</v>
+      </c>
+      <c r="C171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>527048</v>
+      </c>
+      <c r="C172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>450203</v>
+      </c>
+      <c r="C173" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
         <v>621111</v>
       </c>
-      <c r="C171" t="s">
-        <v>172</v>
+      <c r="C174" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,87 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Brandon Walter</t>
+  </si>
+  <si>
+    <t>Bryse Wilson</t>
+  </si>
+  <si>
+    <t>Chayce McDermott</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>Logan Henderson</t>
+  </si>
+  <si>
     <t>Bailey Ober</t>
   </si>
   <si>
@@ -358,12 +439,6 @@
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
-    <t>Bryse Wilson</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
@@ -373,18 +448,12 @@
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
     <t>Osvaldo Bido</t>
   </si>
   <si>
     <t>Trevor Williams</t>
   </si>
   <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
     <t>Tomoyuki Sugano</t>
   </si>
   <si>
@@ -394,75 +463,21 @@
     <t>Aaron Nola</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
-    <t>Chayce McDermott</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
     <t>Jordan Hicks</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Randy Vásquez</t>
   </si>
   <si>
-    <t>Ryan Weathers</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Gunnar Hoglund</t>
-  </si>
-  <si>
-    <t>Logan Henderson</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Valente Bellozo</t>
   </si>
   <si>
@@ -490,9 +505,6 @@
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
   </si>
   <si>
@@ -536,9 +548,6 @@
   </si>
   <si>
     <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
   </si>
   <si>
     <t>RHP</t>
@@ -902,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -920,632 +929,635 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>641927</v>
-      </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>676962</v>
+        <v>663559</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>694297</v>
+        <v>687888</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>650911</v>
+        <v>669060</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>663436</v>
+        <v>694646</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>665152</v>
+        <v>605135</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>665795</v>
+        <v>663978</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>669372</v>
+        <v>656302</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>667755</v>
+        <v>607200</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>672456</v>
+        <v>668909</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>673540</v>
+        <v>806185</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>663460</v>
+        <v>592791</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>607536</v>
+        <v>666200</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>689017</v>
+        <v>543294</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>671106</v>
+        <v>547179</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>622491</v>
+        <v>680730</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>656605</v>
+        <v>607259</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>666157</v>
+        <v>571578</v>
       </c>
       <c r="C19" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>682990</v>
+        <v>677960</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>592662</v>
+        <v>669194</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>686752</v>
+        <v>675911</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>543243</v>
+        <v>669373</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>690928</v>
+        <v>621111</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>676467</v>
+        <v>701542</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>671096</v>
+        <v>808967</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>678394</v>
+        <v>641793</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>693433</v>
+        <v>680684</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>615698</v>
+        <v>701656</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>607067</v>
+        <v>641927</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>656849</v>
+        <v>676962</v>
       </c>
       <c r="C31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>664285</v>
+        <v>694297</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>642547</v>
+        <v>650911</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>683004</v>
+        <v>663436</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>605488</v>
+        <v>665152</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>686563</v>
+        <v>665795</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>621244</v>
+        <v>669372</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>434378</v>
+        <v>667755</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>672456</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>669461</v>
+        <v>673540</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>608331</v>
+        <v>663460</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>518876</v>
+        <v>607536</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>650633</v>
+        <v>689017</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>647336</v>
+        <v>671106</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>608379</v>
+        <v>622491</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>694973</v>
+        <v>656605</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>669358</v>
+        <v>666157</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>680885</v>
+        <v>682990</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>664062</v>
+        <v>592662</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>579328</v>
+        <v>686752</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>621107</v>
+        <v>543243</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>805673</v>
+        <v>690928</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>695549</v>
+        <v>676467</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>801403</v>
+        <v>671096</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>690953</v>
+        <v>678394</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>669387</v>
+        <v>693433</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>657376</v>
+        <v>615698</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>607067</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>59</v>
       </c>
-      <c r="B58">
-        <v>477132</v>
-      </c>
-      <c r="C58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="B59">
+        <v>656849</v>
+      </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1553,10 +1565,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>676106</v>
+        <v>664285</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1564,10 +1576,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>608566</v>
+        <v>642547</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1575,10 +1587,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>656550</v>
+        <v>683004</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1586,10 +1598,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>656288</v>
+        <v>605488</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1597,10 +1609,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>663623</v>
+        <v>686563</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1608,10 +1620,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>502043</v>
+        <v>621244</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1619,21 +1631,18 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>689017</v>
+        <v>434378</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>608337</v>
-      </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1641,10 +1650,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>622663</v>
+        <v>669461</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1652,10 +1661,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>571510</v>
+        <v>608331</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1663,10 +1672,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>571945</v>
+        <v>518876</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1674,10 +1683,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>601713</v>
+        <v>650633</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1685,10 +1694,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>641154</v>
+        <v>647336</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1696,10 +1705,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>681857</v>
+        <v>608379</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1707,10 +1716,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>669854</v>
+        <v>694973</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1718,10 +1727,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>645261</v>
+        <v>669358</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1729,10 +1738,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>680732</v>
+        <v>680885</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1740,10 +1749,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>677944</v>
+        <v>664062</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1751,10 +1760,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>668964</v>
+        <v>579328</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1762,10 +1771,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>542881</v>
+        <v>621107</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1773,10 +1782,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>641816</v>
+        <v>805673</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1784,10 +1793,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>668678</v>
+        <v>695549</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1795,10 +1804,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>554430</v>
+        <v>801403</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1806,10 +1815,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>695534</v>
+        <v>690953</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1817,10 +1826,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>702070</v>
+        <v>669387</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1828,10 +1837,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>669467</v>
+        <v>657376</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1839,10 +1848,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>571760</v>
+        <v>477132</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1850,10 +1859,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>670102</v>
+        <v>676106</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1861,10 +1870,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>663903</v>
+        <v>608566</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1872,10 +1881,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>700249</v>
+        <v>656550</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1883,10 +1892,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>607074</v>
+        <v>656288</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1894,10 +1903,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>519242</v>
+        <v>663623</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1905,10 +1914,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>666142</v>
+        <v>502043</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1916,10 +1925,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>669203</v>
+        <v>689017</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1927,10 +1936,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>676979</v>
+        <v>608337</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1938,10 +1947,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>656427</v>
+        <v>622663</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1949,10 +1958,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>686799</v>
+        <v>571510</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1960,10 +1969,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>657746</v>
+        <v>571945</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1971,10 +1980,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>676664</v>
+        <v>601713</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1982,10 +1991,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>657277</v>
+        <v>641154</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1993,10 +2002,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>669022</v>
+        <v>681857</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2004,10 +2013,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>676974</v>
+        <v>669854</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2015,10 +2024,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>543135</v>
+        <v>645261</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2026,10 +2035,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>624133</v>
+        <v>680732</v>
       </c>
       <c r="C103" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2037,10 +2046,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>671737</v>
+        <v>677944</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2048,10 +2057,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>676440</v>
+        <v>668964</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2059,10 +2068,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656731</v>
+        <v>542881</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2070,10 +2079,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>681343</v>
+        <v>641816</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2081,10 +2090,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>694477</v>
+        <v>668678</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2092,10 +2101,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>663568</v>
+        <v>554430</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2103,10 +2112,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>688138</v>
+        <v>695534</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2114,10 +2123,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>690990</v>
+        <v>702070</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2125,10 +2134,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>687223</v>
+        <v>669467</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2136,10 +2145,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>700363</v>
+        <v>571760</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2147,10 +2156,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>669060</v>
+        <v>670102</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2158,10 +2167,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>663978</v>
+        <v>663903</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2169,10 +2178,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>686613</v>
+        <v>700249</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2180,10 +2189,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>594798</v>
+        <v>607074</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2191,10 +2200,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>592332</v>
+        <v>519242</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2202,10 +2211,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>607259</v>
+        <v>666142</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2213,10 +2222,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>674370</v>
+        <v>669203</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2224,10 +2233,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>592866</v>
+        <v>676979</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2235,10 +2244,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>641793</v>
+        <v>656427</v>
       </c>
       <c r="C122" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2246,10 +2255,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>608372</v>
+        <v>686799</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2257,10 +2266,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>669422</v>
+        <v>657746</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2268,10 +2277,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>605400</v>
+        <v>676664</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2279,10 +2288,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>663559</v>
+        <v>657277</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2290,10 +2299,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>693821</v>
+        <v>669022</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2301,10 +2310,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>694646</v>
+        <v>676974</v>
       </c>
       <c r="C128" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2312,10 +2321,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>605135</v>
+        <v>543135</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2323,10 +2332,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>593958</v>
+        <v>624133</v>
       </c>
       <c r="C130" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2334,10 +2343,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>607200</v>
+        <v>671737</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2345,10 +2354,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>668909</v>
+        <v>676440</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2356,10 +2365,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>592791</v>
+        <v>656731</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2367,10 +2376,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>666200</v>
+        <v>681343</v>
       </c>
       <c r="C134" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2378,10 +2387,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>663855</v>
+        <v>694477</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2389,10 +2398,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>543294</v>
+        <v>663568</v>
       </c>
       <c r="C136" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2400,10 +2409,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>547179</v>
+        <v>688138</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2411,10 +2420,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>680730</v>
+        <v>690990</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2422,10 +2431,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>571578</v>
+        <v>687223</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2433,10 +2442,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>681190</v>
+        <v>700363</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2444,10 +2453,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>677960</v>
+        <v>686613</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2455,10 +2464,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>680573</v>
+        <v>594798</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2466,10 +2475,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669373</v>
+        <v>592332</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2477,10 +2486,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>701542</v>
+        <v>674370</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2488,10 +2497,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>808967</v>
+        <v>592866</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2499,10 +2508,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>680684</v>
+        <v>608372</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2510,10 +2519,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>701656</v>
+        <v>669422</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2521,10 +2530,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>656302</v>
+        <v>605400</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2532,10 +2541,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>678368</v>
+        <v>693821</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2543,10 +2552,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>594902</v>
+        <v>593958</v>
       </c>
       <c r="C150" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2554,10 +2563,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2565,10 +2574,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>687473</v>
+        <v>681190</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2576,10 +2585,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669713</v>
+        <v>680573</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2587,10 +2596,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>570632</v>
+        <v>678368</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2598,10 +2607,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>607625</v>
+        <v>594902</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2609,10 +2618,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2620,10 +2629,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>682243</v>
+        <v>687473</v>
       </c>
       <c r="C157" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2631,10 +2640,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>669194</v>
+        <v>669713</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2642,10 +2651,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>676508</v>
+        <v>570632</v>
       </c>
       <c r="C159" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2653,10 +2662,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>684007</v>
+        <v>607625</v>
       </c>
       <c r="C160" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2664,10 +2673,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>694918</v>
+        <v>695418</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2675,10 +2684,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>668881</v>
+        <v>682243</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2686,10 +2695,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>641302</v>
+        <v>676508</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2697,10 +2706,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>663554</v>
+        <v>684007</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2708,10 +2717,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>592836</v>
+        <v>694918</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2719,10 +2728,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>682052</v>
+        <v>668881</v>
       </c>
       <c r="C166" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2730,10 +2739,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C167" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2741,10 +2750,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>471911</v>
+        <v>663554</v>
       </c>
       <c r="C168" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2752,10 +2761,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>669302</v>
+        <v>592836</v>
       </c>
       <c r="C169" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2763,10 +2772,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>500779</v>
+        <v>682052</v>
       </c>
       <c r="C170" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2774,10 +2783,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C171" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2785,10 +2794,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>527048</v>
+        <v>471911</v>
       </c>
       <c r="C172" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2796,10 +2805,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>450203</v>
+        <v>669302</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2807,10 +2816,43 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>621111</v>
+        <v>500779</v>
       </c>
       <c r="C174" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
         <v>175</v>
+      </c>
+      <c r="B175">
+        <v>686249</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>527048</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>450203</v>
+      </c>
+      <c r="C177" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,87 +25,171 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Brant Hurter</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>Daniel Lynch</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
     <t>Brandon Walter</t>
   </si>
   <si>
+    <t>Chayce McDermott</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>Logan Henderson</t>
+  </si>
+  <si>
     <t>Bryse Wilson</t>
   </si>
   <si>
-    <t>Chayce McDermott</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Ryan Weathers</t>
-  </si>
-  <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
-    <t>Gunnar Hoglund</t>
-  </si>
-  <si>
-    <t>Logan Henderson</t>
-  </si>
-  <si>
     <t>Bailey Ober</t>
   </si>
   <si>
@@ -352,18 +436,9 @@
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Bowden Francis</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
@@ -376,87 +451,30 @@
     <t>Cole Ragans</t>
   </si>
   <si>
-    <t>Corbin Burnes</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
     <t>Joe Ryan</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Max Meyer</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
     <t>Ranger Suárez</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
     <t>Tanner Bibee</t>
   </si>
   <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Stephen Kolek</t>
   </si>
   <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
-    <t>AJ Smith-Shawver</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
     <t>Osvaldo Bido</t>
   </si>
   <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Matt Sauer</t>
   </si>
   <si>
@@ -472,9 +490,6 @@
     <t>Jordan Hicks</t>
   </si>
   <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
@@ -521,9 +536,6 @@
   </si>
   <si>
     <t>Casey Mize</t>
-  </si>
-  <si>
-    <t>Taijuan Walker</t>
   </si>
   <si>
     <t>Jacob Lopez</t>
@@ -911,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -929,96 +941,96 @@
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>700363</v>
+      </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>663559</v>
+        <v>669467</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>687888</v>
+        <v>571760</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>669060</v>
+        <v>663903</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>694646</v>
+        <v>676428</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>605135</v>
+        <v>663978</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>663978</v>
+        <v>669203</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>656302</v>
+        <v>663738</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>607200</v>
-      </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1026,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>668909</v>
+        <v>676979</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1037,10 +1049,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>806185</v>
+        <v>668909</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1048,10 +1060,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>592791</v>
+        <v>686613</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1059,10 +1071,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>666200</v>
+        <v>686799</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1070,10 +1082,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>543294</v>
+        <v>594798</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1081,10 +1093,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>547179</v>
+        <v>676664</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1092,10 +1104,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>680730</v>
+        <v>592332</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1103,10 +1115,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>607259</v>
+        <v>657277</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1114,10 +1126,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>571578</v>
+        <v>676974</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1125,10 +1137,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>677960</v>
+        <v>681190</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1136,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>669194</v>
+        <v>642232</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1147,10 +1159,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>675911</v>
+        <v>592836</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1158,10 +1170,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>669373</v>
+        <v>671737</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1169,10 +1181,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>621111</v>
+        <v>592866</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1180,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>701542</v>
+        <v>656731</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1191,10 +1203,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>808967</v>
+        <v>608372</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1202,10 +1214,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>641793</v>
+        <v>681343</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1213,10 +1225,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>680684</v>
+        <v>694477</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1224,10 +1236,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>701656</v>
+        <v>688138</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1235,10 +1247,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>641927</v>
+        <v>690990</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1246,10 +1258,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>676962</v>
+        <v>687223</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1257,10 +1269,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>694297</v>
+        <v>605288</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1268,10 +1280,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>650911</v>
+        <v>663559</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1279,10 +1291,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>663436</v>
+        <v>687888</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1290,10 +1302,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>665152</v>
+        <v>694646</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1301,10 +1313,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>665795</v>
+        <v>605135</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1312,10 +1324,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>669372</v>
+        <v>656302</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1323,10 +1335,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>667755</v>
+        <v>607200</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1334,10 +1346,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>672456</v>
+        <v>806185</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1345,10 +1357,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>673540</v>
+        <v>592791</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1356,10 +1368,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>663460</v>
+        <v>666200</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1367,10 +1379,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>607536</v>
+        <v>543294</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1378,10 +1390,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>689017</v>
+        <v>547179</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1389,10 +1401,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>671106</v>
+        <v>680730</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1400,10 +1412,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>622491</v>
+        <v>607259</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1411,10 +1423,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>656605</v>
+        <v>571578</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1422,10 +1434,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>666157</v>
+        <v>677960</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1433,10 +1445,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>682990</v>
+        <v>669194</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1444,10 +1456,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>592662</v>
+        <v>675911</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1455,10 +1467,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>686752</v>
+        <v>669373</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1466,10 +1478,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>543243</v>
+        <v>621111</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1477,10 +1489,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>690928</v>
+        <v>701542</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1488,10 +1500,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>676467</v>
+        <v>808967</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1499,10 +1511,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>671096</v>
+        <v>641793</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1510,10 +1522,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>678394</v>
+        <v>680684</v>
       </c>
       <c r="C55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1521,10 +1533,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>693433</v>
+        <v>701656</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1532,10 +1544,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>615698</v>
+        <v>669060</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1543,10 +1555,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>607067</v>
+        <v>641927</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1554,10 +1566,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>656849</v>
+        <v>676962</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1565,10 +1577,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>664285</v>
+        <v>694297</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1576,10 +1588,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>642547</v>
+        <v>650911</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1587,10 +1599,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>683004</v>
+        <v>663436</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1598,10 +1610,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>605488</v>
+        <v>665152</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1609,10 +1621,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>686563</v>
+        <v>665795</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1620,10 +1632,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>621244</v>
+        <v>669372</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1631,18 +1643,21 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>434378</v>
+        <v>667755</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
+      <c r="B67">
+        <v>672456</v>
+      </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1650,10 +1665,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>669461</v>
+        <v>673540</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1661,10 +1676,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>608331</v>
+        <v>663460</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1672,10 +1687,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>518876</v>
+        <v>607536</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1683,10 +1698,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>650633</v>
+        <v>689017</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1694,10 +1709,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>647336</v>
+        <v>671106</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1705,10 +1720,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>608379</v>
+        <v>622491</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1716,10 +1731,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>694973</v>
+        <v>656605</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1727,10 +1742,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>669358</v>
+        <v>666157</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1738,10 +1753,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>680885</v>
+        <v>682990</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1749,10 +1764,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>664062</v>
+        <v>592662</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1760,10 +1775,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>579328</v>
+        <v>686752</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1771,10 +1786,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>621107</v>
+        <v>543243</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1782,10 +1797,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>805673</v>
+        <v>690928</v>
       </c>
       <c r="C80" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1793,10 +1808,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>695549</v>
+        <v>676467</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1804,10 +1819,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>801403</v>
+        <v>671096</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1815,10 +1830,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>690953</v>
+        <v>678394</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1826,10 +1841,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>669387</v>
+        <v>693433</v>
       </c>
       <c r="C84" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1837,10 +1852,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>657376</v>
+        <v>615698</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1848,10 +1863,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>477132</v>
+        <v>607067</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1859,10 +1874,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>676106</v>
+        <v>656849</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1870,10 +1885,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>608566</v>
+        <v>664285</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1881,10 +1896,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>656550</v>
+        <v>642547</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1892,10 +1907,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>656288</v>
+        <v>683004</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1903,10 +1918,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>663623</v>
+        <v>605488</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1914,10 +1929,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>502043</v>
+        <v>686563</v>
       </c>
       <c r="C92" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1925,10 +1940,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>689017</v>
+        <v>621244</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1936,21 +1951,18 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>608337</v>
+        <v>434378</v>
       </c>
       <c r="C94" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>622663</v>
-      </c>
       <c r="C95" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1958,10 +1970,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>571510</v>
+        <v>669461</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1969,10 +1981,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>571945</v>
+        <v>608331</v>
       </c>
       <c r="C97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1980,10 +1992,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>601713</v>
+        <v>518876</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1991,10 +2003,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>641154</v>
+        <v>650633</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2002,10 +2014,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>681857</v>
+        <v>647336</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2013,10 +2025,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>669854</v>
+        <v>608379</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2024,10 +2036,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>645261</v>
+        <v>694973</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2035,10 +2047,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>680732</v>
+        <v>669358</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2046,10 +2058,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>677944</v>
+        <v>680885</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2057,10 +2069,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>668964</v>
+        <v>664062</v>
       </c>
       <c r="C105" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2068,10 +2080,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>542881</v>
+        <v>579328</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2079,10 +2091,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>641816</v>
+        <v>621107</v>
       </c>
       <c r="C107" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2090,10 +2102,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>668678</v>
+        <v>805673</v>
       </c>
       <c r="C108" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2101,10 +2113,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>554430</v>
+        <v>695549</v>
       </c>
       <c r="C109" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2112,10 +2124,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>695534</v>
+        <v>801403</v>
       </c>
       <c r="C110" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2123,10 +2135,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>702070</v>
+        <v>690953</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2134,10 +2146,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>669467</v>
+        <v>669387</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2145,10 +2157,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>571760</v>
+        <v>657376</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2156,10 +2168,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>670102</v>
+        <v>477132</v>
       </c>
       <c r="C114" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2167,10 +2179,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>663903</v>
+        <v>676106</v>
       </c>
       <c r="C115" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2178,10 +2190,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>700249</v>
+        <v>608566</v>
       </c>
       <c r="C116" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2189,10 +2201,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>607074</v>
+        <v>656550</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2200,10 +2212,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>519242</v>
+        <v>656288</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2211,10 +2223,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>666142</v>
+        <v>663623</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2222,10 +2234,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>669203</v>
+        <v>502043</v>
       </c>
       <c r="C120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2233,10 +2245,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>676979</v>
+        <v>689017</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2244,10 +2256,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>656427</v>
+        <v>608337</v>
       </c>
       <c r="C122" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2255,10 +2267,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>686799</v>
+        <v>622663</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2266,10 +2278,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>657746</v>
+        <v>571510</v>
       </c>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2277,10 +2289,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>676664</v>
+        <v>571945</v>
       </c>
       <c r="C125" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2288,10 +2300,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>657277</v>
+        <v>601713</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2299,10 +2311,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>669022</v>
+        <v>641154</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2310,10 +2322,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>676974</v>
+        <v>681857</v>
       </c>
       <c r="C128" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2321,10 +2333,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>543135</v>
+        <v>669854</v>
       </c>
       <c r="C129" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2332,10 +2344,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>624133</v>
+        <v>645261</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2343,10 +2355,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>671737</v>
+        <v>680732</v>
       </c>
       <c r="C131" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2354,10 +2366,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>676440</v>
+        <v>677944</v>
       </c>
       <c r="C132" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2365,10 +2377,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>656731</v>
+        <v>668964</v>
       </c>
       <c r="C133" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2376,10 +2388,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>681343</v>
+        <v>542881</v>
       </c>
       <c r="C134" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2387,10 +2399,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>694477</v>
+        <v>641816</v>
       </c>
       <c r="C135" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2398,10 +2410,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>663568</v>
+        <v>668678</v>
       </c>
       <c r="C136" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2409,10 +2421,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>688138</v>
+        <v>554430</v>
       </c>
       <c r="C137" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2420,10 +2432,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>690990</v>
+        <v>695534</v>
       </c>
       <c r="C138" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2431,10 +2443,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>687223</v>
+        <v>702070</v>
       </c>
       <c r="C139" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2442,10 +2454,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>700363</v>
+        <v>670102</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2453,10 +2465,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>686613</v>
+        <v>700249</v>
       </c>
       <c r="C141" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2464,10 +2476,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>594798</v>
+        <v>607074</v>
       </c>
       <c r="C142" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2475,10 +2487,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>592332</v>
+        <v>519242</v>
       </c>
       <c r="C143" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2486,10 +2498,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C144" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2497,10 +2509,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>592866</v>
+        <v>656427</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2508,10 +2520,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>608372</v>
+        <v>657746</v>
       </c>
       <c r="C146" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2519,10 +2531,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>669422</v>
+        <v>669022</v>
       </c>
       <c r="C147" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2530,10 +2542,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>605400</v>
+        <v>543135</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2541,10 +2553,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>693821</v>
+        <v>624133</v>
       </c>
       <c r="C149" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2552,10 +2564,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>593958</v>
+        <v>676440</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2563,10 +2575,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>663855</v>
+        <v>663568</v>
       </c>
       <c r="C151" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2574,10 +2586,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>681190</v>
+        <v>674370</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2585,10 +2597,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>680573</v>
+        <v>669422</v>
       </c>
       <c r="C153" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2596,10 +2608,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>678368</v>
+        <v>605400</v>
       </c>
       <c r="C154" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2607,10 +2619,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>594902</v>
+        <v>693821</v>
       </c>
       <c r="C155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2618,10 +2630,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>656557</v>
+        <v>593958</v>
       </c>
       <c r="C156" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2629,10 +2641,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>687473</v>
+        <v>663855</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2640,10 +2652,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>669713</v>
+        <v>680573</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2651,10 +2663,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>570632</v>
+        <v>678368</v>
       </c>
       <c r="C159" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2662,10 +2674,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>607625</v>
+        <v>594902</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2673,10 +2685,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C161" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2684,10 +2696,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>682243</v>
+        <v>687473</v>
       </c>
       <c r="C162" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2695,10 +2707,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>676508</v>
+        <v>669713</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2706,10 +2718,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>684007</v>
+        <v>570632</v>
       </c>
       <c r="C164" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2717,10 +2729,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>694918</v>
+        <v>607625</v>
       </c>
       <c r="C165" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2728,10 +2740,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>668881</v>
+        <v>695418</v>
       </c>
       <c r="C166" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2739,10 +2751,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>641302</v>
+        <v>682243</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2750,10 +2762,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>663554</v>
+        <v>676508</v>
       </c>
       <c r="C168" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2761,10 +2773,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>592836</v>
+        <v>684007</v>
       </c>
       <c r="C169" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2772,10 +2784,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>682052</v>
+        <v>694918</v>
       </c>
       <c r="C170" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2783,10 +2795,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>663372</v>
+        <v>668881</v>
       </c>
       <c r="C171" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2794,10 +2806,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>471911</v>
+        <v>641302</v>
       </c>
       <c r="C172" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2805,10 +2817,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>669302</v>
+        <v>663554</v>
       </c>
       <c r="C173" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2816,10 +2828,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>500779</v>
+        <v>682052</v>
       </c>
       <c r="C174" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2827,10 +2839,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C175" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2838,10 +2850,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>527048</v>
+        <v>471911</v>
       </c>
       <c r="C176" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2849,10 +2861,54 @@
         <v>177</v>
       </c>
       <c r="B177">
+        <v>669302</v>
+      </c>
+      <c r="C177" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>500779</v>
+      </c>
+      <c r="C178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>686249</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>527048</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
         <v>450203</v>
       </c>
-      <c r="C177" t="s">
-        <v>178</v>
+      <c r="C181" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,9 +25,51 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
@@ -88,9 +130,6 @@
     <t>Taj Bradley</t>
   </si>
   <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
@@ -364,9 +403,6 @@
     <t>Emerson Hancock</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
     <t>Grant Holmes</t>
   </si>
   <si>
@@ -385,9 +421,6 @@
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
@@ -418,9 +451,6 @@
     <t>Tobias Myers</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
@@ -436,40 +466,19 @@
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Bowden Francis</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
     <t>Cole Ragans</t>
   </si>
   <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>Joe Ryan</t>
   </si>
   <si>
     <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Stephen Kolek</t>
   </si>
   <si>
     <t>Osvaldo Bido</t>
@@ -923,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -945,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>700363</v>
+        <v>650644</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -956,10 +965,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>669467</v>
+        <v>700363</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -967,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>571760</v>
+        <v>670102</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -978,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>663903</v>
+        <v>607074</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -989,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>676428</v>
+        <v>669923</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1000,10 +1009,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>663978</v>
+        <v>608566</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1011,26 +1020,26 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>669203</v>
+        <v>656427</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>663738</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="B10">
+        <v>622663</v>
+      </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1038,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>676979</v>
+        <v>543135</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1049,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>668909</v>
+        <v>624133</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1060,10 +1069,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>686613</v>
+        <v>676440</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1071,10 +1080,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>686799</v>
+        <v>592866</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1082,10 +1091,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>594798</v>
+        <v>542881</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1093,10 +1102,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>676664</v>
+        <v>663568</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1104,10 +1113,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>592332</v>
+        <v>681347</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1115,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>657277</v>
+        <v>669467</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1126,10 +1135,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>676974</v>
+        <v>571760</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1137,10 +1146,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>681190</v>
+        <v>663903</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1148,10 +1157,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>642232</v>
+        <v>676428</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1159,10 +1168,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>592836</v>
+        <v>663978</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1170,10 +1179,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>671737</v>
+        <v>669203</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1181,10 +1190,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>592866</v>
+        <v>663738</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1192,10 +1201,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>656731</v>
+        <v>676979</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1203,10 +1212,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>608372</v>
+        <v>668909</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1214,10 +1223,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>681343</v>
+        <v>686613</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1225,10 +1234,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>694477</v>
+        <v>686799</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1236,10 +1245,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>688138</v>
+        <v>594798</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1247,10 +1256,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>690990</v>
+        <v>676664</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1258,10 +1267,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>687223</v>
+        <v>592332</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1269,10 +1278,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>605288</v>
+        <v>657277</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1280,10 +1289,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>663559</v>
+        <v>676974</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1291,10 +1300,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>687888</v>
+        <v>681190</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1302,10 +1311,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>694646</v>
+        <v>642232</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1313,10 +1322,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>605135</v>
+        <v>592836</v>
       </c>
       <c r="C36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1324,10 +1333,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>656302</v>
+        <v>671737</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1335,10 +1344,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>607200</v>
+        <v>656731</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1346,10 +1355,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>806185</v>
+        <v>608372</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1357,10 +1366,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>592791</v>
+        <v>681343</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1368,10 +1377,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>666200</v>
+        <v>694477</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1379,10 +1388,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>543294</v>
+        <v>688138</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1390,10 +1399,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>547179</v>
+        <v>690990</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1401,10 +1410,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>680730</v>
+        <v>687223</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1412,10 +1421,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>607259</v>
+        <v>605288</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1423,10 +1432,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>571578</v>
+        <v>663559</v>
       </c>
       <c r="C46" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1434,10 +1443,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>677960</v>
+        <v>687888</v>
       </c>
       <c r="C47" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1445,10 +1454,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>669194</v>
+        <v>694646</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1456,10 +1465,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>675911</v>
+        <v>605135</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1467,10 +1476,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>669373</v>
+        <v>656302</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1478,10 +1487,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>621111</v>
+        <v>607200</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1489,10 +1498,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>701542</v>
+        <v>806185</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1500,10 +1509,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>808967</v>
+        <v>592791</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1511,10 +1520,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>641793</v>
+        <v>666200</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1522,10 +1531,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>680684</v>
+        <v>543294</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1533,10 +1542,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>701656</v>
+        <v>547179</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1544,10 +1553,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>669060</v>
+        <v>680730</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1555,10 +1564,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>641927</v>
+        <v>607259</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1566,10 +1575,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>676962</v>
+        <v>571578</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1577,10 +1586,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>694297</v>
+        <v>677960</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1588,10 +1597,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>650911</v>
+        <v>669194</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1599,10 +1608,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>663436</v>
+        <v>675911</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1610,10 +1619,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>665152</v>
+        <v>669373</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1621,10 +1630,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>665795</v>
+        <v>621111</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1632,10 +1641,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>669372</v>
+        <v>701542</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1643,10 +1652,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>667755</v>
+        <v>808967</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1654,10 +1663,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>672456</v>
+        <v>641793</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1665,10 +1674,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>673540</v>
+        <v>680684</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1676,10 +1685,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>663460</v>
+        <v>701656</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1687,10 +1696,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>607536</v>
+        <v>669060</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1698,10 +1707,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>689017</v>
+        <v>641927</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1709,10 +1718,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>671106</v>
+        <v>676962</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1720,10 +1729,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>622491</v>
+        <v>694297</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1731,10 +1740,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>656605</v>
+        <v>650911</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1742,10 +1751,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>666157</v>
+        <v>663436</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1753,10 +1762,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>682990</v>
+        <v>665152</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1764,10 +1773,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>592662</v>
+        <v>665795</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1775,10 +1784,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>686752</v>
+        <v>669372</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1786,10 +1795,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>543243</v>
+        <v>667755</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1797,10 +1806,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>690928</v>
+        <v>672456</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1808,10 +1817,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>676467</v>
+        <v>673540</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1819,10 +1828,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>671096</v>
+        <v>663460</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1830,10 +1839,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>678394</v>
+        <v>607536</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1841,10 +1850,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>693433</v>
+        <v>689017</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1852,10 +1861,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>615698</v>
+        <v>671106</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1863,10 +1872,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>607067</v>
+        <v>622491</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1874,10 +1883,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>656849</v>
+        <v>656605</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1885,10 +1894,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>664285</v>
+        <v>666157</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1896,10 +1905,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>642547</v>
+        <v>682990</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1907,10 +1916,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>683004</v>
+        <v>592662</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1918,10 +1927,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>605488</v>
+        <v>686752</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1929,10 +1938,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>686563</v>
+        <v>543243</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1940,10 +1949,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>621244</v>
+        <v>690928</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1951,18 +1960,21 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>434378</v>
+        <v>676467</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>95</v>
       </c>
+      <c r="B95">
+        <v>671096</v>
+      </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1970,10 +1982,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>669461</v>
+        <v>678394</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1981,10 +1993,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>608331</v>
+        <v>693433</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1992,10 +2004,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>518876</v>
+        <v>615698</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2003,10 +2015,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>650633</v>
+        <v>607067</v>
       </c>
       <c r="C99" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2014,10 +2026,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>647336</v>
+        <v>656849</v>
       </c>
       <c r="C100" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2025,10 +2037,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>608379</v>
+        <v>664285</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2036,10 +2048,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>694973</v>
+        <v>642547</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2047,10 +2059,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>669358</v>
+        <v>683004</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2058,10 +2070,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>680885</v>
+        <v>605488</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2069,10 +2081,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>664062</v>
+        <v>686563</v>
       </c>
       <c r="C105" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2080,10 +2092,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>579328</v>
+        <v>621244</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2091,21 +2103,18 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>621107</v>
+        <v>434378</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
-      <c r="B108">
-        <v>805673</v>
-      </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2113,10 +2122,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>695549</v>
+        <v>669461</v>
       </c>
       <c r="C109" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2124,10 +2133,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>801403</v>
+        <v>608331</v>
       </c>
       <c r="C110" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2135,10 +2144,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>690953</v>
+        <v>518876</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2146,10 +2155,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>669387</v>
+        <v>650633</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2157,10 +2166,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>657376</v>
+        <v>647336</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2168,10 +2177,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>477132</v>
+        <v>608379</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2179,10 +2188,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>676106</v>
+        <v>694973</v>
       </c>
       <c r="C115" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2190,10 +2199,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>608566</v>
+        <v>669358</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2201,10 +2210,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>656550</v>
+        <v>680885</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2212,10 +2221,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>656288</v>
+        <v>664062</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2223,10 +2232,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>663623</v>
+        <v>579328</v>
       </c>
       <c r="C119" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2234,10 +2243,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>502043</v>
+        <v>621107</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2245,10 +2254,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>689017</v>
+        <v>805673</v>
       </c>
       <c r="C121" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2256,10 +2265,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>608337</v>
+        <v>695549</v>
       </c>
       <c r="C122" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2267,10 +2276,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>622663</v>
+        <v>801403</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2278,10 +2287,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>571510</v>
+        <v>690953</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2289,10 +2298,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>571945</v>
+        <v>669387</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2300,10 +2309,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>601713</v>
+        <v>657376</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2311,10 +2320,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>641154</v>
+        <v>477132</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2322,10 +2331,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>681857</v>
+        <v>676106</v>
       </c>
       <c r="C128" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2333,10 +2342,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>669854</v>
+        <v>656550</v>
       </c>
       <c r="C129" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2344,10 +2353,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>645261</v>
+        <v>656288</v>
       </c>
       <c r="C130" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2355,10 +2364,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>680732</v>
+        <v>663623</v>
       </c>
       <c r="C131" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2366,10 +2375,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>677944</v>
+        <v>502043</v>
       </c>
       <c r="C132" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2377,10 +2386,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>668964</v>
+        <v>689017</v>
       </c>
       <c r="C133" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2388,10 +2397,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>542881</v>
+        <v>608337</v>
       </c>
       <c r="C134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2399,10 +2408,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>641816</v>
+        <v>571510</v>
       </c>
       <c r="C135" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2410,10 +2419,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>668678</v>
+        <v>571945</v>
       </c>
       <c r="C136" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2421,10 +2430,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>554430</v>
+        <v>601713</v>
       </c>
       <c r="C137" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2432,10 +2441,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>695534</v>
+        <v>641154</v>
       </c>
       <c r="C138" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2443,10 +2452,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>702070</v>
+        <v>681857</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2454,10 +2463,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>670102</v>
+        <v>669854</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2465,10 +2474,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>700249</v>
+        <v>645261</v>
       </c>
       <c r="C141" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2476,10 +2485,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>607074</v>
+        <v>680732</v>
       </c>
       <c r="C142" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2487,10 +2496,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>519242</v>
+        <v>677944</v>
       </c>
       <c r="C143" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2498,10 +2507,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>666142</v>
+        <v>668964</v>
       </c>
       <c r="C144" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2509,10 +2518,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>656427</v>
+        <v>641816</v>
       </c>
       <c r="C145" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2520,10 +2529,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>657746</v>
+        <v>668678</v>
       </c>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2531,10 +2540,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>669022</v>
+        <v>554430</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2542,10 +2551,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>543135</v>
+        <v>695534</v>
       </c>
       <c r="C148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2553,10 +2562,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>624133</v>
+        <v>702070</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2564,10 +2573,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>676440</v>
+        <v>700249</v>
       </c>
       <c r="C150" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2575,10 +2584,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>663568</v>
+        <v>519242</v>
       </c>
       <c r="C151" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2586,10 +2595,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2597,10 +2606,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669422</v>
+        <v>657746</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2608,10 +2617,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>605400</v>
+        <v>669022</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2619,10 +2628,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>693821</v>
+        <v>674370</v>
       </c>
       <c r="C155" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2630,10 +2639,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>593958</v>
+        <v>669422</v>
       </c>
       <c r="C156" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2641,10 +2650,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>663855</v>
+        <v>605400</v>
       </c>
       <c r="C157" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2652,10 +2661,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>680573</v>
+        <v>693821</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2663,10 +2672,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>678368</v>
+        <v>593958</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2674,10 +2683,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>594902</v>
+        <v>663855</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2685,10 +2694,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>656557</v>
+        <v>680573</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2696,10 +2705,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>687473</v>
+        <v>678368</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2707,10 +2716,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>669713</v>
+        <v>594902</v>
       </c>
       <c r="C163" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2718,10 +2727,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>570632</v>
+        <v>656557</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2729,10 +2738,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>607625</v>
+        <v>687473</v>
       </c>
       <c r="C165" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2740,10 +2749,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>695418</v>
+        <v>669713</v>
       </c>
       <c r="C166" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2751,10 +2760,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>682243</v>
+        <v>570632</v>
       </c>
       <c r="C167" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2762,10 +2771,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>676508</v>
+        <v>607625</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2773,10 +2782,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>684007</v>
+        <v>695418</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2784,10 +2793,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>694918</v>
+        <v>682243</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2795,10 +2804,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>668881</v>
+        <v>676508</v>
       </c>
       <c r="C171" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2806,10 +2815,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>641302</v>
+        <v>684007</v>
       </c>
       <c r="C172" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2817,10 +2826,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>663554</v>
+        <v>694918</v>
       </c>
       <c r="C173" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2828,10 +2837,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>682052</v>
+        <v>668881</v>
       </c>
       <c r="C174" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2839,10 +2848,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C175" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2850,10 +2859,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>471911</v>
+        <v>663554</v>
       </c>
       <c r="C176" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2861,10 +2870,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>669302</v>
+        <v>682052</v>
       </c>
       <c r="C177" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2872,10 +2881,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>500779</v>
+        <v>663372</v>
       </c>
       <c r="C178" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2883,10 +2892,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C179" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2894,10 +2903,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>527048</v>
+        <v>669302</v>
       </c>
       <c r="C180" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2905,10 +2914,43 @@
         <v>181</v>
       </c>
       <c r="B181">
+        <v>500779</v>
+      </c>
+      <c r="C181" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>686249</v>
+      </c>
+      <c r="C182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>527048</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
         <v>450203</v>
       </c>
-      <c r="C181" t="s">
-        <v>182</v>
+      <c r="C184" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="190">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,183 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Michael King</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Hunter Greene</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Pablo López</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Ryan Gusto</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
@@ -238,9 +415,6 @@
     <t>Brandon Pfaadt</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
     <t>Davis Martin</t>
   </si>
   <si>
@@ -253,9 +427,6 @@
     <t>J T Ginn</t>
   </si>
   <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
     <t>Keider Montero</t>
   </si>
   <si>
@@ -265,9 +436,6 @@
     <t>Kris Bubic</t>
   </si>
   <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
     <t>Landon Knack</t>
   </si>
   <si>
@@ -277,15 +445,9 @@
     <t>Luis Castillo</t>
   </si>
   <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
@@ -295,96 +457,18 @@
     <t>Sonny Gray</t>
   </si>
   <si>
-    <t>Hunter Dobbins</t>
-  </si>
-  <si>
     <t>Colton Gordon</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Michael King</t>
-  </si>
-  <si>
     <t>Michael Soroka</t>
   </si>
   <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Spencer Schwellenbach</t>
   </si>
   <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Zebby Matthews</t>
-  </si>
-  <si>
-    <t>Jackson Jobe</t>
-  </si>
-  <si>
     <t>Chase Dollander</t>
   </si>
   <si>
@@ -394,93 +478,27 @@
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
-    <t>Griffin Canning</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
     <t>Kyle Gibson</t>
   </si>
   <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Pablo López</t>
-  </si>
-  <si>
     <t>Reese Olson</t>
   </si>
   <si>
     <t>Ronel Blanco</t>
   </si>
   <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
     <t>Tobias Myers</t>
   </si>
   <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
     <t>Chase Petty</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Cole Ragans</t>
   </si>
   <si>
     <t>Joe Ryan</t>
   </si>
   <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
     <t>Osvaldo Bido</t>
   </si>
   <si>
@@ -511,9 +529,6 @@
     <t>Tanner Houck</t>
   </si>
   <si>
-    <t>Ryan Gusto</t>
-  </si>
-  <si>
     <t>Hayden Wesneski</t>
   </si>
   <si>
@@ -538,15 +553,9 @@
     <t>Blade Tidwell</t>
   </si>
   <si>
-    <t>Hunter Greene</t>
-  </si>
-  <si>
     <t>Tyler Alexander</t>
   </si>
   <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
     <t>Jacob Lopez</t>
   </si>
   <si>
@@ -571,10 +580,10 @@
     <t>Charlie Morton</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -932,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -954,10 +963,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>650644</v>
+        <v>671096</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -965,10 +974,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>700363</v>
+        <v>693433</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -976,10 +985,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>670102</v>
+        <v>615698</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -987,10 +996,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>607074</v>
+        <v>663554</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -998,10 +1007,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>669923</v>
+        <v>607067</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1009,10 +1018,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>608566</v>
+        <v>650911</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1020,345 +1029,342 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>656427</v>
+        <v>656849</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>664285</v>
+      </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>622663</v>
+        <v>656550</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>543135</v>
+        <v>683004</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>624133</v>
+        <v>663623</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>676440</v>
+        <v>605488</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>592866</v>
+        <v>686563</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>542881</v>
+        <v>621244</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>663568</v>
+        <v>667755</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>681347</v>
+        <v>607536</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>669467</v>
+        <v>690986</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>571760</v>
+        <v>608337</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>663903</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>676428</v>
+        <v>669461</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>663978</v>
+        <v>608331</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>669203</v>
+        <v>518876</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>663738</v>
+        <v>650633</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>676979</v>
+        <v>608379</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>668909</v>
+        <v>656605</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>686613</v>
+        <v>682990</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>686799</v>
+        <v>669358</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>594798</v>
+        <v>664062</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>676664</v>
+        <v>669432</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>592332</v>
+        <v>621107</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>657277</v>
+        <v>805673</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>676974</v>
+        <v>690928</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>681190</v>
+        <v>678394</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>642232</v>
+        <v>700249</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>592836</v>
+        <v>519242</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>671737</v>
+        <v>657376</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>656731</v>
+        <v>477132</v>
       </c>
       <c r="C38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>608372</v>
-      </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1366,10 +1372,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>681343</v>
+        <v>676106</v>
       </c>
       <c r="C40" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1377,10 +1383,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>694477</v>
+        <v>642547</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1388,10 +1394,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>688138</v>
+        <v>656288</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1399,10 +1405,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>690990</v>
+        <v>668881</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1410,10 +1416,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>687223</v>
+        <v>689017</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1421,10 +1427,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>605288</v>
+        <v>669022</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1432,10 +1438,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>663559</v>
+        <v>571510</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1443,10 +1449,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>687888</v>
+        <v>571945</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1454,10 +1460,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>694646</v>
+        <v>601713</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1465,10 +1471,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>605135</v>
+        <v>641154</v>
       </c>
       <c r="C49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1476,10 +1482,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>656302</v>
+        <v>694973</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1487,10 +1493,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>607200</v>
+        <v>645261</v>
       </c>
       <c r="C51" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1498,10 +1504,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>806185</v>
+        <v>680732</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1509,10 +1515,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>592791</v>
+        <v>677944</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1520,10 +1526,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>666200</v>
+        <v>685299</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1531,10 +1537,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>543294</v>
+        <v>641816</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1542,10 +1548,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>547179</v>
+        <v>579328</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1553,10 +1559,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>680730</v>
+        <v>668678</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1564,10 +1570,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>607259</v>
+        <v>554430</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1575,10 +1581,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>571578</v>
+        <v>695549</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1586,10 +1592,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>677960</v>
+        <v>687473</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1597,10 +1603,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>669194</v>
+        <v>702070</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1608,10 +1614,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>675911</v>
+        <v>650644</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1619,10 +1625,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>669373</v>
+        <v>700363</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1630,10 +1636,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>621111</v>
+        <v>670102</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1641,10 +1647,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>701542</v>
+        <v>607074</v>
       </c>
       <c r="C65" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1652,10 +1658,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>808967</v>
+        <v>669923</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1663,10 +1669,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>641793</v>
+        <v>608566</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1674,10 +1680,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>680684</v>
+        <v>656427</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1685,10 +1691,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>701656</v>
+        <v>622663</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1696,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>669060</v>
+        <v>543135</v>
       </c>
       <c r="C70" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1707,10 +1713,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>641927</v>
+        <v>624133</v>
       </c>
       <c r="C71" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1718,10 +1724,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>676962</v>
+        <v>676440</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1729,10 +1735,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>694297</v>
+        <v>592866</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1740,10 +1746,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>650911</v>
+        <v>542881</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1751,10 +1757,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>663436</v>
+        <v>663568</v>
       </c>
       <c r="C75" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1762,10 +1768,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>665152</v>
+        <v>681347</v>
       </c>
       <c r="C76" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1773,10 +1779,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>665795</v>
+        <v>669467</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1784,10 +1790,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>669372</v>
+        <v>571760</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1795,10 +1801,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>667755</v>
+        <v>663903</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1806,10 +1812,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>672456</v>
+        <v>676428</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1817,10 +1823,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>673540</v>
+        <v>663978</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1828,10 +1834,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>663460</v>
+        <v>669203</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1839,10 +1845,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>607536</v>
+        <v>663738</v>
       </c>
       <c r="C83" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1850,10 +1856,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>689017</v>
+        <v>676979</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1861,10 +1867,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>671106</v>
+        <v>668909</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1872,10 +1878,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>622491</v>
+        <v>686613</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1883,10 +1889,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>656605</v>
+        <v>686799</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1894,10 +1900,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>666157</v>
+        <v>594798</v>
       </c>
       <c r="C88" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1905,10 +1911,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>682990</v>
+        <v>676664</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1916,10 +1922,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>592662</v>
+        <v>592332</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1927,10 +1933,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>686752</v>
+        <v>657277</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1938,10 +1944,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>543243</v>
+        <v>676974</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1949,10 +1955,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>690928</v>
+        <v>681190</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1960,10 +1966,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>676467</v>
+        <v>642232</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1971,10 +1977,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>671096</v>
+        <v>592836</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1982,10 +1988,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>678394</v>
+        <v>671737</v>
       </c>
       <c r="C96" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1993,10 +1999,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>693433</v>
+        <v>656731</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2004,10 +2010,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>615698</v>
+        <v>608372</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2015,10 +2021,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>607067</v>
+        <v>681343</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2026,10 +2032,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>656849</v>
+        <v>694477</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2037,10 +2043,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>664285</v>
+        <v>688138</v>
       </c>
       <c r="C101" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2048,10 +2054,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>642547</v>
+        <v>690990</v>
       </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2059,10 +2065,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>683004</v>
+        <v>687223</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2070,10 +2076,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>605488</v>
+        <v>605288</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2081,10 +2087,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>686563</v>
+        <v>663559</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2092,10 +2098,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>621244</v>
+        <v>687888</v>
       </c>
       <c r="C106" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2103,18 +2109,21 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>434378</v>
+        <v>694646</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>108</v>
       </c>
+      <c r="B108">
+        <v>605135</v>
+      </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2122,10 +2131,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>669461</v>
+        <v>656302</v>
       </c>
       <c r="C109" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2133,10 +2142,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>608331</v>
+        <v>607200</v>
       </c>
       <c r="C110" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2144,10 +2153,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>518876</v>
+        <v>806185</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2155,10 +2164,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>650633</v>
+        <v>592791</v>
       </c>
       <c r="C112" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2166,10 +2175,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>647336</v>
+        <v>666200</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2177,10 +2186,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>608379</v>
+        <v>543294</v>
       </c>
       <c r="C114" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2188,10 +2197,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>694973</v>
+        <v>547179</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2199,10 +2208,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>669358</v>
+        <v>680730</v>
       </c>
       <c r="C116" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2210,10 +2219,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>680885</v>
+        <v>607259</v>
       </c>
       <c r="C117" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2221,10 +2230,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>664062</v>
+        <v>571578</v>
       </c>
       <c r="C118" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2232,10 +2241,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>579328</v>
+        <v>677960</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2243,10 +2252,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>621107</v>
+        <v>669194</v>
       </c>
       <c r="C120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2254,10 +2263,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>805673</v>
+        <v>675911</v>
       </c>
       <c r="C121" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2265,10 +2274,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>695549</v>
+        <v>669373</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2276,10 +2285,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>801403</v>
+        <v>621111</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2287,10 +2296,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>690953</v>
+        <v>701542</v>
       </c>
       <c r="C124" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2298,10 +2307,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>669387</v>
+        <v>808967</v>
       </c>
       <c r="C125" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2309,10 +2318,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>657376</v>
+        <v>641793</v>
       </c>
       <c r="C126" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2320,10 +2329,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>477132</v>
+        <v>680684</v>
       </c>
       <c r="C127" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2331,10 +2340,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>676106</v>
+        <v>701656</v>
       </c>
       <c r="C128" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2342,10 +2351,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>656550</v>
+        <v>669060</v>
       </c>
       <c r="C129" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2353,10 +2362,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>656288</v>
+        <v>641927</v>
       </c>
       <c r="C130" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2364,10 +2373,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>663623</v>
+        <v>676962</v>
       </c>
       <c r="C131" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2375,10 +2384,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>502043</v>
+        <v>694297</v>
       </c>
       <c r="C132" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2386,10 +2395,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>689017</v>
+        <v>663436</v>
       </c>
       <c r="C133" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2397,10 +2406,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>608337</v>
+        <v>665152</v>
       </c>
       <c r="C134" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2408,10 +2417,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>571510</v>
+        <v>665795</v>
       </c>
       <c r="C135" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2419,10 +2428,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>571945</v>
+        <v>669372</v>
       </c>
       <c r="C136" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2430,10 +2439,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>601713</v>
+        <v>672456</v>
       </c>
       <c r="C137" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2441,10 +2450,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>641154</v>
+        <v>673540</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2452,10 +2461,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>681857</v>
+        <v>663460</v>
       </c>
       <c r="C139" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2463,10 +2472,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>669854</v>
+        <v>689017</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2474,10 +2483,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>645261</v>
+        <v>671106</v>
       </c>
       <c r="C141" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2485,10 +2494,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>680732</v>
+        <v>622491</v>
       </c>
       <c r="C142" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2496,10 +2505,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>677944</v>
+        <v>666157</v>
       </c>
       <c r="C143" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2507,10 +2516,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>668964</v>
+        <v>592662</v>
       </c>
       <c r="C144" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2518,10 +2527,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>641816</v>
+        <v>686752</v>
       </c>
       <c r="C145" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2529,10 +2538,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>668678</v>
+        <v>543243</v>
       </c>
       <c r="C146" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2540,10 +2549,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>554430</v>
+        <v>676467</v>
       </c>
       <c r="C147" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2551,10 +2560,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>695534</v>
+        <v>434378</v>
       </c>
       <c r="C148" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2562,10 +2571,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>702070</v>
+        <v>647336</v>
       </c>
       <c r="C149" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2573,10 +2582,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>700249</v>
+        <v>680885</v>
       </c>
       <c r="C150" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2584,10 +2593,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>519242</v>
+        <v>801403</v>
       </c>
       <c r="C151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2595,10 +2604,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>666142</v>
+        <v>690953</v>
       </c>
       <c r="C152" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2606,10 +2615,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>657746</v>
+        <v>669387</v>
       </c>
       <c r="C153" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2617,10 +2626,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>669022</v>
+        <v>502043</v>
       </c>
       <c r="C154" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2628,10 +2637,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>674370</v>
+        <v>681857</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2639,10 +2648,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>669422</v>
+        <v>669854</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2650,10 +2659,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>605400</v>
+        <v>668964</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2661,10 +2670,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>693821</v>
+        <v>695534</v>
       </c>
       <c r="C158" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2672,10 +2681,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>593958</v>
+        <v>666142</v>
       </c>
       <c r="C159" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2683,10 +2692,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>663855</v>
+        <v>657746</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2694,10 +2703,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>680573</v>
+        <v>674370</v>
       </c>
       <c r="C161" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2705,10 +2714,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>678368</v>
+        <v>669422</v>
       </c>
       <c r="C162" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2716,10 +2725,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C163" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2727,10 +2736,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>656557</v>
+        <v>693821</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2738,10 +2747,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>687473</v>
+        <v>593958</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2749,10 +2758,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>669713</v>
+        <v>663855</v>
       </c>
       <c r="C166" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2760,10 +2769,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>570632</v>
+        <v>680573</v>
       </c>
       <c r="C167" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2771,10 +2780,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>607625</v>
+        <v>678368</v>
       </c>
       <c r="C168" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2782,10 +2791,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>695418</v>
+        <v>594902</v>
       </c>
       <c r="C169" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2793,10 +2802,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>682243</v>
+        <v>656557</v>
       </c>
       <c r="C170" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2804,10 +2813,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>676508</v>
+        <v>669713</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2815,10 +2824,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>684007</v>
+        <v>570632</v>
       </c>
       <c r="C172" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2826,10 +2835,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>694918</v>
+        <v>607625</v>
       </c>
       <c r="C173" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2837,10 +2846,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>668881</v>
+        <v>695418</v>
       </c>
       <c r="C174" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2848,10 +2857,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>641302</v>
+        <v>682243</v>
       </c>
       <c r="C175" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2859,10 +2868,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>663554</v>
+        <v>676508</v>
       </c>
       <c r="C176" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2870,10 +2879,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>682052</v>
+        <v>684007</v>
       </c>
       <c r="C177" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2881,10 +2890,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>663372</v>
+        <v>694918</v>
       </c>
       <c r="C178" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2892,10 +2901,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>471911</v>
+        <v>641302</v>
       </c>
       <c r="C179" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2903,10 +2912,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>669302</v>
+        <v>682052</v>
       </c>
       <c r="C180" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2914,10 +2923,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>500779</v>
+        <v>663372</v>
       </c>
       <c r="C181" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2925,10 +2934,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C182" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2936,10 +2945,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>527048</v>
+        <v>669302</v>
       </c>
       <c r="C183" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2947,10 +2956,43 @@
         <v>184</v>
       </c>
       <c r="B184">
+        <v>500779</v>
+      </c>
+      <c r="C184" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>686249</v>
+      </c>
+      <c r="C185" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>527048</v>
+      </c>
+      <c r="C186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
         <v>450203</v>
       </c>
-      <c r="C184" t="s">
-        <v>185</v>
+      <c r="C187" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,6 +25,93 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Landon Knack</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>Logan Henderson</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
@@ -331,21 +418,12 @@
     <t>Adrian Houser</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
     <t>Chayce McDermott</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Erick Fedde</t>
   </si>
   <si>
@@ -355,12 +433,6 @@
     <t>Jameson Taillon</t>
   </si>
   <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
@@ -370,9 +442,6 @@
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Ryan Weathers</t>
   </si>
   <si>
@@ -382,93 +451,24 @@
     <t>Spencer Strider</t>
   </si>
   <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Yoshinobu Yamamoto</t>
   </si>
   <si>
     <t>Zack Littell</t>
   </si>
   <si>
-    <t>Gunnar Hoglund</t>
-  </si>
-  <si>
-    <t>Logan Henderson</t>
-  </si>
-  <si>
     <t>Bryse Wilson</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
     <t>J T Ginn</t>
   </si>
   <si>
     <t>Keider Montero</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
     <t>Chase Dollander</t>
   </si>
   <si>
@@ -580,10 +580,10 @@
     <t>Charlie Morton</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -959,22 +959,16 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>671096</v>
-      </c>
       <c r="C2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>693433</v>
+        <v>663559</v>
       </c>
       <c r="C3" t="s">
         <v>189</v>
@@ -982,43 +976,43 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>615698</v>
+        <v>641927</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>663554</v>
+        <v>676962</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>607067</v>
+        <v>694297</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>650911</v>
+        <v>605135</v>
       </c>
       <c r="C7" t="s">
         <v>188</v>
@@ -1026,10 +1020,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>656849</v>
+        <v>663436</v>
       </c>
       <c r="C8" t="s">
         <v>188</v>
@@ -1037,10 +1031,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>664285</v>
+        <v>665152</v>
       </c>
       <c r="C9" t="s">
         <v>188</v>
@@ -1048,32 +1042,32 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>656550</v>
+        <v>656302</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>683004</v>
+        <v>665795</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>663623</v>
+        <v>666200</v>
       </c>
       <c r="C12" t="s">
         <v>189</v>
@@ -1081,10 +1075,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>605488</v>
+        <v>673540</v>
       </c>
       <c r="C13" t="s">
         <v>188</v>
@@ -1092,10 +1086,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>686563</v>
+        <v>663460</v>
       </c>
       <c r="C14" t="s">
         <v>189</v>
@@ -1103,43 +1097,43 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>621244</v>
+        <v>543294</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>667755</v>
+        <v>689017</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>607536</v>
+        <v>671106</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>690986</v>
+        <v>622491</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
@@ -1147,18 +1141,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>608337</v>
+        <v>647336</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>666157</v>
       </c>
       <c r="C20" t="s">
         <v>189</v>
@@ -1166,65 +1163,65 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>669461</v>
+        <v>571578</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>608331</v>
+        <v>592662</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>518876</v>
+        <v>686752</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>650633</v>
+        <v>543243</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>608379</v>
+        <v>680885</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>656605</v>
+        <v>669373</v>
       </c>
       <c r="C26" t="s">
         <v>189</v>
@@ -1232,43 +1229,43 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>682990</v>
+        <v>621111</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>669358</v>
+        <v>701542</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>664062</v>
+        <v>680684</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>669432</v>
+        <v>701656</v>
       </c>
       <c r="C30" t="s">
         <v>188</v>
@@ -1276,10 +1273,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>621107</v>
+        <v>676467</v>
       </c>
       <c r="C31" t="s">
         <v>189</v>
@@ -1287,10 +1284,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>805673</v>
+        <v>671096</v>
       </c>
       <c r="C32" t="s">
         <v>189</v>
@@ -1298,32 +1295,32 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>690928</v>
+        <v>693433</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>678394</v>
+        <v>615698</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>700249</v>
+        <v>663554</v>
       </c>
       <c r="C35" t="s">
         <v>188</v>
@@ -1331,10 +1328,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>519242</v>
+        <v>607067</v>
       </c>
       <c r="C36" t="s">
         <v>188</v>
@@ -1342,10 +1339,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>657376</v>
+        <v>650911</v>
       </c>
       <c r="C37" t="s">
         <v>189</v>
@@ -1353,16 +1350,22 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>656849</v>
+      </c>
+      <c r="C38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>477132</v>
-      </c>
-      <c r="C38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="B39">
+        <v>664285</v>
+      </c>
       <c r="C39" t="s">
         <v>189</v>
       </c>
@@ -1372,10 +1375,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>676106</v>
+        <v>656550</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1383,10 +1386,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>642547</v>
+        <v>683004</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1394,10 +1397,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>656288</v>
+        <v>663623</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1405,7 +1408,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>668881</v>
+        <v>605488</v>
       </c>
       <c r="C43" t="s">
         <v>189</v>
@@ -1416,10 +1419,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>689017</v>
+        <v>686563</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1427,7 +1430,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>669022</v>
+        <v>621244</v>
       </c>
       <c r="C45" t="s">
         <v>188</v>
@@ -1438,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>571510</v>
+        <v>667755</v>
       </c>
       <c r="C46" t="s">
         <v>188</v>
@@ -1449,7 +1452,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>571945</v>
+        <v>607536</v>
       </c>
       <c r="C47" t="s">
         <v>189</v>
@@ -1460,7 +1463,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>601713</v>
+        <v>690986</v>
       </c>
       <c r="C48" t="s">
         <v>189</v>
@@ -1471,21 +1474,18 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>641154</v>
+        <v>608337</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>694973</v>
-      </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1493,7 +1493,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>645261</v>
+        <v>669461</v>
       </c>
       <c r="C51" t="s">
         <v>189</v>
@@ -1504,7 +1504,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>680732</v>
+        <v>608331</v>
       </c>
       <c r="C52" t="s">
         <v>189</v>
@@ -1515,10 +1515,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>677944</v>
+        <v>518876</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1526,10 +1526,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>685299</v>
+        <v>650633</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1537,10 +1537,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>641816</v>
+        <v>608379</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1548,7 +1548,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>579328</v>
+        <v>656605</v>
       </c>
       <c r="C56" t="s">
         <v>188</v>
@@ -1559,10 +1559,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>668678</v>
+        <v>682990</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1570,10 +1570,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>554430</v>
+        <v>669358</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1581,10 +1581,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>695549</v>
+        <v>664062</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1592,7 +1592,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>687473</v>
+        <v>669432</v>
       </c>
       <c r="C60" t="s">
         <v>189</v>
@@ -1603,7 +1603,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>702070</v>
+        <v>621107</v>
       </c>
       <c r="C61" t="s">
         <v>188</v>
@@ -1614,10 +1614,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>650644</v>
+        <v>805673</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1625,10 +1625,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>700363</v>
+        <v>690928</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1636,10 +1636,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>670102</v>
+        <v>678394</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1647,10 +1647,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>607074</v>
+        <v>700249</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1658,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>669923</v>
+        <v>519242</v>
       </c>
       <c r="C66" t="s">
         <v>189</v>
@@ -1669,10 +1669,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>608566</v>
+        <v>657376</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>656427</v>
+        <v>477132</v>
       </c>
       <c r="C68" t="s">
         <v>189</v>
@@ -1691,10 +1691,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>622663</v>
+        <v>676106</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1702,10 +1702,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>543135</v>
+        <v>642547</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1713,7 +1713,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>624133</v>
+        <v>656288</v>
       </c>
       <c r="C71" t="s">
         <v>188</v>
@@ -1724,10 +1724,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>676440</v>
+        <v>668881</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1735,10 +1735,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>592866</v>
+        <v>689017</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1746,10 +1746,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>542881</v>
+        <v>669022</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>663568</v>
+        <v>571510</v>
       </c>
       <c r="C75" t="s">
         <v>189</v>
@@ -1768,10 +1768,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>681347</v>
+        <v>571945</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1779,10 +1779,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669467</v>
+        <v>601713</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1790,7 +1790,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>571760</v>
+        <v>641154</v>
       </c>
       <c r="C78" t="s">
         <v>188</v>
@@ -1801,10 +1801,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>663903</v>
+        <v>694973</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1812,7 +1812,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>676428</v>
+        <v>645261</v>
       </c>
       <c r="C80" t="s">
         <v>188</v>
@@ -1823,10 +1823,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>663978</v>
+        <v>680732</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1834,10 +1834,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>669203</v>
+        <v>677944</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1845,7 +1845,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>663738</v>
+        <v>685299</v>
       </c>
       <c r="C83" t="s">
         <v>188</v>
@@ -1856,7 +1856,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>676979</v>
+        <v>641816</v>
       </c>
       <c r="C84" t="s">
         <v>188</v>
@@ -1867,7 +1867,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>668909</v>
+        <v>579328</v>
       </c>
       <c r="C85" t="s">
         <v>189</v>
@@ -1878,10 +1878,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>686613</v>
+        <v>668678</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1889,10 +1889,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>686799</v>
+        <v>554430</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1900,10 +1900,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>594798</v>
+        <v>695549</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1911,7 +1911,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>676664</v>
+        <v>687473</v>
       </c>
       <c r="C89" t="s">
         <v>188</v>
@@ -1922,7 +1922,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>592332</v>
+        <v>702070</v>
       </c>
       <c r="C90" t="s">
         <v>189</v>
@@ -1933,10 +1933,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>657277</v>
+        <v>650644</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1944,10 +1944,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>676974</v>
+        <v>700363</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1955,10 +1955,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>681190</v>
+        <v>670102</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1966,10 +1966,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>642232</v>
+        <v>607074</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1977,10 +1977,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>592836</v>
+        <v>669923</v>
       </c>
       <c r="C95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1988,10 +1988,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>671737</v>
+        <v>608566</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1999,10 +1999,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>656731</v>
+        <v>656427</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2010,10 +2010,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>608372</v>
+        <v>622663</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2021,10 +2021,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>681343</v>
+        <v>543135</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2032,7 +2032,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>694477</v>
+        <v>624133</v>
       </c>
       <c r="C100" t="s">
         <v>189</v>
@@ -2043,10 +2043,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>688138</v>
+        <v>676440</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2054,10 +2054,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>690990</v>
+        <v>592866</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2065,10 +2065,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>687223</v>
+        <v>542881</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2076,10 +2076,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>605288</v>
+        <v>663568</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2087,7 +2087,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>663559</v>
+        <v>681347</v>
       </c>
       <c r="C105" t="s">
         <v>188</v>
@@ -2098,7 +2098,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>687888</v>
+        <v>669467</v>
       </c>
       <c r="C106" t="s">
         <v>188</v>
@@ -2109,7 +2109,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>694646</v>
+        <v>571760</v>
       </c>
       <c r="C107" t="s">
         <v>189</v>
@@ -2120,10 +2120,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>605135</v>
+        <v>663903</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2131,7 +2131,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>656302</v>
+        <v>676428</v>
       </c>
       <c r="C109" t="s">
         <v>189</v>
@@ -2142,10 +2142,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>607200</v>
+        <v>663978</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2153,10 +2153,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>806185</v>
+        <v>669203</v>
       </c>
       <c r="C111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2164,7 +2164,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>592791</v>
+        <v>663738</v>
       </c>
       <c r="C112" t="s">
         <v>189</v>
@@ -2175,10 +2175,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>666200</v>
+        <v>676979</v>
       </c>
       <c r="C113" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2186,10 +2186,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>543294</v>
+        <v>668909</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2197,10 +2197,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>547179</v>
+        <v>686613</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2208,7 +2208,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>680730</v>
+        <v>686799</v>
       </c>
       <c r="C116" t="s">
         <v>188</v>
@@ -2219,10 +2219,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>607259</v>
+        <v>594798</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2230,10 +2230,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>571578</v>
+        <v>676664</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>677960</v>
+        <v>592332</v>
       </c>
       <c r="C119" t="s">
         <v>188</v>
@@ -2252,10 +2252,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>669194</v>
+        <v>657277</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2263,10 +2263,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>675911</v>
+        <v>676974</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>669373</v>
+        <v>681190</v>
       </c>
       <c r="C122" t="s">
         <v>188</v>
@@ -2285,7 +2285,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>621111</v>
+        <v>642232</v>
       </c>
       <c r="C123" t="s">
         <v>189</v>
@@ -2296,10 +2296,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>701542</v>
+        <v>592836</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2307,10 +2307,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>808967</v>
+        <v>671737</v>
       </c>
       <c r="C125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2318,10 +2318,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>641793</v>
+        <v>656731</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2329,10 +2329,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>680684</v>
+        <v>608372</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2340,10 +2340,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>701656</v>
+        <v>681343</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2351,10 +2351,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>669060</v>
+        <v>694477</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2362,10 +2362,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>641927</v>
+        <v>688138</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2373,10 +2373,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>676962</v>
+        <v>690990</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2384,7 +2384,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>694297</v>
+        <v>687223</v>
       </c>
       <c r="C132" t="s">
         <v>189</v>
@@ -2395,10 +2395,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>663436</v>
+        <v>605288</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2406,7 +2406,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>665152</v>
+        <v>687888</v>
       </c>
       <c r="C134" t="s">
         <v>189</v>
@@ -2417,10 +2417,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>665795</v>
+        <v>694646</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2428,10 +2428,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>669372</v>
+        <v>607200</v>
       </c>
       <c r="C136" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2439,10 +2439,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>672456</v>
+        <v>806185</v>
       </c>
       <c r="C137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2450,10 +2450,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>673540</v>
+        <v>592791</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>663460</v>
+        <v>547179</v>
       </c>
       <c r="C139" t="s">
         <v>188</v>
@@ -2472,7 +2472,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>689017</v>
+        <v>680730</v>
       </c>
       <c r="C140" t="s">
         <v>189</v>
@@ -2483,7 +2483,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>671106</v>
+        <v>607259</v>
       </c>
       <c r="C141" t="s">
         <v>188</v>
@@ -2494,7 +2494,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>622491</v>
+        <v>677960</v>
       </c>
       <c r="C142" t="s">
         <v>189</v>
@@ -2505,7 +2505,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>666157</v>
+        <v>669194</v>
       </c>
       <c r="C143" t="s">
         <v>188</v>
@@ -2516,7 +2516,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>592662</v>
+        <v>675911</v>
       </c>
       <c r="C144" t="s">
         <v>188</v>
@@ -2527,10 +2527,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>686752</v>
+        <v>808967</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2538,10 +2538,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>543243</v>
+        <v>641793</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2549,7 +2549,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>676467</v>
+        <v>669060</v>
       </c>
       <c r="C147" t="s">
         <v>188</v>
@@ -2560,10 +2560,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>434378</v>
+        <v>669372</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2571,10 +2571,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>647336</v>
+        <v>672456</v>
       </c>
       <c r="C149" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2582,10 +2582,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>680885</v>
+        <v>434378</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2596,7 +2596,7 @@
         <v>801403</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2607,7 +2607,7 @@
         <v>690953</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2618,7 +2618,7 @@
         <v>669387</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2629,7 +2629,7 @@
         <v>502043</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2640,7 +2640,7 @@
         <v>681857</v>
       </c>
       <c r="C155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2651,7 +2651,7 @@
         <v>669854</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2662,7 +2662,7 @@
         <v>668964</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2673,7 +2673,7 @@
         <v>695534</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2684,7 +2684,7 @@
         <v>666142</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2695,7 +2695,7 @@
         <v>657746</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2706,7 +2706,7 @@
         <v>674370</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2717,7 +2717,7 @@
         <v>669422</v>
       </c>
       <c r="C162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2728,7 +2728,7 @@
         <v>605400</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2739,7 +2739,7 @@
         <v>693821</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2750,7 +2750,7 @@
         <v>593958</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2761,7 +2761,7 @@
         <v>663855</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2772,7 +2772,7 @@
         <v>680573</v>
       </c>
       <c r="C167" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2783,7 +2783,7 @@
         <v>678368</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2794,7 +2794,7 @@
         <v>594902</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2805,7 +2805,7 @@
         <v>656557</v>
       </c>
       <c r="C170" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2816,7 +2816,7 @@
         <v>669713</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2827,7 +2827,7 @@
         <v>570632</v>
       </c>
       <c r="C172" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2838,7 +2838,7 @@
         <v>607625</v>
       </c>
       <c r="C173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2849,7 +2849,7 @@
         <v>695418</v>
       </c>
       <c r="C174" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2860,7 +2860,7 @@
         <v>682243</v>
       </c>
       <c r="C175" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2871,7 +2871,7 @@
         <v>676508</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2882,7 +2882,7 @@
         <v>684007</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2893,7 +2893,7 @@
         <v>694918</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2904,7 +2904,7 @@
         <v>641302</v>
       </c>
       <c r="C179" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2915,7 +2915,7 @@
         <v>682052</v>
       </c>
       <c r="C180" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2926,7 +2926,7 @@
         <v>663372</v>
       </c>
       <c r="C181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2937,7 +2937,7 @@
         <v>471911</v>
       </c>
       <c r="C182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2948,7 +2948,7 @@
         <v>669302</v>
       </c>
       <c r="C183" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2959,7 +2959,7 @@
         <v>500779</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2970,7 +2970,7 @@
         <v>686249</v>
       </c>
       <c r="C185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2981,7 +2981,7 @@
         <v>527048</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2992,7 +2992,7 @@
         <v>450203</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,6 +25,75 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
@@ -337,57 +406,30 @@
     <t>Andre Pallante</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Brady Singer</t>
   </si>
   <si>
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
     <t>Daniel Lynch</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
     <t>JP Sears</t>
   </si>
   <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
     <t>Logan Webb</t>
   </si>
   <si>
     <t>Max Meyer</t>
   </si>
   <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
-    <t>Ryan Yarbrough</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
@@ -403,69 +445,30 @@
     <t>Shane Smith</t>
   </si>
   <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Logan Evans</t>
   </si>
   <si>
     <t>Cade Horton</t>
   </si>
   <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
     <t>Chayce McDermott</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
     <t>Mitchell Parker</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Ryan Weathers</t>
-  </si>
-  <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
     <t>Spencer Strider</t>
   </si>
   <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
     <t>Bryse Wilson</t>
   </si>
   <si>
     <t>J T Ginn</t>
   </si>
   <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
@@ -575,9 +578,6 @@
   </si>
   <si>
     <t>Martín Pérez</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
   </si>
   <si>
     <t>RHP</t>
@@ -959,16 +959,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>605288</v>
+      </c>
       <c r="C2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>663559</v>
+        <v>571760</v>
       </c>
       <c r="C3" t="s">
         <v>189</v>
@@ -976,10 +982,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>641927</v>
+        <v>450203</v>
       </c>
       <c r="C4" t="s">
         <v>188</v>
@@ -987,22 +993,16 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>676962</v>
+        <v>663978</v>
       </c>
       <c r="C5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>694297</v>
-      </c>
       <c r="C6" t="s">
         <v>188</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>605135</v>
+        <v>607200</v>
       </c>
       <c r="C7" t="s">
         <v>188</v>
@@ -1023,10 +1023,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>663436</v>
+        <v>676979</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1034,7 +1034,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>665152</v>
+        <v>668909</v>
       </c>
       <c r="C9" t="s">
         <v>188</v>
@@ -1045,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>656302</v>
+        <v>806185</v>
       </c>
       <c r="C10" t="s">
         <v>188</v>
@@ -1056,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>665795</v>
+        <v>686799</v>
       </c>
       <c r="C11" t="s">
         <v>188</v>
@@ -1067,10 +1067,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>666200</v>
+        <v>594798</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1078,7 +1078,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>673540</v>
+        <v>592791</v>
       </c>
       <c r="C13" t="s">
         <v>188</v>
@@ -1089,10 +1089,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>663460</v>
+        <v>672456</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1100,7 +1100,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>543294</v>
+        <v>592332</v>
       </c>
       <c r="C15" t="s">
         <v>188</v>
@@ -1111,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>689017</v>
+        <v>547179</v>
       </c>
       <c r="C16" t="s">
         <v>188</v>
@@ -1122,10 +1122,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>671106</v>
+        <v>607259</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>622491</v>
+        <v>681190</v>
       </c>
       <c r="C18" t="s">
         <v>188</v>
@@ -1144,10 +1144,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>647336</v>
+        <v>677960</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1155,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>666157</v>
+        <v>642232</v>
       </c>
       <c r="C20" t="s">
         <v>189</v>
@@ -1166,10 +1166,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>571578</v>
+        <v>669194</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1177,10 +1177,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>592662</v>
+        <v>808967</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1188,7 +1188,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>686752</v>
+        <v>641793</v>
       </c>
       <c r="C23" t="s">
         <v>188</v>
@@ -1199,7 +1199,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>543243</v>
+        <v>694477</v>
       </c>
       <c r="C24" t="s">
         <v>188</v>
@@ -1210,10 +1210,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>680885</v>
+        <v>687223</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>669373</v>
+        <v>663559</v>
       </c>
       <c r="C26" t="s">
         <v>189</v>
@@ -1232,7 +1232,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>621111</v>
+        <v>641927</v>
       </c>
       <c r="C27" t="s">
         <v>188</v>
@@ -1243,7 +1243,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>701542</v>
+        <v>676962</v>
       </c>
       <c r="C28" t="s">
         <v>188</v>
@@ -1254,7 +1254,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>680684</v>
+        <v>694297</v>
       </c>
       <c r="C29" t="s">
         <v>188</v>
@@ -1265,7 +1265,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>701656</v>
+        <v>605135</v>
       </c>
       <c r="C30" t="s">
         <v>188</v>
@@ -1276,10 +1276,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>676467</v>
+        <v>663436</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1287,10 +1287,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>671096</v>
+        <v>665152</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1298,7 +1298,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>693433</v>
+        <v>656302</v>
       </c>
       <c r="C33" t="s">
         <v>188</v>
@@ -1309,7 +1309,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>615698</v>
+        <v>665795</v>
       </c>
       <c r="C34" t="s">
         <v>188</v>
@@ -1320,10 +1320,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>663554</v>
+        <v>666200</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>607067</v>
+        <v>673540</v>
       </c>
       <c r="C36" t="s">
         <v>188</v>
@@ -1342,7 +1342,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>650911</v>
+        <v>663460</v>
       </c>
       <c r="C37" t="s">
         <v>189</v>
@@ -1353,10 +1353,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>656849</v>
+        <v>543294</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1364,10 +1364,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>664285</v>
+        <v>689017</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1375,10 +1375,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>656550</v>
+        <v>671106</v>
       </c>
       <c r="C40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1386,7 +1386,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>683004</v>
+        <v>622491</v>
       </c>
       <c r="C41" t="s">
         <v>188</v>
@@ -1397,7 +1397,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>663623</v>
+        <v>647336</v>
       </c>
       <c r="C42" t="s">
         <v>188</v>
@@ -1408,7 +1408,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>605488</v>
+        <v>666157</v>
       </c>
       <c r="C43" t="s">
         <v>189</v>
@@ -1419,10 +1419,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>686563</v>
+        <v>571578</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1430,10 +1430,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>621244</v>
+        <v>592662</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1441,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>667755</v>
+        <v>686752</v>
       </c>
       <c r="C46" t="s">
         <v>188</v>
@@ -1452,10 +1452,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>607536</v>
+        <v>543243</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1463,10 +1463,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>690986</v>
+        <v>680885</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1474,16 +1474,19 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>608337</v>
+        <v>669373</v>
       </c>
       <c r="C49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
+      <c r="B50">
+        <v>621111</v>
+      </c>
       <c r="C50" t="s">
         <v>188</v>
       </c>
@@ -1493,10 +1496,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>669461</v>
+        <v>701542</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1504,10 +1507,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>608331</v>
+        <v>680684</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1515,7 +1518,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>518876</v>
+        <v>701656</v>
       </c>
       <c r="C53" t="s">
         <v>188</v>
@@ -1526,10 +1529,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>650633</v>
+        <v>676467</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1537,10 +1540,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>608379</v>
+        <v>671096</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1548,7 +1551,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>656605</v>
+        <v>693433</v>
       </c>
       <c r="C56" t="s">
         <v>188</v>
@@ -1559,7 +1562,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>682990</v>
+        <v>615698</v>
       </c>
       <c r="C57" t="s">
         <v>188</v>
@@ -1570,7 +1573,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>669358</v>
+        <v>663554</v>
       </c>
       <c r="C58" t="s">
         <v>188</v>
@@ -1581,7 +1584,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>664062</v>
+        <v>607067</v>
       </c>
       <c r="C59" t="s">
         <v>188</v>
@@ -1592,7 +1595,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>669432</v>
+        <v>650911</v>
       </c>
       <c r="C60" t="s">
         <v>189</v>
@@ -1603,10 +1606,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>621107</v>
+        <v>656849</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1614,10 +1617,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>805673</v>
+        <v>664285</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1625,7 +1628,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>690928</v>
+        <v>656550</v>
       </c>
       <c r="C63" t="s">
         <v>188</v>
@@ -1636,7 +1639,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>678394</v>
+        <v>683004</v>
       </c>
       <c r="C64" t="s">
         <v>188</v>
@@ -1647,10 +1650,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>700249</v>
+        <v>663623</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1658,7 +1661,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>519242</v>
+        <v>605488</v>
       </c>
       <c r="C66" t="s">
         <v>189</v>
@@ -1669,7 +1672,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>657376</v>
+        <v>686563</v>
       </c>
       <c r="C67" t="s">
         <v>188</v>
@@ -1680,10 +1683,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>477132</v>
+        <v>621244</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1691,7 +1694,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>676106</v>
+        <v>667755</v>
       </c>
       <c r="C69" t="s">
         <v>188</v>
@@ -1702,10 +1705,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>642547</v>
+        <v>607536</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1713,10 +1716,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>656288</v>
+        <v>690986</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1724,7 +1727,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>668881</v>
+        <v>608337</v>
       </c>
       <c r="C72" t="s">
         <v>188</v>
@@ -1734,9 +1737,6 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>689017</v>
-      </c>
       <c r="C73" t="s">
         <v>188</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>669022</v>
+        <v>669461</v>
       </c>
       <c r="C74" t="s">
         <v>189</v>
@@ -1757,7 +1757,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>571510</v>
+        <v>608331</v>
       </c>
       <c r="C75" t="s">
         <v>189</v>
@@ -1768,7 +1768,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>571945</v>
+        <v>518876</v>
       </c>
       <c r="C76" t="s">
         <v>188</v>
@@ -1779,7 +1779,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>601713</v>
+        <v>650633</v>
       </c>
       <c r="C77" t="s">
         <v>188</v>
@@ -1790,7 +1790,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>641154</v>
+        <v>608379</v>
       </c>
       <c r="C78" t="s">
         <v>188</v>
@@ -1801,7 +1801,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>694973</v>
+        <v>656605</v>
       </c>
       <c r="C79" t="s">
         <v>188</v>
@@ -1812,7 +1812,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>645261</v>
+        <v>682990</v>
       </c>
       <c r="C80" t="s">
         <v>188</v>
@@ -1823,7 +1823,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>680732</v>
+        <v>669358</v>
       </c>
       <c r="C81" t="s">
         <v>188</v>
@@ -1834,7 +1834,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>677944</v>
+        <v>664062</v>
       </c>
       <c r="C82" t="s">
         <v>188</v>
@@ -1845,10 +1845,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>685299</v>
+        <v>669432</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1856,7 +1856,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>641816</v>
+        <v>621107</v>
       </c>
       <c r="C84" t="s">
         <v>188</v>
@@ -1867,10 +1867,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>579328</v>
+        <v>805673</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>668678</v>
+        <v>690928</v>
       </c>
       <c r="C86" t="s">
         <v>188</v>
@@ -1889,7 +1889,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>554430</v>
+        <v>678394</v>
       </c>
       <c r="C87" t="s">
         <v>188</v>
@@ -1900,10 +1900,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>695549</v>
+        <v>700249</v>
       </c>
       <c r="C88" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1911,10 +1911,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>687473</v>
+        <v>519242</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1922,10 +1922,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>702070</v>
+        <v>657376</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1933,10 +1933,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>650644</v>
+        <v>477132</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>700363</v>
+        <v>676106</v>
       </c>
       <c r="C92" t="s">
         <v>188</v>
@@ -1955,7 +1955,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>670102</v>
+        <v>642547</v>
       </c>
       <c r="C93" t="s">
         <v>188</v>
@@ -1966,10 +1966,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>607074</v>
+        <v>656288</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1977,7 +1977,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>669923</v>
+        <v>668881</v>
       </c>
       <c r="C95" t="s">
         <v>188</v>
@@ -1988,7 +1988,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>608566</v>
+        <v>689017</v>
       </c>
       <c r="C96" t="s">
         <v>188</v>
@@ -1999,10 +1999,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>656427</v>
+        <v>669022</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2010,10 +2010,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>622663</v>
+        <v>571510</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>543135</v>
+        <v>571945</v>
       </c>
       <c r="C99" t="s">
         <v>188</v>
@@ -2032,10 +2032,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>624133</v>
+        <v>601713</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2043,7 +2043,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>676440</v>
+        <v>641154</v>
       </c>
       <c r="C101" t="s">
         <v>188</v>
@@ -2054,7 +2054,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>592866</v>
+        <v>694973</v>
       </c>
       <c r="C102" t="s">
         <v>188</v>
@@ -2065,10 +2065,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>542881</v>
+        <v>645261</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2076,7 +2076,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>663568</v>
+        <v>680732</v>
       </c>
       <c r="C104" t="s">
         <v>188</v>
@@ -2087,7 +2087,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>681347</v>
+        <v>677944</v>
       </c>
       <c r="C105" t="s">
         <v>188</v>
@@ -2098,7 +2098,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>669467</v>
+        <v>685299</v>
       </c>
       <c r="C106" t="s">
         <v>188</v>
@@ -2109,10 +2109,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>571760</v>
+        <v>641816</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2120,10 +2120,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>663903</v>
+        <v>579328</v>
       </c>
       <c r="C108" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2131,10 +2131,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>676428</v>
+        <v>668678</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>663978</v>
+        <v>554430</v>
       </c>
       <c r="C110" t="s">
         <v>188</v>
@@ -2153,7 +2153,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>669203</v>
+        <v>695549</v>
       </c>
       <c r="C111" t="s">
         <v>188</v>
@@ -2164,10 +2164,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>663738</v>
+        <v>687473</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2175,7 +2175,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>676979</v>
+        <v>702070</v>
       </c>
       <c r="C113" t="s">
         <v>189</v>
@@ -2186,7 +2186,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>668909</v>
+        <v>650644</v>
       </c>
       <c r="C114" t="s">
         <v>188</v>
@@ -2197,7 +2197,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>686613</v>
+        <v>700363</v>
       </c>
       <c r="C115" t="s">
         <v>188</v>
@@ -2208,7 +2208,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>686799</v>
+        <v>670102</v>
       </c>
       <c r="C116" t="s">
         <v>188</v>
@@ -2219,10 +2219,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>594798</v>
+        <v>607074</v>
       </c>
       <c r="C117" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2230,10 +2230,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>676664</v>
+        <v>669923</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>592332</v>
+        <v>608566</v>
       </c>
       <c r="C119" t="s">
         <v>188</v>
@@ -2252,7 +2252,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>657277</v>
+        <v>656427</v>
       </c>
       <c r="C120" t="s">
         <v>188</v>
@@ -2263,7 +2263,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>676974</v>
+        <v>622663</v>
       </c>
       <c r="C121" t="s">
         <v>188</v>
@@ -2274,7 +2274,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>681190</v>
+        <v>543135</v>
       </c>
       <c r="C122" t="s">
         <v>188</v>
@@ -2285,7 +2285,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>642232</v>
+        <v>624133</v>
       </c>
       <c r="C123" t="s">
         <v>189</v>
@@ -2296,7 +2296,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>592836</v>
+        <v>676440</v>
       </c>
       <c r="C124" t="s">
         <v>188</v>
@@ -2307,7 +2307,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>671737</v>
+        <v>592866</v>
       </c>
       <c r="C125" t="s">
         <v>188</v>
@@ -2318,10 +2318,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>656731</v>
+        <v>542881</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2329,7 +2329,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>608372</v>
+        <v>663568</v>
       </c>
       <c r="C127" t="s">
         <v>188</v>
@@ -2340,7 +2340,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>681343</v>
+        <v>681347</v>
       </c>
       <c r="C128" t="s">
         <v>188</v>
@@ -2351,7 +2351,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>694477</v>
+        <v>669467</v>
       </c>
       <c r="C129" t="s">
         <v>188</v>
@@ -2362,7 +2362,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>688138</v>
+        <v>663903</v>
       </c>
       <c r="C130" t="s">
         <v>188</v>
@@ -2373,10 +2373,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>690990</v>
+        <v>676428</v>
       </c>
       <c r="C131" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2384,10 +2384,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>687223</v>
+        <v>669203</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2395,10 +2395,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>605288</v>
+        <v>663738</v>
       </c>
       <c r="C133" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2406,10 +2406,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>687888</v>
+        <v>686613</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2417,10 +2417,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>694646</v>
+        <v>676664</v>
       </c>
       <c r="C135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2428,7 +2428,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>607200</v>
+        <v>657277</v>
       </c>
       <c r="C136" t="s">
         <v>188</v>
@@ -2439,7 +2439,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>806185</v>
+        <v>676974</v>
       </c>
       <c r="C137" t="s">
         <v>188</v>
@@ -2450,7 +2450,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>592791</v>
+        <v>592836</v>
       </c>
       <c r="C138" t="s">
         <v>188</v>
@@ -2461,7 +2461,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>547179</v>
+        <v>671737</v>
       </c>
       <c r="C139" t="s">
         <v>188</v>
@@ -2472,10 +2472,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>680730</v>
+        <v>656731</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2483,7 +2483,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>607259</v>
+        <v>608372</v>
       </c>
       <c r="C141" t="s">
         <v>188</v>
@@ -2494,10 +2494,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>677960</v>
+        <v>681343</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669194</v>
+        <v>688138</v>
       </c>
       <c r="C143" t="s">
         <v>188</v>
@@ -2516,7 +2516,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>675911</v>
+        <v>690990</v>
       </c>
       <c r="C144" t="s">
         <v>188</v>
@@ -2527,10 +2527,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>808967</v>
+        <v>687888</v>
       </c>
       <c r="C145" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>641793</v>
+        <v>694646</v>
       </c>
       <c r="C146" t="s">
         <v>188</v>
@@ -2549,10 +2549,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>669060</v>
+        <v>680730</v>
       </c>
       <c r="C147" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>669372</v>
+        <v>675911</v>
       </c>
       <c r="C148" t="s">
         <v>188</v>
@@ -2571,7 +2571,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>672456</v>
+        <v>669060</v>
       </c>
       <c r="C149" t="s">
         <v>188</v>
@@ -2582,7 +2582,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>434378</v>
+        <v>669372</v>
       </c>
       <c r="C150" t="s">
         <v>188</v>
@@ -2593,7 +2593,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>801403</v>
+        <v>434378</v>
       </c>
       <c r="C151" t="s">
         <v>188</v>
@@ -2604,7 +2604,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>690953</v>
+        <v>801403</v>
       </c>
       <c r="C152" t="s">
         <v>188</v>
@@ -2615,7 +2615,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669387</v>
+        <v>690953</v>
       </c>
       <c r="C153" t="s">
         <v>188</v>
@@ -2626,7 +2626,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>502043</v>
+        <v>669387</v>
       </c>
       <c r="C154" t="s">
         <v>188</v>
@@ -2637,7 +2637,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>681857</v>
+        <v>502043</v>
       </c>
       <c r="C155" t="s">
         <v>188</v>
@@ -2648,7 +2648,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>669854</v>
+        <v>681857</v>
       </c>
       <c r="C156" t="s">
         <v>188</v>
@@ -2659,7 +2659,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>668964</v>
+        <v>669854</v>
       </c>
       <c r="C157" t="s">
         <v>188</v>
@@ -2670,7 +2670,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>695534</v>
+        <v>668964</v>
       </c>
       <c r="C158" t="s">
         <v>188</v>
@@ -2681,10 +2681,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>666142</v>
+        <v>695534</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2692,10 +2692,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>657746</v>
+        <v>666142</v>
       </c>
       <c r="C160" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>674370</v>
+        <v>657746</v>
       </c>
       <c r="C161" t="s">
         <v>188</v>
@@ -2714,7 +2714,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>669422</v>
+        <v>674370</v>
       </c>
       <c r="C162" t="s">
         <v>188</v>
@@ -2725,7 +2725,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>605400</v>
+        <v>669422</v>
       </c>
       <c r="C163" t="s">
         <v>188</v>
@@ -2736,7 +2736,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>693821</v>
+        <v>605400</v>
       </c>
       <c r="C164" t="s">
         <v>188</v>
@@ -2747,10 +2747,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>593958</v>
+        <v>693821</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2758,10 +2758,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>663855</v>
+        <v>593958</v>
       </c>
       <c r="C166" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2769,7 +2769,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>680573</v>
+        <v>663855</v>
       </c>
       <c r="C167" t="s">
         <v>188</v>
@@ -2780,7 +2780,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>678368</v>
+        <v>680573</v>
       </c>
       <c r="C168" t="s">
         <v>188</v>
@@ -2791,7 +2791,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C169" t="s">
         <v>188</v>
@@ -2802,7 +2802,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C170" t="s">
         <v>188</v>
@@ -2813,7 +2813,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C171" t="s">
         <v>188</v>
@@ -2824,7 +2824,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C172" t="s">
         <v>188</v>
@@ -2835,7 +2835,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>607625</v>
+        <v>570632</v>
       </c>
       <c r="C173" t="s">
         <v>188</v>
@@ -2846,7 +2846,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>695418</v>
+        <v>607625</v>
       </c>
       <c r="C174" t="s">
         <v>188</v>
@@ -2857,7 +2857,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>682243</v>
+        <v>695418</v>
       </c>
       <c r="C175" t="s">
         <v>188</v>
@@ -2868,7 +2868,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>676508</v>
+        <v>682243</v>
       </c>
       <c r="C176" t="s">
         <v>188</v>
@@ -2879,10 +2879,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>684007</v>
+        <v>676508</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2890,10 +2890,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>694918</v>
+        <v>684007</v>
       </c>
       <c r="C178" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2901,10 +2901,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>641302</v>
+        <v>694918</v>
       </c>
       <c r="C179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2912,7 +2912,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>682052</v>
+        <v>641302</v>
       </c>
       <c r="C180" t="s">
         <v>189</v>
@@ -2923,10 +2923,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>663372</v>
+        <v>682052</v>
       </c>
       <c r="C181" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2934,7 +2934,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C182" t="s">
         <v>188</v>
@@ -2945,7 +2945,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>669302</v>
+        <v>471911</v>
       </c>
       <c r="C183" t="s">
         <v>188</v>
@@ -2956,10 +2956,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>500779</v>
+        <v>669302</v>
       </c>
       <c r="C184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2967,10 +2967,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>686249</v>
+        <v>500779</v>
       </c>
       <c r="C185" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2978,10 +2978,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>527048</v>
+        <v>686249</v>
       </c>
       <c r="C186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2989,10 +2989,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>450203</v>
+        <v>527048</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="191">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,93 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>Daniel Lynch</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
@@ -217,9 +304,6 @@
     <t>Jeffrey Springs</t>
   </si>
   <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
     <t>José Berríos</t>
   </si>
   <si>
@@ -358,111 +442,33 @@
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
-    <t>Bowden Francis</t>
-  </si>
-  <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>George Kirby</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
     <t>Trevor Williams</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>Corbin Burnes</t>
-  </si>
-  <si>
-    <t>Daniel Lynch</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Max Meyer</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Shane Smith</t>
   </si>
   <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
     <t>Chayce McDermott</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
     <t>Bryse Wilson</t>
   </si>
   <si>
@@ -497,9 +503,6 @@
   </si>
   <si>
     <t>Cole Ragans</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
   </si>
   <si>
     <t>Osvaldo Bido</t>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -963,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605288</v>
+        <v>650644</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -974,7 +977,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>571760</v>
+        <v>669467</v>
       </c>
       <c r="C3" t="s">
         <v>189</v>
@@ -985,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>450203</v>
+        <v>670102</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -996,48 +999,48 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>663978</v>
+        <v>663903</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>607074</v>
+      </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>607200</v>
+        <v>669203</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>676979</v>
+        <v>663738</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>668909</v>
-      </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1045,10 +1048,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>806185</v>
+        <v>608566</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1056,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>686799</v>
+        <v>686613</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1067,10 +1070,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>594798</v>
+        <v>656427</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1078,10 +1081,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>592791</v>
+        <v>657746</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1089,10 +1092,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>672456</v>
+        <v>686563</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1100,10 +1103,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>592332</v>
+        <v>676664</v>
       </c>
       <c r="C15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1111,10 +1114,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>547179</v>
+        <v>657277</v>
       </c>
       <c r="C16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1122,10 +1125,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>607259</v>
+        <v>676974</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1133,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>681190</v>
+        <v>680730</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1144,7 +1147,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>677960</v>
+        <v>543135</v>
       </c>
       <c r="C19" t="s">
         <v>189</v>
@@ -1155,10 +1158,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>642232</v>
+        <v>624133</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1166,10 +1169,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>669194</v>
+        <v>690916</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1177,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>808967</v>
+        <v>675911</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1188,10 +1191,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>641793</v>
+        <v>671737</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1199,10 +1202,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>694477</v>
+        <v>676440</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1210,10 +1213,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>687223</v>
+        <v>542881</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1221,7 +1224,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>663559</v>
+        <v>656731</v>
       </c>
       <c r="C26" t="s">
         <v>189</v>
@@ -1232,10 +1235,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>641927</v>
+        <v>608372</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1243,10 +1246,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>676962</v>
+        <v>663568</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1254,10 +1257,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>694297</v>
+        <v>688138</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1265,10 +1268,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>605135</v>
+        <v>690990</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1276,10 +1279,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>663436</v>
+        <v>681347</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1287,10 +1290,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>665152</v>
+        <v>605288</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1298,10 +1301,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>656302</v>
+        <v>571760</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1309,10 +1312,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>665795</v>
+        <v>450203</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1320,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>666200</v>
+        <v>663978</v>
       </c>
       <c r="C35" t="s">
         <v>189</v>
@@ -1331,10 +1334,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>673540</v>
+        <v>607200</v>
       </c>
       <c r="C36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1342,10 +1345,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>663460</v>
+        <v>676979</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1353,10 +1356,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>543294</v>
+        <v>668909</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1364,10 +1367,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>689017</v>
+        <v>806185</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1375,7 +1378,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>671106</v>
+        <v>686799</v>
       </c>
       <c r="C40" t="s">
         <v>189</v>
@@ -1386,10 +1389,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>622491</v>
+        <v>594798</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1397,10 +1400,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>647336</v>
+        <v>592791</v>
       </c>
       <c r="C42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1408,7 +1411,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>666157</v>
+        <v>672456</v>
       </c>
       <c r="C43" t="s">
         <v>189</v>
@@ -1419,7 +1422,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>571578</v>
+        <v>592332</v>
       </c>
       <c r="C44" t="s">
         <v>189</v>
@@ -1430,7 +1433,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>592662</v>
+        <v>547179</v>
       </c>
       <c r="C45" t="s">
         <v>189</v>
@@ -1441,10 +1444,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>686752</v>
+        <v>607259</v>
       </c>
       <c r="C46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1452,10 +1455,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>543243</v>
+        <v>681190</v>
       </c>
       <c r="C47" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1463,10 +1466,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>680885</v>
+        <v>677960</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1474,10 +1477,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>669373</v>
+        <v>642232</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1485,10 +1488,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>621111</v>
+        <v>669194</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1496,10 +1499,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>701542</v>
+        <v>808967</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1507,10 +1510,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>680684</v>
+        <v>641793</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1518,10 +1521,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>701656</v>
+        <v>694477</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1529,10 +1532,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>676467</v>
+        <v>687223</v>
       </c>
       <c r="C54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1540,10 +1543,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>671096</v>
+        <v>663559</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1551,10 +1554,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>693433</v>
+        <v>641927</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1562,10 +1565,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>615698</v>
+        <v>676962</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1573,10 +1576,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>663554</v>
+        <v>694297</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1584,10 +1587,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>607067</v>
+        <v>605135</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1595,7 +1598,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>650911</v>
+        <v>663436</v>
       </c>
       <c r="C60" t="s">
         <v>189</v>
@@ -1606,7 +1609,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>656849</v>
+        <v>665152</v>
       </c>
       <c r="C61" t="s">
         <v>189</v>
@@ -1617,7 +1620,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>664285</v>
+        <v>656302</v>
       </c>
       <c r="C62" t="s">
         <v>189</v>
@@ -1628,10 +1631,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>656550</v>
+        <v>665795</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1639,10 +1642,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>683004</v>
+        <v>666200</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1650,10 +1653,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>663623</v>
+        <v>673540</v>
       </c>
       <c r="C65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1661,10 +1664,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>605488</v>
+        <v>663460</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1672,10 +1675,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>686563</v>
+        <v>543294</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1683,10 +1686,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>621244</v>
+        <v>689017</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1694,10 +1697,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>667755</v>
+        <v>671106</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1705,7 +1708,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>607536</v>
+        <v>622491</v>
       </c>
       <c r="C70" t="s">
         <v>189</v>
@@ -1716,7 +1719,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>690986</v>
+        <v>647336</v>
       </c>
       <c r="C71" t="s">
         <v>189</v>
@@ -1727,18 +1730,21 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>608337</v>
+        <v>666157</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
+      <c r="B73">
+        <v>571578</v>
+      </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1746,10 +1752,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>669461</v>
+        <v>592662</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1757,7 +1763,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>608331</v>
+        <v>686752</v>
       </c>
       <c r="C75" t="s">
         <v>189</v>
@@ -1768,10 +1774,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>518876</v>
+        <v>543243</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1779,10 +1785,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>650633</v>
+        <v>680885</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1790,10 +1796,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>608379</v>
+        <v>669373</v>
       </c>
       <c r="C78" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1801,10 +1807,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>656605</v>
+        <v>621111</v>
       </c>
       <c r="C79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1812,10 +1818,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>682990</v>
+        <v>701542</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1823,10 +1829,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>669358</v>
+        <v>680684</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1834,10 +1840,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>664062</v>
+        <v>701656</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1845,10 +1851,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>669432</v>
+        <v>676467</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1856,10 +1862,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>621107</v>
+        <v>671096</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1867,10 +1873,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>805673</v>
+        <v>693433</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1878,10 +1884,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>690928</v>
+        <v>615698</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1889,10 +1895,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>678394</v>
+        <v>663554</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1900,7 +1906,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>700249</v>
+        <v>607067</v>
       </c>
       <c r="C88" t="s">
         <v>189</v>
@@ -1911,10 +1917,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>519242</v>
+        <v>650911</v>
       </c>
       <c r="C89" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1922,10 +1928,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>657376</v>
+        <v>656849</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1933,10 +1939,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>477132</v>
+        <v>664285</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1944,10 +1950,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>676106</v>
+        <v>656550</v>
       </c>
       <c r="C92" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1955,10 +1961,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>642547</v>
+        <v>683004</v>
       </c>
       <c r="C93" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1966,10 +1972,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>656288</v>
+        <v>663623</v>
       </c>
       <c r="C94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1977,10 +1983,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>668881</v>
+        <v>605488</v>
       </c>
       <c r="C95" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1988,10 +1994,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>689017</v>
+        <v>621244</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1999,7 +2005,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>669022</v>
+        <v>667755</v>
       </c>
       <c r="C97" t="s">
         <v>189</v>
@@ -2010,10 +2016,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>571510</v>
+        <v>607536</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2021,10 +2027,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>571945</v>
+        <v>690986</v>
       </c>
       <c r="C99" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2032,21 +2038,18 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>601713</v>
+        <v>608337</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>641154</v>
-      </c>
       <c r="C101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2054,10 +2057,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>694973</v>
+        <v>669461</v>
       </c>
       <c r="C102" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2065,10 +2068,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>645261</v>
+        <v>608331</v>
       </c>
       <c r="C103" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2076,10 +2079,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>680732</v>
+        <v>518876</v>
       </c>
       <c r="C104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2087,10 +2090,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>677944</v>
+        <v>650633</v>
       </c>
       <c r="C105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2098,10 +2101,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>685299</v>
+        <v>608379</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2109,10 +2112,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>641816</v>
+        <v>656605</v>
       </c>
       <c r="C107" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2120,7 +2123,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>579328</v>
+        <v>682990</v>
       </c>
       <c r="C108" t="s">
         <v>189</v>
@@ -2131,10 +2134,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>668678</v>
+        <v>669358</v>
       </c>
       <c r="C109" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2142,10 +2145,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>554430</v>
+        <v>664062</v>
       </c>
       <c r="C110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2153,10 +2156,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>695549</v>
+        <v>669432</v>
       </c>
       <c r="C111" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2164,10 +2167,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>687473</v>
+        <v>621107</v>
       </c>
       <c r="C112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2175,7 +2178,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>702070</v>
+        <v>805673</v>
       </c>
       <c r="C113" t="s">
         <v>189</v>
@@ -2186,10 +2189,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>650644</v>
+        <v>690928</v>
       </c>
       <c r="C114" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2197,10 +2200,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>700363</v>
+        <v>678394</v>
       </c>
       <c r="C115" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2208,10 +2211,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>670102</v>
+        <v>700249</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2219,10 +2222,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>607074</v>
+        <v>519242</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2230,10 +2233,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>669923</v>
+        <v>657376</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2241,10 +2244,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>608566</v>
+        <v>477132</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2252,10 +2255,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>656427</v>
+        <v>676106</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2263,10 +2266,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>622663</v>
+        <v>642547</v>
       </c>
       <c r="C121" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2274,10 +2277,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>543135</v>
+        <v>656288</v>
       </c>
       <c r="C122" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2285,7 +2288,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>624133</v>
+        <v>668881</v>
       </c>
       <c r="C123" t="s">
         <v>189</v>
@@ -2296,10 +2299,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>676440</v>
+        <v>689017</v>
       </c>
       <c r="C124" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2307,10 +2310,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>592866</v>
+        <v>669022</v>
       </c>
       <c r="C125" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2318,10 +2321,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>542881</v>
+        <v>571510</v>
       </c>
       <c r="C126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2329,10 +2332,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>663568</v>
+        <v>571945</v>
       </c>
       <c r="C127" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2340,10 +2343,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>681347</v>
+        <v>601713</v>
       </c>
       <c r="C128" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2351,10 +2354,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>669467</v>
+        <v>641154</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2362,10 +2365,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>663903</v>
+        <v>694973</v>
       </c>
       <c r="C130" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2373,7 +2376,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>676428</v>
+        <v>645261</v>
       </c>
       <c r="C131" t="s">
         <v>189</v>
@@ -2384,10 +2387,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>669203</v>
+        <v>680732</v>
       </c>
       <c r="C132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2395,7 +2398,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>663738</v>
+        <v>677944</v>
       </c>
       <c r="C133" t="s">
         <v>189</v>
@@ -2406,10 +2409,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>686613</v>
+        <v>685299</v>
       </c>
       <c r="C134" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2417,7 +2420,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>676664</v>
+        <v>641816</v>
       </c>
       <c r="C135" t="s">
         <v>189</v>
@@ -2428,10 +2431,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>657277</v>
+        <v>579328</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2439,10 +2442,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>676974</v>
+        <v>668678</v>
       </c>
       <c r="C137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2450,10 +2453,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>592836</v>
+        <v>554430</v>
       </c>
       <c r="C138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2461,10 +2464,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>671737</v>
+        <v>695549</v>
       </c>
       <c r="C139" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2472,10 +2475,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>656731</v>
+        <v>687473</v>
       </c>
       <c r="C140" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2483,10 +2486,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>608372</v>
+        <v>702070</v>
       </c>
       <c r="C141" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2494,10 +2497,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>681343</v>
+        <v>700363</v>
       </c>
       <c r="C142" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2505,10 +2508,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>688138</v>
+        <v>669923</v>
       </c>
       <c r="C143" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2516,10 +2519,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>690990</v>
+        <v>622663</v>
       </c>
       <c r="C144" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2527,7 +2530,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>687888</v>
+        <v>592866</v>
       </c>
       <c r="C145" t="s">
         <v>189</v>
@@ -2538,10 +2541,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>694646</v>
+        <v>676428</v>
       </c>
       <c r="C146" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2549,7 +2552,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>680730</v>
+        <v>592836</v>
       </c>
       <c r="C147" t="s">
         <v>189</v>
@@ -2560,10 +2563,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>675911</v>
+        <v>681343</v>
       </c>
       <c r="C148" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2571,10 +2574,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>669060</v>
+        <v>687888</v>
       </c>
       <c r="C149" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2582,10 +2585,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>669372</v>
+        <v>694646</v>
       </c>
       <c r="C150" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2593,10 +2596,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>434378</v>
+        <v>669060</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2604,10 +2607,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>801403</v>
+        <v>669372</v>
       </c>
       <c r="C152" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2615,10 +2618,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>690953</v>
+        <v>434378</v>
       </c>
       <c r="C153" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2626,10 +2629,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>669387</v>
+        <v>801403</v>
       </c>
       <c r="C154" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2637,10 +2640,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>502043</v>
+        <v>690953</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2648,10 +2651,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>681857</v>
+        <v>669387</v>
       </c>
       <c r="C156" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2659,10 +2662,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>669854</v>
+        <v>502043</v>
       </c>
       <c r="C157" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2670,10 +2673,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>668964</v>
+        <v>681857</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2681,10 +2684,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>695534</v>
+        <v>669854</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2692,7 +2695,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>666142</v>
+        <v>668964</v>
       </c>
       <c r="C160" t="s">
         <v>189</v>
@@ -2703,10 +2706,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>657746</v>
+        <v>695534</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2714,10 +2717,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2725,10 +2728,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>669422</v>
+        <v>674370</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2736,10 +2739,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>605400</v>
+        <v>669422</v>
       </c>
       <c r="C164" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2747,10 +2750,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>693821</v>
+        <v>605400</v>
       </c>
       <c r="C165" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2758,7 +2761,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>593958</v>
+        <v>693821</v>
       </c>
       <c r="C166" t="s">
         <v>189</v>
@@ -2769,10 +2772,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>663855</v>
+        <v>593958</v>
       </c>
       <c r="C167" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2780,10 +2783,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>680573</v>
+        <v>663855</v>
       </c>
       <c r="C168" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2791,10 +2794,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>678368</v>
+        <v>680573</v>
       </c>
       <c r="C169" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2802,10 +2805,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2813,10 +2816,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C171" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2824,10 +2827,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C172" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2835,10 +2838,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2846,10 +2849,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>607625</v>
+        <v>570632</v>
       </c>
       <c r="C174" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2857,10 +2860,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>695418</v>
+        <v>607625</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2868,10 +2871,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>682243</v>
+        <v>695418</v>
       </c>
       <c r="C176" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2879,10 +2882,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>676508</v>
+        <v>682243</v>
       </c>
       <c r="C177" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2890,7 +2893,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>684007</v>
+        <v>676508</v>
       </c>
       <c r="C178" t="s">
         <v>189</v>
@@ -2901,10 +2904,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>694918</v>
+        <v>684007</v>
       </c>
       <c r="C179" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2912,7 +2915,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>641302</v>
+        <v>694918</v>
       </c>
       <c r="C180" t="s">
         <v>189</v>
@@ -2923,10 +2926,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>682052</v>
+        <v>641302</v>
       </c>
       <c r="C181" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2934,10 +2937,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>663372</v>
+        <v>682052</v>
       </c>
       <c r="C182" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2945,10 +2948,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C183" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2956,10 +2959,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>669302</v>
+        <v>471911</v>
       </c>
       <c r="C184" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2967,7 +2970,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>500779</v>
+        <v>669302</v>
       </c>
       <c r="C185" t="s">
         <v>189</v>
@@ -2978,10 +2981,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>686249</v>
+        <v>500779</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2989,10 +2992,21 @@
         <v>187</v>
       </c>
       <c r="B187">
+        <v>686249</v>
+      </c>
+      <c r="C187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
         <v>527048</v>
       </c>
-      <c r="C187" t="s">
-        <v>189</v>
+      <c r="C188" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,84 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>AJ Smith-Shawver</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Hunter Greene</t>
+  </si>
+  <si>
+    <t>Kolby Allard</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Pablo López</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Jackson Jobe</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
@@ -361,106 +439,31 @@
     <t>Hunter Dobbins</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
     <t>Emerson Hancock</t>
   </si>
   <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>Griffin Canning</t>
-  </si>
-  <si>
-    <t>Hunter Greene</t>
-  </si>
-  <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Pablo López</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
     <t>Slade Cecconi</t>
   </si>
   <si>
-    <t>Tanner Gordon</t>
-  </si>
-  <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Jackson Jobe</t>
-  </si>
-  <si>
     <t>Ryan Gusto</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
-    <t>AJ Smith-Shawver</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
     <t>Brant Hurter</t>
   </si>
   <si>
     <t>Taijuan Walker</t>
-  </si>
-  <si>
-    <t>Shane Smith</t>
   </si>
   <si>
     <t>Brandon Walter</t>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,10 +969,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>650644</v>
+        <v>700363</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -977,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>669467</v>
+        <v>678394</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -988,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>670102</v>
+        <v>700249</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -999,10 +1002,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>663903</v>
+        <v>657376</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1010,37 +1013,37 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>607074</v>
+        <v>477132</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>669203</v>
-      </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>642547</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>663738</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>669923</v>
+      </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1048,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>608566</v>
+        <v>656288</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1059,10 +1062,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>686613</v>
+        <v>668881</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1070,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>656427</v>
+        <v>663465</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1081,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>657746</v>
+        <v>689017</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1092,10 +1095,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>686563</v>
+        <v>622663</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1103,10 +1106,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>676664</v>
+        <v>571510</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1114,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>657277</v>
+        <v>571945</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1125,10 +1128,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>676974</v>
+        <v>641154</v>
       </c>
       <c r="C17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1136,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>680730</v>
+        <v>694973</v>
       </c>
       <c r="C18" t="s">
         <v>190</v>
@@ -1147,10 +1150,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>543135</v>
+        <v>645261</v>
       </c>
       <c r="C19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1158,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>624133</v>
+        <v>685299</v>
       </c>
       <c r="C20" t="s">
         <v>190</v>
@@ -1169,10 +1172,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>690916</v>
+        <v>592866</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1180,10 +1183,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>675911</v>
+        <v>641816</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1191,10 +1194,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>671737</v>
+        <v>579328</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1202,10 +1205,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>676440</v>
+        <v>668678</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1213,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>542881</v>
+        <v>554430</v>
       </c>
       <c r="C25" t="s">
         <v>190</v>
@@ -1224,10 +1227,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>656731</v>
+        <v>681343</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1235,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>608372</v>
+        <v>695549</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1246,10 +1249,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>663568</v>
+        <v>702070</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1257,10 +1260,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>688138</v>
+        <v>650644</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1268,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>690990</v>
+        <v>669467</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1279,10 +1282,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>681347</v>
+        <v>670102</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1290,10 +1293,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>605288</v>
+        <v>663903</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1301,10 +1304,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>571760</v>
+        <v>607074</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1312,10 +1315,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>450203</v>
+        <v>669203</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1323,10 +1326,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>663978</v>
+        <v>663738</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1334,10 +1337,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>607200</v>
+        <v>608566</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1345,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>676979</v>
+        <v>686613</v>
       </c>
       <c r="C37" t="s">
         <v>190</v>
@@ -1356,10 +1359,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>668909</v>
+        <v>656427</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1367,10 +1370,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>806185</v>
+        <v>657746</v>
       </c>
       <c r="C39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1378,10 +1381,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>686799</v>
+        <v>686563</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1389,10 +1392,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>594798</v>
+        <v>676664</v>
       </c>
       <c r="C41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1400,10 +1403,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>592791</v>
+        <v>657277</v>
       </c>
       <c r="C42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1411,10 +1414,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>672456</v>
+        <v>676974</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1422,10 +1425,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>592332</v>
+        <v>680730</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1433,10 +1436,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>547179</v>
+        <v>543135</v>
       </c>
       <c r="C45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1444,10 +1447,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>607259</v>
+        <v>624133</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1455,10 +1458,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>681190</v>
+        <v>690916</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1466,7 +1469,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>677960</v>
+        <v>675911</v>
       </c>
       <c r="C48" t="s">
         <v>190</v>
@@ -1477,7 +1480,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>642232</v>
+        <v>671737</v>
       </c>
       <c r="C49" t="s">
         <v>190</v>
@@ -1488,10 +1491,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>669194</v>
+        <v>676440</v>
       </c>
       <c r="C50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1499,10 +1502,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>808967</v>
+        <v>542881</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1510,10 +1513,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>641793</v>
+        <v>656731</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1521,10 +1524,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>694477</v>
+        <v>608372</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1532,7 +1535,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>687223</v>
+        <v>663568</v>
       </c>
       <c r="C54" t="s">
         <v>190</v>
@@ -1543,7 +1546,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>663559</v>
+        <v>688138</v>
       </c>
       <c r="C55" t="s">
         <v>190</v>
@@ -1554,10 +1557,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>641927</v>
+        <v>690990</v>
       </c>
       <c r="C56" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1565,10 +1568,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>676962</v>
+        <v>681347</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1576,10 +1579,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>694297</v>
+        <v>605288</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1587,10 +1590,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>605135</v>
+        <v>571760</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1598,10 +1601,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>663436</v>
+        <v>450203</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1609,10 +1612,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>665152</v>
+        <v>663978</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1620,10 +1623,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>656302</v>
+        <v>607200</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1631,10 +1634,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>665795</v>
+        <v>676979</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1642,7 +1645,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>666200</v>
+        <v>668909</v>
       </c>
       <c r="C64" t="s">
         <v>190</v>
@@ -1653,10 +1656,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>673540</v>
+        <v>806185</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1664,7 +1667,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>663460</v>
+        <v>686799</v>
       </c>
       <c r="C66" t="s">
         <v>190</v>
@@ -1675,10 +1678,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>543294</v>
+        <v>594798</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1686,10 +1689,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>689017</v>
+        <v>592791</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1697,7 +1700,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>671106</v>
+        <v>672456</v>
       </c>
       <c r="C69" t="s">
         <v>190</v>
@@ -1708,10 +1711,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>622491</v>
+        <v>592332</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1719,10 +1722,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>647336</v>
+        <v>547179</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1730,7 +1733,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>666157</v>
+        <v>607259</v>
       </c>
       <c r="C72" t="s">
         <v>190</v>
@@ -1741,7 +1744,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>571578</v>
+        <v>681190</v>
       </c>
       <c r="C73" t="s">
         <v>190</v>
@@ -1752,10 +1755,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>592662</v>
+        <v>677960</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1763,10 +1766,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>686752</v>
+        <v>642232</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1774,10 +1777,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>543243</v>
+        <v>669194</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1785,10 +1788,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>680885</v>
+        <v>808967</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1796,7 +1799,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>669373</v>
+        <v>641793</v>
       </c>
       <c r="C78" t="s">
         <v>190</v>
@@ -1807,10 +1810,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>621111</v>
+        <v>694477</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1818,10 +1821,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>701542</v>
+        <v>687223</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1829,10 +1832,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>680684</v>
+        <v>663559</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1840,10 +1843,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>701656</v>
+        <v>641927</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1851,7 +1854,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>676467</v>
+        <v>676962</v>
       </c>
       <c r="C83" t="s">
         <v>190</v>
@@ -1862,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>671096</v>
+        <v>694297</v>
       </c>
       <c r="C84" t="s">
         <v>190</v>
@@ -1873,10 +1876,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>693433</v>
+        <v>605135</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1884,10 +1887,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>615698</v>
+        <v>663436</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1895,10 +1898,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>663554</v>
+        <v>665152</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1906,10 +1909,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>607067</v>
+        <v>656302</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1917,7 +1920,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>650911</v>
+        <v>665795</v>
       </c>
       <c r="C89" t="s">
         <v>190</v>
@@ -1928,10 +1931,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>656849</v>
+        <v>666200</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1939,7 +1942,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>664285</v>
+        <v>673540</v>
       </c>
       <c r="C91" t="s">
         <v>190</v>
@@ -1950,10 +1953,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>656550</v>
+        <v>663460</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1961,10 +1964,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>683004</v>
+        <v>543294</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1972,10 +1975,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>663623</v>
+        <v>689017</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1983,10 +1986,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>605488</v>
+        <v>671106</v>
       </c>
       <c r="C95" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1994,10 +1997,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>621244</v>
+        <v>622491</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2005,10 +2008,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>667755</v>
+        <v>647336</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2016,10 +2019,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>607536</v>
+        <v>666157</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2027,10 +2030,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>690986</v>
+        <v>571578</v>
       </c>
       <c r="C99" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2038,18 +2041,21 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>608337</v>
+        <v>592662</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
+      <c r="B101">
+        <v>686752</v>
+      </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2057,7 +2063,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>669461</v>
+        <v>543243</v>
       </c>
       <c r="C102" t="s">
         <v>190</v>
@@ -2068,7 +2074,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>608331</v>
+        <v>680885</v>
       </c>
       <c r="C103" t="s">
         <v>190</v>
@@ -2079,10 +2085,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>518876</v>
+        <v>669373</v>
       </c>
       <c r="C104" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2090,10 +2096,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>650633</v>
+        <v>621111</v>
       </c>
       <c r="C105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2101,10 +2107,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>608379</v>
+        <v>701542</v>
       </c>
       <c r="C106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2112,10 +2118,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>656605</v>
+        <v>680684</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2123,10 +2129,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>682990</v>
+        <v>701656</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2134,10 +2140,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>669358</v>
+        <v>676467</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2145,10 +2151,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>664062</v>
+        <v>671096</v>
       </c>
       <c r="C110" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2156,7 +2162,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>669432</v>
+        <v>693433</v>
       </c>
       <c r="C111" t="s">
         <v>190</v>
@@ -2167,10 +2173,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>621107</v>
+        <v>615698</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2178,10 +2184,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>805673</v>
+        <v>663554</v>
       </c>
       <c r="C113" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2189,10 +2195,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>690928</v>
+        <v>607067</v>
       </c>
       <c r="C114" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2200,10 +2206,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>678394</v>
+        <v>650911</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2211,10 +2217,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>700249</v>
+        <v>656849</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2222,10 +2228,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>519242</v>
+        <v>664285</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2233,10 +2239,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>657376</v>
+        <v>656550</v>
       </c>
       <c r="C118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2244,7 +2250,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>477132</v>
+        <v>683004</v>
       </c>
       <c r="C119" t="s">
         <v>190</v>
@@ -2255,10 +2261,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>676106</v>
+        <v>663623</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2266,10 +2272,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>642547</v>
+        <v>605488</v>
       </c>
       <c r="C121" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2277,10 +2283,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>656288</v>
+        <v>621244</v>
       </c>
       <c r="C122" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2288,10 +2294,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>668881</v>
+        <v>667755</v>
       </c>
       <c r="C123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2299,10 +2305,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>689017</v>
+        <v>607536</v>
       </c>
       <c r="C124" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2310,10 +2316,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>669022</v>
+        <v>690986</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2321,7 +2327,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>571510</v>
+        <v>608337</v>
       </c>
       <c r="C126" t="s">
         <v>190</v>
@@ -2331,11 +2337,8 @@
       <c r="A127" t="s">
         <v>127</v>
       </c>
-      <c r="B127">
-        <v>571945</v>
-      </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2343,10 +2346,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>601713</v>
+        <v>669461</v>
       </c>
       <c r="C128" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2354,10 +2357,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>641154</v>
+        <v>608331</v>
       </c>
       <c r="C129" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2365,10 +2368,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>694973</v>
+        <v>518876</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2376,10 +2379,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>645261</v>
+        <v>650633</v>
       </c>
       <c r="C131" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2387,10 +2390,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>680732</v>
+        <v>608379</v>
       </c>
       <c r="C132" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2398,10 +2401,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>677944</v>
+        <v>656605</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2409,10 +2412,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>685299</v>
+        <v>682990</v>
       </c>
       <c r="C134" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2420,10 +2423,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>641816</v>
+        <v>669358</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2431,7 +2434,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>579328</v>
+        <v>664062</v>
       </c>
       <c r="C136" t="s">
         <v>190</v>
@@ -2442,10 +2445,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>668678</v>
+        <v>669432</v>
       </c>
       <c r="C137" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2453,10 +2456,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>554430</v>
+        <v>621107</v>
       </c>
       <c r="C138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2464,10 +2467,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>695549</v>
+        <v>805673</v>
       </c>
       <c r="C139" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2475,10 +2478,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>687473</v>
+        <v>690928</v>
       </c>
       <c r="C140" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2486,10 +2489,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>702070</v>
+        <v>519242</v>
       </c>
       <c r="C141" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2497,10 +2500,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>700363</v>
+        <v>676106</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2508,10 +2511,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669923</v>
+        <v>669022</v>
       </c>
       <c r="C143" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2519,10 +2522,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>622663</v>
+        <v>601713</v>
       </c>
       <c r="C144" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2530,10 +2533,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>592866</v>
+        <v>680732</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2541,7 +2544,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>676428</v>
+        <v>677944</v>
       </c>
       <c r="C146" t="s">
         <v>190</v>
@@ -2552,10 +2555,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>592836</v>
+        <v>687473</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2563,10 +2566,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>681343</v>
+        <v>676428</v>
       </c>
       <c r="C148" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2574,7 +2577,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>687888</v>
+        <v>592836</v>
       </c>
       <c r="C149" t="s">
         <v>190</v>
@@ -2585,10 +2588,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>694646</v>
+        <v>687888</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2596,10 +2599,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>669060</v>
+        <v>694646</v>
       </c>
       <c r="C151" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2607,10 +2610,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>669372</v>
+        <v>669060</v>
       </c>
       <c r="C152" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2618,10 +2621,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>434378</v>
+        <v>669372</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2629,10 +2632,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>801403</v>
+        <v>434378</v>
       </c>
       <c r="C154" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2640,10 +2643,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>690953</v>
+        <v>801403</v>
       </c>
       <c r="C155" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2651,10 +2654,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>669387</v>
+        <v>690953</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2662,10 +2665,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>502043</v>
+        <v>669387</v>
       </c>
       <c r="C157" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2673,10 +2676,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>681857</v>
+        <v>502043</v>
       </c>
       <c r="C158" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2684,10 +2687,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>669854</v>
+        <v>681857</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2695,10 +2698,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>668964</v>
+        <v>669854</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2706,10 +2709,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>695534</v>
+        <v>668964</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2717,7 +2720,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>666142</v>
+        <v>695534</v>
       </c>
       <c r="C162" t="s">
         <v>190</v>
@@ -2728,10 +2731,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2739,10 +2742,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>669422</v>
+        <v>674370</v>
       </c>
       <c r="C164" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2750,10 +2753,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>605400</v>
+        <v>669422</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2761,10 +2764,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>693821</v>
+        <v>605400</v>
       </c>
       <c r="C166" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2772,7 +2775,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>593958</v>
+        <v>693821</v>
       </c>
       <c r="C167" t="s">
         <v>190</v>
@@ -2783,10 +2786,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>663855</v>
+        <v>593958</v>
       </c>
       <c r="C168" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2794,10 +2797,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>680573</v>
+        <v>663855</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2805,10 +2808,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>678368</v>
+        <v>680573</v>
       </c>
       <c r="C170" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2816,10 +2819,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C171" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2827,10 +2830,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C172" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2838,10 +2841,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C173" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2849,10 +2852,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C174" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2860,10 +2863,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>607625</v>
+        <v>570632</v>
       </c>
       <c r="C175" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2871,10 +2874,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>695418</v>
+        <v>607625</v>
       </c>
       <c r="C176" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2882,10 +2885,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>682243</v>
+        <v>695418</v>
       </c>
       <c r="C177" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2893,10 +2896,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>676508</v>
+        <v>682243</v>
       </c>
       <c r="C178" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2904,7 +2907,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>684007</v>
+        <v>676508</v>
       </c>
       <c r="C179" t="s">
         <v>190</v>
@@ -2915,10 +2918,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>694918</v>
+        <v>684007</v>
       </c>
       <c r="C180" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2926,7 +2929,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>641302</v>
+        <v>694918</v>
       </c>
       <c r="C181" t="s">
         <v>190</v>
@@ -2937,10 +2940,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>682052</v>
+        <v>641302</v>
       </c>
       <c r="C182" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2948,10 +2951,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>663372</v>
+        <v>682052</v>
       </c>
       <c r="C183" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2959,10 +2962,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C184" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2970,10 +2973,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>669302</v>
+        <v>471911</v>
       </c>
       <c r="C185" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2981,7 +2984,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>500779</v>
+        <v>669302</v>
       </c>
       <c r="C186" t="s">
         <v>190</v>
@@ -2992,10 +2995,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>686249</v>
+        <v>500779</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3003,10 +3006,21 @@
         <v>188</v>
       </c>
       <c r="B188">
+        <v>686249</v>
+      </c>
+      <c r="C188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
         <v>527048</v>
       </c>
-      <c r="C188" t="s">
-        <v>190</v>
+      <c r="C189" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,9 +25,297 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Corbin Burnes</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Bryce Miller</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Landon Knack</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Gunnar Hoglund</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Ryan Gusto</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
     <t>Brayan Bello</t>
   </si>
   <si>
@@ -91,9 +379,6 @@
     <t>Zac Gallen</t>
   </si>
   <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
     <t>Shane Smith</t>
   </si>
   <si>
@@ -118,18 +403,12 @@
     <t>Carlos Rodón</t>
   </si>
   <si>
-    <t>Corbin Burnes</t>
-  </si>
-  <si>
     <t>Daniel Lynch</t>
   </si>
   <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
@@ -139,33 +418,21 @@
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Logan Webb</t>
   </si>
   <si>
     <t>Max Meyer</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
     <t>Richard Fitts</t>
   </si>
   <si>
     <t>Spencer Strider</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
     <t>Tanner Bibee</t>
   </si>
   <si>
@@ -190,282 +457,30 @@
     <t>Mike Burrows</t>
   </si>
   <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
-    <t>Ryan Weathers</t>
-  </si>
-  <si>
-    <t>Ryan Yarbrough</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
     <t>Logan Allen</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
-    <t>Gunnar Hoglund</t>
-  </si>
-  <si>
     <t>Logan Henderson</t>
   </si>
   <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Kyle Harrison</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Michael King</t>
   </si>
   <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Zebby Matthews</t>
-  </si>
-  <si>
     <t>Hunter Dobbins</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
-    <t>Ryan Gusto</t>
-  </si>
-  <si>
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
@@ -517,9 +532,6 @@
     <t>Aaron Nola</t>
   </si>
   <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
@@ -544,15 +556,9 @@
     <t>José Ureña</t>
   </si>
   <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
     <t>Brad Lord</t>
   </si>
   <si>
-    <t>Bryce Miller</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
   </si>
   <si>
@@ -565,9 +571,6 @@
     <t>Tyler Alexander</t>
   </si>
   <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Ryan Feltner</t>
   </si>
   <si>
@@ -575,9 +578,6 @@
   </si>
   <si>
     <t>Logan Gilbert</t>
-  </si>
-  <si>
-    <t>Jose Quintana</t>
   </si>
   <si>
     <t>Nathan Wiles</t>
@@ -969,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>700363</v>
+        <v>605288</v>
       </c>
       <c r="C2" t="s">
         <v>190</v>
@@ -980,10 +980,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>678394</v>
+        <v>571760</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -991,10 +991,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>700249</v>
+        <v>693821</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1002,7 +1002,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>657376</v>
+        <v>450203</v>
       </c>
       <c r="C5" t="s">
         <v>190</v>
@@ -1013,10 +1013,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>477132</v>
+        <v>663978</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>642547</v>
+        <v>669203</v>
       </c>
       <c r="C8" t="s">
         <v>190</v>
@@ -1040,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>669923</v>
+        <v>607200</v>
       </c>
       <c r="C9" t="s">
         <v>190</v>
@@ -1051,10 +1051,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>656288</v>
+        <v>676979</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>668881</v>
+        <v>668909</v>
       </c>
       <c r="C11" t="s">
         <v>190</v>
@@ -1073,10 +1073,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>663465</v>
+        <v>806185</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1084,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>689017</v>
+        <v>686613</v>
       </c>
       <c r="C13" t="s">
         <v>190</v>
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>622663</v>
+        <v>686799</v>
       </c>
       <c r="C14" t="s">
         <v>190</v>
@@ -1106,10 +1106,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>571510</v>
+        <v>594798</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1117,7 +1117,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>571945</v>
+        <v>592791</v>
       </c>
       <c r="C16" t="s">
         <v>190</v>
@@ -1128,10 +1128,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>641154</v>
+        <v>500779</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1139,10 +1139,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>694973</v>
+        <v>676664</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1150,7 +1150,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>645261</v>
+        <v>672456</v>
       </c>
       <c r="C19" t="s">
         <v>190</v>
@@ -1161,7 +1161,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>685299</v>
+        <v>592332</v>
       </c>
       <c r="C20" t="s">
         <v>190</v>
@@ -1172,10 +1172,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>592866</v>
+        <v>663460</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1183,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>641816</v>
+        <v>622491</v>
       </c>
       <c r="C22" t="s">
         <v>190</v>
@@ -1194,7 +1194,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>579328</v>
+        <v>680730</v>
       </c>
       <c r="C23" t="s">
         <v>191</v>
@@ -1205,7 +1205,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>668678</v>
+        <v>607259</v>
       </c>
       <c r="C24" t="s">
         <v>190</v>
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>554430</v>
+        <v>681190</v>
       </c>
       <c r="C25" t="s">
         <v>190</v>
@@ -1227,10 +1227,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>681343</v>
+        <v>624133</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>695549</v>
+        <v>677960</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1249,7 +1249,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>702070</v>
+        <v>642232</v>
       </c>
       <c r="C28" t="s">
         <v>191</v>
@@ -1260,7 +1260,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>650644</v>
+        <v>671737</v>
       </c>
       <c r="C29" t="s">
         <v>190</v>
@@ -1271,7 +1271,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>669467</v>
+        <v>808967</v>
       </c>
       <c r="C30" t="s">
         <v>190</v>
@@ -1282,10 +1282,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>670102</v>
+        <v>687223</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>663903</v>
+        <v>663559</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>607074</v>
+        <v>641927</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1315,7 +1315,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>669203</v>
+        <v>676962</v>
       </c>
       <c r="C34" t="s">
         <v>190</v>
@@ -1326,10 +1326,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>663738</v>
+        <v>694297</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1337,7 +1337,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>608566</v>
+        <v>682243</v>
       </c>
       <c r="C36" t="s">
         <v>190</v>
@@ -1348,7 +1348,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>686613</v>
+        <v>663436</v>
       </c>
       <c r="C37" t="s">
         <v>190</v>
@@ -1359,7 +1359,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>656427</v>
+        <v>665152</v>
       </c>
       <c r="C38" t="s">
         <v>190</v>
@@ -1370,7 +1370,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>657746</v>
+        <v>656302</v>
       </c>
       <c r="C39" t="s">
         <v>190</v>
@@ -1381,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>686563</v>
+        <v>665795</v>
       </c>
       <c r="C40" t="s">
         <v>190</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>676664</v>
+        <v>666200</v>
       </c>
       <c r="C41" t="s">
         <v>191</v>
@@ -1403,7 +1403,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>657277</v>
+        <v>673540</v>
       </c>
       <c r="C42" t="s">
         <v>190</v>
@@ -1414,7 +1414,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>676974</v>
+        <v>543294</v>
       </c>
       <c r="C43" t="s">
         <v>190</v>
@@ -1425,10 +1425,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>680730</v>
+        <v>689017</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1436,7 +1436,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>543135</v>
+        <v>647336</v>
       </c>
       <c r="C45" t="s">
         <v>190</v>
@@ -1447,10 +1447,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>624133</v>
+        <v>608379</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>690916</v>
+        <v>666157</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>675911</v>
+        <v>571578</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>671737</v>
+        <v>592662</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1491,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>676440</v>
+        <v>677944</v>
       </c>
       <c r="C50" t="s">
         <v>190</v>
@@ -1502,10 +1502,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>542881</v>
+        <v>543243</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1513,7 +1513,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>656731</v>
+        <v>680885</v>
       </c>
       <c r="C52" t="s">
         <v>190</v>
@@ -1524,10 +1524,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>608372</v>
+        <v>669373</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1535,7 +1535,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>663568</v>
+        <v>621111</v>
       </c>
       <c r="C54" t="s">
         <v>190</v>
@@ -1546,7 +1546,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>688138</v>
+        <v>701542</v>
       </c>
       <c r="C55" t="s">
         <v>190</v>
@@ -1557,7 +1557,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>690990</v>
+        <v>641793</v>
       </c>
       <c r="C56" t="s">
         <v>190</v>
@@ -1568,7 +1568,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>681347</v>
+        <v>694477</v>
       </c>
       <c r="C57" t="s">
         <v>190</v>
@@ -1579,7 +1579,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>605288</v>
+        <v>680684</v>
       </c>
       <c r="C58" t="s">
         <v>190</v>
@@ -1590,7 +1590,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>571760</v>
+        <v>676467</v>
       </c>
       <c r="C59" t="s">
         <v>191</v>
@@ -1601,10 +1601,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>450203</v>
+        <v>671096</v>
       </c>
       <c r="C60" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1612,7 +1612,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>663978</v>
+        <v>693433</v>
       </c>
       <c r="C61" t="s">
         <v>190</v>
@@ -1623,7 +1623,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>607200</v>
+        <v>615698</v>
       </c>
       <c r="C62" t="s">
         <v>190</v>
@@ -1634,10 +1634,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>676979</v>
+        <v>663554</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1645,7 +1645,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>668909</v>
+        <v>605135</v>
       </c>
       <c r="C64" t="s">
         <v>190</v>
@@ -1656,7 +1656,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>806185</v>
+        <v>607067</v>
       </c>
       <c r="C65" t="s">
         <v>190</v>
@@ -1667,10 +1667,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>686799</v>
+        <v>656849</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>594798</v>
+        <v>664285</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1689,7 +1689,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>592791</v>
+        <v>656550</v>
       </c>
       <c r="C68" t="s">
         <v>190</v>
@@ -1700,7 +1700,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>672456</v>
+        <v>683004</v>
       </c>
       <c r="C69" t="s">
         <v>190</v>
@@ -1711,7 +1711,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>592332</v>
+        <v>663623</v>
       </c>
       <c r="C70" t="s">
         <v>190</v>
@@ -1722,10 +1722,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>547179</v>
+        <v>605488</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1733,7 +1733,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>607259</v>
+        <v>667755</v>
       </c>
       <c r="C72" t="s">
         <v>190</v>
@@ -1744,10 +1744,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>681190</v>
+        <v>607536</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1755,7 +1755,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>677960</v>
+        <v>690986</v>
       </c>
       <c r="C74" t="s">
         <v>191</v>
@@ -1766,19 +1766,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>642232</v>
+        <v>608337</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>669194</v>
-      </c>
       <c r="C76" t="s">
         <v>190</v>
       </c>
@@ -1788,10 +1785,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>808967</v>
+        <v>669461</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1799,10 +1796,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>641793</v>
+        <v>608331</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1810,7 +1807,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>694477</v>
+        <v>518876</v>
       </c>
       <c r="C79" t="s">
         <v>190</v>
@@ -1821,10 +1818,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>687223</v>
+        <v>656605</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1832,10 +1829,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>663559</v>
+        <v>601713</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1843,7 +1840,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>641927</v>
+        <v>682990</v>
       </c>
       <c r="C82" t="s">
         <v>190</v>
@@ -1854,7 +1851,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>676962</v>
+        <v>686752</v>
       </c>
       <c r="C83" t="s">
         <v>190</v>
@@ -1865,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>694297</v>
+        <v>680732</v>
       </c>
       <c r="C84" t="s">
         <v>190</v>
@@ -1876,7 +1873,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>605135</v>
+        <v>607625</v>
       </c>
       <c r="C85" t="s">
         <v>190</v>
@@ -1887,7 +1884,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>663436</v>
+        <v>592836</v>
       </c>
       <c r="C86" t="s">
         <v>190</v>
@@ -1898,7 +1895,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>665152</v>
+        <v>664062</v>
       </c>
       <c r="C87" t="s">
         <v>190</v>
@@ -1909,7 +1906,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>656302</v>
+        <v>621107</v>
       </c>
       <c r="C88" t="s">
         <v>190</v>
@@ -1920,7 +1917,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>665795</v>
+        <v>805673</v>
       </c>
       <c r="C89" t="s">
         <v>190</v>
@@ -1931,10 +1928,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>666200</v>
+        <v>700363</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1942,10 +1939,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>673540</v>
+        <v>519242</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1953,7 +1950,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>663460</v>
+        <v>650911</v>
       </c>
       <c r="C92" t="s">
         <v>191</v>
@@ -1964,7 +1961,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>543294</v>
+        <v>676106</v>
       </c>
       <c r="C93" t="s">
         <v>190</v>
@@ -1975,7 +1972,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>689017</v>
+        <v>621244</v>
       </c>
       <c r="C94" t="s">
         <v>190</v>
@@ -1986,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>671106</v>
+        <v>669022</v>
       </c>
       <c r="C95" t="s">
         <v>191</v>
@@ -1997,7 +1994,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>622491</v>
+        <v>669358</v>
       </c>
       <c r="C96" t="s">
         <v>190</v>
@@ -2008,7 +2005,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>647336</v>
+        <v>554430</v>
       </c>
       <c r="C97" t="s">
         <v>190</v>
@@ -2019,10 +2016,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>666157</v>
+        <v>687473</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2030,7 +2027,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>571578</v>
+        <v>682052</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -2041,10 +2038,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>592662</v>
+        <v>678394</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2052,10 +2049,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>686752</v>
+        <v>700249</v>
       </c>
       <c r="C101" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2063,7 +2060,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>543243</v>
+        <v>657376</v>
       </c>
       <c r="C102" t="s">
         <v>190</v>
@@ -2074,10 +2071,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>680885</v>
+        <v>477132</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2085,10 +2082,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>669373</v>
+        <v>642547</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2096,7 +2093,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>621111</v>
+        <v>669923</v>
       </c>
       <c r="C105" t="s">
         <v>190</v>
@@ -2107,7 +2104,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>701542</v>
+        <v>656288</v>
       </c>
       <c r="C106" t="s">
         <v>190</v>
@@ -2118,7 +2115,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>680684</v>
+        <v>668881</v>
       </c>
       <c r="C107" t="s">
         <v>190</v>
@@ -2129,10 +2126,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>701656</v>
+        <v>663465</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2140,10 +2137,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>676467</v>
+        <v>689017</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2151,10 +2148,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>671096</v>
+        <v>622663</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2162,10 +2159,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>693433</v>
+        <v>571510</v>
       </c>
       <c r="C111" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2173,7 +2170,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>615698</v>
+        <v>571945</v>
       </c>
       <c r="C112" t="s">
         <v>190</v>
@@ -2184,7 +2181,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>663554</v>
+        <v>641154</v>
       </c>
       <c r="C113" t="s">
         <v>190</v>
@@ -2195,7 +2192,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>607067</v>
+        <v>694973</v>
       </c>
       <c r="C114" t="s">
         <v>190</v>
@@ -2206,10 +2203,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>650911</v>
+        <v>645261</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2217,10 +2214,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>656849</v>
+        <v>685299</v>
       </c>
       <c r="C116" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2228,10 +2225,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>664285</v>
+        <v>592866</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2239,7 +2236,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>656550</v>
+        <v>641816</v>
       </c>
       <c r="C118" t="s">
         <v>190</v>
@@ -2250,10 +2247,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>683004</v>
+        <v>579328</v>
       </c>
       <c r="C119" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2261,7 +2258,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>663623</v>
+        <v>668678</v>
       </c>
       <c r="C120" t="s">
         <v>190</v>
@@ -2272,10 +2269,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>605488</v>
+        <v>681343</v>
       </c>
       <c r="C121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2283,7 +2280,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>621244</v>
+        <v>695549</v>
       </c>
       <c r="C122" t="s">
         <v>190</v>
@@ -2294,10 +2291,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>667755</v>
+        <v>702070</v>
       </c>
       <c r="C123" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2305,10 +2302,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>607536</v>
+        <v>650644</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2316,10 +2313,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>690986</v>
+        <v>669467</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2327,7 +2324,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>608337</v>
+        <v>670102</v>
       </c>
       <c r="C126" t="s">
         <v>190</v>
@@ -2337,6 +2334,9 @@
       <c r="A127" t="s">
         <v>127</v>
       </c>
+      <c r="B127">
+        <v>663903</v>
+      </c>
       <c r="C127" t="s">
         <v>190</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>669461</v>
+        <v>607074</v>
       </c>
       <c r="C128" t="s">
         <v>191</v>
@@ -2357,7 +2357,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>608331</v>
+        <v>663738</v>
       </c>
       <c r="C129" t="s">
         <v>191</v>
@@ -2368,7 +2368,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>518876</v>
+        <v>608566</v>
       </c>
       <c r="C130" t="s">
         <v>190</v>
@@ -2379,7 +2379,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>650633</v>
+        <v>656427</v>
       </c>
       <c r="C131" t="s">
         <v>190</v>
@@ -2390,7 +2390,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>608379</v>
+        <v>657746</v>
       </c>
       <c r="C132" t="s">
         <v>190</v>
@@ -2401,7 +2401,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>656605</v>
+        <v>686563</v>
       </c>
       <c r="C133" t="s">
         <v>190</v>
@@ -2412,7 +2412,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>682990</v>
+        <v>657277</v>
       </c>
       <c r="C134" t="s">
         <v>190</v>
@@ -2423,7 +2423,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>669358</v>
+        <v>676974</v>
       </c>
       <c r="C135" t="s">
         <v>190</v>
@@ -2434,7 +2434,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>664062</v>
+        <v>543135</v>
       </c>
       <c r="C136" t="s">
         <v>190</v>
@@ -2445,10 +2445,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>669432</v>
+        <v>690916</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2456,7 +2456,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>621107</v>
+        <v>675911</v>
       </c>
       <c r="C138" t="s">
         <v>190</v>
@@ -2467,7 +2467,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>805673</v>
+        <v>676440</v>
       </c>
       <c r="C139" t="s">
         <v>190</v>
@@ -2478,10 +2478,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>690928</v>
+        <v>542881</v>
       </c>
       <c r="C140" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2489,10 +2489,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>519242</v>
+        <v>656731</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2500,7 +2500,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>676106</v>
+        <v>608372</v>
       </c>
       <c r="C142" t="s">
         <v>190</v>
@@ -2511,10 +2511,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669022</v>
+        <v>663568</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2522,7 +2522,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>601713</v>
+        <v>688138</v>
       </c>
       <c r="C144" t="s">
         <v>190</v>
@@ -2533,7 +2533,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>680732</v>
+        <v>690990</v>
       </c>
       <c r="C145" t="s">
         <v>190</v>
@@ -2544,7 +2544,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>677944</v>
+        <v>681347</v>
       </c>
       <c r="C146" t="s">
         <v>190</v>
@@ -2555,7 +2555,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>687473</v>
+        <v>547179</v>
       </c>
       <c r="C147" t="s">
         <v>190</v>
@@ -2566,10 +2566,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>676428</v>
+        <v>669194</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2577,10 +2577,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>592836</v>
+        <v>671106</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2588,10 +2588,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>687888</v>
+        <v>701656</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2599,7 +2599,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>694646</v>
+        <v>650633</v>
       </c>
       <c r="C151" t="s">
         <v>190</v>
@@ -2610,10 +2610,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>669060</v>
+        <v>669432</v>
       </c>
       <c r="C152" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2621,7 +2621,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669372</v>
+        <v>690928</v>
       </c>
       <c r="C153" t="s">
         <v>190</v>
@@ -2632,10 +2632,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>434378</v>
+        <v>676428</v>
       </c>
       <c r="C154" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2643,10 +2643,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>801403</v>
+        <v>687888</v>
       </c>
       <c r="C155" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2654,7 +2654,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>690953</v>
+        <v>694646</v>
       </c>
       <c r="C156" t="s">
         <v>190</v>
@@ -2665,7 +2665,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>669387</v>
+        <v>669060</v>
       </c>
       <c r="C157" t="s">
         <v>190</v>
@@ -2676,7 +2676,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>502043</v>
+        <v>669372</v>
       </c>
       <c r="C158" t="s">
         <v>190</v>
@@ -2687,7 +2687,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>681857</v>
+        <v>434378</v>
       </c>
       <c r="C159" t="s">
         <v>190</v>
@@ -2698,7 +2698,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>669854</v>
+        <v>801403</v>
       </c>
       <c r="C160" t="s">
         <v>190</v>
@@ -2709,7 +2709,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>668964</v>
+        <v>690953</v>
       </c>
       <c r="C161" t="s">
         <v>190</v>
@@ -2720,7 +2720,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>695534</v>
+        <v>669387</v>
       </c>
       <c r="C162" t="s">
         <v>190</v>
@@ -2731,10 +2731,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>666142</v>
+        <v>502043</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2742,7 +2742,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>674370</v>
+        <v>681857</v>
       </c>
       <c r="C164" t="s">
         <v>190</v>
@@ -2753,7 +2753,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>669422</v>
+        <v>669854</v>
       </c>
       <c r="C165" t="s">
         <v>190</v>
@@ -2764,7 +2764,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>605400</v>
+        <v>668964</v>
       </c>
       <c r="C166" t="s">
         <v>190</v>
@@ -2775,7 +2775,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>693821</v>
+        <v>695534</v>
       </c>
       <c r="C167" t="s">
         <v>190</v>
@@ -2786,7 +2786,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>593958</v>
+        <v>666142</v>
       </c>
       <c r="C168" t="s">
         <v>191</v>
@@ -2797,7 +2797,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>663855</v>
+        <v>674370</v>
       </c>
       <c r="C169" t="s">
         <v>190</v>
@@ -2808,7 +2808,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>680573</v>
+        <v>669422</v>
       </c>
       <c r="C170" t="s">
         <v>190</v>
@@ -2819,7 +2819,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>678368</v>
+        <v>605400</v>
       </c>
       <c r="C171" t="s">
         <v>190</v>
@@ -2830,10 +2830,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>594902</v>
+        <v>593958</v>
       </c>
       <c r="C172" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2841,7 +2841,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C173" t="s">
         <v>190</v>
@@ -2852,7 +2852,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>669713</v>
+        <v>680573</v>
       </c>
       <c r="C174" t="s">
         <v>190</v>
@@ -2863,7 +2863,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>570632</v>
+        <v>678368</v>
       </c>
       <c r="C175" t="s">
         <v>190</v>
@@ -2874,7 +2874,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>607625</v>
+        <v>594902</v>
       </c>
       <c r="C176" t="s">
         <v>190</v>
@@ -2885,7 +2885,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C177" t="s">
         <v>190</v>
@@ -2896,7 +2896,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>682243</v>
+        <v>669713</v>
       </c>
       <c r="C178" t="s">
         <v>190</v>
@@ -2907,7 +2907,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>676508</v>
+        <v>570632</v>
       </c>
       <c r="C179" t="s">
         <v>190</v>
@@ -2918,10 +2918,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>684007</v>
+        <v>695418</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2929,7 +2929,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>694918</v>
+        <v>676508</v>
       </c>
       <c r="C181" t="s">
         <v>190</v>
@@ -2940,7 +2940,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>641302</v>
+        <v>684007</v>
       </c>
       <c r="C182" t="s">
         <v>191</v>
@@ -2951,10 +2951,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>682052</v>
+        <v>694918</v>
       </c>
       <c r="C183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2962,10 +2962,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C184" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2973,7 +2973,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C185" t="s">
         <v>190</v>
@@ -2984,7 +2984,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>669302</v>
+        <v>471911</v>
       </c>
       <c r="C186" t="s">
         <v>190</v>
@@ -2995,10 +2995,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>500779</v>
+        <v>669302</v>
       </c>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="188" spans="1:3">

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="193">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,45 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Max Meyer</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
@@ -346,9 +385,6 @@
     <t>Landen Roupp</t>
   </si>
   <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
@@ -388,64 +424,31 @@
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
     <t>Bowden Francis</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Carlos Rodón</t>
   </si>
   <si>
     <t>Daniel Lynch</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Max Meyer</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Richard Fitts</t>
-  </si>
-  <si>
     <t>Spencer Strider</t>
   </si>
   <si>
     <t>Tanner Bibee</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
     <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
-    <t>Stephen Kolek</t>
   </si>
   <si>
     <t>Logan Evans</t>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605288</v>
+        <v>650644</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -980,48 +983,48 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>571760</v>
+        <v>663903</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>693821</v>
-      </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>450203</v>
+        <v>608566</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>656427</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>663978</v>
-      </c>
-      <c r="C6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>657746</v>
+      </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1029,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>669203</v>
+        <v>686563</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1040,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>607200</v>
+        <v>657277</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1051,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>676979</v>
+        <v>622663</v>
       </c>
       <c r="C10" t="s">
         <v>191</v>
@@ -1062,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>668909</v>
+        <v>676974</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1073,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>806185</v>
+        <v>621112</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1084,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>686613</v>
+        <v>690916</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1095,10 +1098,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>686799</v>
+        <v>542881</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1106,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>594798</v>
+        <v>663568</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1117,10 +1120,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>592791</v>
+        <v>605288</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1128,10 +1131,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>500779</v>
+        <v>571760</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1139,7 +1142,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>676664</v>
+        <v>693821</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
@@ -1150,10 +1153,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>672456</v>
+        <v>450203</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1161,10 +1164,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>592332</v>
+        <v>663978</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1172,7 +1175,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>663460</v>
+        <v>669203</v>
       </c>
       <c r="C21" t="s">
         <v>191</v>
@@ -1183,10 +1186,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>622491</v>
+        <v>607200</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1194,10 +1197,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>680730</v>
+        <v>676979</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1205,10 +1208,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>607259</v>
+        <v>668909</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1216,10 +1219,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>681190</v>
+        <v>806185</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1227,7 +1230,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>624133</v>
+        <v>686613</v>
       </c>
       <c r="C26" t="s">
         <v>191</v>
@@ -1238,7 +1241,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>677960</v>
+        <v>686799</v>
       </c>
       <c r="C27" t="s">
         <v>191</v>
@@ -1249,7 +1252,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>642232</v>
+        <v>594798</v>
       </c>
       <c r="C28" t="s">
         <v>191</v>
@@ -1260,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>671737</v>
+        <v>592791</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1271,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>808967</v>
+        <v>500779</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1282,10 +1285,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>687223</v>
+        <v>676664</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1293,7 +1296,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>663559</v>
+        <v>672456</v>
       </c>
       <c r="C32" t="s">
         <v>191</v>
@@ -1304,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>641927</v>
+        <v>592332</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1315,10 +1318,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>676962</v>
+        <v>663460</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1326,10 +1329,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>694297</v>
+        <v>622491</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1337,10 +1340,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>682243</v>
+        <v>680730</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1348,10 +1351,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>663436</v>
+        <v>607259</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1359,10 +1362,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>665152</v>
+        <v>681190</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1370,10 +1373,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>656302</v>
+        <v>624133</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1381,10 +1384,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>665795</v>
+        <v>677960</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1392,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>666200</v>
+        <v>642232</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1403,10 +1406,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>673540</v>
+        <v>671737</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1414,10 +1417,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>543294</v>
+        <v>808967</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1425,10 +1428,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>689017</v>
+        <v>687223</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1436,10 +1439,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>647336</v>
+        <v>663559</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1447,10 +1450,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>608379</v>
+        <v>641927</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1458,7 +1461,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>666157</v>
+        <v>676962</v>
       </c>
       <c r="C47" t="s">
         <v>191</v>
@@ -1469,7 +1472,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>571578</v>
+        <v>694297</v>
       </c>
       <c r="C48" t="s">
         <v>191</v>
@@ -1480,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>592662</v>
+        <v>682243</v>
       </c>
       <c r="C49" t="s">
         <v>191</v>
@@ -1491,10 +1494,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>677944</v>
+        <v>663436</v>
       </c>
       <c r="C50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1502,10 +1505,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>543243</v>
+        <v>665152</v>
       </c>
       <c r="C51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1513,10 +1516,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>680885</v>
+        <v>656302</v>
       </c>
       <c r="C52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1524,7 +1527,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>669373</v>
+        <v>665795</v>
       </c>
       <c r="C53" t="s">
         <v>191</v>
@@ -1535,10 +1538,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>621111</v>
+        <v>666200</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1546,10 +1549,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>701542</v>
+        <v>673540</v>
       </c>
       <c r="C55" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1557,10 +1560,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>641793</v>
+        <v>543294</v>
       </c>
       <c r="C56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1568,10 +1571,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>694477</v>
+        <v>689017</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1579,10 +1582,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>680684</v>
+        <v>647336</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1590,7 +1593,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>676467</v>
+        <v>608379</v>
       </c>
       <c r="C59" t="s">
         <v>191</v>
@@ -1601,10 +1604,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>671096</v>
+        <v>666157</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1612,10 +1615,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>693433</v>
+        <v>571578</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1623,10 +1626,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>615698</v>
+        <v>592662</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1634,10 +1637,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>663554</v>
+        <v>677944</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1645,10 +1648,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>605135</v>
+        <v>543243</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1656,10 +1659,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>607067</v>
+        <v>680885</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1667,10 +1670,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>656849</v>
+        <v>669373</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1678,7 +1681,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>664285</v>
+        <v>621111</v>
       </c>
       <c r="C67" t="s">
         <v>191</v>
@@ -1689,10 +1692,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>656550</v>
+        <v>701542</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1700,10 +1703,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>683004</v>
+        <v>641793</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1711,10 +1714,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>663623</v>
+        <v>694477</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1722,7 +1725,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>605488</v>
+        <v>680684</v>
       </c>
       <c r="C71" t="s">
         <v>191</v>
@@ -1733,10 +1736,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>667755</v>
+        <v>676467</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1744,10 +1747,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>607536</v>
+        <v>671096</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1755,7 +1758,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>690986</v>
+        <v>693433</v>
       </c>
       <c r="C74" t="s">
         <v>191</v>
@@ -1766,18 +1769,21 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>608337</v>
+        <v>615698</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>76</v>
       </c>
+      <c r="B76">
+        <v>663554</v>
+      </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1785,7 +1791,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669461</v>
+        <v>605135</v>
       </c>
       <c r="C77" t="s">
         <v>191</v>
@@ -1796,7 +1802,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>608331</v>
+        <v>607067</v>
       </c>
       <c r="C78" t="s">
         <v>191</v>
@@ -1807,10 +1813,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>518876</v>
+        <v>656849</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1818,10 +1824,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>656605</v>
+        <v>664285</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1829,10 +1835,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>601713</v>
+        <v>656550</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1840,10 +1846,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>682990</v>
+        <v>683004</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1851,10 +1857,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>686752</v>
+        <v>663623</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1862,10 +1868,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>680732</v>
+        <v>605488</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1873,10 +1879,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>607625</v>
+        <v>667755</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1884,10 +1890,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>592836</v>
+        <v>607536</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1895,10 +1901,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>664062</v>
+        <v>690986</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1906,21 +1912,18 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>621107</v>
+        <v>608337</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>805673</v>
-      </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1928,10 +1931,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>700363</v>
+        <v>669461</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1939,10 +1942,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>519242</v>
+        <v>608331</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1950,7 +1953,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>650911</v>
+        <v>518876</v>
       </c>
       <c r="C92" t="s">
         <v>191</v>
@@ -1961,10 +1964,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>676106</v>
+        <v>656605</v>
       </c>
       <c r="C93" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1972,10 +1975,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>621244</v>
+        <v>601713</v>
       </c>
       <c r="C94" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1983,7 +1986,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>669022</v>
+        <v>682990</v>
       </c>
       <c r="C95" t="s">
         <v>191</v>
@@ -1994,10 +1997,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>669358</v>
+        <v>686752</v>
       </c>
       <c r="C96" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2005,10 +2008,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>554430</v>
+        <v>680732</v>
       </c>
       <c r="C97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2016,10 +2019,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>687473</v>
+        <v>607625</v>
       </c>
       <c r="C98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2027,7 +2030,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>682052</v>
+        <v>592836</v>
       </c>
       <c r="C99" t="s">
         <v>191</v>
@@ -2038,10 +2041,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>678394</v>
+        <v>664062</v>
       </c>
       <c r="C100" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2049,7 +2052,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>700249</v>
+        <v>621107</v>
       </c>
       <c r="C101" t="s">
         <v>191</v>
@@ -2060,10 +2063,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>657376</v>
+        <v>805673</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2071,7 +2074,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>477132</v>
+        <v>700363</v>
       </c>
       <c r="C103" t="s">
         <v>191</v>
@@ -2082,10 +2085,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>642547</v>
+        <v>519242</v>
       </c>
       <c r="C104" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2093,10 +2096,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>669923</v>
+        <v>650911</v>
       </c>
       <c r="C105" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2104,10 +2107,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656288</v>
+        <v>676106</v>
       </c>
       <c r="C106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2115,10 +2118,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>668881</v>
+        <v>621244</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2126,10 +2129,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>663465</v>
+        <v>669022</v>
       </c>
       <c r="C108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2137,10 +2140,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>689017</v>
+        <v>669358</v>
       </c>
       <c r="C109" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2148,10 +2151,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>622663</v>
+        <v>554430</v>
       </c>
       <c r="C110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2159,7 +2162,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>571510</v>
+        <v>687473</v>
       </c>
       <c r="C111" t="s">
         <v>191</v>
@@ -2170,10 +2173,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>571945</v>
+        <v>682052</v>
       </c>
       <c r="C112" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2181,10 +2184,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>641154</v>
+        <v>678394</v>
       </c>
       <c r="C113" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2192,10 +2195,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>694973</v>
+        <v>700249</v>
       </c>
       <c r="C114" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2203,10 +2206,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>645261</v>
+        <v>657376</v>
       </c>
       <c r="C115" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2214,10 +2217,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>685299</v>
+        <v>477132</v>
       </c>
       <c r="C116" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2225,10 +2228,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>592866</v>
+        <v>642547</v>
       </c>
       <c r="C117" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2236,10 +2239,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>641816</v>
+        <v>669923</v>
       </c>
       <c r="C118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2247,7 +2250,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>579328</v>
+        <v>656288</v>
       </c>
       <c r="C119" t="s">
         <v>191</v>
@@ -2258,10 +2261,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>668678</v>
+        <v>668881</v>
       </c>
       <c r="C120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2269,10 +2272,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>681343</v>
+        <v>663465</v>
       </c>
       <c r="C121" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2280,10 +2283,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>695549</v>
+        <v>689017</v>
       </c>
       <c r="C122" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2291,10 +2294,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>702070</v>
+        <v>571510</v>
       </c>
       <c r="C123" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2302,10 +2305,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>650644</v>
+        <v>571945</v>
       </c>
       <c r="C124" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2313,10 +2316,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>669467</v>
+        <v>641154</v>
       </c>
       <c r="C125" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2324,10 +2327,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>670102</v>
+        <v>694973</v>
       </c>
       <c r="C126" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2335,10 +2338,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>663903</v>
+        <v>645261</v>
       </c>
       <c r="C127" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2346,7 +2349,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>607074</v>
+        <v>685299</v>
       </c>
       <c r="C128" t="s">
         <v>191</v>
@@ -2357,7 +2360,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>663738</v>
+        <v>592866</v>
       </c>
       <c r="C129" t="s">
         <v>191</v>
@@ -2368,10 +2371,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>608566</v>
+        <v>641816</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2379,10 +2382,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>656427</v>
+        <v>579328</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2390,10 +2393,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>657746</v>
+        <v>668678</v>
       </c>
       <c r="C132" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2401,10 +2404,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>686563</v>
+        <v>681343</v>
       </c>
       <c r="C133" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2412,10 +2415,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>657277</v>
+        <v>695549</v>
       </c>
       <c r="C134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2423,10 +2426,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>676974</v>
+        <v>702070</v>
       </c>
       <c r="C135" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2434,10 +2437,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>543135</v>
+        <v>669467</v>
       </c>
       <c r="C136" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2445,10 +2448,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>690916</v>
+        <v>670102</v>
       </c>
       <c r="C137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2456,10 +2459,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>675911</v>
+        <v>607074</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2467,10 +2470,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>676440</v>
+        <v>663738</v>
       </c>
       <c r="C139" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2478,7 +2481,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>542881</v>
+        <v>543135</v>
       </c>
       <c r="C140" t="s">
         <v>191</v>
@@ -2489,10 +2492,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>656731</v>
+        <v>675911</v>
       </c>
       <c r="C141" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2500,10 +2503,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>608372</v>
+        <v>676440</v>
       </c>
       <c r="C142" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2511,10 +2514,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>663568</v>
+        <v>656731</v>
       </c>
       <c r="C143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2522,10 +2525,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>688138</v>
+        <v>608372</v>
       </c>
       <c r="C144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2533,10 +2536,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>690990</v>
+        <v>688138</v>
       </c>
       <c r="C145" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2544,10 +2547,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>681347</v>
+        <v>690990</v>
       </c>
       <c r="C146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2555,10 +2558,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>547179</v>
+        <v>681347</v>
       </c>
       <c r="C147" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2566,10 +2569,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>669194</v>
+        <v>547179</v>
       </c>
       <c r="C148" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2577,7 +2580,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>671106</v>
+        <v>669194</v>
       </c>
       <c r="C149" t="s">
         <v>191</v>
@@ -2588,10 +2591,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>701656</v>
+        <v>671106</v>
       </c>
       <c r="C150" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2599,10 +2602,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>650633</v>
+        <v>701656</v>
       </c>
       <c r="C151" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2610,7 +2613,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>669432</v>
+        <v>650633</v>
       </c>
       <c r="C152" t="s">
         <v>191</v>
@@ -2621,10 +2624,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>690928</v>
+        <v>669432</v>
       </c>
       <c r="C153" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2632,7 +2635,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>676428</v>
+        <v>690928</v>
       </c>
       <c r="C154" t="s">
         <v>191</v>
@@ -2643,10 +2646,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>687888</v>
+        <v>676428</v>
       </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2654,10 +2657,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>694646</v>
+        <v>687888</v>
       </c>
       <c r="C156" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2665,10 +2668,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>669060</v>
+        <v>694646</v>
       </c>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2676,10 +2679,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>669372</v>
+        <v>669060</v>
       </c>
       <c r="C158" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2687,10 +2690,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>434378</v>
+        <v>669372</v>
       </c>
       <c r="C159" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2698,10 +2701,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>801403</v>
+        <v>434378</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2709,10 +2712,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>690953</v>
+        <v>801403</v>
       </c>
       <c r="C161" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2720,10 +2723,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>669387</v>
+        <v>690953</v>
       </c>
       <c r="C162" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2731,10 +2734,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>502043</v>
+        <v>669387</v>
       </c>
       <c r="C163" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2742,10 +2745,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>681857</v>
+        <v>502043</v>
       </c>
       <c r="C164" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2753,10 +2756,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>669854</v>
+        <v>681857</v>
       </c>
       <c r="C165" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2764,10 +2767,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>668964</v>
+        <v>669854</v>
       </c>
       <c r="C166" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2775,10 +2778,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>695534</v>
+        <v>668964</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2786,7 +2789,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>666142</v>
+        <v>695534</v>
       </c>
       <c r="C168" t="s">
         <v>191</v>
@@ -2797,10 +2800,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C169" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2808,10 +2811,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>669422</v>
+        <v>674370</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2819,10 +2822,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>605400</v>
+        <v>669422</v>
       </c>
       <c r="C171" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2830,7 +2833,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>593958</v>
+        <v>605400</v>
       </c>
       <c r="C172" t="s">
         <v>191</v>
@@ -2841,10 +2844,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>663855</v>
+        <v>593958</v>
       </c>
       <c r="C173" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2852,10 +2855,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>680573</v>
+        <v>663855</v>
       </c>
       <c r="C174" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2863,10 +2866,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>678368</v>
+        <v>680573</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2874,10 +2877,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C176" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2885,10 +2888,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C177" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2896,10 +2899,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C178" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2907,10 +2910,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C179" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2918,10 +2921,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>695418</v>
+        <v>570632</v>
       </c>
       <c r="C180" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2929,10 +2932,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>676508</v>
+        <v>695418</v>
       </c>
       <c r="C181" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2940,7 +2943,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>684007</v>
+        <v>676508</v>
       </c>
       <c r="C182" t="s">
         <v>191</v>
@@ -2951,10 +2954,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>694918</v>
+        <v>684007</v>
       </c>
       <c r="C183" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2962,7 +2965,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>641302</v>
+        <v>694918</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -2973,10 +2976,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C185" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2984,10 +2987,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C186" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2995,10 +2998,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>669302</v>
+        <v>471911</v>
       </c>
       <c r="C187" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3006,10 +3009,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>686249</v>
+        <v>669302</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3017,10 +3020,21 @@
         <v>189</v>
       </c>
       <c r="B189">
+        <v>686249</v>
+      </c>
+      <c r="C189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
         <v>527048</v>
       </c>
-      <c r="C189" t="s">
-        <v>191</v>
+      <c r="C190" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="199">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,252 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Cole Ragans</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Landon Knack</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Mitch Spence</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Tony Gonsolin</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>Ryan Gusto</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
+    <t>Sawyer Gipson-Long</t>
+  </si>
+  <si>
+    <t>Mike Vasil</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Brant Hurter</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Hunter Greene</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Osvaldo Bido</t>
+  </si>
+  <si>
+    <t>Pablo López</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
@@ -160,9 +406,6 @@
     <t>Ben Brown</t>
   </si>
   <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
     <t>Bryce Miller</t>
   </si>
   <si>
@@ -172,24 +415,15 @@
     <t>Dean Kremer</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Landon Knack</t>
-  </si>
-  <si>
     <t>Michael Soroka</t>
   </si>
   <si>
@@ -202,12 +436,6 @@
     <t>Patrick Corbin</t>
   </si>
   <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
     <t>Sonny Gray</t>
   </si>
   <si>
@@ -235,234 +463,39 @@
     <t>Colton Gordon</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
-    <t>Kyle Harrison</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
     <t>Seth Lugo</t>
   </si>
   <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
-    <t>Tony Gonsolin</t>
-  </si>
-  <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Zebby Matthews</t>
-  </si>
-  <si>
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Ryan Gusto</t>
-  </si>
-  <si>
     <t>Jacob Lopez</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Griffin Canning</t>
-  </si>
-  <si>
-    <t>Hunter Greene</t>
-  </si>
-  <si>
     <t>Kolby Allard</t>
   </si>
   <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Pablo López</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
     <t>Tanner Gordon</t>
   </si>
   <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
     <t>Jackson Jobe</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
-    <t>Bowden Francis</t>
-  </si>
-  <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>Daniel Lynch</t>
   </si>
   <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Logan Evans</t>
   </si>
   <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
@@ -481,9 +514,6 @@
     <t>Hunter Dobbins</t>
   </si>
   <si>
-    <t>Brant Hurter</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
@@ -499,12 +529,6 @@
     <t>Justin Verlander</t>
   </si>
   <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
-    <t>Mick Abel</t>
-  </si>
-  <si>
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
@@ -521,12 +545,6 @@
   </si>
   <si>
     <t>Chase Petty</t>
-  </si>
-  <si>
-    <t>Cole Ragans</t>
-  </si>
-  <si>
-    <t>Osvaldo Bido</t>
   </si>
   <si>
     <t>Matt Sauer</t>
@@ -950,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>650644</v>
+        <v>694297</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -983,664 +1001,661 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>663903</v>
+        <v>693433</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>663554</v>
+      </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>608566</v>
+        <v>605135</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>656427</v>
+        <v>666142</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>657746</v>
+        <v>607067</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>686563</v>
+        <v>701581</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>657277</v>
+        <v>656849</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>622663</v>
+        <v>656302</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>676974</v>
+        <v>664285</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>621112</v>
+        <v>656550</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>690916</v>
+        <v>683004</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>542881</v>
+        <v>663623</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>663568</v>
+        <v>666200</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>605288</v>
+        <v>689017</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>571760</v>
+        <v>669461</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>693821</v>
+        <v>608331</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>450203</v>
+        <v>571945</v>
       </c>
       <c r="C19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>663978</v>
+        <v>656605</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>669203</v>
+        <v>687765</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>607200</v>
+        <v>592662</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>676979</v>
+        <v>686752</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>668909</v>
+        <v>680732</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>806185</v>
+        <v>677944</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>686613</v>
+        <v>621107</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>686799</v>
+        <v>702070</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>594798</v>
+        <v>671096</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>592791</v>
+        <v>700249</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>500779</v>
+        <v>615698</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>676664</v>
+        <v>519242</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>672456</v>
+        <v>657376</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>592332</v>
+        <v>676106</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>663460</v>
+        <v>656288</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>622491</v>
+        <v>605488</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>680730</v>
+        <v>621244</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>607259</v>
+        <v>667755</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>681190</v>
+        <v>677958</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>624133</v>
+        <v>607536</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>677960</v>
+        <v>690986</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>642232</v>
+        <v>608337</v>
       </c>
       <c r="C41" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>671737</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>808967</v>
+        <v>669022</v>
       </c>
       <c r="C43" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>687223</v>
+        <v>571510</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>663559</v>
+        <v>518876</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>641927</v>
+        <v>601713</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>676962</v>
+        <v>682990</v>
       </c>
       <c r="C47" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>694297</v>
+        <v>669358</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>682243</v>
+        <v>664062</v>
       </c>
       <c r="C49" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>663436</v>
+        <v>805673</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>665152</v>
+        <v>687473</v>
       </c>
       <c r="C51" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>656302</v>
+        <v>690953</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>665795</v>
+        <v>681347</v>
       </c>
       <c r="C53" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>666200</v>
+        <v>687830</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>673540</v>
+        <v>678024</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>543294</v>
+        <v>669467</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
-        <v>689017</v>
+        <v>670102</v>
       </c>
       <c r="C57" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>647336</v>
+        <v>676428</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>608379</v>
+        <v>678394</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>666157</v>
+        <v>607074</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>571578</v>
+        <v>477132</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>592662</v>
+        <v>650911</v>
       </c>
       <c r="C62" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63">
-        <v>677944</v>
-      </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1648,10 +1663,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>543243</v>
+        <v>642547</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1659,10 +1674,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>680885</v>
+        <v>669923</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1670,10 +1685,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>669373</v>
+        <v>668881</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1681,10 +1696,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>621111</v>
+        <v>689017</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1692,10 +1707,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>701542</v>
+        <v>547179</v>
       </c>
       <c r="C68" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1703,10 +1718,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>641793</v>
+        <v>674370</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1714,10 +1729,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>694477</v>
+        <v>641154</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1725,10 +1740,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>680684</v>
+        <v>694973</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1736,10 +1751,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>676467</v>
+        <v>645261</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1747,10 +1762,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>671096</v>
+        <v>675911</v>
       </c>
       <c r="C73" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1758,10 +1773,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>693433</v>
+        <v>676440</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1769,10 +1784,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>615698</v>
+        <v>592866</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1780,10 +1795,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>663554</v>
+        <v>641816</v>
       </c>
       <c r="C76" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1791,10 +1806,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>605135</v>
+        <v>656731</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1802,10 +1817,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>607067</v>
+        <v>579328</v>
       </c>
       <c r="C78" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1813,10 +1828,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>656849</v>
+        <v>668678</v>
       </c>
       <c r="C79" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1824,10 +1839,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>664285</v>
+        <v>608372</v>
       </c>
       <c r="C80" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1835,10 +1850,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>656550</v>
+        <v>681343</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1846,10 +1861,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>683004</v>
+        <v>801403</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1857,10 +1872,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>663623</v>
+        <v>690990</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1868,10 +1883,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>605488</v>
+        <v>686701</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1879,10 +1894,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>667755</v>
+        <v>650644</v>
       </c>
       <c r="C85" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1890,10 +1905,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>607536</v>
+        <v>663903</v>
       </c>
       <c r="C86" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1901,10 +1916,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>690986</v>
+        <v>608566</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1912,18 +1927,21 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>608337</v>
+        <v>656427</v>
       </c>
       <c r="C88" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>89</v>
       </c>
+      <c r="B89">
+        <v>657746</v>
+      </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1931,10 +1949,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>669461</v>
+        <v>686563</v>
       </c>
       <c r="C90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1942,10 +1960,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>608331</v>
+        <v>657277</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1953,10 +1971,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>518876</v>
+        <v>622663</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1964,10 +1982,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>656605</v>
+        <v>676974</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1975,10 +1993,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>601713</v>
+        <v>621112</v>
       </c>
       <c r="C94" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1986,10 +2004,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>682990</v>
+        <v>690916</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1997,10 +2015,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>686752</v>
+        <v>542881</v>
       </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2008,10 +2026,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>680732</v>
+        <v>663568</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2019,10 +2037,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>607625</v>
+        <v>605288</v>
       </c>
       <c r="C98" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2030,10 +2048,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>592836</v>
+        <v>571760</v>
       </c>
       <c r="C99" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2041,10 +2059,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>664062</v>
+        <v>693821</v>
       </c>
       <c r="C100" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2052,10 +2070,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>621107</v>
+        <v>450203</v>
       </c>
       <c r="C101" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2063,10 +2081,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>805673</v>
+        <v>663978</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2074,10 +2092,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>700363</v>
+        <v>669203</v>
       </c>
       <c r="C103" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2085,10 +2103,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>519242</v>
+        <v>607200</v>
       </c>
       <c r="C104" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2096,10 +2114,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>650911</v>
+        <v>676979</v>
       </c>
       <c r="C105" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2107,10 +2125,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>676106</v>
+        <v>668909</v>
       </c>
       <c r="C106" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2118,10 +2136,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>621244</v>
+        <v>806185</v>
       </c>
       <c r="C107" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2129,10 +2147,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>669022</v>
+        <v>686613</v>
       </c>
       <c r="C108" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2140,10 +2158,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>669358</v>
+        <v>686799</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2151,10 +2169,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>554430</v>
+        <v>594798</v>
       </c>
       <c r="C110" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2162,10 +2180,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>687473</v>
+        <v>592791</v>
       </c>
       <c r="C111" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2173,10 +2191,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>682052</v>
+        <v>500779</v>
       </c>
       <c r="C112" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2184,10 +2202,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>678394</v>
+        <v>676664</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2195,10 +2213,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>700249</v>
+        <v>672456</v>
       </c>
       <c r="C114" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2206,10 +2224,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>657376</v>
+        <v>592332</v>
       </c>
       <c r="C115" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2217,10 +2235,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>477132</v>
+        <v>663460</v>
       </c>
       <c r="C116" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2228,10 +2246,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>642547</v>
+        <v>622491</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2239,10 +2257,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>669923</v>
+        <v>680730</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2250,10 +2268,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>656288</v>
+        <v>607259</v>
       </c>
       <c r="C119" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2261,10 +2279,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>668881</v>
+        <v>681190</v>
       </c>
       <c r="C120" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2272,10 +2290,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>663465</v>
+        <v>624133</v>
       </c>
       <c r="C121" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2283,10 +2301,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>689017</v>
+        <v>677960</v>
       </c>
       <c r="C122" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2294,10 +2312,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>571510</v>
+        <v>642232</v>
       </c>
       <c r="C123" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2305,10 +2323,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>571945</v>
+        <v>671737</v>
       </c>
       <c r="C124" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2316,10 +2334,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>641154</v>
+        <v>808967</v>
       </c>
       <c r="C125" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2327,10 +2345,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>694973</v>
+        <v>687223</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2338,10 +2356,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>645261</v>
+        <v>663559</v>
       </c>
       <c r="C127" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2349,10 +2367,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>685299</v>
+        <v>641927</v>
       </c>
       <c r="C128" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2360,10 +2378,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>592866</v>
+        <v>676962</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2371,10 +2389,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>641816</v>
+        <v>682243</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2382,10 +2400,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>579328</v>
+        <v>663436</v>
       </c>
       <c r="C131" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2393,10 +2411,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>668678</v>
+        <v>665152</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2404,10 +2422,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>681343</v>
+        <v>665795</v>
       </c>
       <c r="C133" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2415,10 +2433,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>695549</v>
+        <v>673540</v>
       </c>
       <c r="C134" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2426,10 +2444,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>702070</v>
+        <v>543294</v>
       </c>
       <c r="C135" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2437,10 +2455,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>669467</v>
+        <v>647336</v>
       </c>
       <c r="C136" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2448,10 +2466,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>670102</v>
+        <v>608379</v>
       </c>
       <c r="C137" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2459,10 +2477,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>607074</v>
+        <v>666157</v>
       </c>
       <c r="C138" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2470,10 +2488,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>663738</v>
+        <v>571578</v>
       </c>
       <c r="C139" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2481,10 +2499,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>543135</v>
+        <v>543243</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2492,10 +2510,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>675911</v>
+        <v>680885</v>
       </c>
       <c r="C141" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2503,10 +2521,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>676440</v>
+        <v>669373</v>
       </c>
       <c r="C142" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2514,10 +2532,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>656731</v>
+        <v>621111</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2525,10 +2543,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>608372</v>
+        <v>701542</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2536,10 +2554,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>688138</v>
+        <v>641793</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2547,10 +2565,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>690990</v>
+        <v>694477</v>
       </c>
       <c r="C146" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2558,10 +2576,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>681347</v>
+        <v>680684</v>
       </c>
       <c r="C147" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2569,10 +2587,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>547179</v>
+        <v>676467</v>
       </c>
       <c r="C148" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2580,10 +2598,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>669194</v>
+        <v>607625</v>
       </c>
       <c r="C149" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2591,10 +2609,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>671106</v>
+        <v>592836</v>
       </c>
       <c r="C150" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2602,10 +2620,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>701656</v>
+        <v>700363</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2613,10 +2631,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>650633</v>
+        <v>554430</v>
       </c>
       <c r="C152" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2624,10 +2642,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>669432</v>
+        <v>682052</v>
       </c>
       <c r="C153" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2635,10 +2653,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>690928</v>
+        <v>663465</v>
       </c>
       <c r="C154" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2646,10 +2664,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>676428</v>
+        <v>685299</v>
       </c>
       <c r="C155" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2657,10 +2675,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>687888</v>
+        <v>695549</v>
       </c>
       <c r="C156" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2668,10 +2686,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>694646</v>
+        <v>663738</v>
       </c>
       <c r="C157" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2679,10 +2697,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>669060</v>
+        <v>543135</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2690,10 +2708,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>669372</v>
+        <v>688138</v>
       </c>
       <c r="C159" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2701,10 +2719,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>434378</v>
+        <v>669194</v>
       </c>
       <c r="C160" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2712,10 +2730,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>801403</v>
+        <v>671106</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2723,10 +2741,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>690953</v>
+        <v>701656</v>
       </c>
       <c r="C162" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2734,10 +2752,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>669387</v>
+        <v>650633</v>
       </c>
       <c r="C163" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2745,10 +2763,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>502043</v>
+        <v>669432</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2756,10 +2774,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>681857</v>
+        <v>690928</v>
       </c>
       <c r="C165" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2767,10 +2785,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>669854</v>
+        <v>687888</v>
       </c>
       <c r="C166" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2778,10 +2796,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>668964</v>
+        <v>694646</v>
       </c>
       <c r="C167" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2789,10 +2807,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>695534</v>
+        <v>669060</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2800,10 +2818,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>666142</v>
+        <v>669372</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2811,10 +2829,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>674370</v>
+        <v>434378</v>
       </c>
       <c r="C170" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2822,10 +2840,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>669422</v>
+        <v>669387</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2833,10 +2851,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>605400</v>
+        <v>502043</v>
       </c>
       <c r="C172" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2844,10 +2862,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>593958</v>
+        <v>681857</v>
       </c>
       <c r="C173" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2855,10 +2873,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>663855</v>
+        <v>669854</v>
       </c>
       <c r="C174" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2866,10 +2884,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>680573</v>
+        <v>668964</v>
       </c>
       <c r="C175" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2877,10 +2895,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>678368</v>
+        <v>695534</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2888,10 +2906,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>594902</v>
+        <v>669422</v>
       </c>
       <c r="C177" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2899,10 +2917,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>656557</v>
+        <v>605400</v>
       </c>
       <c r="C178" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2910,10 +2928,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>669713</v>
+        <v>593958</v>
       </c>
       <c r="C179" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2921,10 +2939,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>570632</v>
+        <v>663855</v>
       </c>
       <c r="C180" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2932,10 +2950,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>695418</v>
+        <v>680573</v>
       </c>
       <c r="C181" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2943,10 +2961,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>676508</v>
+        <v>678368</v>
       </c>
       <c r="C182" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2954,10 +2972,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>684007</v>
+        <v>594902</v>
       </c>
       <c r="C183" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2965,10 +2983,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>694918</v>
+        <v>656557</v>
       </c>
       <c r="C184" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2976,10 +2994,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>641302</v>
+        <v>669713</v>
       </c>
       <c r="C185" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2987,10 +3005,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>663372</v>
+        <v>570632</v>
       </c>
       <c r="C186" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2998,10 +3016,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>471911</v>
+        <v>695418</v>
       </c>
       <c r="C187" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3009,10 +3027,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>669302</v>
+        <v>676508</v>
       </c>
       <c r="C188" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3020,10 +3038,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>686249</v>
+        <v>684007</v>
       </c>
       <c r="C189" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3031,10 +3049,76 @@
         <v>190</v>
       </c>
       <c r="B190">
+        <v>694918</v>
+      </c>
+      <c r="C190" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>641302</v>
+      </c>
+      <c r="C191" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>663372</v>
+      </c>
+      <c r="C192" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>471911</v>
+      </c>
+      <c r="C193" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>669302</v>
+      </c>
+      <c r="C194" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>686249</v>
+      </c>
+      <c r="C195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
         <v>527048</v>
       </c>
-      <c r="C190" t="s">
-        <v>192</v>
+      <c r="C196" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,90 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Bryce Miller</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Joe Ross</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
     <t>Brandon Pfaadt</t>
   </si>
   <si>
@@ -337,9 +421,6 @@
     <t>Gavin Williams</t>
   </si>
   <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
@@ -355,9 +436,6 @@
     <t>Jose Quintana</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Keider Montero</t>
   </si>
   <si>
@@ -376,9 +454,6 @@
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
     <t>Ranger Suárez</t>
   </si>
   <si>
@@ -397,75 +472,12 @@
     <t>Carson Palmquist</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Bryce Miller</t>
-  </si>
-  <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
     <t>Michael Wacha</t>
   </si>
   <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Gunnar Hoglund</t>
   </si>
   <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
@@ -499,9 +511,6 @@
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
     <t>Logan Henderson</t>
   </si>
   <si>
@@ -551,9 +560,6 @@
   </si>
   <si>
     <t>Aaron Nola</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
   </si>
   <si>
     <t>Jordan Hicks</t>
@@ -968,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -986,676 +992,679 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>694297</v>
-      </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>693433</v>
+        <v>663559</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>663554</v>
+        <v>641927</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>605135</v>
+        <v>676962</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>666142</v>
+        <v>682243</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>607067</v>
+        <v>663436</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>701581</v>
+        <v>665152</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>656849</v>
+        <v>593958</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>656302</v>
+        <v>665795</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>664285</v>
+        <v>806185</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>656550</v>
+        <v>605452</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>683004</v>
+        <v>676664</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>663623</v>
+        <v>680736</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>666200</v>
+        <v>673540</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>689017</v>
+        <v>543294</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>669461</v>
+        <v>671106</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>608331</v>
+        <v>647336</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>571945</v>
+        <v>666157</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>656605</v>
+        <v>571578</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>687765</v>
+        <v>681190</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>592662</v>
+        <v>607625</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>686752</v>
+        <v>543243</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>680732</v>
+        <v>680885</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>677944</v>
+        <v>669373</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>621107</v>
+        <v>621111</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>702070</v>
+        <v>701542</v>
       </c>
       <c r="C27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>671096</v>
+        <v>641793</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>700249</v>
+        <v>694477</v>
       </c>
       <c r="C29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>615698</v>
+        <v>676467</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>519242</v>
+        <v>694297</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>657376</v>
+        <v>693433</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>676106</v>
+        <v>663554</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>656288</v>
+        <v>605135</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>605488</v>
+        <v>666142</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>621244</v>
+        <v>607067</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>667755</v>
+        <v>701581</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>677958</v>
+        <v>656849</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>607536</v>
+        <v>656302</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>690986</v>
+        <v>664285</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>608337</v>
+        <v>656550</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>683004</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>669022</v>
+        <v>663623</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>571510</v>
+        <v>666200</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>518876</v>
+        <v>689017</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>601713</v>
+        <v>669461</v>
       </c>
       <c r="C46" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>682990</v>
+        <v>608331</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>669358</v>
+        <v>571945</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>664062</v>
+        <v>656605</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>805673</v>
+        <v>687765</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>687473</v>
+        <v>592662</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>690953</v>
+        <v>686752</v>
       </c>
       <c r="C52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>681347</v>
+        <v>680732</v>
       </c>
       <c r="C53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>687830</v>
+        <v>677944</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>678024</v>
+        <v>621107</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>669467</v>
+        <v>702070</v>
       </c>
       <c r="C56" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>670102</v>
+        <v>671096</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>676428</v>
+        <v>700249</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>678394</v>
+        <v>615698</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>607074</v>
+        <v>519242</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>477132</v>
+        <v>657376</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>676106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>63</v>
       </c>
-      <c r="B62">
-        <v>650911</v>
-      </c>
-      <c r="C62" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="B63">
+        <v>656288</v>
+      </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1663,10 +1672,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>642547</v>
+        <v>605488</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1674,10 +1683,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>669923</v>
+        <v>621244</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1685,10 +1694,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>668881</v>
+        <v>667755</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1696,10 +1705,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>689017</v>
+        <v>677958</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1707,10 +1716,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>547179</v>
+        <v>607536</v>
       </c>
       <c r="C68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1718,10 +1727,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>674370</v>
+        <v>690986</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1729,21 +1738,18 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>641154</v>
+        <v>608337</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>694973</v>
-      </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1751,10 +1757,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>645261</v>
+        <v>669022</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1762,10 +1768,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>675911</v>
+        <v>571510</v>
       </c>
       <c r="C73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1773,10 +1779,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>676440</v>
+        <v>518876</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1784,10 +1790,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>592866</v>
+        <v>601713</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1795,10 +1801,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>641816</v>
+        <v>682990</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1806,10 +1812,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>656731</v>
+        <v>669358</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1817,10 +1823,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>579328</v>
+        <v>664062</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1828,10 +1834,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>668678</v>
+        <v>805673</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1839,10 +1845,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>608372</v>
+        <v>687473</v>
       </c>
       <c r="C80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1850,10 +1856,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>681343</v>
+        <v>690953</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1861,10 +1867,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>801403</v>
+        <v>681347</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1872,10 +1878,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>690990</v>
+        <v>687830</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1883,10 +1889,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>686701</v>
+        <v>678024</v>
       </c>
       <c r="C84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1894,10 +1900,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>650644</v>
+        <v>669467</v>
       </c>
       <c r="C85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1905,10 +1911,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>663903</v>
+        <v>670102</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1916,10 +1922,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>608566</v>
+        <v>676428</v>
       </c>
       <c r="C87" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1927,10 +1933,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>656427</v>
+        <v>678394</v>
       </c>
       <c r="C88" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1938,10 +1944,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>657746</v>
+        <v>607074</v>
       </c>
       <c r="C89" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1949,10 +1955,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>686563</v>
+        <v>477132</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1960,10 +1966,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>657277</v>
+        <v>650911</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1971,10 +1977,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>622663</v>
+        <v>642547</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1982,10 +1988,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>676974</v>
+        <v>669923</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1993,10 +1999,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>621112</v>
+        <v>668881</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2004,10 +2010,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>690916</v>
+        <v>689017</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2015,10 +2021,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>542881</v>
+        <v>547179</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2026,10 +2032,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>663568</v>
+        <v>674370</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2037,10 +2043,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>605288</v>
+        <v>641154</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2048,10 +2054,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>571760</v>
+        <v>694973</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2059,10 +2065,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>693821</v>
+        <v>645261</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2070,10 +2076,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>450203</v>
+        <v>675911</v>
       </c>
       <c r="C101" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2081,10 +2087,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>663978</v>
+        <v>676440</v>
       </c>
       <c r="C102" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2092,10 +2098,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>669203</v>
+        <v>592866</v>
       </c>
       <c r="C103" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2103,10 +2109,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>607200</v>
+        <v>641816</v>
       </c>
       <c r="C104" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2114,10 +2120,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>676979</v>
+        <v>656731</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2125,10 +2131,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>668909</v>
+        <v>579328</v>
       </c>
       <c r="C106" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2136,10 +2142,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>806185</v>
+        <v>668678</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2147,10 +2153,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>686613</v>
+        <v>608372</v>
       </c>
       <c r="C108" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2158,10 +2164,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>686799</v>
+        <v>681343</v>
       </c>
       <c r="C109" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2169,10 +2175,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>594798</v>
+        <v>801403</v>
       </c>
       <c r="C110" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2180,10 +2186,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>592791</v>
+        <v>690990</v>
       </c>
       <c r="C111" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2191,10 +2197,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>500779</v>
+        <v>686701</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2202,10 +2208,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>676664</v>
+        <v>650644</v>
       </c>
       <c r="C113" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2213,10 +2219,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>672456</v>
+        <v>663903</v>
       </c>
       <c r="C114" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2224,10 +2230,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>592332</v>
+        <v>608566</v>
       </c>
       <c r="C115" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2235,10 +2241,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>663460</v>
+        <v>656427</v>
       </c>
       <c r="C116" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2246,10 +2252,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>622491</v>
+        <v>657746</v>
       </c>
       <c r="C117" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2257,10 +2263,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>680730</v>
+        <v>686563</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2268,10 +2274,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>607259</v>
+        <v>657277</v>
       </c>
       <c r="C119" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2279,10 +2285,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>681190</v>
+        <v>622663</v>
       </c>
       <c r="C120" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2290,10 +2296,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>624133</v>
+        <v>676974</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2301,10 +2307,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>677960</v>
+        <v>621112</v>
       </c>
       <c r="C122" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2312,10 +2318,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>642232</v>
+        <v>690916</v>
       </c>
       <c r="C123" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2323,10 +2329,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>671737</v>
+        <v>542881</v>
       </c>
       <c r="C124" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2334,10 +2340,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>808967</v>
+        <v>663568</v>
       </c>
       <c r="C125" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2345,10 +2351,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>687223</v>
+        <v>605288</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2356,10 +2362,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>663559</v>
+        <v>571760</v>
       </c>
       <c r="C127" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2367,10 +2373,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>641927</v>
+        <v>693821</v>
       </c>
       <c r="C128" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2378,10 +2384,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>676962</v>
+        <v>450203</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2389,10 +2395,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>682243</v>
+        <v>663978</v>
       </c>
       <c r="C130" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2400,10 +2406,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>663436</v>
+        <v>669203</v>
       </c>
       <c r="C131" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2411,10 +2417,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>665152</v>
+        <v>607200</v>
       </c>
       <c r="C132" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2422,10 +2428,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>665795</v>
+        <v>676979</v>
       </c>
       <c r="C133" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2433,10 +2439,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>673540</v>
+        <v>668909</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2444,10 +2450,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>543294</v>
+        <v>686613</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2455,10 +2461,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>647336</v>
+        <v>686799</v>
       </c>
       <c r="C136" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2466,10 +2472,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>608379</v>
+        <v>594798</v>
       </c>
       <c r="C137" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2477,10 +2483,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>666157</v>
+        <v>592791</v>
       </c>
       <c r="C138" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2488,10 +2494,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>571578</v>
+        <v>500779</v>
       </c>
       <c r="C139" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2499,10 +2505,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>543243</v>
+        <v>672456</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2510,10 +2516,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>680885</v>
+        <v>592332</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2521,10 +2527,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>669373</v>
+        <v>663460</v>
       </c>
       <c r="C142" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2532,10 +2538,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>621111</v>
+        <v>622491</v>
       </c>
       <c r="C143" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2543,10 +2549,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>701542</v>
+        <v>680730</v>
       </c>
       <c r="C144" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2554,10 +2560,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>641793</v>
+        <v>607259</v>
       </c>
       <c r="C145" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2565,10 +2571,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>694477</v>
+        <v>624133</v>
       </c>
       <c r="C146" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2576,10 +2582,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>680684</v>
+        <v>677960</v>
       </c>
       <c r="C147" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2587,10 +2593,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>676467</v>
+        <v>642232</v>
       </c>
       <c r="C148" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2598,10 +2604,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>607625</v>
+        <v>671737</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2609,10 +2615,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>592836</v>
+        <v>808967</v>
       </c>
       <c r="C150" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2620,10 +2626,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>700363</v>
+        <v>687223</v>
       </c>
       <c r="C151" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2631,10 +2637,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>554430</v>
+        <v>608379</v>
       </c>
       <c r="C152" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2642,10 +2648,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>682052</v>
+        <v>680684</v>
       </c>
       <c r="C153" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2653,10 +2659,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>663465</v>
+        <v>592836</v>
       </c>
       <c r="C154" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2664,10 +2670,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>685299</v>
+        <v>700363</v>
       </c>
       <c r="C155" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2675,10 +2681,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>695549</v>
+        <v>554430</v>
       </c>
       <c r="C156" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2686,10 +2692,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>663738</v>
+        <v>682052</v>
       </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2697,10 +2703,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>543135</v>
+        <v>663465</v>
       </c>
       <c r="C158" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2708,10 +2714,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>688138</v>
+        <v>685299</v>
       </c>
       <c r="C159" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2719,10 +2725,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>669194</v>
+        <v>695549</v>
       </c>
       <c r="C160" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2730,10 +2736,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>671106</v>
+        <v>663738</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2741,10 +2747,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>701656</v>
+        <v>543135</v>
       </c>
       <c r="C162" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2752,10 +2758,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>650633</v>
+        <v>688138</v>
       </c>
       <c r="C163" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2763,10 +2769,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>669432</v>
+        <v>669194</v>
       </c>
       <c r="C164" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2774,10 +2780,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>690928</v>
+        <v>701656</v>
       </c>
       <c r="C165" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2785,10 +2791,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>687888</v>
+        <v>650633</v>
       </c>
       <c r="C166" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2796,10 +2802,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>694646</v>
+        <v>669432</v>
       </c>
       <c r="C167" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2807,10 +2813,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>669060</v>
+        <v>690928</v>
       </c>
       <c r="C168" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2818,10 +2824,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>669372</v>
+        <v>687888</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2829,10 +2835,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>434378</v>
+        <v>694646</v>
       </c>
       <c r="C170" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2840,10 +2846,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>669387</v>
+        <v>669060</v>
       </c>
       <c r="C171" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2851,10 +2857,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>502043</v>
+        <v>669372</v>
       </c>
       <c r="C172" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2862,10 +2868,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>681857</v>
+        <v>434378</v>
       </c>
       <c r="C173" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2873,10 +2879,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>669854</v>
+        <v>669387</v>
       </c>
       <c r="C174" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2884,10 +2890,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>668964</v>
+        <v>502043</v>
       </c>
       <c r="C175" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2895,10 +2901,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>695534</v>
+        <v>681857</v>
       </c>
       <c r="C176" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2906,10 +2912,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>669422</v>
+        <v>669854</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2917,10 +2923,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>605400</v>
+        <v>668964</v>
       </c>
       <c r="C178" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2928,10 +2934,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>593958</v>
+        <v>695534</v>
       </c>
       <c r="C179" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2939,10 +2945,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>663855</v>
+        <v>669422</v>
       </c>
       <c r="C180" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2950,10 +2956,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>680573</v>
+        <v>605400</v>
       </c>
       <c r="C181" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2961,10 +2967,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>678368</v>
+        <v>663855</v>
       </c>
       <c r="C182" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2972,10 +2978,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>594902</v>
+        <v>680573</v>
       </c>
       <c r="C183" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2983,10 +2989,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>656557</v>
+        <v>678368</v>
       </c>
       <c r="C184" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2994,10 +3000,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>669713</v>
+        <v>594902</v>
       </c>
       <c r="C185" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3005,10 +3011,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>570632</v>
+        <v>656557</v>
       </c>
       <c r="C186" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3016,10 +3022,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>695418</v>
+        <v>669713</v>
       </c>
       <c r="C187" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3027,10 +3033,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>676508</v>
+        <v>570632</v>
       </c>
       <c r="C188" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3038,10 +3044,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>684007</v>
+        <v>695418</v>
       </c>
       <c r="C189" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3049,10 +3055,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>694918</v>
+        <v>676508</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3060,10 +3066,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>641302</v>
+        <v>684007</v>
       </c>
       <c r="C191" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3071,10 +3077,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>663372</v>
+        <v>694918</v>
       </c>
       <c r="C192" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3082,10 +3088,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>471911</v>
+        <v>641302</v>
       </c>
       <c r="C193" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3093,10 +3099,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>669302</v>
+        <v>663372</v>
       </c>
       <c r="C194" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3104,10 +3110,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C195" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3115,10 +3121,32 @@
         <v>196</v>
       </c>
       <c r="B196">
+        <v>669302</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>686249</v>
+      </c>
+      <c r="C197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
         <v>527048</v>
       </c>
-      <c r="C196" t="s">
-        <v>198</v>
+      <c r="C198" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,6 +25,93 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Ryan Weathers</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
@@ -373,12 +460,6 @@
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Max Meyer</t>
   </si>
   <si>
@@ -391,90 +472,12 @@
     <t>Tyler Anderson</t>
   </si>
   <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
     <t>Kris Bubic</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
-    <t>Ryan Weathers</t>
-  </si>
-  <si>
-    <t>Ryan Yarbrough</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
     <t>Gunnar Hoglund</t>
   </si>
   <si>
@@ -506,9 +509,6 @@
   </si>
   <si>
     <t>Logan Evans</t>
-  </si>
-  <si>
-    <t>Ryne Nelson</t>
   </si>
   <si>
     <t>Logan Henderson</t>
@@ -992,16 +992,22 @@
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>605288</v>
+      </c>
       <c r="C2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>663559</v>
+        <v>571760</v>
       </c>
       <c r="C3" t="s">
         <v>200</v>
@@ -1009,10 +1015,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>641927</v>
+        <v>693821</v>
       </c>
       <c r="C4" t="s">
         <v>199</v>
@@ -1020,10 +1026,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>676962</v>
+        <v>450203</v>
       </c>
       <c r="C5" t="s">
         <v>199</v>
@@ -1031,22 +1037,16 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>682243</v>
+        <v>663978</v>
       </c>
       <c r="C6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>663436</v>
-      </c>
       <c r="C7" t="s">
         <v>199</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>665152</v>
+        <v>607200</v>
       </c>
       <c r="C8" t="s">
         <v>199</v>
@@ -1067,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>593958</v>
+        <v>676979</v>
       </c>
       <c r="C9" t="s">
         <v>200</v>
@@ -1078,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>665795</v>
+        <v>668909</v>
       </c>
       <c r="C10" t="s">
         <v>199</v>
@@ -1089,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>806185</v>
+        <v>686613</v>
       </c>
       <c r="C11" t="s">
         <v>199</v>
@@ -1100,7 +1100,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>605452</v>
+        <v>686799</v>
       </c>
       <c r="C12" t="s">
         <v>199</v>
@@ -1111,10 +1111,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>676664</v>
+        <v>594798</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1122,10 +1122,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>680736</v>
+        <v>592791</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1133,10 +1133,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>673540</v>
+        <v>500779</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1144,7 +1144,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>543294</v>
+        <v>672456</v>
       </c>
       <c r="C16" t="s">
         <v>199</v>
@@ -1155,10 +1155,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>671106</v>
+        <v>592332</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1166,7 +1166,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>647336</v>
+        <v>657277</v>
       </c>
       <c r="C18" t="s">
         <v>199</v>
@@ -1177,10 +1177,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>666157</v>
+        <v>622491</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1188,10 +1188,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>571578</v>
+        <v>622663</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1199,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>681190</v>
+        <v>608379</v>
       </c>
       <c r="C21" t="s">
         <v>199</v>
@@ -1210,10 +1210,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>607625</v>
+        <v>680730</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1221,7 +1221,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>543243</v>
+        <v>607259</v>
       </c>
       <c r="C23" t="s">
         <v>199</v>
@@ -1232,10 +1232,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>680885</v>
+        <v>624133</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1243,7 +1243,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>669373</v>
+        <v>677960</v>
       </c>
       <c r="C25" t="s">
         <v>200</v>
@@ -1254,10 +1254,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>621111</v>
+        <v>642232</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1265,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>701542</v>
+        <v>669194</v>
       </c>
       <c r="C27" t="s">
         <v>199</v>
@@ -1276,7 +1276,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>641793</v>
+        <v>671737</v>
       </c>
       <c r="C28" t="s">
         <v>199</v>
@@ -1287,7 +1287,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>694477</v>
+        <v>808967</v>
       </c>
       <c r="C29" t="s">
         <v>199</v>
@@ -1298,10 +1298,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>676467</v>
+        <v>663568</v>
       </c>
       <c r="C30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1309,10 +1309,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>694297</v>
+        <v>687223</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1320,10 +1320,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>693433</v>
+        <v>663559</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1331,7 +1331,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>663554</v>
+        <v>641927</v>
       </c>
       <c r="C33" t="s">
         <v>199</v>
@@ -1342,7 +1342,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>605135</v>
+        <v>676962</v>
       </c>
       <c r="C34" t="s">
         <v>199</v>
@@ -1353,10 +1353,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>666142</v>
+        <v>682243</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1364,7 +1364,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>607067</v>
+        <v>663436</v>
       </c>
       <c r="C36" t="s">
         <v>199</v>
@@ -1375,7 +1375,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>701581</v>
+        <v>665152</v>
       </c>
       <c r="C37" t="s">
         <v>199</v>
@@ -1386,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>656849</v>
+        <v>593958</v>
       </c>
       <c r="C38" t="s">
         <v>200</v>
@@ -1397,7 +1397,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>656302</v>
+        <v>665795</v>
       </c>
       <c r="C39" t="s">
         <v>199</v>
@@ -1408,10 +1408,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>664285</v>
+        <v>806185</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1419,7 +1419,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>656550</v>
+        <v>605452</v>
       </c>
       <c r="C41" t="s">
         <v>199</v>
@@ -1430,10 +1430,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>683004</v>
+        <v>676664</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1441,10 +1441,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>663623</v>
+        <v>680736</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1452,10 +1452,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>666200</v>
+        <v>673540</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1463,7 +1463,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>689017</v>
+        <v>543294</v>
       </c>
       <c r="C45" t="s">
         <v>199</v>
@@ -1474,7 +1474,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>669461</v>
+        <v>671106</v>
       </c>
       <c r="C46" t="s">
         <v>200</v>
@@ -1485,10 +1485,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>608331</v>
+        <v>647336</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1496,10 +1496,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>571945</v>
+        <v>666157</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1507,10 +1507,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>656605</v>
+        <v>571578</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1518,7 +1518,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>687765</v>
+        <v>681190</v>
       </c>
       <c r="C50" t="s">
         <v>199</v>
@@ -1529,10 +1529,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>592662</v>
+        <v>607625</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1540,7 +1540,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>686752</v>
+        <v>543243</v>
       </c>
       <c r="C52" t="s">
         <v>199</v>
@@ -1551,7 +1551,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>680732</v>
+        <v>680885</v>
       </c>
       <c r="C53" t="s">
         <v>199</v>
@@ -1562,10 +1562,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>677944</v>
+        <v>669373</v>
       </c>
       <c r="C54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1573,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>621107</v>
+        <v>621111</v>
       </c>
       <c r="C55" t="s">
         <v>199</v>
@@ -1584,10 +1584,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>702070</v>
+        <v>701542</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1595,10 +1595,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>671096</v>
+        <v>641793</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1606,10 +1606,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>700249</v>
+        <v>694477</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1617,10 +1617,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>615698</v>
+        <v>676467</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1628,10 +1628,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>519242</v>
+        <v>694297</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1639,7 +1639,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>657376</v>
+        <v>693433</v>
       </c>
       <c r="C61" t="s">
         <v>199</v>
@@ -1650,7 +1650,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>676106</v>
+        <v>663554</v>
       </c>
       <c r="C62" t="s">
         <v>199</v>
@@ -1661,7 +1661,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>656288</v>
+        <v>605135</v>
       </c>
       <c r="C63" t="s">
         <v>199</v>
@@ -1672,7 +1672,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>605488</v>
+        <v>666142</v>
       </c>
       <c r="C64" t="s">
         <v>200</v>
@@ -1683,7 +1683,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>621244</v>
+        <v>607067</v>
       </c>
       <c r="C65" t="s">
         <v>199</v>
@@ -1694,7 +1694,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>667755</v>
+        <v>701581</v>
       </c>
       <c r="C66" t="s">
         <v>199</v>
@@ -1705,10 +1705,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>677958</v>
+        <v>656849</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1716,10 +1716,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>607536</v>
+        <v>656302</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1727,7 +1727,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>690986</v>
+        <v>664285</v>
       </c>
       <c r="C69" t="s">
         <v>200</v>
@@ -1738,7 +1738,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>608337</v>
+        <v>656550</v>
       </c>
       <c r="C70" t="s">
         <v>199</v>
@@ -1748,6 +1748,9 @@
       <c r="A71" t="s">
         <v>71</v>
       </c>
+      <c r="B71">
+        <v>683004</v>
+      </c>
       <c r="C71" t="s">
         <v>199</v>
       </c>
@@ -1757,10 +1760,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>669022</v>
+        <v>663623</v>
       </c>
       <c r="C72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1768,7 +1771,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>571510</v>
+        <v>666200</v>
       </c>
       <c r="C73" t="s">
         <v>200</v>
@@ -1779,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>518876</v>
+        <v>689017</v>
       </c>
       <c r="C74" t="s">
         <v>199</v>
@@ -1790,10 +1793,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>601713</v>
+        <v>669461</v>
       </c>
       <c r="C75" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1801,10 +1804,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>682990</v>
+        <v>608331</v>
       </c>
       <c r="C76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1812,7 +1815,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669358</v>
+        <v>571945</v>
       </c>
       <c r="C77" t="s">
         <v>199</v>
@@ -1823,7 +1826,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>664062</v>
+        <v>656605</v>
       </c>
       <c r="C78" t="s">
         <v>199</v>
@@ -1834,7 +1837,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>805673</v>
+        <v>687765</v>
       </c>
       <c r="C79" t="s">
         <v>199</v>
@@ -1845,10 +1848,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>687473</v>
+        <v>592662</v>
       </c>
       <c r="C80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1856,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>690953</v>
+        <v>686752</v>
       </c>
       <c r="C81" t="s">
         <v>199</v>
@@ -1867,7 +1870,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>681347</v>
+        <v>680732</v>
       </c>
       <c r="C82" t="s">
         <v>199</v>
@@ -1878,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>687830</v>
+        <v>677944</v>
       </c>
       <c r="C83" t="s">
         <v>199</v>
@@ -1889,7 +1892,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>678024</v>
+        <v>621107</v>
       </c>
       <c r="C84" t="s">
         <v>199</v>
@@ -1900,10 +1903,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>669467</v>
+        <v>702070</v>
       </c>
       <c r="C85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1911,10 +1914,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>670102</v>
+        <v>671096</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1922,7 +1925,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>676428</v>
+        <v>700249</v>
       </c>
       <c r="C87" t="s">
         <v>200</v>
@@ -1933,7 +1936,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>678394</v>
+        <v>615698</v>
       </c>
       <c r="C88" t="s">
         <v>199</v>
@@ -1944,7 +1947,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>607074</v>
+        <v>519242</v>
       </c>
       <c r="C89" t="s">
         <v>200</v>
@@ -1955,10 +1958,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>477132</v>
+        <v>657376</v>
       </c>
       <c r="C90" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1966,10 +1969,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>650911</v>
+        <v>676106</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1977,7 +1980,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>642547</v>
+        <v>656288</v>
       </c>
       <c r="C92" t="s">
         <v>199</v>
@@ -1988,10 +1991,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>669923</v>
+        <v>605488</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1999,7 +2002,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>668881</v>
+        <v>621244</v>
       </c>
       <c r="C94" t="s">
         <v>199</v>
@@ -2010,7 +2013,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>689017</v>
+        <v>667755</v>
       </c>
       <c r="C95" t="s">
         <v>199</v>
@@ -2021,7 +2024,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>547179</v>
+        <v>677958</v>
       </c>
       <c r="C96" t="s">
         <v>199</v>
@@ -2032,10 +2035,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>674370</v>
+        <v>607536</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2043,10 +2046,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>641154</v>
+        <v>690986</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2054,7 +2057,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>694973</v>
+        <v>608337</v>
       </c>
       <c r="C99" t="s">
         <v>199</v>
@@ -2064,9 +2067,6 @@
       <c r="A100" t="s">
         <v>100</v>
       </c>
-      <c r="B100">
-        <v>645261</v>
-      </c>
       <c r="C100" t="s">
         <v>199</v>
       </c>
@@ -2076,10 +2076,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>675911</v>
+        <v>669022</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2087,10 +2087,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>676440</v>
+        <v>571510</v>
       </c>
       <c r="C102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2098,7 +2098,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>592866</v>
+        <v>518876</v>
       </c>
       <c r="C103" t="s">
         <v>199</v>
@@ -2109,7 +2109,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>641816</v>
+        <v>601713</v>
       </c>
       <c r="C104" t="s">
         <v>199</v>
@@ -2120,7 +2120,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>656731</v>
+        <v>682990</v>
       </c>
       <c r="C105" t="s">
         <v>199</v>
@@ -2131,10 +2131,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>579328</v>
+        <v>669358</v>
       </c>
       <c r="C106" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2142,7 +2142,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>668678</v>
+        <v>664062</v>
       </c>
       <c r="C107" t="s">
         <v>199</v>
@@ -2153,7 +2153,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>608372</v>
+        <v>805673</v>
       </c>
       <c r="C108" t="s">
         <v>199</v>
@@ -2164,7 +2164,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>681343</v>
+        <v>687473</v>
       </c>
       <c r="C109" t="s">
         <v>199</v>
@@ -2175,7 +2175,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>801403</v>
+        <v>690953</v>
       </c>
       <c r="C110" t="s">
         <v>199</v>
@@ -2186,7 +2186,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>690990</v>
+        <v>681347</v>
       </c>
       <c r="C111" t="s">
         <v>199</v>
@@ -2197,7 +2197,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>686701</v>
+        <v>687830</v>
       </c>
       <c r="C112" t="s">
         <v>199</v>
@@ -2208,7 +2208,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>650644</v>
+        <v>678024</v>
       </c>
       <c r="C113" t="s">
         <v>199</v>
@@ -2219,7 +2219,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>663903</v>
+        <v>669467</v>
       </c>
       <c r="C114" t="s">
         <v>199</v>
@@ -2230,7 +2230,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>608566</v>
+        <v>670102</v>
       </c>
       <c r="C115" t="s">
         <v>199</v>
@@ -2241,10 +2241,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>656427</v>
+        <v>676428</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2252,7 +2252,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>657746</v>
+        <v>678394</v>
       </c>
       <c r="C117" t="s">
         <v>199</v>
@@ -2263,10 +2263,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>686563</v>
+        <v>607074</v>
       </c>
       <c r="C118" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2274,10 +2274,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>657277</v>
+        <v>477132</v>
       </c>
       <c r="C119" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2285,10 +2285,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>622663</v>
+        <v>650911</v>
       </c>
       <c r="C120" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2296,7 +2296,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>676974</v>
+        <v>642547</v>
       </c>
       <c r="C121" t="s">
         <v>199</v>
@@ -2307,7 +2307,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>621112</v>
+        <v>669923</v>
       </c>
       <c r="C122" t="s">
         <v>199</v>
@@ -2318,7 +2318,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>690916</v>
+        <v>668881</v>
       </c>
       <c r="C123" t="s">
         <v>199</v>
@@ -2329,10 +2329,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>542881</v>
+        <v>689017</v>
       </c>
       <c r="C124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>663568</v>
+        <v>547179</v>
       </c>
       <c r="C125" t="s">
         <v>199</v>
@@ -2351,7 +2351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>605288</v>
+        <v>674370</v>
       </c>
       <c r="C126" t="s">
         <v>199</v>
@@ -2362,10 +2362,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>571760</v>
+        <v>641154</v>
       </c>
       <c r="C127" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2373,7 +2373,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>693821</v>
+        <v>694973</v>
       </c>
       <c r="C128" t="s">
         <v>199</v>
@@ -2384,7 +2384,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>450203</v>
+        <v>645261</v>
       </c>
       <c r="C129" t="s">
         <v>199</v>
@@ -2395,7 +2395,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>663978</v>
+        <v>675911</v>
       </c>
       <c r="C130" t="s">
         <v>199</v>
@@ -2406,7 +2406,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>669203</v>
+        <v>676440</v>
       </c>
       <c r="C131" t="s">
         <v>199</v>
@@ -2417,7 +2417,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>607200</v>
+        <v>592866</v>
       </c>
       <c r="C132" t="s">
         <v>199</v>
@@ -2428,10 +2428,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>676979</v>
+        <v>641816</v>
       </c>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2439,7 +2439,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>668909</v>
+        <v>656731</v>
       </c>
       <c r="C134" t="s">
         <v>199</v>
@@ -2450,10 +2450,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>686613</v>
+        <v>579328</v>
       </c>
       <c r="C135" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2461,7 +2461,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>686799</v>
+        <v>668678</v>
       </c>
       <c r="C136" t="s">
         <v>199</v>
@@ -2472,7 +2472,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>594798</v>
+        <v>608372</v>
       </c>
       <c r="C137" t="s">
         <v>199</v>
@@ -2483,7 +2483,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>592791</v>
+        <v>681343</v>
       </c>
       <c r="C138" t="s">
         <v>199</v>
@@ -2494,10 +2494,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>500779</v>
+        <v>801403</v>
       </c>
       <c r="C139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>672456</v>
+        <v>690990</v>
       </c>
       <c r="C140" t="s">
         <v>199</v>
@@ -2516,7 +2516,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>592332</v>
+        <v>686701</v>
       </c>
       <c r="C141" t="s">
         <v>199</v>
@@ -2527,10 +2527,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>663460</v>
+        <v>650644</v>
       </c>
       <c r="C142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2538,7 +2538,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>622491</v>
+        <v>663903</v>
       </c>
       <c r="C143" t="s">
         <v>199</v>
@@ -2549,10 +2549,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>680730</v>
+        <v>608566</v>
       </c>
       <c r="C144" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2560,7 +2560,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>607259</v>
+        <v>656427</v>
       </c>
       <c r="C145" t="s">
         <v>199</v>
@@ -2571,10 +2571,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>624133</v>
+        <v>657746</v>
       </c>
       <c r="C146" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2582,10 +2582,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>677960</v>
+        <v>686563</v>
       </c>
       <c r="C147" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2593,10 +2593,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>642232</v>
+        <v>676974</v>
       </c>
       <c r="C148" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2604,7 +2604,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>671737</v>
+        <v>621112</v>
       </c>
       <c r="C149" t="s">
         <v>199</v>
@@ -2615,7 +2615,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>808967</v>
+        <v>690916</v>
       </c>
       <c r="C150" t="s">
         <v>199</v>
@@ -2626,7 +2626,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>687223</v>
+        <v>542881</v>
       </c>
       <c r="C151" t="s">
         <v>200</v>
@@ -2637,7 +2637,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>608379</v>
+        <v>669203</v>
       </c>
       <c r="C152" t="s">
         <v>199</v>
@@ -2648,10 +2648,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>680684</v>
+        <v>663460</v>
       </c>
       <c r="C153" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2659,7 +2659,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>592836</v>
+        <v>680684</v>
       </c>
       <c r="C154" t="s">
         <v>199</v>
@@ -2670,7 +2670,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>700363</v>
+        <v>592836</v>
       </c>
       <c r="C155" t="s">
         <v>199</v>
@@ -2681,7 +2681,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>554430</v>
+        <v>700363</v>
       </c>
       <c r="C156" t="s">
         <v>199</v>
@@ -2692,10 +2692,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>682052</v>
+        <v>554430</v>
       </c>
       <c r="C157" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2703,7 +2703,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>663465</v>
+        <v>682052</v>
       </c>
       <c r="C158" t="s">
         <v>200</v>
@@ -2714,10 +2714,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>685299</v>
+        <v>663465</v>
       </c>
       <c r="C159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2725,7 +2725,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>695549</v>
+        <v>685299</v>
       </c>
       <c r="C160" t="s">
         <v>199</v>
@@ -2736,10 +2736,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>663738</v>
+        <v>695549</v>
       </c>
       <c r="C161" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2747,10 +2747,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>543135</v>
+        <v>663738</v>
       </c>
       <c r="C162" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2758,7 +2758,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>688138</v>
+        <v>543135</v>
       </c>
       <c r="C163" t="s">
         <v>199</v>
@@ -2769,7 +2769,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>669194</v>
+        <v>688138</v>
       </c>
       <c r="C164" t="s">
         <v>199</v>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="205">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,93 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bowden Francis</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Brandon Walter</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Connor Gillispie</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Tylor Megill</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
+    <t>Mike Vasil</t>
+  </si>
+  <si>
+    <t>Caleb Boushley</t>
+  </si>
+  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
@@ -40,6 +127,9 @@
     <t>Chris Paddack</t>
   </si>
   <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
     <t>Erick Fedde</t>
   </si>
   <si>
@@ -49,6 +139,9 @@
     <t>Gavin Williams</t>
   </si>
   <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
@@ -355,108 +448,39 @@
     <t>Sawyer Gipson-Long</t>
   </si>
   <si>
-    <t>Mike Vasil</t>
-  </si>
-  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
-    <t>Bowden Francis</t>
-  </si>
-  <si>
     <t>Brant Hurter</t>
   </si>
   <si>
     <t>Brayan Bello</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
     <t>Osvaldo Bido</t>
   </si>
   <si>
     <t>Pablo López</t>
   </si>
   <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
     <t>Sandy Alcantara</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
-    <t>Tylor Megill</t>
-  </si>
-  <si>
     <t>Yusei Kikuchi</t>
   </si>
   <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Shane Smith</t>
   </si>
   <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
-    <t>Ryan Bergert</t>
-  </si>
-  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
     <t>Jonathan Cannon</t>
   </si>
   <si>
@@ -469,9 +493,6 @@
     <t>Richard Fitts</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
@@ -490,9 +511,6 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Kolby Allard</t>
   </si>
   <si>
@@ -518,12 +536,6 @@
   </si>
   <si>
     <t>Trevor Rogers</t>
-  </si>
-  <si>
-    <t>Hunter Dobbins</t>
-  </si>
-  <si>
-    <t>Brandon Walter</t>
   </si>
   <si>
     <t>Chayce McDermott</t>
@@ -974,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605288</v>
+        <v>670102</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1007,10 +1019,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>571760</v>
+        <v>663903</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1018,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>693821</v>
+        <v>687888</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1029,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>450203</v>
+        <v>607074</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1040,37 +1052,34 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>663978</v>
+        <v>477132</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>607200</v>
+        <v>650911</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>676979</v>
-      </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1078,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>668909</v>
+        <v>642547</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1089,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>686613</v>
+        <v>669923</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1100,10 +1109,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>686799</v>
+        <v>656427</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1111,10 +1120,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>594798</v>
+        <v>657746</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1122,10 +1131,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>592791</v>
+        <v>689017</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1133,10 +1142,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>500779</v>
+        <v>547179</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1144,10 +1153,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>672456</v>
+        <v>700241</v>
       </c>
       <c r="C16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1155,10 +1164,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>592332</v>
+        <v>694973</v>
       </c>
       <c r="C17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1166,10 +1175,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>657277</v>
+        <v>675911</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1177,10 +1186,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>622491</v>
+        <v>676440</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1188,10 +1197,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>622663</v>
+        <v>592866</v>
       </c>
       <c r="C20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1199,10 +1208,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>608379</v>
+        <v>542881</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1210,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>680730</v>
+        <v>656731</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1221,10 +1230,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>607259</v>
+        <v>668678</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1232,10 +1241,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>624133</v>
+        <v>608372</v>
       </c>
       <c r="C24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1243,10 +1252,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>677960</v>
+        <v>801403</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1254,10 +1263,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>642232</v>
+        <v>690928</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1265,10 +1274,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>669194</v>
+        <v>682052</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1276,10 +1285,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>671737</v>
+        <v>690990</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1287,10 +1296,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>808967</v>
+        <v>686701</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1298,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>663568</v>
+        <v>678024</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1309,10 +1318,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>687223</v>
+        <v>676961</v>
       </c>
       <c r="C31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1320,10 +1329,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>663559</v>
+        <v>605288</v>
       </c>
       <c r="C32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1331,10 +1340,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>641927</v>
+        <v>571760</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1342,10 +1351,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>676962</v>
+        <v>693821</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1353,10 +1362,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>682243</v>
+        <v>450203</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1364,10 +1373,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>663436</v>
+        <v>663978</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1375,10 +1384,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>665152</v>
+        <v>605280</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1386,10 +1395,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>593958</v>
+        <v>607200</v>
       </c>
       <c r="C38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1397,10 +1406,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>665795</v>
+        <v>676979</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1408,10 +1417,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>806185</v>
+        <v>668909</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1419,10 +1428,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>605452</v>
+        <v>608566</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1430,10 +1439,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>676664</v>
+        <v>686613</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1441,10 +1450,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>680736</v>
+        <v>686799</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1452,10 +1461,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>673540</v>
+        <v>594798</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1463,10 +1472,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>543294</v>
+        <v>592791</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1474,10 +1483,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>671106</v>
+        <v>500779</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1485,10 +1494,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>647336</v>
+        <v>672456</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1496,10 +1505,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>666157</v>
+        <v>592332</v>
       </c>
       <c r="C48" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1507,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>571578</v>
+        <v>657277</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1518,10 +1527,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>681190</v>
+        <v>622491</v>
       </c>
       <c r="C50" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1529,10 +1538,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>607625</v>
+        <v>622663</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1540,10 +1549,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>543243</v>
+        <v>608379</v>
       </c>
       <c r="C52" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1551,10 +1560,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>680885</v>
+        <v>680730</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1562,10 +1571,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>669373</v>
+        <v>607259</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1573,10 +1582,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>621111</v>
+        <v>624133</v>
       </c>
       <c r="C55" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1584,10 +1593,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>701542</v>
+        <v>677960</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1595,10 +1604,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>641793</v>
+        <v>642232</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1606,10 +1615,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>694477</v>
+        <v>669194</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1617,10 +1626,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>676467</v>
+        <v>671737</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1628,10 +1637,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>694297</v>
+        <v>808967</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1639,10 +1648,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>693433</v>
+        <v>663568</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1650,10 +1659,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>663554</v>
+        <v>687223</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1661,10 +1670,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>605135</v>
+        <v>663559</v>
       </c>
       <c r="C63" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1672,10 +1681,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>666142</v>
+        <v>641927</v>
       </c>
       <c r="C64" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1683,10 +1692,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>607067</v>
+        <v>676962</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1694,10 +1703,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>701581</v>
+        <v>682243</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1705,10 +1714,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>656849</v>
+        <v>663436</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1716,10 +1725,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>656302</v>
+        <v>665152</v>
       </c>
       <c r="C68" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1727,10 +1736,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>664285</v>
+        <v>593958</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1738,10 +1747,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>656550</v>
+        <v>665795</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1749,10 +1758,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>683004</v>
+        <v>806185</v>
       </c>
       <c r="C71" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1760,10 +1769,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>663623</v>
+        <v>605452</v>
       </c>
       <c r="C72" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1771,10 +1780,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>666200</v>
+        <v>676664</v>
       </c>
       <c r="C73" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1782,10 +1791,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>689017</v>
+        <v>680736</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1793,10 +1802,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>669461</v>
+        <v>673540</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1804,10 +1813,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>608331</v>
+        <v>543294</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1815,10 +1824,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>571945</v>
+        <v>671106</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1826,10 +1835,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>656605</v>
+        <v>647336</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1837,10 +1846,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>687765</v>
+        <v>666157</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1848,10 +1857,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>592662</v>
+        <v>571578</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1859,10 +1868,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>686752</v>
+        <v>681190</v>
       </c>
       <c r="C81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1870,10 +1879,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>680732</v>
+        <v>607625</v>
       </c>
       <c r="C82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1881,10 +1890,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>677944</v>
+        <v>543243</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1892,10 +1901,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>621107</v>
+        <v>680885</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1903,10 +1912,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>702070</v>
+        <v>669373</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1914,10 +1923,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>671096</v>
+        <v>621111</v>
       </c>
       <c r="C86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1925,10 +1934,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>700249</v>
+        <v>701542</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1936,10 +1945,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>615698</v>
+        <v>641793</v>
       </c>
       <c r="C88" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1947,10 +1956,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>519242</v>
+        <v>694477</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1958,10 +1967,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>657376</v>
+        <v>676467</v>
       </c>
       <c r="C90" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1969,10 +1978,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>676106</v>
+        <v>694297</v>
       </c>
       <c r="C91" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1980,10 +1989,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>656288</v>
+        <v>693433</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1991,10 +2000,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>605488</v>
+        <v>663554</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2002,10 +2011,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>621244</v>
+        <v>605135</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2013,10 +2022,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>667755</v>
+        <v>666142</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2024,10 +2033,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>677958</v>
+        <v>607067</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2035,10 +2044,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>607536</v>
+        <v>701581</v>
       </c>
       <c r="C97" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2046,10 +2055,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>690986</v>
+        <v>656849</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2057,18 +2066,21 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>608337</v>
+        <v>656302</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
+      <c r="B100">
+        <v>664285</v>
+      </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2076,10 +2088,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>669022</v>
+        <v>656550</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2087,10 +2099,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>571510</v>
+        <v>683004</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2098,10 +2110,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>518876</v>
+        <v>663623</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2109,10 +2121,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>601713</v>
+        <v>666200</v>
       </c>
       <c r="C104" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2120,10 +2132,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>682990</v>
+        <v>689017</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2131,10 +2143,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>669358</v>
+        <v>669461</v>
       </c>
       <c r="C106" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2142,10 +2154,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>664062</v>
+        <v>608331</v>
       </c>
       <c r="C107" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2153,10 +2165,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>805673</v>
+        <v>571945</v>
       </c>
       <c r="C108" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2164,10 +2176,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>687473</v>
+        <v>656605</v>
       </c>
       <c r="C109" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2175,10 +2187,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>690953</v>
+        <v>687765</v>
       </c>
       <c r="C110" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2186,10 +2198,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>681347</v>
+        <v>592662</v>
       </c>
       <c r="C111" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2197,10 +2209,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>687830</v>
+        <v>686752</v>
       </c>
       <c r="C112" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2208,10 +2220,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>678024</v>
+        <v>680732</v>
       </c>
       <c r="C113" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2219,10 +2231,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>669467</v>
+        <v>677944</v>
       </c>
       <c r="C114" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2230,10 +2242,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>670102</v>
+        <v>621107</v>
       </c>
       <c r="C115" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2241,10 +2253,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>676428</v>
+        <v>702070</v>
       </c>
       <c r="C116" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2252,10 +2264,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>678394</v>
+        <v>671096</v>
       </c>
       <c r="C117" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2263,10 +2275,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>607074</v>
+        <v>700249</v>
       </c>
       <c r="C118" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2274,10 +2286,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>477132</v>
+        <v>615698</v>
       </c>
       <c r="C119" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2285,10 +2297,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>650911</v>
+        <v>519242</v>
       </c>
       <c r="C120" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2296,10 +2308,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>642547</v>
+        <v>657376</v>
       </c>
       <c r="C121" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2307,10 +2319,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>669923</v>
+        <v>676106</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2318,10 +2330,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>668881</v>
+        <v>656288</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2329,10 +2341,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>689017</v>
+        <v>605488</v>
       </c>
       <c r="C124" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2340,10 +2352,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>547179</v>
+        <v>621244</v>
       </c>
       <c r="C125" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2351,10 +2363,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>674370</v>
+        <v>667755</v>
       </c>
       <c r="C126" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2362,10 +2374,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>641154</v>
+        <v>677958</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2373,10 +2385,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>694973</v>
+        <v>607536</v>
       </c>
       <c r="C128" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2384,10 +2396,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>645261</v>
+        <v>690986</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2395,21 +2407,18 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>675911</v>
+        <v>608337</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
-      <c r="B131">
-        <v>676440</v>
-      </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2417,10 +2426,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>592866</v>
+        <v>669022</v>
       </c>
       <c r="C132" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2428,10 +2437,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>641816</v>
+        <v>571510</v>
       </c>
       <c r="C133" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2439,10 +2448,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>656731</v>
+        <v>518876</v>
       </c>
       <c r="C134" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2450,10 +2459,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>579328</v>
+        <v>601713</v>
       </c>
       <c r="C135" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2461,10 +2470,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>668678</v>
+        <v>682990</v>
       </c>
       <c r="C136" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2472,10 +2481,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>608372</v>
+        <v>669358</v>
       </c>
       <c r="C137" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2483,10 +2492,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>681343</v>
+        <v>664062</v>
       </c>
       <c r="C138" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2494,10 +2503,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>801403</v>
+        <v>805673</v>
       </c>
       <c r="C139" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2505,10 +2514,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>690990</v>
+        <v>687473</v>
       </c>
       <c r="C140" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2516,10 +2525,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>686701</v>
+        <v>690953</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2527,10 +2536,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>650644</v>
+        <v>681347</v>
       </c>
       <c r="C142" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2538,10 +2547,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>663903</v>
+        <v>687830</v>
       </c>
       <c r="C143" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2549,10 +2558,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>608566</v>
+        <v>669467</v>
       </c>
       <c r="C144" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2560,10 +2569,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>656427</v>
+        <v>676428</v>
       </c>
       <c r="C145" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2571,10 +2580,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>657746</v>
+        <v>678394</v>
       </c>
       <c r="C146" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2582,10 +2591,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>686563</v>
+        <v>668881</v>
       </c>
       <c r="C147" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2593,10 +2602,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>676974</v>
+        <v>674370</v>
       </c>
       <c r="C148" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2604,10 +2613,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>621112</v>
+        <v>641154</v>
       </c>
       <c r="C149" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2615,10 +2624,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>690916</v>
+        <v>645261</v>
       </c>
       <c r="C150" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2626,10 +2635,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>542881</v>
+        <v>641816</v>
       </c>
       <c r="C151" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2637,10 +2646,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>669203</v>
+        <v>579328</v>
       </c>
       <c r="C152" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2648,10 +2657,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>663460</v>
+        <v>681343</v>
       </c>
       <c r="C153" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2659,10 +2668,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>680684</v>
+        <v>650644</v>
       </c>
       <c r="C154" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2670,10 +2679,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>592836</v>
+        <v>686563</v>
       </c>
       <c r="C155" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2681,10 +2690,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>700363</v>
+        <v>676974</v>
       </c>
       <c r="C156" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2692,10 +2701,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>554430</v>
+        <v>621112</v>
       </c>
       <c r="C157" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2703,10 +2712,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>682052</v>
+        <v>690916</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2714,10 +2723,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>663465</v>
+        <v>669203</v>
       </c>
       <c r="C159" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2725,10 +2734,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>685299</v>
+        <v>663460</v>
       </c>
       <c r="C160" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2736,10 +2745,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>695549</v>
+        <v>680684</v>
       </c>
       <c r="C161" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2747,10 +2756,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>663738</v>
+        <v>592836</v>
       </c>
       <c r="C162" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2758,10 +2767,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>543135</v>
+        <v>700363</v>
       </c>
       <c r="C163" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2769,10 +2778,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>688138</v>
+        <v>554430</v>
       </c>
       <c r="C164" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2780,10 +2789,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>701656</v>
+        <v>663465</v>
       </c>
       <c r="C165" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2791,10 +2800,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>650633</v>
+        <v>685299</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2802,10 +2811,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>669432</v>
+        <v>695549</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2813,10 +2822,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>690928</v>
+        <v>663738</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2824,10 +2833,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>687888</v>
+        <v>543135</v>
       </c>
       <c r="C169" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2835,10 +2844,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>694646</v>
+        <v>688138</v>
       </c>
       <c r="C170" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2846,10 +2855,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>669060</v>
+        <v>701656</v>
       </c>
       <c r="C171" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2857,10 +2866,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>669372</v>
+        <v>650633</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2868,10 +2877,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>434378</v>
+        <v>669432</v>
       </c>
       <c r="C173" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2879,10 +2888,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>669387</v>
+        <v>694646</v>
       </c>
       <c r="C174" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2890,10 +2899,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>502043</v>
+        <v>669060</v>
       </c>
       <c r="C175" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2901,10 +2910,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>681857</v>
+        <v>669372</v>
       </c>
       <c r="C176" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2912,10 +2921,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>669854</v>
+        <v>434378</v>
       </c>
       <c r="C177" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2923,10 +2932,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>668964</v>
+        <v>669387</v>
       </c>
       <c r="C178" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2934,10 +2943,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>695534</v>
+        <v>502043</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2945,10 +2954,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>669422</v>
+        <v>681857</v>
       </c>
       <c r="C180" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2956,10 +2965,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>605400</v>
+        <v>669854</v>
       </c>
       <c r="C181" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2967,10 +2976,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>663855</v>
+        <v>668964</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2978,10 +2987,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>680573</v>
+        <v>695534</v>
       </c>
       <c r="C183" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2989,10 +2998,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>678368</v>
+        <v>669422</v>
       </c>
       <c r="C184" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3000,10 +3009,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C185" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3011,10 +3020,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C186" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3022,10 +3031,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>669713</v>
+        <v>680573</v>
       </c>
       <c r="C187" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3033,10 +3042,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>570632</v>
+        <v>678368</v>
       </c>
       <c r="C188" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3044,10 +3053,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>695418</v>
+        <v>594902</v>
       </c>
       <c r="C189" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3055,10 +3064,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>676508</v>
+        <v>656557</v>
       </c>
       <c r="C190" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3066,10 +3075,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>684007</v>
+        <v>669713</v>
       </c>
       <c r="C191" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3077,10 +3086,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>694918</v>
+        <v>570632</v>
       </c>
       <c r="C192" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3088,10 +3097,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>641302</v>
+        <v>695418</v>
       </c>
       <c r="C193" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3099,10 +3108,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>663372</v>
+        <v>676508</v>
       </c>
       <c r="C194" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3110,10 +3119,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>471911</v>
+        <v>684007</v>
       </c>
       <c r="C195" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3121,10 +3130,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>669302</v>
+        <v>694918</v>
       </c>
       <c r="C196" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3132,10 +3141,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>686249</v>
+        <v>641302</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3143,10 +3152,54 @@
         <v>198</v>
       </c>
       <c r="B198">
+        <v>663372</v>
+      </c>
+      <c r="C198" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>471911</v>
+      </c>
+      <c r="C199" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>669302</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>686249</v>
+      </c>
+      <c r="C201" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
         <v>527048</v>
       </c>
-      <c r="C198" t="s">
-        <v>200</v>
+      <c r="C202" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,189 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Griffin Canning</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kyle Harrison</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Mitch Spence</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Simeon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Tyler Mahle</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Matt Sauer</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
+    <t>Sawyer Gipson-Long</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Emerson Hancock</t>
+  </si>
+  <si>
+    <t>Eury Perez</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>Luis Ortiz</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Wade Miley</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
     <t>Bowden Francis</t>
   </si>
   <si>
@@ -115,9 +298,6 @@
     <t>Adrian Houser</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
@@ -151,9 +331,6 @@
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
     <t>Jose Quintana</t>
   </si>
   <si>
@@ -202,36 +379,21 @@
     <t>Stephen Kolek</t>
   </si>
   <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Ben Brown</t>
   </si>
   <si>
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
     <t>Joe Ross</t>
   </si>
   <si>
@@ -241,45 +403,24 @@
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
     <t>Logan Allen</t>
   </si>
   <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Randy Vásquez</t>
   </si>
   <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Spencer Schwellenbach</t>
   </si>
   <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
     <t>Walker Buehler</t>
   </si>
   <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Zack Littell</t>
   </si>
   <si>
@@ -289,39 +430,21 @@
     <t>Colton Gordon</t>
   </si>
   <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
     <t>Bryan Woo</t>
   </si>
   <si>
     <t>Casey Mize</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Cole Ragans</t>
   </si>
   <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
     <t>David Peterson</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
     <t>Jack Leiter</t>
   </si>
   <si>
@@ -337,99 +460,27 @@
     <t>Matthew Liberatore</t>
   </si>
   <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Mitch Spence</t>
-  </si>
-  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
     <t>Zach Eflin</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Clarke Schmidt</t>
   </si>
   <si>
-    <t>Emerson Hancock</t>
-  </si>
-  <si>
-    <t>Griffin Canning</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
     <t>Kumar Rocker</t>
   </si>
   <si>
     <t>Kyle Freeland</t>
   </si>
   <si>
-    <t>Kyle Harrison</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Luis Ortiz</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
@@ -439,24 +490,9 @@
     <t>Ryan Gusto</t>
   </si>
   <si>
-    <t>Mick Abel</t>
-  </si>
-  <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
-    <t>Sawyer Gipson-Long</t>
-  </si>
-  <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
     <t>Hunter Greene</t>
   </si>
   <si>
@@ -466,21 +502,6 @@
     <t>Pablo López</t>
   </si>
   <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Tyler Mahle</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
     <t>Jonathan Cannon</t>
   </si>
   <si>
@@ -508,9 +529,6 @@
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
     <t>Kolby Allard</t>
   </si>
   <si>
@@ -526,9 +544,6 @@
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
     <t>Logan Henderson</t>
   </si>
   <si>
@@ -568,18 +583,12 @@
     <t>Chase Petty</t>
   </si>
   <si>
-    <t>Matt Sauer</t>
-  </si>
-  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
     <t>Jordan Hicks</t>
   </si>
   <si>
-    <t>Simeon Woods Richardson</t>
-  </si>
-  <si>
     <t>Valente Bellozo</t>
   </si>
   <si>
@@ -625,10 +634,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -986,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1008,78 +1017,81 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>670102</v>
+        <v>571760</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>663903</v>
-      </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>687888</v>
+        <v>641927</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>607074</v>
+        <v>663436</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>477132</v>
+        <v>665152</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>664285</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>806185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>650911</v>
-      </c>
-      <c r="C8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B9">
+        <v>592791</v>
+      </c>
       <c r="C9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1087,10 +1099,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>642547</v>
+        <v>673540</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1098,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>669923</v>
+        <v>647336</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1109,10 +1121,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>656427</v>
+        <v>571578</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1120,10 +1132,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>657746</v>
+        <v>607625</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1131,10 +1143,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>689017</v>
+        <v>543243</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1142,10 +1154,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>547179</v>
+        <v>669373</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1153,10 +1165,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>700241</v>
+        <v>701542</v>
       </c>
       <c r="C16" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1164,10 +1176,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>694973</v>
+        <v>694819</v>
       </c>
       <c r="C17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1175,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>675911</v>
+        <v>671096</v>
       </c>
       <c r="C18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1186,10 +1198,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>676440</v>
+        <v>694297</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1197,10 +1209,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>592866</v>
+        <v>700249</v>
       </c>
       <c r="C20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1208,10 +1220,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>542881</v>
+        <v>605135</v>
       </c>
       <c r="C21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1219,10 +1231,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>656731</v>
+        <v>607067</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1230,10 +1242,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>668678</v>
+        <v>656302</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1241,10 +1253,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>608372</v>
+        <v>656550</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1252,10 +1264,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>801403</v>
+        <v>656288</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1263,10 +1275,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>690928</v>
+        <v>667755</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1274,10 +1286,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>682052</v>
+        <v>690986</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1285,10 +1297,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>690990</v>
+        <v>608337</v>
       </c>
       <c r="C28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1296,10 +1308,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>686701</v>
+        <v>669022</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1307,10 +1319,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>678024</v>
+        <v>608331</v>
       </c>
       <c r="C30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1318,10 +1330,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>676961</v>
+        <v>571945</v>
       </c>
       <c r="C31" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1329,10 +1341,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>605288</v>
+        <v>656605</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1340,10 +1352,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>571760</v>
+        <v>687765</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1351,10 +1363,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>693821</v>
+        <v>682990</v>
       </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1362,10 +1374,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>450203</v>
+        <v>686752</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1373,10 +1385,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>663978</v>
+        <v>645261</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1384,10 +1396,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>605280</v>
+        <v>680573</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1395,10 +1407,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>607200</v>
+        <v>677944</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1406,10 +1418,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>676979</v>
+        <v>641816</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1417,10 +1429,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>668909</v>
+        <v>681343</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1428,10 +1440,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>608566</v>
+        <v>688138</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1439,10 +1451,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>686613</v>
+        <v>669422</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1450,10 +1462,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>686799</v>
+        <v>687223</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1461,10 +1473,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>594798</v>
+        <v>702070</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1472,10 +1484,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>592791</v>
+        <v>690953</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1483,10 +1495,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>500779</v>
+        <v>687830</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1494,10 +1506,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>672456</v>
+        <v>650644</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1505,10 +1517,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>592332</v>
+        <v>669467</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1516,10 +1528,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>657277</v>
+        <v>678394</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1527,10 +1539,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>622491</v>
+        <v>519242</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1538,10 +1550,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>622663</v>
+        <v>676106</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1549,10 +1561,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>608379</v>
+        <v>691587</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1560,10 +1572,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>680730</v>
+        <v>605488</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1571,21 +1583,18 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>607259</v>
+        <v>621244</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>624133</v>
-      </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1593,10 +1602,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>677960</v>
+        <v>571510</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1604,10 +1613,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>642232</v>
+        <v>518876</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1615,10 +1624,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>669194</v>
+        <v>601713</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1626,10 +1635,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>671737</v>
+        <v>669358</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1637,10 +1646,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>808967</v>
+        <v>489119</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1648,10 +1657,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>663568</v>
+        <v>579328</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1659,10 +1668,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>687223</v>
+        <v>554430</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1670,10 +1679,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>663559</v>
+        <v>681347</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1681,10 +1690,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>641927</v>
+        <v>670102</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1692,10 +1701,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>676962</v>
+        <v>663903</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1703,10 +1712,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>682243</v>
+        <v>687888</v>
       </c>
       <c r="C66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1714,10 +1723,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>663436</v>
+        <v>607074</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1725,21 +1734,18 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>665152</v>
+        <v>477132</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>593958</v>
-      </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1747,10 +1753,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>665795</v>
+        <v>650911</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1758,10 +1764,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>806185</v>
+        <v>642547</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1769,10 +1775,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>605452</v>
+        <v>669923</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1780,10 +1786,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>676664</v>
+        <v>656427</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1791,10 +1797,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>680736</v>
+        <v>657746</v>
       </c>
       <c r="C74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1802,10 +1808,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>673540</v>
+        <v>689017</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1813,10 +1819,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>543294</v>
+        <v>547179</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1824,10 +1830,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>671106</v>
+        <v>700241</v>
       </c>
       <c r="C77" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1835,10 +1841,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>647336</v>
+        <v>694973</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1846,10 +1852,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>666157</v>
+        <v>675911</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1857,10 +1863,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>571578</v>
+        <v>676440</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1868,10 +1874,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>681190</v>
+        <v>592866</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1879,10 +1885,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>607625</v>
+        <v>542881</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1890,10 +1896,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>543243</v>
+        <v>656731</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1901,10 +1907,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>680885</v>
+        <v>668678</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1912,10 +1918,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>669373</v>
+        <v>608372</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1923,10 +1929,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>621111</v>
+        <v>801403</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1934,10 +1940,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>701542</v>
+        <v>690928</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1945,10 +1951,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>641793</v>
+        <v>682052</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1956,10 +1962,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>694477</v>
+        <v>690990</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1967,10 +1973,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>676467</v>
+        <v>686701</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1978,10 +1984,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>694297</v>
+        <v>678024</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1989,10 +1995,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>693433</v>
+        <v>676961</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2000,10 +2006,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>663554</v>
+        <v>605288</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2011,10 +2017,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>605135</v>
+        <v>693821</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2022,10 +2028,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>666142</v>
+        <v>450203</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2033,10 +2039,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>607067</v>
+        <v>663978</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2044,10 +2050,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>701581</v>
+        <v>605280</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2055,10 +2061,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>656849</v>
+        <v>607200</v>
       </c>
       <c r="C98" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2066,10 +2072,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>656302</v>
+        <v>676979</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2077,10 +2083,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>664285</v>
+        <v>668909</v>
       </c>
       <c r="C100" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2088,10 +2094,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>656550</v>
+        <v>608566</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2099,10 +2105,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>683004</v>
+        <v>686613</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2110,10 +2116,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>663623</v>
+        <v>686799</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2121,10 +2127,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>666200</v>
+        <v>594798</v>
       </c>
       <c r="C104" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2132,10 +2138,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>689017</v>
+        <v>500779</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2143,10 +2149,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>669461</v>
+        <v>672456</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2154,10 +2160,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>608331</v>
+        <v>592332</v>
       </c>
       <c r="C107" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2165,10 +2171,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>571945</v>
+        <v>657277</v>
       </c>
       <c r="C108" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2176,10 +2182,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>656605</v>
+        <v>622491</v>
       </c>
       <c r="C109" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2187,10 +2193,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>687765</v>
+        <v>622663</v>
       </c>
       <c r="C110" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2198,10 +2204,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>592662</v>
+        <v>608379</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2209,10 +2215,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>686752</v>
+        <v>680730</v>
       </c>
       <c r="C112" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2220,10 +2226,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>680732</v>
+        <v>607259</v>
       </c>
       <c r="C113" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2231,10 +2237,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>677944</v>
+        <v>624133</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2242,10 +2248,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>621107</v>
+        <v>677960</v>
       </c>
       <c r="C115" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2253,10 +2259,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>702070</v>
+        <v>642232</v>
       </c>
       <c r="C116" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2264,10 +2270,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>671096</v>
+        <v>669194</v>
       </c>
       <c r="C117" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2275,10 +2281,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>700249</v>
+        <v>671737</v>
       </c>
       <c r="C118" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2286,10 +2292,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>615698</v>
+        <v>808967</v>
       </c>
       <c r="C119" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2297,10 +2303,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>519242</v>
+        <v>663568</v>
       </c>
       <c r="C120" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2308,10 +2314,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>657376</v>
+        <v>663559</v>
       </c>
       <c r="C121" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2319,10 +2325,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>676106</v>
+        <v>676962</v>
       </c>
       <c r="C122" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2330,10 +2336,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>656288</v>
+        <v>682243</v>
       </c>
       <c r="C123" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2341,10 +2347,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>605488</v>
+        <v>593958</v>
       </c>
       <c r="C124" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2352,10 +2358,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>621244</v>
+        <v>665795</v>
       </c>
       <c r="C125" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2363,10 +2369,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>667755</v>
+        <v>605452</v>
       </c>
       <c r="C126" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2374,10 +2380,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>677958</v>
+        <v>676664</v>
       </c>
       <c r="C127" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2385,10 +2391,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>607536</v>
+        <v>680736</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2396,10 +2402,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>690986</v>
+        <v>543294</v>
       </c>
       <c r="C129" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2407,18 +2413,21 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>608337</v>
+        <v>671106</v>
       </c>
       <c r="C130" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>131</v>
       </c>
+      <c r="B131">
+        <v>666157</v>
+      </c>
       <c r="C131" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2426,10 +2435,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>669022</v>
+        <v>681190</v>
       </c>
       <c r="C132" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2437,10 +2446,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>571510</v>
+        <v>680885</v>
       </c>
       <c r="C133" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2448,10 +2457,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>518876</v>
+        <v>621111</v>
       </c>
       <c r="C134" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2459,10 +2468,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>601713</v>
+        <v>641793</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2470,10 +2479,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>682990</v>
+        <v>694477</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2481,10 +2490,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>669358</v>
+        <v>676467</v>
       </c>
       <c r="C137" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2492,10 +2501,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>664062</v>
+        <v>693433</v>
       </c>
       <c r="C138" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2503,10 +2512,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>805673</v>
+        <v>663554</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2514,10 +2523,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>687473</v>
+        <v>666142</v>
       </c>
       <c r="C140" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2525,10 +2534,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>690953</v>
+        <v>701581</v>
       </c>
       <c r="C141" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2536,10 +2545,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>681347</v>
+        <v>656849</v>
       </c>
       <c r="C142" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2547,10 +2556,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>687830</v>
+        <v>683004</v>
       </c>
       <c r="C143" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2558,10 +2567,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>669467</v>
+        <v>663623</v>
       </c>
       <c r="C144" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2569,10 +2578,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>676428</v>
+        <v>666200</v>
       </c>
       <c r="C145" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2580,10 +2589,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>678394</v>
+        <v>689017</v>
       </c>
       <c r="C146" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2591,10 +2600,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>668881</v>
+        <v>669461</v>
       </c>
       <c r="C147" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2602,10 +2611,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>674370</v>
+        <v>592662</v>
       </c>
       <c r="C148" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2613,10 +2622,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>641154</v>
+        <v>680732</v>
       </c>
       <c r="C149" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2624,10 +2633,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>645261</v>
+        <v>621107</v>
       </c>
       <c r="C150" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2635,10 +2644,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>641816</v>
+        <v>615698</v>
       </c>
       <c r="C151" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2646,10 +2655,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>579328</v>
+        <v>657376</v>
       </c>
       <c r="C152" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2657,10 +2666,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>681343</v>
+        <v>677958</v>
       </c>
       <c r="C153" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2668,10 +2677,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>650644</v>
+        <v>607536</v>
       </c>
       <c r="C154" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2679,10 +2688,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>686563</v>
+        <v>664062</v>
       </c>
       <c r="C155" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2690,10 +2699,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>676974</v>
+        <v>805673</v>
       </c>
       <c r="C156" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2701,10 +2710,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>621112</v>
+        <v>687473</v>
       </c>
       <c r="C157" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2712,10 +2721,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>690916</v>
+        <v>676428</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2723,10 +2732,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>669203</v>
+        <v>668881</v>
       </c>
       <c r="C159" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2734,10 +2743,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>663460</v>
+        <v>674370</v>
       </c>
       <c r="C160" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2745,10 +2754,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>680684</v>
+        <v>641154</v>
       </c>
       <c r="C161" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2756,10 +2765,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>592836</v>
+        <v>686563</v>
       </c>
       <c r="C162" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2767,10 +2776,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>700363</v>
+        <v>676974</v>
       </c>
       <c r="C163" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2778,10 +2787,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>554430</v>
+        <v>621112</v>
       </c>
       <c r="C164" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2789,10 +2798,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>663465</v>
+        <v>690916</v>
       </c>
       <c r="C165" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2800,10 +2809,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>685299</v>
+        <v>669203</v>
       </c>
       <c r="C166" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2811,10 +2820,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>695549</v>
+        <v>663460</v>
       </c>
       <c r="C167" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2822,10 +2831,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>663738</v>
+        <v>680684</v>
       </c>
       <c r="C168" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2833,10 +2842,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>543135</v>
+        <v>592836</v>
       </c>
       <c r="C169" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2844,10 +2853,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>688138</v>
+        <v>700363</v>
       </c>
       <c r="C170" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2855,10 +2864,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>701656</v>
+        <v>663465</v>
       </c>
       <c r="C171" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2866,10 +2875,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>650633</v>
+        <v>685299</v>
       </c>
       <c r="C172" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2877,10 +2886,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>669432</v>
+        <v>695549</v>
       </c>
       <c r="C173" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2888,10 +2897,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>694646</v>
+        <v>663738</v>
       </c>
       <c r="C174" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2899,10 +2908,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>669060</v>
+        <v>543135</v>
       </c>
       <c r="C175" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2910,10 +2919,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>669372</v>
+        <v>701656</v>
       </c>
       <c r="C176" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2921,10 +2930,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>434378</v>
+        <v>650633</v>
       </c>
       <c r="C177" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2932,10 +2941,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>669387</v>
+        <v>669432</v>
       </c>
       <c r="C178" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2943,10 +2952,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>502043</v>
+        <v>694646</v>
       </c>
       <c r="C179" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2954,10 +2963,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>681857</v>
+        <v>669060</v>
       </c>
       <c r="C180" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2965,10 +2974,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>669854</v>
+        <v>669372</v>
       </c>
       <c r="C181" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2976,10 +2985,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>668964</v>
+        <v>434378</v>
       </c>
       <c r="C182" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2987,10 +2996,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>695534</v>
+        <v>669387</v>
       </c>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2998,10 +3007,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>669422</v>
+        <v>502043</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3009,10 +3018,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>605400</v>
+        <v>681857</v>
       </c>
       <c r="C185" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3020,10 +3029,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>663855</v>
+        <v>669854</v>
       </c>
       <c r="C186" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3031,10 +3040,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>680573</v>
+        <v>668964</v>
       </c>
       <c r="C187" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3042,10 +3051,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>678368</v>
+        <v>695534</v>
       </c>
       <c r="C188" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3053,10 +3062,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C189" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3064,10 +3073,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C190" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3075,10 +3084,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>669713</v>
+        <v>678368</v>
       </c>
       <c r="C191" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3086,10 +3095,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>570632</v>
+        <v>594902</v>
       </c>
       <c r="C192" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3097,10 +3106,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C193" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3108,10 +3117,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>676508</v>
+        <v>669713</v>
       </c>
       <c r="C194" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3119,10 +3128,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>684007</v>
+        <v>570632</v>
       </c>
       <c r="C195" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3130,10 +3139,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>694918</v>
+        <v>695418</v>
       </c>
       <c r="C196" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3141,10 +3150,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>641302</v>
+        <v>676508</v>
       </c>
       <c r="C197" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3152,10 +3161,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>663372</v>
+        <v>684007</v>
       </c>
       <c r="C198" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3163,10 +3172,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>471911</v>
+        <v>694918</v>
       </c>
       <c r="C199" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3174,10 +3183,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>669302</v>
+        <v>641302</v>
       </c>
       <c r="C200" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3185,10 +3194,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C201" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3196,10 +3205,43 @@
         <v>202</v>
       </c>
       <c r="B202">
+        <v>471911</v>
+      </c>
+      <c r="C202" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>669302</v>
+      </c>
+      <c r="C203" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>686249</v>
+      </c>
+      <c r="C204" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
         <v>527048</v>
       </c>
-      <c r="C202" t="s">
-        <v>204</v>
+      <c r="C205" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="209">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,129 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Matt Sauer</t>
+  </si>
+  <si>
+    <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Clarke Schmidt</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Ben Casparius</t>
+  </si>
+  <si>
+    <t>Carson Palmquist</t>
+  </si>
+  <si>
+    <t>Mick Abel</t>
+  </si>
+  <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
@@ -34,9 +157,6 @@
     <t>Davis Martin</t>
   </si>
   <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Framber Valdez</t>
   </si>
   <si>
@@ -49,60 +169,33 @@
     <t>Kodai Senga</t>
   </si>
   <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
     <t>Patrick Corbin</t>
   </si>
   <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
     <t>Sonny Gray</t>
   </si>
   <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Jacob Misiorowski</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Colin Rea</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Grant Holmes</t>
   </si>
   <si>
     <t>Griffin Canning</t>
   </si>
   <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
     <t>Kyle Harrison</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
@@ -121,39 +214,18 @@
     <t>Quinn Priester</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
     <t>Logan Evans</t>
   </si>
   <si>
-    <t>Matt Sauer</t>
-  </si>
-  <si>
-    <t>Carson Palmquist</t>
-  </si>
-  <si>
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Mick Abel</t>
-  </si>
-  <si>
     <t>Sawyer Gipson-Long</t>
   </si>
   <si>
@@ -379,12 +451,6 @@
     <t>Stephen Kolek</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
     <t>Bryce Miller</t>
   </si>
   <si>
@@ -397,84 +463,27 @@
     <t>Joe Ross</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
     <t>Logan Allen</t>
   </si>
   <si>
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Colton Gordon</t>
   </si>
   <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
     <t>Cole Ragans</t>
   </si>
   <si>
-    <t>David Festa</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
     <t>Landon Knack</t>
   </si>
   <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Clarke Schmidt</t>
-  </si>
-  <si>
     <t>Kumar Rocker</t>
   </si>
   <si>
@@ -607,9 +616,6 @@
     <t>Brad Lord</t>
   </si>
   <si>
-    <t>Ben Casparius</t>
-  </si>
-  <si>
     <t>Shota Imanaga</t>
   </si>
   <si>
@@ -623,9 +629,6 @@
   </si>
   <si>
     <t>Carlos Carrasco</t>
-  </si>
-  <si>
-    <t>Logan Gilbert</t>
   </si>
   <si>
     <t>Nathan Wiles</t>
@@ -995,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C205"/>
+  <dimension ref="A1:C206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1017,15 +1020,15 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>571760</v>
+        <v>671096</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1033,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>641927</v>
+        <v>663559</v>
       </c>
       <c r="C4" t="s">
         <v>207</v>
@@ -1044,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>663436</v>
+        <v>676962</v>
       </c>
       <c r="C5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1055,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>665152</v>
+        <v>694297</v>
       </c>
       <c r="C6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1066,10 +1069,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>664285</v>
+        <v>693433</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1077,10 +1080,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>806185</v>
+        <v>615698</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1088,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>592791</v>
+        <v>663554</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1099,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>673540</v>
+        <v>605135</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1110,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>647336</v>
+        <v>701581</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1121,10 +1124,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>571578</v>
+        <v>656849</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1132,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>607625</v>
+        <v>665152</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1143,10 +1146,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>543243</v>
+        <v>683004</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1154,10 +1157,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>669373</v>
+        <v>666200</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1165,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>701542</v>
+        <v>676664</v>
       </c>
       <c r="C16" t="s">
         <v>207</v>
@@ -1176,10 +1179,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>694819</v>
+        <v>543294</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1187,10 +1190,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>671096</v>
+        <v>669461</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1198,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>694297</v>
+        <v>647336</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1209,10 +1212,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>700249</v>
+        <v>681190</v>
       </c>
       <c r="C20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1220,7 +1223,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>605135</v>
+        <v>592662</v>
       </c>
       <c r="C21" t="s">
         <v>207</v>
@@ -1231,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>607067</v>
+        <v>607625</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1242,10 +1245,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>656302</v>
+        <v>677944</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1253,10 +1256,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>656550</v>
+        <v>680885</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1264,10 +1267,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>656288</v>
+        <v>621111</v>
       </c>
       <c r="C25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1275,10 +1278,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>667755</v>
+        <v>701542</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1286,10 +1289,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>690986</v>
+        <v>641793</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1297,10 +1300,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>608337</v>
+        <v>681343</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1308,10 +1311,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>669022</v>
+        <v>694477</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1319,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>608331</v>
+        <v>669422</v>
       </c>
       <c r="C30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1330,10 +1333,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>571945</v>
+        <v>669920</v>
       </c>
       <c r="C31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1341,10 +1344,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>656605</v>
+        <v>657376</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1352,10 +1355,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>687765</v>
+        <v>656302</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1363,10 +1366,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>682990</v>
+        <v>663623</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1374,10 +1377,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>686752</v>
+        <v>667755</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1385,10 +1388,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>645261</v>
+        <v>669302</v>
       </c>
       <c r="C36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1396,10 +1399,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>680573</v>
+        <v>608337</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1407,10 +1410,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>677944</v>
+        <v>686752</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1418,10 +1421,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>641816</v>
+        <v>645261</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1429,10 +1432,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>681343</v>
+        <v>621107</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1440,10 +1443,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>688138</v>
+        <v>676508</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1451,7 +1454,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>669422</v>
+        <v>687223</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
@@ -1462,10 +1465,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>687223</v>
+        <v>690953</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1473,10 +1476,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>702070</v>
+        <v>571760</v>
       </c>
       <c r="C44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1484,10 +1487,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>690953</v>
+        <v>641927</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1495,10 +1498,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>687830</v>
+        <v>663436</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1506,7 +1509,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>650644</v>
+        <v>664285</v>
       </c>
       <c r="C47" t="s">
         <v>207</v>
@@ -1517,10 +1520,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>669467</v>
+        <v>806185</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1528,10 +1531,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>678394</v>
+        <v>592791</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1539,10 +1542,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>519242</v>
+        <v>673540</v>
       </c>
       <c r="C50" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1550,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>676106</v>
+        <v>571578</v>
       </c>
       <c r="C51" t="s">
         <v>207</v>
@@ -1561,10 +1564,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>691587</v>
+        <v>543243</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1572,10 +1575,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>605488</v>
+        <v>669373</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1583,16 +1586,19 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>621244</v>
+        <v>694819</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
+      <c r="B55">
+        <v>700249</v>
+      </c>
       <c r="C55" t="s">
         <v>207</v>
       </c>
@@ -1602,10 +1608,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>571510</v>
+        <v>607067</v>
       </c>
       <c r="C56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1613,10 +1619,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>518876</v>
+        <v>656550</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1624,10 +1630,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>601713</v>
+        <v>656288</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1635,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>669358</v>
+        <v>690986</v>
       </c>
       <c r="C59" t="s">
         <v>207</v>
@@ -1646,10 +1652,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>489119</v>
+        <v>669022</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1657,10 +1663,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>579328</v>
+        <v>608331</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1668,10 +1674,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>554430</v>
+        <v>571945</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1679,10 +1685,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>681347</v>
+        <v>656605</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1690,10 +1696,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>670102</v>
+        <v>687765</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1701,10 +1707,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>663903</v>
+        <v>682990</v>
       </c>
       <c r="C65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1712,10 +1718,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>687888</v>
+        <v>680573</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1723,10 +1729,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>607074</v>
+        <v>641816</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1734,16 +1740,19 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>477132</v>
+        <v>688138</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
+      <c r="B69">
+        <v>702070</v>
+      </c>
       <c r="C69" t="s">
         <v>207</v>
       </c>
@@ -1753,10 +1762,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>650911</v>
+        <v>687830</v>
       </c>
       <c r="C70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1764,10 +1773,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>642547</v>
+        <v>650644</v>
       </c>
       <c r="C71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1775,10 +1784,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>669923</v>
+        <v>669467</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1786,10 +1795,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>656427</v>
+        <v>678394</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1797,7 +1806,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>657746</v>
+        <v>519242</v>
       </c>
       <c r="C74" t="s">
         <v>207</v>
@@ -1808,10 +1817,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>689017</v>
+        <v>676106</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1819,10 +1828,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>547179</v>
+        <v>691587</v>
       </c>
       <c r="C76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1830,7 +1839,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>700241</v>
+        <v>605488</v>
       </c>
       <c r="C77" t="s">
         <v>207</v>
@@ -1841,21 +1850,18 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>694973</v>
+        <v>621244</v>
       </c>
       <c r="C78" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>675911</v>
-      </c>
       <c r="C79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1863,7 +1869,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>676440</v>
+        <v>571510</v>
       </c>
       <c r="C80" t="s">
         <v>207</v>
@@ -1874,10 +1880,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>592866</v>
+        <v>518876</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1885,10 +1891,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>542881</v>
+        <v>601713</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1896,10 +1902,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>656731</v>
+        <v>669358</v>
       </c>
       <c r="C83" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1907,7 +1913,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>668678</v>
+        <v>489119</v>
       </c>
       <c r="C84" t="s">
         <v>207</v>
@@ -1918,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>608372</v>
+        <v>579328</v>
       </c>
       <c r="C85" t="s">
         <v>207</v>
@@ -1929,10 +1935,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>801403</v>
+        <v>554430</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1940,10 +1946,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>690928</v>
+        <v>681347</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1951,10 +1957,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>682052</v>
+        <v>670102</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1962,10 +1968,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>690990</v>
+        <v>663903</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1973,7 +1979,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>686701</v>
+        <v>687888</v>
       </c>
       <c r="C90" t="s">
         <v>207</v>
@@ -1984,7 +1990,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>678024</v>
+        <v>607074</v>
       </c>
       <c r="C91" t="s">
         <v>207</v>
@@ -1995,7 +2001,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>676961</v>
+        <v>477132</v>
       </c>
       <c r="C92" t="s">
         <v>207</v>
@@ -2005,11 +2011,8 @@
       <c r="A93" t="s">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>605288</v>
-      </c>
       <c r="C93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2017,7 +2020,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>693821</v>
+        <v>650911</v>
       </c>
       <c r="C94" t="s">
         <v>207</v>
@@ -2028,10 +2031,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>450203</v>
+        <v>642547</v>
       </c>
       <c r="C95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2039,10 +2042,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>663978</v>
+        <v>669923</v>
       </c>
       <c r="C96" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2050,10 +2053,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>605280</v>
+        <v>656427</v>
       </c>
       <c r="C97" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2061,10 +2064,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>607200</v>
+        <v>657746</v>
       </c>
       <c r="C98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2072,10 +2075,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>676979</v>
+        <v>689017</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2083,10 +2086,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>668909</v>
+        <v>547179</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2094,10 +2097,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>608566</v>
+        <v>700241</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2105,10 +2108,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>686613</v>
+        <v>694973</v>
       </c>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2116,10 +2119,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>686799</v>
+        <v>675911</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2127,10 +2130,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>594798</v>
+        <v>676440</v>
       </c>
       <c r="C104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2138,10 +2141,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>500779</v>
+        <v>592866</v>
       </c>
       <c r="C105" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2149,7 +2152,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>672456</v>
+        <v>542881</v>
       </c>
       <c r="C106" t="s">
         <v>207</v>
@@ -2160,10 +2163,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>592332</v>
+        <v>656731</v>
       </c>
       <c r="C107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2171,10 +2174,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>657277</v>
+        <v>668678</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2182,10 +2185,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>622491</v>
+        <v>608372</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2193,10 +2196,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>622663</v>
+        <v>801403</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2204,10 +2207,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>608379</v>
+        <v>690928</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2215,10 +2218,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>680730</v>
+        <v>682052</v>
       </c>
       <c r="C112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2226,10 +2229,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>607259</v>
+        <v>690990</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2237,10 +2240,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>624133</v>
+        <v>686701</v>
       </c>
       <c r="C114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2248,10 +2251,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>677960</v>
+        <v>678024</v>
       </c>
       <c r="C115" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2259,10 +2262,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>642232</v>
+        <v>676961</v>
       </c>
       <c r="C116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2270,10 +2273,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>669194</v>
+        <v>605288</v>
       </c>
       <c r="C117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2281,10 +2284,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>671737</v>
+        <v>693821</v>
       </c>
       <c r="C118" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2292,10 +2295,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>808967</v>
+        <v>450203</v>
       </c>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2303,10 +2306,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>663568</v>
+        <v>663978</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2314,10 +2317,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>663559</v>
+        <v>605280</v>
       </c>
       <c r="C121" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2325,10 +2328,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>676962</v>
+        <v>607200</v>
       </c>
       <c r="C122" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2336,7 +2339,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>682243</v>
+        <v>676979</v>
       </c>
       <c r="C123" t="s">
         <v>207</v>
@@ -2347,10 +2350,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>593958</v>
+        <v>668909</v>
       </c>
       <c r="C124" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2358,10 +2361,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>665795</v>
+        <v>608566</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2369,10 +2372,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>605452</v>
+        <v>686613</v>
       </c>
       <c r="C126" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2380,10 +2383,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>676664</v>
+        <v>686799</v>
       </c>
       <c r="C127" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2391,10 +2394,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>680736</v>
+        <v>594798</v>
       </c>
       <c r="C128" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2402,7 +2405,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>543294</v>
+        <v>500779</v>
       </c>
       <c r="C129" t="s">
         <v>207</v>
@@ -2413,10 +2416,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>671106</v>
+        <v>672456</v>
       </c>
       <c r="C130" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2424,10 +2427,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>666157</v>
+        <v>592332</v>
       </c>
       <c r="C131" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2435,10 +2438,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>681190</v>
+        <v>657277</v>
       </c>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2446,10 +2449,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>680885</v>
+        <v>622491</v>
       </c>
       <c r="C133" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2457,10 +2460,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>621111</v>
+        <v>622663</v>
       </c>
       <c r="C134" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2468,10 +2471,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>641793</v>
+        <v>608379</v>
       </c>
       <c r="C135" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2479,7 +2482,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>694477</v>
+        <v>680730</v>
       </c>
       <c r="C136" t="s">
         <v>207</v>
@@ -2490,10 +2493,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>676467</v>
+        <v>607259</v>
       </c>
       <c r="C137" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2501,7 +2504,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>693433</v>
+        <v>624133</v>
       </c>
       <c r="C138" t="s">
         <v>207</v>
@@ -2512,7 +2515,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>663554</v>
+        <v>677960</v>
       </c>
       <c r="C139" t="s">
         <v>207</v>
@@ -2523,10 +2526,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>666142</v>
+        <v>642232</v>
       </c>
       <c r="C140" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2534,10 +2537,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>701581</v>
+        <v>669194</v>
       </c>
       <c r="C141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2545,10 +2548,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>656849</v>
+        <v>671737</v>
       </c>
       <c r="C142" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2556,10 +2559,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>683004</v>
+        <v>808967</v>
       </c>
       <c r="C143" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2567,10 +2570,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>663623</v>
+        <v>663568</v>
       </c>
       <c r="C144" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2578,10 +2581,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>666200</v>
+        <v>682243</v>
       </c>
       <c r="C145" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2589,7 +2592,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>689017</v>
+        <v>593958</v>
       </c>
       <c r="C146" t="s">
         <v>207</v>
@@ -2600,10 +2603,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>669461</v>
+        <v>665795</v>
       </c>
       <c r="C147" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2611,10 +2614,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>592662</v>
+        <v>605452</v>
       </c>
       <c r="C148" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2622,7 +2625,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>680732</v>
+        <v>680736</v>
       </c>
       <c r="C149" t="s">
         <v>207</v>
@@ -2633,7 +2636,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>621107</v>
+        <v>671106</v>
       </c>
       <c r="C150" t="s">
         <v>207</v>
@@ -2644,7 +2647,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>615698</v>
+        <v>666157</v>
       </c>
       <c r="C151" t="s">
         <v>207</v>
@@ -2655,7 +2658,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>657376</v>
+        <v>676467</v>
       </c>
       <c r="C152" t="s">
         <v>207</v>
@@ -2666,7 +2669,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>677958</v>
+        <v>666142</v>
       </c>
       <c r="C153" t="s">
         <v>207</v>
@@ -2677,10 +2680,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>607536</v>
+        <v>689017</v>
       </c>
       <c r="C154" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2688,10 +2691,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>664062</v>
+        <v>680732</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2699,10 +2702,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>805673</v>
+        <v>677958</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2710,7 +2713,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>687473</v>
+        <v>607536</v>
       </c>
       <c r="C157" t="s">
         <v>207</v>
@@ -2721,10 +2724,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>676428</v>
+        <v>664062</v>
       </c>
       <c r="C158" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2732,10 +2735,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>668881</v>
+        <v>805673</v>
       </c>
       <c r="C159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2743,10 +2746,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>674370</v>
+        <v>687473</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2754,7 +2757,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>641154</v>
+        <v>676428</v>
       </c>
       <c r="C161" t="s">
         <v>207</v>
@@ -2765,10 +2768,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>686563</v>
+        <v>668881</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2776,10 +2779,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>676974</v>
+        <v>674370</v>
       </c>
       <c r="C163" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2787,10 +2790,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>621112</v>
+        <v>641154</v>
       </c>
       <c r="C164" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2798,10 +2801,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>690916</v>
+        <v>686563</v>
       </c>
       <c r="C165" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2809,10 +2812,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>669203</v>
+        <v>676974</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2820,10 +2823,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>663460</v>
+        <v>621112</v>
       </c>
       <c r="C167" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2831,10 +2834,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>680684</v>
+        <v>690916</v>
       </c>
       <c r="C168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2842,10 +2845,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>592836</v>
+        <v>669203</v>
       </c>
       <c r="C169" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2853,7 +2856,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>700363</v>
+        <v>663460</v>
       </c>
       <c r="C170" t="s">
         <v>207</v>
@@ -2864,10 +2867,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>663465</v>
+        <v>680684</v>
       </c>
       <c r="C171" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2875,10 +2878,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>685299</v>
+        <v>592836</v>
       </c>
       <c r="C172" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2886,10 +2889,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>695549</v>
+        <v>700363</v>
       </c>
       <c r="C173" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2897,10 +2900,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>663738</v>
+        <v>663465</v>
       </c>
       <c r="C174" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2908,10 +2911,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>543135</v>
+        <v>685299</v>
       </c>
       <c r="C175" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2919,10 +2922,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>701656</v>
+        <v>695549</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2930,7 +2933,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>650633</v>
+        <v>663738</v>
       </c>
       <c r="C177" t="s">
         <v>207</v>
@@ -2941,10 +2944,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>669432</v>
+        <v>543135</v>
       </c>
       <c r="C178" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2952,10 +2955,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>694646</v>
+        <v>701656</v>
       </c>
       <c r="C179" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2963,10 +2966,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>669060</v>
+        <v>650633</v>
       </c>
       <c r="C180" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2974,7 +2977,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>669372</v>
+        <v>669432</v>
       </c>
       <c r="C181" t="s">
         <v>207</v>
@@ -2985,10 +2988,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>434378</v>
+        <v>694646</v>
       </c>
       <c r="C182" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2996,10 +2999,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>669387</v>
+        <v>669060</v>
       </c>
       <c r="C183" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3007,10 +3010,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>502043</v>
+        <v>669372</v>
       </c>
       <c r="C184" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3018,10 +3021,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>681857</v>
+        <v>434378</v>
       </c>
       <c r="C185" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3029,10 +3032,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>669854</v>
+        <v>669387</v>
       </c>
       <c r="C186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3040,10 +3043,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>668964</v>
+        <v>502043</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3051,10 +3054,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>695534</v>
+        <v>681857</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3062,10 +3065,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>605400</v>
+        <v>669854</v>
       </c>
       <c r="C189" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3073,10 +3076,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>663855</v>
+        <v>668964</v>
       </c>
       <c r="C190" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3084,10 +3087,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>678368</v>
+        <v>695534</v>
       </c>
       <c r="C191" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3095,10 +3098,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C192" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3106,10 +3109,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C193" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3117,10 +3120,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>669713</v>
+        <v>678368</v>
       </c>
       <c r="C194" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3128,10 +3131,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>570632</v>
+        <v>594902</v>
       </c>
       <c r="C195" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3139,10 +3142,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>695418</v>
+        <v>656557</v>
       </c>
       <c r="C196" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3150,10 +3153,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>676508</v>
+        <v>669713</v>
       </c>
       <c r="C197" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3161,10 +3164,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>684007</v>
+        <v>570632</v>
       </c>
       <c r="C198" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3172,10 +3175,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>694918</v>
+        <v>695418</v>
       </c>
       <c r="C199" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3183,10 +3186,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>641302</v>
+        <v>684007</v>
       </c>
       <c r="C200" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3194,10 +3197,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>663372</v>
+        <v>694918</v>
       </c>
       <c r="C201" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3205,7 +3208,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>471911</v>
+        <v>641302</v>
       </c>
       <c r="C202" t="s">
         <v>207</v>
@@ -3216,10 +3219,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>669302</v>
+        <v>663372</v>
       </c>
       <c r="C203" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3227,10 +3230,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C204" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3238,10 +3241,21 @@
         <v>205</v>
       </c>
       <c r="B205">
+        <v>686249</v>
+      </c>
+      <c r="C205" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
         <v>527048</v>
       </c>
-      <c r="C205" t="s">
-        <v>206</v>
+      <c r="C206" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="210">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,75 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adam Mazur</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Chris Sale</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Ryan Yarbrough</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
@@ -151,15 +220,9 @@
     <t>Andrew Heaney</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Davis Martin</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
     <t>Hayden Birdsong</t>
   </si>
   <si>
@@ -169,9 +232,6 @@
     <t>Kodai Senga</t>
   </si>
   <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Sonny Gray</t>
   </si>
   <si>
@@ -238,9 +298,6 @@
     <t>Brayan Bello</t>
   </si>
   <si>
-    <t>Chris Sale</t>
-  </si>
-  <si>
     <t>Emerson Hancock</t>
   </si>
   <si>
@@ -385,21 +442,12 @@
     <t>Erick Fedde</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
     <t>Gavin Williams</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
     <t>Jacob deGrom</t>
   </si>
   <si>
@@ -415,63 +463,30 @@
     <t>Logan Webb</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Michael Wacha</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
     <t>Ryan Weathers</t>
   </si>
   <si>
-    <t>Ryan Yarbrough</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
     <t>Yoshinobu Yamamoto</t>
   </si>
   <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
     <t>Joe Ross</t>
   </si>
   <si>
-    <t>Justin Wrobleski</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
     <t>Colton Gordon</t>
   </si>
   <si>
@@ -517,18 +532,12 @@
     <t>Max Meyer</t>
   </si>
   <si>
-    <t>Paul Blackburn</t>
-  </si>
-  <si>
     <t>Richard Fitts</t>
   </si>
   <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
     <t>Gunnar Hoglund</t>
   </si>
   <si>
@@ -559,9 +568,6 @@
     <t>Michael King</t>
   </si>
   <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
     <t>Chayce McDermott</t>
   </si>
   <si>
@@ -571,9 +577,6 @@
     <t>J T Ginn</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
@@ -637,10 +640,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C206"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1020,48 +1023,48 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>671096</v>
+        <v>800049</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>641927</v>
+      </c>
       <c r="C3" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>663559</v>
+        <v>519242</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>676962</v>
+        <v>593958</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>694297</v>
-      </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1069,10 +1072,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>693433</v>
+        <v>664285</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1080,10 +1083,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>615698</v>
+        <v>676979</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1091,7 +1094,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>663554</v>
+        <v>608566</v>
       </c>
       <c r="C9" t="s">
         <v>208</v>
@@ -1102,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>605135</v>
+        <v>686799</v>
       </c>
       <c r="C10" t="s">
         <v>208</v>
@@ -1113,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>701581</v>
+        <v>434378</v>
       </c>
       <c r="C11" t="s">
         <v>208</v>
@@ -1124,10 +1127,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>656849</v>
+        <v>680736</v>
       </c>
       <c r="C12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1135,10 +1138,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>665152</v>
+        <v>663460</v>
       </c>
       <c r="C13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1146,10 +1149,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>683004</v>
+        <v>671106</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1157,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>666200</v>
+        <v>622491</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1168,10 +1171,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>676664</v>
+        <v>622663</v>
       </c>
       <c r="C16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1179,10 +1182,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>543294</v>
+        <v>680730</v>
       </c>
       <c r="C17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1190,10 +1193,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>669461</v>
+        <v>666157</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1201,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>647336</v>
+        <v>571578</v>
       </c>
       <c r="C19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1212,7 +1215,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>681190</v>
+        <v>621112</v>
       </c>
       <c r="C20" t="s">
         <v>208</v>
@@ -1223,10 +1226,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>592662</v>
+        <v>624133</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1234,10 +1237,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>607625</v>
+        <v>642232</v>
       </c>
       <c r="C22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1245,7 +1248,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>677944</v>
+        <v>671737</v>
       </c>
       <c r="C23" t="s">
         <v>208</v>
@@ -1256,10 +1259,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>680885</v>
+        <v>669432</v>
       </c>
       <c r="C24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1267,7 +1270,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>621111</v>
+        <v>663568</v>
       </c>
       <c r="C25" t="s">
         <v>208</v>
@@ -1278,10 +1281,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>701542</v>
+        <v>671096</v>
       </c>
       <c r="C26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1289,10 +1292,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>641793</v>
+        <v>663559</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1300,7 +1303,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>681343</v>
+        <v>676962</v>
       </c>
       <c r="C28" t="s">
         <v>208</v>
@@ -1311,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>694477</v>
+        <v>694297</v>
       </c>
       <c r="C29" t="s">
         <v>208</v>
@@ -1322,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>669422</v>
+        <v>693433</v>
       </c>
       <c r="C30" t="s">
         <v>208</v>
@@ -1333,7 +1336,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>669920</v>
+        <v>615698</v>
       </c>
       <c r="C31" t="s">
         <v>208</v>
@@ -1344,7 +1347,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>657376</v>
+        <v>663554</v>
       </c>
       <c r="C32" t="s">
         <v>208</v>
@@ -1355,7 +1358,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>656302</v>
+        <v>605135</v>
       </c>
       <c r="C33" t="s">
         <v>208</v>
@@ -1366,7 +1369,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>663623</v>
+        <v>701581</v>
       </c>
       <c r="C34" t="s">
         <v>208</v>
@@ -1377,10 +1380,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>667755</v>
+        <v>656849</v>
       </c>
       <c r="C35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1388,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>669302</v>
+        <v>665152</v>
       </c>
       <c r="C36" t="s">
         <v>208</v>
@@ -1399,7 +1402,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>608337</v>
+        <v>683004</v>
       </c>
       <c r="C37" t="s">
         <v>208</v>
@@ -1410,10 +1413,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>686752</v>
+        <v>666200</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1421,10 +1424,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>645261</v>
+        <v>676664</v>
       </c>
       <c r="C39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1432,7 +1435,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>621107</v>
+        <v>543294</v>
       </c>
       <c r="C40" t="s">
         <v>208</v>
@@ -1443,10 +1446,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>676508</v>
+        <v>669461</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1454,10 +1457,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>687223</v>
+        <v>647336</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1465,7 +1468,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>690953</v>
+        <v>681190</v>
       </c>
       <c r="C43" t="s">
         <v>208</v>
@@ -1476,10 +1479,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>571760</v>
+        <v>592662</v>
       </c>
       <c r="C44" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1487,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>641927</v>
+        <v>607625</v>
       </c>
       <c r="C45" t="s">
         <v>208</v>
@@ -1498,7 +1501,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>663436</v>
+        <v>677944</v>
       </c>
       <c r="C46" t="s">
         <v>208</v>
@@ -1509,10 +1512,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>664285</v>
+        <v>680885</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1520,7 +1523,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>806185</v>
+        <v>621111</v>
       </c>
       <c r="C48" t="s">
         <v>208</v>
@@ -1531,7 +1534,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>592791</v>
+        <v>701542</v>
       </c>
       <c r="C49" t="s">
         <v>208</v>
@@ -1542,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>673540</v>
+        <v>641793</v>
       </c>
       <c r="C50" t="s">
         <v>208</v>
@@ -1553,10 +1556,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>571578</v>
+        <v>681343</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1564,7 +1567,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>543243</v>
+        <v>694477</v>
       </c>
       <c r="C52" t="s">
         <v>208</v>
@@ -1575,10 +1578,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>669373</v>
+        <v>669422</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1586,7 +1589,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>694819</v>
+        <v>669920</v>
       </c>
       <c r="C54" t="s">
         <v>208</v>
@@ -1597,10 +1600,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>700249</v>
+        <v>657376</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1608,7 +1611,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>607067</v>
+        <v>656302</v>
       </c>
       <c r="C56" t="s">
         <v>208</v>
@@ -1619,7 +1622,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>656550</v>
+        <v>663623</v>
       </c>
       <c r="C57" t="s">
         <v>208</v>
@@ -1630,7 +1633,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>656288</v>
+        <v>667755</v>
       </c>
       <c r="C58" t="s">
         <v>208</v>
@@ -1641,10 +1644,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>690986</v>
+        <v>669302</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1652,10 +1655,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>669022</v>
+        <v>608337</v>
       </c>
       <c r="C60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1663,10 +1666,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>608331</v>
+        <v>686752</v>
       </c>
       <c r="C61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1674,7 +1677,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>571945</v>
+        <v>645261</v>
       </c>
       <c r="C62" t="s">
         <v>208</v>
@@ -1685,7 +1688,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>656605</v>
+        <v>621107</v>
       </c>
       <c r="C63" t="s">
         <v>208</v>
@@ -1696,7 +1699,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>687765</v>
+        <v>676508</v>
       </c>
       <c r="C64" t="s">
         <v>208</v>
@@ -1707,10 +1710,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>682990</v>
+        <v>687223</v>
       </c>
       <c r="C65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1718,7 +1721,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>680573</v>
+        <v>690953</v>
       </c>
       <c r="C66" t="s">
         <v>208</v>
@@ -1729,10 +1732,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>641816</v>
+        <v>571760</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1740,7 +1743,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>688138</v>
+        <v>663436</v>
       </c>
       <c r="C68" t="s">
         <v>208</v>
@@ -1751,10 +1754,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>702070</v>
+        <v>806185</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1762,7 +1765,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>687830</v>
+        <v>592791</v>
       </c>
       <c r="C70" t="s">
         <v>208</v>
@@ -1773,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>650644</v>
+        <v>673540</v>
       </c>
       <c r="C71" t="s">
         <v>208</v>
@@ -1784,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>669467</v>
+        <v>543243</v>
       </c>
       <c r="C72" t="s">
         <v>208</v>
@@ -1795,10 +1798,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>678394</v>
+        <v>669373</v>
       </c>
       <c r="C73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1806,10 +1809,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>519242</v>
+        <v>694819</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1817,10 +1820,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>676106</v>
+        <v>700249</v>
       </c>
       <c r="C75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1828,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>691587</v>
+        <v>607067</v>
       </c>
       <c r="C76" t="s">
         <v>208</v>
@@ -1839,10 +1842,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>605488</v>
+        <v>656550</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1850,7 +1853,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>621244</v>
+        <v>656288</v>
       </c>
       <c r="C78" t="s">
         <v>208</v>
@@ -1860,8 +1863,11 @@
       <c r="A79" t="s">
         <v>79</v>
       </c>
+      <c r="B79">
+        <v>690986</v>
+      </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1869,10 +1875,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>571510</v>
+        <v>669022</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1880,10 +1886,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>518876</v>
+        <v>608331</v>
       </c>
       <c r="C81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1891,7 +1897,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>601713</v>
+        <v>571945</v>
       </c>
       <c r="C82" t="s">
         <v>208</v>
@@ -1902,7 +1908,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>669358</v>
+        <v>656605</v>
       </c>
       <c r="C83" t="s">
         <v>208</v>
@@ -1913,10 +1919,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>489119</v>
+        <v>687765</v>
       </c>
       <c r="C84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1924,10 +1930,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>579328</v>
+        <v>682990</v>
       </c>
       <c r="C85" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1935,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>554430</v>
+        <v>680573</v>
       </c>
       <c r="C86" t="s">
         <v>208</v>
@@ -1946,7 +1952,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>681347</v>
+        <v>641816</v>
       </c>
       <c r="C87" t="s">
         <v>208</v>
@@ -1957,7 +1963,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>670102</v>
+        <v>688138</v>
       </c>
       <c r="C88" t="s">
         <v>208</v>
@@ -1968,10 +1974,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>663903</v>
+        <v>702070</v>
       </c>
       <c r="C89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1979,10 +1985,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>687888</v>
+        <v>687830</v>
       </c>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1990,10 +1996,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>607074</v>
+        <v>650644</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2001,16 +2007,19 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>477132</v>
+        <v>669467</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>93</v>
       </c>
+      <c r="B93">
+        <v>678394</v>
+      </c>
       <c r="C93" t="s">
         <v>208</v>
       </c>
@@ -2020,10 +2029,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>650911</v>
+        <v>676106</v>
       </c>
       <c r="C94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2031,7 +2040,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>642547</v>
+        <v>691587</v>
       </c>
       <c r="C95" t="s">
         <v>208</v>
@@ -2042,10 +2051,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>669923</v>
+        <v>605488</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2053,7 +2062,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>656427</v>
+        <v>621244</v>
       </c>
       <c r="C97" t="s">
         <v>208</v>
@@ -2063,9 +2072,6 @@
       <c r="A98" t="s">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>657746</v>
-      </c>
       <c r="C98" t="s">
         <v>208</v>
       </c>
@@ -2075,10 +2081,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>689017</v>
+        <v>571510</v>
       </c>
       <c r="C99" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2086,7 +2092,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>547179</v>
+        <v>518876</v>
       </c>
       <c r="C100" t="s">
         <v>208</v>
@@ -2097,7 +2103,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>700241</v>
+        <v>601713</v>
       </c>
       <c r="C101" t="s">
         <v>208</v>
@@ -2108,7 +2114,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>694973</v>
+        <v>669358</v>
       </c>
       <c r="C102" t="s">
         <v>208</v>
@@ -2119,10 +2125,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>675911</v>
+        <v>489119</v>
       </c>
       <c r="C103" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2130,10 +2136,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>676440</v>
+        <v>579328</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2141,7 +2147,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>592866</v>
+        <v>554430</v>
       </c>
       <c r="C105" t="s">
         <v>208</v>
@@ -2152,10 +2158,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>542881</v>
+        <v>681347</v>
       </c>
       <c r="C106" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2163,7 +2169,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>656731</v>
+        <v>670102</v>
       </c>
       <c r="C107" t="s">
         <v>208</v>
@@ -2174,7 +2180,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>668678</v>
+        <v>663903</v>
       </c>
       <c r="C108" t="s">
         <v>208</v>
@@ -2185,10 +2191,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>608372</v>
+        <v>687888</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2196,10 +2202,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>801403</v>
+        <v>607074</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2207,21 +2213,18 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>690928</v>
+        <v>477132</v>
       </c>
       <c r="C111" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>682052</v>
-      </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2229,10 +2232,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>690990</v>
+        <v>650911</v>
       </c>
       <c r="C113" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2240,7 +2243,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>686701</v>
+        <v>642547</v>
       </c>
       <c r="C114" t="s">
         <v>208</v>
@@ -2251,7 +2254,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>678024</v>
+        <v>669923</v>
       </c>
       <c r="C115" t="s">
         <v>208</v>
@@ -2262,7 +2265,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>676961</v>
+        <v>656427</v>
       </c>
       <c r="C116" t="s">
         <v>208</v>
@@ -2273,7 +2276,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>605288</v>
+        <v>657746</v>
       </c>
       <c r="C117" t="s">
         <v>208</v>
@@ -2284,7 +2287,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>693821</v>
+        <v>689017</v>
       </c>
       <c r="C118" t="s">
         <v>208</v>
@@ -2295,7 +2298,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>450203</v>
+        <v>547179</v>
       </c>
       <c r="C119" t="s">
         <v>208</v>
@@ -2306,7 +2309,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>663978</v>
+        <v>700241</v>
       </c>
       <c r="C120" t="s">
         <v>208</v>
@@ -2317,7 +2320,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>605280</v>
+        <v>694973</v>
       </c>
       <c r="C121" t="s">
         <v>208</v>
@@ -2328,7 +2331,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>607200</v>
+        <v>675911</v>
       </c>
       <c r="C122" t="s">
         <v>208</v>
@@ -2339,10 +2342,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>676979</v>
+        <v>676440</v>
       </c>
       <c r="C123" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2350,7 +2353,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>668909</v>
+        <v>592866</v>
       </c>
       <c r="C124" t="s">
         <v>208</v>
@@ -2361,10 +2364,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>608566</v>
+        <v>542881</v>
       </c>
       <c r="C125" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2372,7 +2375,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>686613</v>
+        <v>656731</v>
       </c>
       <c r="C126" t="s">
         <v>208</v>
@@ -2383,7 +2386,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>686799</v>
+        <v>668678</v>
       </c>
       <c r="C127" t="s">
         <v>208</v>
@@ -2394,7 +2397,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>594798</v>
+        <v>608372</v>
       </c>
       <c r="C128" t="s">
         <v>208</v>
@@ -2405,10 +2408,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>500779</v>
+        <v>801403</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2416,7 +2419,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>672456</v>
+        <v>690928</v>
       </c>
       <c r="C130" t="s">
         <v>208</v>
@@ -2427,10 +2430,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>592332</v>
+        <v>682052</v>
       </c>
       <c r="C131" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2438,7 +2441,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>657277</v>
+        <v>690990</v>
       </c>
       <c r="C132" t="s">
         <v>208</v>
@@ -2449,7 +2452,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>622491</v>
+        <v>686701</v>
       </c>
       <c r="C133" t="s">
         <v>208</v>
@@ -2460,7 +2463,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>622663</v>
+        <v>678024</v>
       </c>
       <c r="C134" t="s">
         <v>208</v>
@@ -2471,7 +2474,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>608379</v>
+        <v>676961</v>
       </c>
       <c r="C135" t="s">
         <v>208</v>
@@ -2482,10 +2485,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>680730</v>
+        <v>605288</v>
       </c>
       <c r="C136" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2493,7 +2496,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>607259</v>
+        <v>693821</v>
       </c>
       <c r="C137" t="s">
         <v>208</v>
@@ -2504,10 +2507,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>624133</v>
+        <v>450203</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2515,10 +2518,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>677960</v>
+        <v>663978</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2526,10 +2529,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>642232</v>
+        <v>605280</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2537,7 +2540,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>669194</v>
+        <v>607200</v>
       </c>
       <c r="C141" t="s">
         <v>208</v>
@@ -2548,7 +2551,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>671737</v>
+        <v>668909</v>
       </c>
       <c r="C142" t="s">
         <v>208</v>
@@ -2559,7 +2562,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>808967</v>
+        <v>686613</v>
       </c>
       <c r="C143" t="s">
         <v>208</v>
@@ -2570,7 +2573,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>663568</v>
+        <v>594798</v>
       </c>
       <c r="C144" t="s">
         <v>208</v>
@@ -2581,10 +2584,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>682243</v>
+        <v>500779</v>
       </c>
       <c r="C145" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2592,10 +2595,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>593958</v>
+        <v>672456</v>
       </c>
       <c r="C146" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2603,7 +2606,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>665795</v>
+        <v>592332</v>
       </c>
       <c r="C147" t="s">
         <v>208</v>
@@ -2614,7 +2617,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>605452</v>
+        <v>657277</v>
       </c>
       <c r="C148" t="s">
         <v>208</v>
@@ -2625,10 +2628,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>680736</v>
+        <v>608379</v>
       </c>
       <c r="C149" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2636,10 +2639,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>671106</v>
+        <v>607259</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2647,10 +2650,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>666157</v>
+        <v>677960</v>
       </c>
       <c r="C151" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2658,10 +2661,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>676467</v>
+        <v>669194</v>
       </c>
       <c r="C152" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2669,10 +2672,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>666142</v>
+        <v>808967</v>
       </c>
       <c r="C153" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2680,7 +2683,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>689017</v>
+        <v>682243</v>
       </c>
       <c r="C154" t="s">
         <v>208</v>
@@ -2691,7 +2694,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>680732</v>
+        <v>665795</v>
       </c>
       <c r="C155" t="s">
         <v>208</v>
@@ -2702,7 +2705,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>677958</v>
+        <v>605452</v>
       </c>
       <c r="C156" t="s">
         <v>208</v>
@@ -2713,10 +2716,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>607536</v>
+        <v>676467</v>
       </c>
       <c r="C157" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2724,10 +2727,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>664062</v>
+        <v>666142</v>
       </c>
       <c r="C158" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2735,7 +2738,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>805673</v>
+        <v>689017</v>
       </c>
       <c r="C159" t="s">
         <v>208</v>
@@ -2746,7 +2749,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>687473</v>
+        <v>680732</v>
       </c>
       <c r="C160" t="s">
         <v>208</v>
@@ -2757,10 +2760,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>676428</v>
+        <v>677958</v>
       </c>
       <c r="C161" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2768,10 +2771,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>668881</v>
+        <v>607536</v>
       </c>
       <c r="C162" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2779,7 +2782,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>674370</v>
+        <v>664062</v>
       </c>
       <c r="C163" t="s">
         <v>208</v>
@@ -2790,7 +2793,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>641154</v>
+        <v>805673</v>
       </c>
       <c r="C164" t="s">
         <v>208</v>
@@ -2801,7 +2804,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>686563</v>
+        <v>687473</v>
       </c>
       <c r="C165" t="s">
         <v>208</v>
@@ -2812,10 +2815,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>676974</v>
+        <v>676428</v>
       </c>
       <c r="C166" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2823,7 +2826,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>621112</v>
+        <v>668881</v>
       </c>
       <c r="C167" t="s">
         <v>208</v>
@@ -2834,7 +2837,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>690916</v>
+        <v>674370</v>
       </c>
       <c r="C168" t="s">
         <v>208</v>
@@ -2845,7 +2848,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>669203</v>
+        <v>641154</v>
       </c>
       <c r="C169" t="s">
         <v>208</v>
@@ -2856,10 +2859,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>663460</v>
+        <v>686563</v>
       </c>
       <c r="C170" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2867,7 +2870,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>680684</v>
+        <v>676974</v>
       </c>
       <c r="C171" t="s">
         <v>208</v>
@@ -2878,7 +2881,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>592836</v>
+        <v>690916</v>
       </c>
       <c r="C172" t="s">
         <v>208</v>
@@ -2889,7 +2892,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>700363</v>
+        <v>669203</v>
       </c>
       <c r="C173" t="s">
         <v>208</v>
@@ -2900,10 +2903,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>663465</v>
+        <v>680684</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2911,7 +2914,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>685299</v>
+        <v>592836</v>
       </c>
       <c r="C175" t="s">
         <v>208</v>
@@ -2922,7 +2925,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>695549</v>
+        <v>700363</v>
       </c>
       <c r="C176" t="s">
         <v>208</v>
@@ -2933,10 +2936,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>663738</v>
+        <v>663465</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2944,7 +2947,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>543135</v>
+        <v>685299</v>
       </c>
       <c r="C178" t="s">
         <v>208</v>
@@ -2955,7 +2958,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>701656</v>
+        <v>695549</v>
       </c>
       <c r="C179" t="s">
         <v>208</v>
@@ -2966,10 +2969,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>650633</v>
+        <v>663738</v>
       </c>
       <c r="C180" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2977,10 +2980,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>669432</v>
+        <v>543135</v>
       </c>
       <c r="C181" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2988,7 +2991,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>694646</v>
+        <v>701656</v>
       </c>
       <c r="C182" t="s">
         <v>208</v>
@@ -2999,7 +3002,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>669060</v>
+        <v>650633</v>
       </c>
       <c r="C183" t="s">
         <v>208</v>
@@ -3010,7 +3013,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>669372</v>
+        <v>694646</v>
       </c>
       <c r="C184" t="s">
         <v>208</v>
@@ -3021,7 +3024,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>434378</v>
+        <v>669060</v>
       </c>
       <c r="C185" t="s">
         <v>208</v>
@@ -3032,7 +3035,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>669387</v>
+        <v>669372</v>
       </c>
       <c r="C186" t="s">
         <v>208</v>
@@ -3043,7 +3046,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>502043</v>
+        <v>669387</v>
       </c>
       <c r="C187" t="s">
         <v>208</v>
@@ -3054,7 +3057,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>681857</v>
+        <v>502043</v>
       </c>
       <c r="C188" t="s">
         <v>208</v>
@@ -3065,7 +3068,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>669854</v>
+        <v>681857</v>
       </c>
       <c r="C189" t="s">
         <v>208</v>
@@ -3076,7 +3079,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>668964</v>
+        <v>669854</v>
       </c>
       <c r="C190" t="s">
         <v>208</v>
@@ -3087,7 +3090,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>695534</v>
+        <v>668964</v>
       </c>
       <c r="C191" t="s">
         <v>208</v>
@@ -3098,7 +3101,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>605400</v>
+        <v>695534</v>
       </c>
       <c r="C192" t="s">
         <v>208</v>
@@ -3109,7 +3112,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>663855</v>
+        <v>605400</v>
       </c>
       <c r="C193" t="s">
         <v>208</v>
@@ -3120,7 +3123,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>678368</v>
+        <v>663855</v>
       </c>
       <c r="C194" t="s">
         <v>208</v>
@@ -3131,7 +3134,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C195" t="s">
         <v>208</v>
@@ -3142,7 +3145,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C196" t="s">
         <v>208</v>
@@ -3153,7 +3156,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C197" t="s">
         <v>208</v>
@@ -3164,7 +3167,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C198" t="s">
         <v>208</v>
@@ -3175,7 +3178,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>695418</v>
+        <v>570632</v>
       </c>
       <c r="C199" t="s">
         <v>208</v>
@@ -3186,10 +3189,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>684007</v>
+        <v>695418</v>
       </c>
       <c r="C200" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3197,10 +3200,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>694918</v>
+        <v>684007</v>
       </c>
       <c r="C201" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3208,10 +3211,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>641302</v>
+        <v>694918</v>
       </c>
       <c r="C202" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3219,10 +3222,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>663372</v>
+        <v>641302</v>
       </c>
       <c r="C203" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3230,7 +3233,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C204" t="s">
         <v>208</v>
@@ -3241,7 +3244,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C205" t="s">
         <v>208</v>
@@ -3252,10 +3255,21 @@
         <v>206</v>
       </c>
       <c r="B206">
+        <v>686249</v>
+      </c>
+      <c r="C206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
         <v>527048</v>
       </c>
-      <c r="C206" t="s">
-        <v>207</v>
+      <c r="C207" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="216">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,18 +25,246 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Allan Winans</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Paul Blackburn</t>
+  </si>
+  <si>
+    <t>Spencer Schwellenbach</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Braxton Ashcraft</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Spencer Turnbull</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tyler Alexander</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Hunter Dobbins</t>
+  </si>
+  <si>
+    <t>Blade Tidwell</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Didier Fuentes</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Trevor Williams</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
+    <t>Mike Vasil</t>
+  </si>
+  <si>
+    <t>Jacob Latz</t>
+  </si>
+  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
     <t>Framber Valdez</t>
   </si>
   <si>
@@ -46,9 +274,6 @@
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
@@ -67,18 +292,6 @@
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Paul Blackburn</t>
-  </si>
-  <si>
     <t>Ranger Suárez</t>
   </si>
   <si>
@@ -88,27 +301,15 @@
     <t>Taj Bradley</t>
   </si>
   <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
     <t>Brandon Pfaadt</t>
   </si>
   <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
@@ -139,9 +340,6 @@
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
     <t>Michael Soroka</t>
   </si>
   <si>
@@ -157,24 +355,12 @@
     <t>Slade Cecconi</t>
   </si>
   <si>
-    <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
     <t>Will Warren</t>
   </si>
   <si>
     <t>Zack Littell</t>
   </si>
   <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Matt Sauer</t>
   </si>
   <si>
@@ -217,30 +403,15 @@
     <t>Mick Abel</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Davis Martin</t>
   </si>
   <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
     <t>Sonny Gray</t>
   </si>
   <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Jacob Misiorowski</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
@@ -256,12 +427,6 @@
     <t>Kyle Harrison</t>
   </si>
   <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
@@ -292,9 +457,6 @@
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
     <t>Brayan Bello</t>
   </si>
   <si>
@@ -304,123 +466,36 @@
     <t>Eury Perez</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>José Berríos</t>
   </si>
   <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
     <t>Merrill Kelly</t>
   </si>
   <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Wade Miley</t>
   </si>
   <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
     <t>Bowden Francis</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
     <t>Connor Gillispie</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
     <t>Landen Roupp</t>
   </si>
   <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
-    <t>Michael McGreevy</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Trevor Williams</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
-    <t>Hunter Dobbins</t>
-  </si>
-  <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Cade Horton</t>
   </si>
   <si>
-    <t>Ryan Bergert</t>
-  </si>
-  <si>
-    <t>Mike Vasil</t>
-  </si>
-  <si>
     <t>Caleb Boushley</t>
   </si>
   <si>
@@ -430,75 +505,24 @@
     <t>Bryce Elder</t>
   </si>
   <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
     <t>Jose Quintana</t>
   </si>
   <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
     <t>Ryan Weathers</t>
   </si>
   <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
     <t>Bryce Miller</t>
   </si>
   <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
     <t>Joe Ross</t>
   </si>
   <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
     <t>Cole Ragans</t>
   </si>
   <si>
     <t>Landon Knack</t>
   </si>
   <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
     <t>Kumar Rocker</t>
   </si>
   <si>
@@ -620,12 +644,6 @@
   </si>
   <si>
     <t>Shota Imanaga</t>
-  </si>
-  <si>
-    <t>Blade Tidwell</t>
-  </si>
-  <si>
-    <t>Tyler Alexander</t>
   </si>
   <si>
     <t>Ryan Feltner</t>
@@ -1001,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>800049</v>
+        <v>642216</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1037,7 +1055,7 @@
         <v>641927</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1045,10 +1063,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>519242</v>
+        <v>676962</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1056,268 +1074,268 @@
         <v>6</v>
       </c>
       <c r="B5">
+        <v>693433</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>593958</v>
       </c>
-      <c r="C5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
       <c r="C6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>664285</v>
+        <v>686799</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>676979</v>
+        <v>669461</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>608566</v>
+        <v>680730</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>686799</v>
+        <v>666157</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>434378</v>
+        <v>571578</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>680736</v>
+        <v>621112</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>663460</v>
+        <v>680885</v>
       </c>
       <c r="C13" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>671106</v>
+        <v>669432</v>
       </c>
       <c r="C14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>622491</v>
+        <v>621111</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>622663</v>
+        <v>681343</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>680730</v>
+        <v>694477</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>666157</v>
+        <v>663568</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>571578</v>
+        <v>677952</v>
       </c>
       <c r="C19" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>621112</v>
+        <v>669467</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>624133</v>
+        <v>596295</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>642232</v>
+        <v>663903</v>
       </c>
       <c r="C22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>671737</v>
+        <v>477132</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>669432</v>
+        <v>669923</v>
       </c>
       <c r="C24" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>663568</v>
+        <v>806185</v>
       </c>
       <c r="C25" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>671096</v>
+        <v>686613</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>663559</v>
+        <v>656427</v>
       </c>
       <c r="C27" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>676962</v>
+        <v>594798</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>694297</v>
-      </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1325,10 +1343,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>693433</v>
+        <v>605488</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1336,10 +1354,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>615698</v>
+        <v>657746</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1347,10 +1365,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>663554</v>
+        <v>669022</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1358,10 +1376,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>605135</v>
+        <v>571510</v>
       </c>
       <c r="C33" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1369,10 +1387,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>701581</v>
+        <v>608331</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1380,10 +1398,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>656849</v>
+        <v>547179</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1391,10 +1409,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>665152</v>
+        <v>601713</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1402,10 +1420,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>683004</v>
+        <v>669358</v>
       </c>
       <c r="C37" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1413,10 +1431,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>666200</v>
+        <v>605513</v>
       </c>
       <c r="C38" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1424,10 +1442,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>676664</v>
+        <v>676440</v>
       </c>
       <c r="C39" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1435,10 +1453,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>543294</v>
+        <v>641302</v>
       </c>
       <c r="C40" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1446,10 +1464,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>669461</v>
+        <v>579328</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1457,10 +1475,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>647336</v>
+        <v>668678</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1468,10 +1486,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>681190</v>
+        <v>554430</v>
       </c>
       <c r="C43" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1479,10 +1497,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>592662</v>
+        <v>608372</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1490,10 +1508,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>607625</v>
+        <v>690928</v>
       </c>
       <c r="C45" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1501,10 +1519,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>677944</v>
+        <v>694918</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1512,10 +1530,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>680885</v>
+        <v>681347</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1523,10 +1541,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>621111</v>
+        <v>694819</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1534,10 +1552,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>701542</v>
+        <v>800311</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1545,10 +1563,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>641793</v>
+        <v>571760</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1556,10 +1574,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>681343</v>
+        <v>607074</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1567,10 +1585,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>694477</v>
+        <v>450203</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1578,10 +1596,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>669422</v>
+        <v>663978</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1589,10 +1607,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>669920</v>
+        <v>605280</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1600,10 +1618,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>657376</v>
+        <v>650911</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1611,10 +1629,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>656302</v>
+        <v>665795</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1622,10 +1640,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>663623</v>
+        <v>607200</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1633,10 +1651,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>667755</v>
+        <v>642547</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1644,10 +1662,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>669302</v>
+        <v>668909</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1655,10 +1673,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>608337</v>
+        <v>592791</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1666,10 +1684,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>686752</v>
+        <v>672456</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1677,10 +1695,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>645261</v>
+        <v>592332</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1688,10 +1706,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>621107</v>
+        <v>657277</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1699,10 +1717,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>676508</v>
+        <v>700241</v>
       </c>
       <c r="C64" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1710,10 +1728,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>687223</v>
+        <v>608379</v>
       </c>
       <c r="C65" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1721,10 +1739,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>690953</v>
+        <v>607259</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1732,10 +1750,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>571760</v>
+        <v>694973</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1743,10 +1761,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>663436</v>
+        <v>669194</v>
       </c>
       <c r="C68" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1754,10 +1772,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>806185</v>
+        <v>680732</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1765,10 +1783,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>592791</v>
+        <v>675911</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1776,10 +1794,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>673540</v>
+        <v>669373</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1787,10 +1805,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>543243</v>
+        <v>592866</v>
       </c>
       <c r="C72" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1798,10 +1816,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>669373</v>
+        <v>542881</v>
       </c>
       <c r="C73" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1809,10 +1827,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>694819</v>
+        <v>808967</v>
       </c>
       <c r="C74" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1820,10 +1838,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>700249</v>
+        <v>801403</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1831,10 +1849,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>607067</v>
+        <v>682052</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1842,10 +1860,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>656550</v>
+        <v>676467</v>
       </c>
       <c r="C77" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1853,10 +1871,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>656288</v>
+        <v>686701</v>
       </c>
       <c r="C78" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1864,10 +1882,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>690986</v>
+        <v>678024</v>
       </c>
       <c r="C79" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1875,10 +1893,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>669022</v>
+        <v>656641</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1886,10 +1904,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>608331</v>
+        <v>800049</v>
       </c>
       <c r="C81" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1897,10 +1915,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>571945</v>
+        <v>519242</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1908,10 +1926,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>656605</v>
+        <v>664285</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1919,10 +1937,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>687765</v>
+        <v>676979</v>
       </c>
       <c r="C84" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1930,10 +1948,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>682990</v>
+        <v>608566</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1941,10 +1959,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>680573</v>
+        <v>434378</v>
       </c>
       <c r="C86" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1952,10 +1970,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>641816</v>
+        <v>680736</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1963,10 +1981,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>688138</v>
+        <v>663460</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1974,10 +1992,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>702070</v>
+        <v>671106</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1985,10 +2003,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>687830</v>
+        <v>622491</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1996,10 +2014,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>650644</v>
+        <v>622663</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2007,10 +2025,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>669467</v>
+        <v>624133</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2018,10 +2036,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>678394</v>
+        <v>642232</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2029,10 +2047,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>676106</v>
+        <v>671737</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2040,10 +2058,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>691587</v>
+        <v>671096</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2051,10 +2069,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>605488</v>
+        <v>663559</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2062,18 +2080,21 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>621244</v>
+        <v>694297</v>
       </c>
       <c r="C97" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
+      <c r="B98">
+        <v>615698</v>
+      </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2081,10 +2102,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>571510</v>
+        <v>663554</v>
       </c>
       <c r="C99" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2092,10 +2113,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>518876</v>
+        <v>605135</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2103,10 +2124,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>601713</v>
+        <v>701581</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2114,10 +2135,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>669358</v>
+        <v>656849</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2125,10 +2146,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>489119</v>
+        <v>665152</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2136,10 +2157,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>579328</v>
+        <v>683004</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2147,10 +2168,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>554430</v>
+        <v>666200</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2158,10 +2179,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>681347</v>
+        <v>676664</v>
       </c>
       <c r="C106" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2169,10 +2190,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>670102</v>
+        <v>543294</v>
       </c>
       <c r="C107" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2180,10 +2201,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>663903</v>
+        <v>647336</v>
       </c>
       <c r="C108" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2191,10 +2212,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>687888</v>
+        <v>681190</v>
       </c>
       <c r="C109" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2202,10 +2223,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>607074</v>
+        <v>592662</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2213,18 +2234,21 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>477132</v>
+        <v>607625</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
+      <c r="B112">
+        <v>677944</v>
+      </c>
       <c r="C112" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2232,10 +2256,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>650911</v>
+        <v>701542</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2243,10 +2267,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>642547</v>
+        <v>641793</v>
       </c>
       <c r="C114" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2254,10 +2278,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669923</v>
+        <v>669422</v>
       </c>
       <c r="C115" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2265,10 +2289,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>656427</v>
+        <v>669920</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2276,10 +2300,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>657746</v>
+        <v>657376</v>
       </c>
       <c r="C117" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2287,10 +2311,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>689017</v>
+        <v>656302</v>
       </c>
       <c r="C118" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2298,10 +2322,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>547179</v>
+        <v>663623</v>
       </c>
       <c r="C119" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2309,10 +2333,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>700241</v>
+        <v>667755</v>
       </c>
       <c r="C120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2320,10 +2344,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>694973</v>
+        <v>669302</v>
       </c>
       <c r="C121" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2331,10 +2355,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>675911</v>
+        <v>608337</v>
       </c>
       <c r="C122" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2342,10 +2366,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>676440</v>
+        <v>686752</v>
       </c>
       <c r="C123" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2353,10 +2377,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>592866</v>
+        <v>645261</v>
       </c>
       <c r="C124" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2364,10 +2388,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>542881</v>
+        <v>621107</v>
       </c>
       <c r="C125" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2375,10 +2399,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>656731</v>
+        <v>676508</v>
       </c>
       <c r="C126" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2386,10 +2410,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>668678</v>
+        <v>687223</v>
       </c>
       <c r="C127" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2397,10 +2421,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>608372</v>
+        <v>690953</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2408,10 +2432,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>801403</v>
+        <v>663436</v>
       </c>
       <c r="C129" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2419,10 +2443,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>690928</v>
+        <v>673540</v>
       </c>
       <c r="C130" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2430,10 +2454,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>682052</v>
+        <v>543243</v>
       </c>
       <c r="C131" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2441,10 +2465,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>690990</v>
+        <v>700249</v>
       </c>
       <c r="C132" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2452,10 +2476,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>686701</v>
+        <v>607067</v>
       </c>
       <c r="C133" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2463,10 +2487,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>678024</v>
+        <v>656550</v>
       </c>
       <c r="C134" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2474,10 +2498,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>676961</v>
+        <v>656288</v>
       </c>
       <c r="C135" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2485,10 +2509,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>605288</v>
+        <v>690986</v>
       </c>
       <c r="C136" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2496,10 +2520,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>693821</v>
+        <v>571945</v>
       </c>
       <c r="C137" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2507,10 +2531,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>450203</v>
+        <v>656605</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2518,10 +2542,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>663978</v>
+        <v>687765</v>
       </c>
       <c r="C139" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2529,10 +2553,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>605280</v>
+        <v>682990</v>
       </c>
       <c r="C140" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2540,10 +2564,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>607200</v>
+        <v>680573</v>
       </c>
       <c r="C141" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2551,10 +2575,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>668909</v>
+        <v>641816</v>
       </c>
       <c r="C142" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2562,10 +2586,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>686613</v>
+        <v>688138</v>
       </c>
       <c r="C143" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2573,10 +2597,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>594798</v>
+        <v>702070</v>
       </c>
       <c r="C144" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2584,10 +2608,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>500779</v>
+        <v>687830</v>
       </c>
       <c r="C145" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2595,10 +2619,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>672456</v>
+        <v>650644</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2606,10 +2630,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>592332</v>
+        <v>678394</v>
       </c>
       <c r="C147" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2617,10 +2641,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>657277</v>
+        <v>676106</v>
       </c>
       <c r="C148" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2628,10 +2652,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>608379</v>
+        <v>691587</v>
       </c>
       <c r="C149" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2639,21 +2663,18 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>607259</v>
+        <v>621244</v>
       </c>
       <c r="C150" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
-      <c r="B151">
-        <v>677960</v>
-      </c>
       <c r="C151" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2661,10 +2682,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>669194</v>
+        <v>518876</v>
       </c>
       <c r="C152" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2672,10 +2693,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>808967</v>
+        <v>489119</v>
       </c>
       <c r="C153" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2683,10 +2704,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>682243</v>
+        <v>670102</v>
       </c>
       <c r="C154" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2694,21 +2715,18 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>665795</v>
+        <v>687888</v>
       </c>
       <c r="C155" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
-      <c r="B156">
-        <v>605452</v>
-      </c>
       <c r="C156" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2716,10 +2734,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>676467</v>
+        <v>689017</v>
       </c>
       <c r="C157" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2727,10 +2745,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>666142</v>
+        <v>656731</v>
       </c>
       <c r="C158" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2738,10 +2756,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>689017</v>
+        <v>690990</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2749,10 +2767,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>680732</v>
+        <v>676961</v>
       </c>
       <c r="C160" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2760,10 +2778,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>677958</v>
+        <v>605288</v>
       </c>
       <c r="C161" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2771,10 +2789,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>607536</v>
+        <v>693821</v>
       </c>
       <c r="C162" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2782,10 +2800,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>664062</v>
+        <v>500779</v>
       </c>
       <c r="C163" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2793,10 +2811,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>805673</v>
+        <v>677960</v>
       </c>
       <c r="C164" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2804,10 +2822,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>687473</v>
+        <v>682243</v>
       </c>
       <c r="C165" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2815,10 +2833,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>676428</v>
+        <v>605452</v>
       </c>
       <c r="C166" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2826,10 +2844,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>668881</v>
+        <v>666142</v>
       </c>
       <c r="C167" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2837,10 +2855,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>674370</v>
+        <v>689017</v>
       </c>
       <c r="C168" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2848,10 +2866,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>641154</v>
+        <v>677958</v>
       </c>
       <c r="C169" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2859,10 +2877,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>686563</v>
+        <v>607536</v>
       </c>
       <c r="C170" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2870,10 +2888,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>676974</v>
+        <v>664062</v>
       </c>
       <c r="C171" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2881,10 +2899,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>690916</v>
+        <v>805673</v>
       </c>
       <c r="C172" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2892,10 +2910,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>669203</v>
+        <v>687473</v>
       </c>
       <c r="C173" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2903,10 +2921,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>680684</v>
+        <v>676428</v>
       </c>
       <c r="C174" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2914,10 +2932,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>592836</v>
+        <v>668881</v>
       </c>
       <c r="C175" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2925,10 +2943,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>700363</v>
+        <v>674370</v>
       </c>
       <c r="C176" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2936,10 +2954,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>663465</v>
+        <v>641154</v>
       </c>
       <c r="C177" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2947,10 +2965,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>685299</v>
+        <v>686563</v>
       </c>
       <c r="C178" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2958,10 +2976,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>695549</v>
+        <v>676974</v>
       </c>
       <c r="C179" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2969,10 +2987,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>663738</v>
+        <v>690916</v>
       </c>
       <c r="C180" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2980,10 +2998,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>543135</v>
+        <v>669203</v>
       </c>
       <c r="C181" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2991,10 +3009,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>701656</v>
+        <v>680684</v>
       </c>
       <c r="C182" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3002,10 +3020,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>650633</v>
+        <v>592836</v>
       </c>
       <c r="C183" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3013,10 +3031,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>694646</v>
+        <v>700363</v>
       </c>
       <c r="C184" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3024,10 +3042,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>669060</v>
+        <v>663465</v>
       </c>
       <c r="C185" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3035,10 +3053,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>669372</v>
+        <v>685299</v>
       </c>
       <c r="C186" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3046,10 +3064,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>669387</v>
+        <v>695549</v>
       </c>
       <c r="C187" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3057,10 +3075,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>502043</v>
+        <v>663738</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3068,10 +3086,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>681857</v>
+        <v>543135</v>
       </c>
       <c r="C189" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3079,10 +3097,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>669854</v>
+        <v>701656</v>
       </c>
       <c r="C190" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3090,10 +3108,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>668964</v>
+        <v>650633</v>
       </c>
       <c r="C191" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3101,10 +3119,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>695534</v>
+        <v>694646</v>
       </c>
       <c r="C192" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3112,10 +3130,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>605400</v>
+        <v>669060</v>
       </c>
       <c r="C193" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3123,10 +3141,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>663855</v>
+        <v>669372</v>
       </c>
       <c r="C194" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3134,10 +3152,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>678368</v>
+        <v>669387</v>
       </c>
       <c r="C195" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3145,10 +3163,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>594902</v>
+        <v>502043</v>
       </c>
       <c r="C196" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3156,10 +3174,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>656557</v>
+        <v>681857</v>
       </c>
       <c r="C197" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3167,10 +3185,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>669713</v>
+        <v>669854</v>
       </c>
       <c r="C198" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3178,10 +3196,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>570632</v>
+        <v>668964</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3189,10 +3207,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>695418</v>
+        <v>695534</v>
       </c>
       <c r="C200" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3200,10 +3218,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>684007</v>
+        <v>605400</v>
       </c>
       <c r="C201" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3211,10 +3229,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>694918</v>
+        <v>663855</v>
       </c>
       <c r="C202" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3222,10 +3240,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>641302</v>
+        <v>678368</v>
       </c>
       <c r="C203" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3233,10 +3251,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>663372</v>
+        <v>594902</v>
       </c>
       <c r="C204" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3244,10 +3262,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>471911</v>
+        <v>656557</v>
       </c>
       <c r="C205" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3255,10 +3273,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>686249</v>
+        <v>669713</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3266,10 +3284,76 @@
         <v>207</v>
       </c>
       <c r="B207">
+        <v>570632</v>
+      </c>
+      <c r="C207" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>695418</v>
+      </c>
+      <c r="C208" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>684007</v>
+      </c>
+      <c r="C209" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>663372</v>
+      </c>
+      <c r="C210" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>471911</v>
+      </c>
+      <c r="C211" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>686249</v>
+      </c>
+      <c r="C212" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
         <v>527048</v>
       </c>
-      <c r="C207" t="s">
-        <v>209</v>
+      <c r="C213" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="222">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,135 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Justin Hagenman</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Jordan Wicks</t>
+  </si>
+  <si>
+    <t>Justin Wrobleski</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
+    <t>Travis Adams</t>
+  </si>
+  <si>
     <t>Allan Winans</t>
   </si>
   <si>
@@ -34,27 +163,6 @@
     <t>Ben Brown</t>
   </si>
   <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Paul Blackburn</t>
   </si>
   <si>
@@ -64,18 +172,9 @@
     <t>Trevor Rogers</t>
   </si>
   <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
     <t>Shane Smith</t>
   </si>
   <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
     <t>Braxton Ashcraft</t>
   </si>
   <si>
@@ -148,18 +247,12 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Hunter Dobbins</t>
   </si>
   <si>
     <t>Blade Tidwell</t>
   </si>
   <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
     <t>Jacob Misiorowski</t>
   </si>
   <si>
@@ -169,15 +262,6 @@
     <t>Andrew Heaney</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
     <t>Clay Holmes</t>
   </si>
   <si>
@@ -205,30 +289,18 @@
     <t>Kevin Gausman</t>
   </si>
   <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
     <t>Michael McGreevy</t>
   </si>
   <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
     <t>Paul Skenes</t>
   </si>
   <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
     <t>Tarik Skubal</t>
   </si>
   <si>
@@ -265,42 +337,18 @@
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
     <t>Garrett Crochet</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
-    <t>Justin Wrobleski</t>
-  </si>
-  <si>
     <t>Kris Bubic</t>
   </si>
   <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
     <t>Ryan Yarbrough</t>
   </si>
   <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
     <t>Andrew Abbott</t>
   </si>
   <si>
@@ -310,42 +358,21 @@
     <t>Brandon Pfaadt</t>
   </si>
   <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
     <t>Chris Bassitt</t>
   </si>
   <si>
     <t>David Festa</t>
   </si>
   <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Jack Leiter</t>
   </si>
   <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
     <t>Robbie Ray</t>
   </si>
   <si>
@@ -415,9 +442,6 @@
     <t>Cade Povich</t>
   </si>
   <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
     <t>Grant Holmes</t>
   </si>
   <si>
@@ -427,9 +451,6 @@
     <t>Kyle Harrison</t>
   </si>
   <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
@@ -548,9 +569,6 @@
   </si>
   <si>
     <t>Pablo López</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
   </si>
   <si>
     <t>Max Meyer</t>
@@ -1019,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C213"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1041,10 +1059,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>642216</v>
+        <v>693433</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1052,10 +1070,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>641927</v>
+        <v>615698</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1063,10 +1081,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>676962</v>
+        <v>450203</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1074,10 +1092,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>693433</v>
+        <v>663978</v>
       </c>
       <c r="C5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1085,10 +1103,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>593958</v>
+        <v>607067</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1096,10 +1114,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>686799</v>
+        <v>656849</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1107,10 +1125,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>669461</v>
+        <v>593958</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1118,10 +1136,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>680730</v>
+        <v>686799</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1129,10 +1147,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>666157</v>
+        <v>686563</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1140,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>571578</v>
+        <v>676664</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1151,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>621112</v>
+        <v>671106</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1162,10 +1180,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>680885</v>
+        <v>573186</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1173,10 +1191,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>669432</v>
+        <v>647336</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1184,10 +1202,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>621111</v>
+        <v>571945</v>
       </c>
       <c r="C15" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1195,10 +1213,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>681343</v>
+        <v>666157</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1206,10 +1224,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>694477</v>
+        <v>571578</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1217,10 +1235,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>663568</v>
+        <v>681190</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1228,10 +1246,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>677952</v>
+        <v>675911</v>
       </c>
       <c r="C19" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1239,10 +1257,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>669467</v>
+        <v>671737</v>
       </c>
       <c r="C20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1250,10 +1268,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>596295</v>
+        <v>621111</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1261,10 +1279,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>663903</v>
+        <v>608372</v>
       </c>
       <c r="C22" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1272,10 +1290,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>477132</v>
+        <v>663795</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1283,10 +1301,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>669923</v>
+        <v>607074</v>
       </c>
       <c r="C24" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1294,10 +1312,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>806185</v>
+        <v>663554</v>
       </c>
       <c r="C25" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1305,37 +1323,37 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>686613</v>
+        <v>665152</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>656427</v>
-      </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>664285</v>
+      </c>
+      <c r="C28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>594798</v>
-      </c>
-      <c r="C28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B29">
+        <v>593423</v>
+      </c>
       <c r="C29" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1343,10 +1361,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>605488</v>
+        <v>608566</v>
       </c>
       <c r="C30" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1354,10 +1372,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>657746</v>
+        <v>696136</v>
       </c>
       <c r="C31" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1365,10 +1383,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>669022</v>
+        <v>680736</v>
       </c>
       <c r="C32" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1376,10 +1394,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>571510</v>
+        <v>657277</v>
       </c>
       <c r="C33" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1387,10 +1405,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>608331</v>
+        <v>622491</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1398,10 +1416,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>547179</v>
+        <v>622663</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1409,10 +1427,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>601713</v>
+        <v>669461</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1420,10 +1438,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>669358</v>
+        <v>453286</v>
       </c>
       <c r="C37" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1431,10 +1449,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>605513</v>
+        <v>608379</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1442,10 +1460,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>676440</v>
+        <v>680730</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1453,10 +1471,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>641302</v>
+        <v>624133</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1464,10 +1482,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>579328</v>
+        <v>669194</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1475,10 +1493,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>668678</v>
+        <v>694477</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1486,10 +1504,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>554430</v>
+        <v>663568</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1497,10 +1515,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>608372</v>
+        <v>681347</v>
       </c>
       <c r="C44" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1508,10 +1526,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>690928</v>
+        <v>701519</v>
       </c>
       <c r="C45" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1519,10 +1537,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>694918</v>
+        <v>642216</v>
       </c>
       <c r="C46" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1530,10 +1548,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>681347</v>
+        <v>641927</v>
       </c>
       <c r="C47" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1541,10 +1559,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>694819</v>
+        <v>676962</v>
       </c>
       <c r="C48" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1552,10 +1570,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>800311</v>
+        <v>621112</v>
       </c>
       <c r="C49" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1563,10 +1581,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>571760</v>
+        <v>680885</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1574,10 +1592,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>607074</v>
+        <v>669432</v>
       </c>
       <c r="C51" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1585,10 +1603,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>450203</v>
+        <v>681343</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1596,10 +1614,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>663978</v>
+        <v>677952</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1607,10 +1625,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>605280</v>
+        <v>669467</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1618,10 +1636,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>650911</v>
+        <v>596295</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1629,10 +1647,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>665795</v>
+        <v>663903</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1640,10 +1658,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>607200</v>
+        <v>477132</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1651,10 +1669,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>642547</v>
+        <v>669923</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1662,10 +1680,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>668909</v>
+        <v>806185</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1673,10 +1691,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>592791</v>
+        <v>686613</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1684,10 +1702,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>672456</v>
+        <v>656427</v>
       </c>
       <c r="C61" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1695,10 +1713,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>592332</v>
+        <v>594798</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1706,10 +1724,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>657277</v>
+        <v>605488</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1717,10 +1735,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>700241</v>
+        <v>657746</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1728,10 +1746,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>608379</v>
+        <v>669022</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1739,10 +1757,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>607259</v>
+        <v>571510</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1750,10 +1768,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>694973</v>
+        <v>608331</v>
       </c>
       <c r="C67" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1761,10 +1779,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>669194</v>
+        <v>547179</v>
       </c>
       <c r="C68" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1772,10 +1790,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>680732</v>
+        <v>601713</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1783,10 +1801,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>675911</v>
+        <v>669358</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1794,10 +1812,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>669373</v>
+        <v>605513</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1805,10 +1823,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>592866</v>
+        <v>676440</v>
       </c>
       <c r="C72" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1816,10 +1834,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>542881</v>
+        <v>641302</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1827,10 +1845,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>808967</v>
+        <v>579328</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1838,10 +1856,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>801403</v>
+        <v>668678</v>
       </c>
       <c r="C75" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1849,10 +1867,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>682052</v>
+        <v>554430</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1860,10 +1878,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>676467</v>
+        <v>690928</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1871,10 +1889,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>686701</v>
+        <v>694918</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1882,10 +1900,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>678024</v>
+        <v>694819</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1893,10 +1911,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>656641</v>
+        <v>800311</v>
       </c>
       <c r="C80" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1904,10 +1922,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>800049</v>
+        <v>571760</v>
       </c>
       <c r="C81" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1915,10 +1933,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>519242</v>
+        <v>605280</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1926,10 +1944,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>664285</v>
+        <v>650911</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1937,10 +1955,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>676979</v>
+        <v>665795</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1948,10 +1966,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>608566</v>
+        <v>607200</v>
       </c>
       <c r="C85" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1959,10 +1977,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>434378</v>
+        <v>642547</v>
       </c>
       <c r="C86" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1970,10 +1988,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>680736</v>
+        <v>668909</v>
       </c>
       <c r="C87" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1981,10 +1999,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>663460</v>
+        <v>592791</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1992,10 +2010,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>671106</v>
+        <v>672456</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2003,10 +2021,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>622491</v>
+        <v>592332</v>
       </c>
       <c r="C90" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2014,10 +2032,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>622663</v>
+        <v>700241</v>
       </c>
       <c r="C91" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2025,10 +2043,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>624133</v>
+        <v>607259</v>
       </c>
       <c r="C92" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2036,10 +2054,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>642232</v>
+        <v>694973</v>
       </c>
       <c r="C93" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2047,10 +2065,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>671737</v>
+        <v>680732</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2058,10 +2076,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>671096</v>
+        <v>669373</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2069,10 +2087,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>663559</v>
+        <v>592866</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2080,10 +2098,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>694297</v>
+        <v>542881</v>
       </c>
       <c r="C97" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2091,10 +2109,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>615698</v>
+        <v>808967</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2102,10 +2120,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>663554</v>
+        <v>801403</v>
       </c>
       <c r="C99" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2113,10 +2131,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>605135</v>
+        <v>682052</v>
       </c>
       <c r="C100" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2124,10 +2142,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>701581</v>
+        <v>676467</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2135,10 +2153,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>656849</v>
+        <v>686701</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2146,10 +2164,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>665152</v>
+        <v>678024</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2157,10 +2175,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>683004</v>
+        <v>656641</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2168,10 +2186,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>666200</v>
+        <v>800049</v>
       </c>
       <c r="C105" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2179,10 +2197,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>676664</v>
+        <v>519242</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2190,10 +2208,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>543294</v>
+        <v>676979</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2201,10 +2219,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>647336</v>
+        <v>434378</v>
       </c>
       <c r="C108" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2212,10 +2230,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>681190</v>
+        <v>663460</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2223,10 +2241,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>592662</v>
+        <v>642232</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2234,10 +2252,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>607625</v>
+        <v>671096</v>
       </c>
       <c r="C111" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2245,10 +2263,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>677944</v>
+        <v>663559</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2256,10 +2274,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>701542</v>
+        <v>694297</v>
       </c>
       <c r="C113" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2267,10 +2285,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>641793</v>
+        <v>605135</v>
       </c>
       <c r="C114" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2278,10 +2296,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669422</v>
+        <v>701581</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2289,10 +2307,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>669920</v>
+        <v>683004</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2300,10 +2318,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>657376</v>
+        <v>666200</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2311,10 +2329,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>656302</v>
+        <v>543294</v>
       </c>
       <c r="C118" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2322,10 +2340,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>663623</v>
+        <v>592662</v>
       </c>
       <c r="C119" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2333,10 +2351,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>667755</v>
+        <v>607625</v>
       </c>
       <c r="C120" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2344,10 +2362,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>669302</v>
+        <v>677944</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2355,10 +2373,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>608337</v>
+        <v>701542</v>
       </c>
       <c r="C122" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2366,10 +2384,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>686752</v>
+        <v>641793</v>
       </c>
       <c r="C123" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2377,10 +2395,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>645261</v>
+        <v>669422</v>
       </c>
       <c r="C124" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2388,10 +2406,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>621107</v>
+        <v>669920</v>
       </c>
       <c r="C125" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2399,10 +2417,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>676508</v>
+        <v>657376</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2410,10 +2428,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>687223</v>
+        <v>656302</v>
       </c>
       <c r="C127" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2421,10 +2439,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>690953</v>
+        <v>663623</v>
       </c>
       <c r="C128" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2432,10 +2450,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>663436</v>
+        <v>667755</v>
       </c>
       <c r="C129" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2443,10 +2461,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>673540</v>
+        <v>669302</v>
       </c>
       <c r="C130" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2454,10 +2472,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>543243</v>
+        <v>608337</v>
       </c>
       <c r="C131" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2465,10 +2483,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>700249</v>
+        <v>686752</v>
       </c>
       <c r="C132" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2476,10 +2494,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>607067</v>
+        <v>645261</v>
       </c>
       <c r="C133" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2487,10 +2505,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>656550</v>
+        <v>621107</v>
       </c>
       <c r="C134" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2498,10 +2516,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>656288</v>
+        <v>676508</v>
       </c>
       <c r="C135" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2509,10 +2527,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>690986</v>
+        <v>687223</v>
       </c>
       <c r="C136" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2520,10 +2538,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>571945</v>
+        <v>690953</v>
       </c>
       <c r="C137" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2531,10 +2549,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>656605</v>
+        <v>663436</v>
       </c>
       <c r="C138" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2542,10 +2560,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>687765</v>
+        <v>673540</v>
       </c>
       <c r="C139" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2553,10 +2571,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>682990</v>
+        <v>543243</v>
       </c>
       <c r="C140" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2564,10 +2582,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>680573</v>
+        <v>700249</v>
       </c>
       <c r="C141" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2575,10 +2593,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>641816</v>
+        <v>656550</v>
       </c>
       <c r="C142" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2586,10 +2604,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>688138</v>
+        <v>656288</v>
       </c>
       <c r="C143" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2597,10 +2615,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>702070</v>
+        <v>690986</v>
       </c>
       <c r="C144" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2608,10 +2626,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>687830</v>
+        <v>656605</v>
       </c>
       <c r="C145" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2619,10 +2637,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>650644</v>
+        <v>687765</v>
       </c>
       <c r="C146" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2630,10 +2648,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>678394</v>
+        <v>682990</v>
       </c>
       <c r="C147" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2641,10 +2659,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>676106</v>
+        <v>680573</v>
       </c>
       <c r="C148" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2652,10 +2670,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>691587</v>
+        <v>641816</v>
       </c>
       <c r="C149" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2663,18 +2681,21 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>621244</v>
+        <v>688138</v>
       </c>
       <c r="C150" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>151</v>
       </c>
+      <c r="B151">
+        <v>702070</v>
+      </c>
       <c r="C151" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2682,10 +2703,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>518876</v>
+        <v>687830</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2693,10 +2714,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>489119</v>
+        <v>650644</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2704,10 +2725,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>670102</v>
+        <v>678394</v>
       </c>
       <c r="C154" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2715,18 +2736,21 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>687888</v>
+        <v>676106</v>
       </c>
       <c r="C155" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>156</v>
       </c>
+      <c r="B156">
+        <v>691587</v>
+      </c>
       <c r="C156" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2734,21 +2758,18 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>689017</v>
+        <v>621244</v>
       </c>
       <c r="C157" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
-      <c r="B158">
-        <v>656731</v>
-      </c>
       <c r="C158" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2756,10 +2777,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>690990</v>
+        <v>518876</v>
       </c>
       <c r="C159" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2767,10 +2788,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>676961</v>
+        <v>489119</v>
       </c>
       <c r="C160" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2778,10 +2799,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>605288</v>
+        <v>670102</v>
       </c>
       <c r="C161" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2789,21 +2810,18 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>693821</v>
+        <v>687888</v>
       </c>
       <c r="C162" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
-      <c r="B163">
-        <v>500779</v>
-      </c>
       <c r="C163" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2811,10 +2829,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>677960</v>
+        <v>689017</v>
       </c>
       <c r="C164" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2822,10 +2840,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>682243</v>
+        <v>656731</v>
       </c>
       <c r="C165" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2833,10 +2851,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>605452</v>
+        <v>690990</v>
       </c>
       <c r="C166" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2844,10 +2862,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>666142</v>
+        <v>676961</v>
       </c>
       <c r="C167" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2855,10 +2873,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>689017</v>
+        <v>605288</v>
       </c>
       <c r="C168" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2866,10 +2884,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>677958</v>
+        <v>693821</v>
       </c>
       <c r="C169" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2877,10 +2895,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>607536</v>
+        <v>500779</v>
       </c>
       <c r="C170" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2888,10 +2906,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>664062</v>
+        <v>677960</v>
       </c>
       <c r="C171" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2899,10 +2917,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>805673</v>
+        <v>682243</v>
       </c>
       <c r="C172" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2910,10 +2928,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>687473</v>
+        <v>605452</v>
       </c>
       <c r="C173" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2921,10 +2939,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>676428</v>
+        <v>666142</v>
       </c>
       <c r="C174" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2932,10 +2950,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>668881</v>
+        <v>689017</v>
       </c>
       <c r="C175" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2943,10 +2961,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>674370</v>
+        <v>677958</v>
       </c>
       <c r="C176" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2954,10 +2972,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>641154</v>
+        <v>607536</v>
       </c>
       <c r="C177" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2965,10 +2983,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>686563</v>
+        <v>664062</v>
       </c>
       <c r="C178" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2976,10 +2994,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>676974</v>
+        <v>805673</v>
       </c>
       <c r="C179" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2987,10 +3005,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>690916</v>
+        <v>687473</v>
       </c>
       <c r="C180" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2998,10 +3016,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>669203</v>
+        <v>676428</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3009,10 +3027,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>680684</v>
+        <v>668881</v>
       </c>
       <c r="C182" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3020,10 +3038,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>592836</v>
+        <v>674370</v>
       </c>
       <c r="C183" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3031,10 +3049,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>700363</v>
+        <v>641154</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3042,10 +3060,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>663465</v>
+        <v>676974</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3053,10 +3071,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>685299</v>
+        <v>690916</v>
       </c>
       <c r="C186" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3064,10 +3082,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>695549</v>
+        <v>669203</v>
       </c>
       <c r="C187" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3075,10 +3093,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>663738</v>
+        <v>680684</v>
       </c>
       <c r="C188" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3086,10 +3104,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>543135</v>
+        <v>592836</v>
       </c>
       <c r="C189" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3097,10 +3115,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>701656</v>
+        <v>700363</v>
       </c>
       <c r="C190" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3108,10 +3126,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>650633</v>
+        <v>663465</v>
       </c>
       <c r="C191" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3119,10 +3137,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>694646</v>
+        <v>685299</v>
       </c>
       <c r="C192" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3130,10 +3148,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>669060</v>
+        <v>695549</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3141,10 +3159,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>669372</v>
+        <v>663738</v>
       </c>
       <c r="C194" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3152,10 +3170,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>669387</v>
+        <v>543135</v>
       </c>
       <c r="C195" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3163,10 +3181,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>502043</v>
+        <v>701656</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3174,10 +3192,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>681857</v>
+        <v>650633</v>
       </c>
       <c r="C197" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3185,10 +3203,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>669854</v>
+        <v>694646</v>
       </c>
       <c r="C198" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3196,10 +3214,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>668964</v>
+        <v>669060</v>
       </c>
       <c r="C199" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3207,10 +3225,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>695534</v>
+        <v>669372</v>
       </c>
       <c r="C200" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3218,10 +3236,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>605400</v>
+        <v>669387</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3229,10 +3247,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>663855</v>
+        <v>502043</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3240,10 +3258,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>678368</v>
+        <v>681857</v>
       </c>
       <c r="C203" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3251,10 +3269,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>594902</v>
+        <v>669854</v>
       </c>
       <c r="C204" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3262,10 +3280,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>656557</v>
+        <v>668964</v>
       </c>
       <c r="C205" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3273,10 +3291,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>669713</v>
+        <v>695534</v>
       </c>
       <c r="C206" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3284,10 +3302,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>570632</v>
+        <v>605400</v>
       </c>
       <c r="C207" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3295,10 +3313,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>695418</v>
+        <v>663855</v>
       </c>
       <c r="C208" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3306,10 +3324,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>684007</v>
+        <v>678368</v>
       </c>
       <c r="C209" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3317,10 +3335,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>663372</v>
+        <v>594902</v>
       </c>
       <c r="C210" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3328,10 +3346,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>471911</v>
+        <v>656557</v>
       </c>
       <c r="C211" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3339,10 +3357,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>686249</v>
+        <v>669713</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3350,10 +3368,76 @@
         <v>213</v>
       </c>
       <c r="B213">
+        <v>570632</v>
+      </c>
+      <c r="C213" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>695418</v>
+      </c>
+      <c r="C214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>684007</v>
+      </c>
+      <c r="C215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>663372</v>
+      </c>
+      <c r="C216" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>471911</v>
+      </c>
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>686249</v>
+      </c>
+      <c r="C218" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
         <v>527048</v>
       </c>
-      <c r="C213" t="s">
-        <v>215</v>
+      <c r="C219" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,96 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Davis Daniel</t>
+  </si>
+  <si>
+    <t>Eury Perez</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Joey Cantillo</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Shota Imanaga</t>
+  </si>
+  <si>
+    <t>Simeon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Brandon Young</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
     <t>Bryan Woo</t>
   </si>
   <si>
@@ -181,9 +271,6 @@
     <t>Andre Pallante</t>
   </si>
   <si>
-    <t>Austin Gomber</t>
-  </si>
-  <si>
     <t>Brady Singer</t>
   </si>
   <si>
@@ -196,18 +283,9 @@
     <t>Hayden Birdsong</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>Joe Ryan</t>
   </si>
   <si>
@@ -223,9 +301,6 @@
     <t>Michael Lorenzen</t>
   </si>
   <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
     <t>Shane Baz</t>
   </si>
   <si>
@@ -265,18 +340,12 @@
     <t>Clay Holmes</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
     <t>Erick Fedde</t>
   </si>
   <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
     <t>Gavin Williams</t>
   </si>
   <si>
@@ -292,9 +361,6 @@
     <t>Michael McGreevy</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
     <t>Paul Skenes</t>
   </si>
   <si>
@@ -310,9 +376,6 @@
     <t>Tyler Anderson</t>
   </si>
   <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
     <t>Chase Dollander</t>
   </si>
   <si>
@@ -373,18 +436,12 @@
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
     <t>Seth Lugo</t>
   </si>
   <si>
     <t>Slade Cecconi</t>
   </si>
   <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Zack Littell</t>
   </si>
   <si>
@@ -400,21 +457,9 @@
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
-    <t>Logan Gilbert</t>
-  </si>
-  <si>
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Sandy Alcantara</t>
   </si>
   <si>
@@ -436,9 +481,6 @@
     <t>Kodai Senga</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
@@ -451,51 +493,27 @@
     <t>Kyle Harrison</t>
   </si>
   <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
     <t>Mitch Spence</t>
   </si>
   <si>
     <t>Quinn Priester</t>
   </si>
   <si>
-    <t>Simeon Woods Richardson</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
     <t>Logan Evans</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
     <t>Sawyer Gipson-Long</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
     <t>Emerson Hancock</t>
   </si>
   <si>
-    <t>Eury Perez</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
     <t>Luis Ortiz</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Wade Miley</t>
   </si>
   <si>
@@ -601,9 +619,6 @@
     <t>Daniel Lynch</t>
   </si>
   <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
     <t>Logan Henderson</t>
   </si>
   <si>
@@ -659,9 +674,6 @@
   </si>
   <si>
     <t>Brad Lord</t>
-  </si>
-  <si>
-    <t>Shota Imanaga</t>
   </si>
   <si>
     <t>Ryan Feltner</t>
@@ -1037,7 +1049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,10 +1071,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>693433</v>
+        <v>650644</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1070,10 +1082,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>615698</v>
+        <v>596295</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1081,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>450203</v>
+        <v>678394</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1092,10 +1104,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>663978</v>
+        <v>650911</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1103,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>607067</v>
+        <v>669721</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1114,10 +1126,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>656849</v>
+        <v>691587</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1125,10 +1137,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>593958</v>
+        <v>642547</v>
       </c>
       <c r="C8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1136,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>686799</v>
+        <v>686613</v>
       </c>
       <c r="C9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1147,10 +1159,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>686563</v>
+        <v>656427</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1158,10 +1170,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>676664</v>
+        <v>663623</v>
       </c>
       <c r="C11" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1169,10 +1181,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>671106</v>
+        <v>605488</v>
       </c>
       <c r="C12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1180,10 +1192,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>573186</v>
+        <v>676282</v>
       </c>
       <c r="C13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1191,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>647336</v>
+        <v>621244</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1202,10 +1214,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>571945</v>
+        <v>667755</v>
       </c>
       <c r="C15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1213,10 +1225,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>666157</v>
+        <v>669302</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1224,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>571578</v>
+        <v>518876</v>
       </c>
       <c r="C17" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1235,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>681190</v>
+        <v>656605</v>
       </c>
       <c r="C18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1246,10 +1258,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>675911</v>
+        <v>543135</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1257,10 +1269,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>671737</v>
+        <v>607259</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1268,10 +1280,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>621111</v>
+        <v>601713</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1279,10 +1291,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>608372</v>
+        <v>592662</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1290,10 +1302,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>663795</v>
+        <v>686752</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1301,10 +1313,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>607074</v>
+        <v>640455</v>
       </c>
       <c r="C24" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1312,10 +1324,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>663554</v>
+        <v>684007</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1323,345 +1335,345 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>665152</v>
+        <v>680573</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>543243</v>
+      </c>
       <c r="C27" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>664285</v>
+        <v>701542</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>593423</v>
+        <v>808967</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>608566</v>
+        <v>687064</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>696136</v>
+        <v>702070</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>680736</v>
+        <v>693433</v>
       </c>
       <c r="C32" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>657277</v>
+        <v>615698</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>622491</v>
+        <v>450203</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>622663</v>
+        <v>663978</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>669461</v>
+        <v>607067</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>453286</v>
+        <v>656849</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>608379</v>
+        <v>593958</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>680730</v>
+        <v>686799</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>624133</v>
+        <v>686563</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>669194</v>
+        <v>676664</v>
       </c>
       <c r="C41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>694477</v>
+        <v>671106</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>663568</v>
+        <v>573186</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>681347</v>
+        <v>647336</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>701519</v>
+        <v>571945</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>642216</v>
+        <v>666157</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>641927</v>
+        <v>571578</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>676962</v>
+        <v>681190</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>621112</v>
+        <v>675911</v>
       </c>
       <c r="C49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>680885</v>
+        <v>671737</v>
       </c>
       <c r="C50" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>669432</v>
+        <v>621111</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
-        <v>681343</v>
+        <v>608372</v>
       </c>
       <c r="C52" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>677952</v>
+        <v>663795</v>
       </c>
       <c r="C53" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>669467</v>
+        <v>607074</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>596295</v>
+        <v>663554</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>663903</v>
+        <v>665152</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57">
-        <v>477132</v>
-      </c>
       <c r="C57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1669,10 +1681,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>669923</v>
+        <v>664285</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1680,10 +1692,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>806185</v>
+        <v>593423</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1691,10 +1703,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>686613</v>
+        <v>608566</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1702,10 +1714,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>656427</v>
+        <v>696136</v>
       </c>
       <c r="C61" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1713,10 +1725,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>594798</v>
+        <v>680736</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1724,10 +1736,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>605488</v>
+        <v>657277</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1735,10 +1747,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>657746</v>
+        <v>622491</v>
       </c>
       <c r="C64" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1746,10 +1758,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>669022</v>
+        <v>622663</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1757,10 +1769,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>571510</v>
+        <v>669461</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1768,10 +1780,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>608331</v>
+        <v>453286</v>
       </c>
       <c r="C67" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1779,10 +1791,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>547179</v>
+        <v>608379</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1790,10 +1802,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>601713</v>
+        <v>680730</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1801,10 +1813,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>669358</v>
+        <v>624133</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1812,10 +1824,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>605513</v>
+        <v>669194</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1823,10 +1835,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>676440</v>
+        <v>694477</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1834,10 +1846,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>641302</v>
+        <v>663568</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1845,10 +1857,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>579328</v>
+        <v>681347</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1856,10 +1868,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>668678</v>
+        <v>701519</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1867,10 +1879,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>554430</v>
+        <v>642216</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1878,10 +1890,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>690928</v>
+        <v>641927</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1889,10 +1901,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>694918</v>
+        <v>676962</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1900,10 +1912,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>694819</v>
+        <v>621112</v>
       </c>
       <c r="C79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1911,10 +1923,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>800311</v>
+        <v>680885</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1922,10 +1934,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>571760</v>
+        <v>669432</v>
       </c>
       <c r="C81" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1933,10 +1945,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>605280</v>
+        <v>681343</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1944,10 +1956,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>650911</v>
+        <v>677952</v>
       </c>
       <c r="C83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1955,10 +1967,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>665795</v>
+        <v>669467</v>
       </c>
       <c r="C84" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1966,10 +1978,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>607200</v>
+        <v>663903</v>
       </c>
       <c r="C85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1977,10 +1989,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>642547</v>
+        <v>477132</v>
       </c>
       <c r="C86" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1988,10 +2000,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>668909</v>
+        <v>669923</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1999,10 +2011,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>592791</v>
+        <v>806185</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2010,10 +2022,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>672456</v>
+        <v>594798</v>
       </c>
       <c r="C89" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2021,10 +2033,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>592332</v>
+        <v>657746</v>
       </c>
       <c r="C90" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2032,10 +2044,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>700241</v>
+        <v>669022</v>
       </c>
       <c r="C91" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2043,10 +2055,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>607259</v>
+        <v>571510</v>
       </c>
       <c r="C92" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2054,10 +2066,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>694973</v>
+        <v>608331</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2065,10 +2077,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>680732</v>
+        <v>547179</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2076,10 +2088,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>669373</v>
+        <v>669358</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2087,10 +2099,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>592866</v>
+        <v>605513</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2098,10 +2110,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>542881</v>
+        <v>676440</v>
       </c>
       <c r="C97" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2109,10 +2121,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>808967</v>
+        <v>641302</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2120,10 +2132,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>801403</v>
+        <v>579328</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2131,10 +2143,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>682052</v>
+        <v>668678</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2142,10 +2154,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>676467</v>
+        <v>554430</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2153,10 +2165,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>686701</v>
+        <v>690928</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2164,10 +2176,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>678024</v>
+        <v>694918</v>
       </c>
       <c r="C103" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2175,10 +2187,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>656641</v>
+        <v>694819</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2186,10 +2198,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>800049</v>
+        <v>800311</v>
       </c>
       <c r="C105" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2197,10 +2209,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>519242</v>
+        <v>571760</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2208,10 +2220,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>676979</v>
+        <v>605280</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2219,10 +2231,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>434378</v>
+        <v>665795</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2230,10 +2242,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>663460</v>
+        <v>607200</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2241,10 +2253,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>642232</v>
+        <v>668909</v>
       </c>
       <c r="C110" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2252,10 +2264,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>671096</v>
+        <v>592791</v>
       </c>
       <c r="C111" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2263,10 +2275,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>663559</v>
+        <v>672456</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2274,10 +2286,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>694297</v>
+        <v>592332</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2285,10 +2297,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>605135</v>
+        <v>700241</v>
       </c>
       <c r="C114" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2296,10 +2308,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>701581</v>
+        <v>694973</v>
       </c>
       <c r="C115" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2307,10 +2319,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>683004</v>
+        <v>680732</v>
       </c>
       <c r="C116" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2318,10 +2330,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>666200</v>
+        <v>669373</v>
       </c>
       <c r="C117" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2329,10 +2341,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>543294</v>
+        <v>592866</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2340,10 +2352,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>592662</v>
+        <v>542881</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2351,10 +2363,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>607625</v>
+        <v>801403</v>
       </c>
       <c r="C120" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2362,10 +2374,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>677944</v>
+        <v>682052</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2373,10 +2385,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>701542</v>
+        <v>676467</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2384,10 +2396,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>641793</v>
+        <v>686701</v>
       </c>
       <c r="C123" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2395,10 +2407,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>669422</v>
+        <v>678024</v>
       </c>
       <c r="C124" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2406,10 +2418,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>669920</v>
+        <v>656641</v>
       </c>
       <c r="C125" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2417,10 +2429,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>657376</v>
+        <v>800049</v>
       </c>
       <c r="C126" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2428,10 +2440,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>656302</v>
+        <v>519242</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2439,10 +2451,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>663623</v>
+        <v>676979</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2450,10 +2462,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>667755</v>
+        <v>434378</v>
       </c>
       <c r="C129" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2461,10 +2473,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>669302</v>
+        <v>663460</v>
       </c>
       <c r="C130" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2472,10 +2484,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>608337</v>
+        <v>642232</v>
       </c>
       <c r="C131" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2483,10 +2495,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>686752</v>
+        <v>671096</v>
       </c>
       <c r="C132" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2494,10 +2506,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>645261</v>
+        <v>663559</v>
       </c>
       <c r="C133" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2505,10 +2517,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>621107</v>
+        <v>694297</v>
       </c>
       <c r="C134" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2516,10 +2528,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>676508</v>
+        <v>605135</v>
       </c>
       <c r="C135" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2527,10 +2539,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>687223</v>
+        <v>701581</v>
       </c>
       <c r="C136" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2538,10 +2550,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>690953</v>
+        <v>683004</v>
       </c>
       <c r="C137" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2549,10 +2561,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>663436</v>
+        <v>666200</v>
       </c>
       <c r="C138" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2560,10 +2572,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>673540</v>
+        <v>543294</v>
       </c>
       <c r="C139" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2571,10 +2583,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>543243</v>
+        <v>607625</v>
       </c>
       <c r="C140" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2582,10 +2594,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>700249</v>
+        <v>677944</v>
       </c>
       <c r="C141" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2593,10 +2605,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>656550</v>
+        <v>641793</v>
       </c>
       <c r="C142" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2604,10 +2616,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>656288</v>
+        <v>669422</v>
       </c>
       <c r="C143" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2615,10 +2627,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>690986</v>
+        <v>669920</v>
       </c>
       <c r="C144" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2626,10 +2638,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>656605</v>
+        <v>657376</v>
       </c>
       <c r="C145" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2637,10 +2649,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>687765</v>
+        <v>656302</v>
       </c>
       <c r="C146" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2648,10 +2660,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>682990</v>
+        <v>608337</v>
       </c>
       <c r="C147" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2659,10 +2671,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>680573</v>
+        <v>645261</v>
       </c>
       <c r="C148" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2670,10 +2682,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>641816</v>
+        <v>621107</v>
       </c>
       <c r="C149" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2681,10 +2693,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>688138</v>
+        <v>676508</v>
       </c>
       <c r="C150" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2692,10 +2704,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>702070</v>
+        <v>687223</v>
       </c>
       <c r="C151" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2703,10 +2715,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>687830</v>
+        <v>690953</v>
       </c>
       <c r="C152" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2714,10 +2726,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>650644</v>
+        <v>663436</v>
       </c>
       <c r="C153" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2725,10 +2737,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>678394</v>
+        <v>673540</v>
       </c>
       <c r="C154" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2736,10 +2748,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>676106</v>
+        <v>700249</v>
       </c>
       <c r="C155" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2747,10 +2759,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>691587</v>
+        <v>656550</v>
       </c>
       <c r="C156" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2758,18 +2770,21 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>621244</v>
+        <v>656288</v>
       </c>
       <c r="C157" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>158</v>
       </c>
+      <c r="B158">
+        <v>690986</v>
+      </c>
       <c r="C158" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2777,10 +2792,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>518876</v>
+        <v>687765</v>
       </c>
       <c r="C159" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2788,10 +2803,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>489119</v>
+        <v>682990</v>
       </c>
       <c r="C160" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2799,10 +2814,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>670102</v>
+        <v>641816</v>
       </c>
       <c r="C161" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2810,18 +2825,21 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>687888</v>
+        <v>688138</v>
       </c>
       <c r="C162" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>163</v>
       </c>
+      <c r="B163">
+        <v>687830</v>
+      </c>
       <c r="C163" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2829,21 +2847,18 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>689017</v>
+        <v>676106</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
-      <c r="B165">
-        <v>656731</v>
-      </c>
       <c r="C165" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2851,10 +2866,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>690990</v>
+        <v>489119</v>
       </c>
       <c r="C166" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2862,10 +2877,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>676961</v>
+        <v>670102</v>
       </c>
       <c r="C167" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2873,21 +2888,18 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>605288</v>
+        <v>687888</v>
       </c>
       <c r="C168" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
-      <c r="B169">
-        <v>693821</v>
-      </c>
       <c r="C169" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2895,10 +2907,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>500779</v>
+        <v>689017</v>
       </c>
       <c r="C170" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2906,10 +2918,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>677960</v>
+        <v>656731</v>
       </c>
       <c r="C171" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2917,10 +2929,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>682243</v>
+        <v>690990</v>
       </c>
       <c r="C172" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2928,10 +2940,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>605452</v>
+        <v>676961</v>
       </c>
       <c r="C173" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2939,10 +2951,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>666142</v>
+        <v>605288</v>
       </c>
       <c r="C174" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2950,10 +2962,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>689017</v>
+        <v>693821</v>
       </c>
       <c r="C175" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2961,10 +2973,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>677958</v>
+        <v>500779</v>
       </c>
       <c r="C176" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2972,10 +2984,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>607536</v>
+        <v>677960</v>
       </c>
       <c r="C177" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2983,10 +2995,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>664062</v>
+        <v>682243</v>
       </c>
       <c r="C178" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2994,10 +3006,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>805673</v>
+        <v>605452</v>
       </c>
       <c r="C179" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3005,10 +3017,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>687473</v>
+        <v>666142</v>
       </c>
       <c r="C180" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3016,10 +3028,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>676428</v>
+        <v>689017</v>
       </c>
       <c r="C181" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3027,10 +3039,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>668881</v>
+        <v>677958</v>
       </c>
       <c r="C182" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3038,10 +3050,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>674370</v>
+        <v>607536</v>
       </c>
       <c r="C183" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3049,10 +3061,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>641154</v>
+        <v>664062</v>
       </c>
       <c r="C184" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3060,10 +3072,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>676974</v>
+        <v>805673</v>
       </c>
       <c r="C185" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3071,10 +3083,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>690916</v>
+        <v>687473</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3082,10 +3094,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>669203</v>
+        <v>676428</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3093,10 +3105,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>680684</v>
+        <v>668881</v>
       </c>
       <c r="C188" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3104,10 +3116,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>592836</v>
+        <v>674370</v>
       </c>
       <c r="C189" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3115,10 +3127,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>700363</v>
+        <v>641154</v>
       </c>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3126,10 +3138,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>663465</v>
+        <v>676974</v>
       </c>
       <c r="C191" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3137,10 +3149,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>685299</v>
+        <v>690916</v>
       </c>
       <c r="C192" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3148,10 +3160,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>695549</v>
+        <v>669203</v>
       </c>
       <c r="C193" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3159,10 +3171,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>663738</v>
+        <v>680684</v>
       </c>
       <c r="C194" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3170,10 +3182,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>543135</v>
+        <v>592836</v>
       </c>
       <c r="C195" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3181,10 +3193,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>701656</v>
+        <v>700363</v>
       </c>
       <c r="C196" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3192,10 +3204,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>650633</v>
+        <v>663465</v>
       </c>
       <c r="C197" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3203,10 +3215,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>694646</v>
+        <v>685299</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3214,10 +3226,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>669060</v>
+        <v>695549</v>
       </c>
       <c r="C199" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3225,10 +3237,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>669372</v>
+        <v>663738</v>
       </c>
       <c r="C200" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3236,10 +3248,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>669387</v>
+        <v>701656</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3247,10 +3259,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>502043</v>
+        <v>650633</v>
       </c>
       <c r="C202" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3258,10 +3270,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>681857</v>
+        <v>694646</v>
       </c>
       <c r="C203" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3269,10 +3281,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>669854</v>
+        <v>669060</v>
       </c>
       <c r="C204" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3280,10 +3292,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>668964</v>
+        <v>669372</v>
       </c>
       <c r="C205" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3291,10 +3303,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>695534</v>
+        <v>669387</v>
       </c>
       <c r="C206" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3302,10 +3314,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>605400</v>
+        <v>502043</v>
       </c>
       <c r="C207" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3313,10 +3325,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>663855</v>
+        <v>681857</v>
       </c>
       <c r="C208" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3324,10 +3336,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>678368</v>
+        <v>669854</v>
       </c>
       <c r="C209" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3335,10 +3347,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>594902</v>
+        <v>668964</v>
       </c>
       <c r="C210" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3346,10 +3358,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>656557</v>
+        <v>695534</v>
       </c>
       <c r="C211" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3357,10 +3369,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>669713</v>
+        <v>605400</v>
       </c>
       <c r="C212" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3368,10 +3380,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>570632</v>
+        <v>663855</v>
       </c>
       <c r="C213" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3379,10 +3391,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>695418</v>
+        <v>678368</v>
       </c>
       <c r="C214" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3390,10 +3402,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>684007</v>
+        <v>594902</v>
       </c>
       <c r="C215" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3401,10 +3413,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>663372</v>
+        <v>656557</v>
       </c>
       <c r="C216" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3412,10 +3424,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>471911</v>
+        <v>669713</v>
       </c>
       <c r="C217" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3423,10 +3435,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>686249</v>
+        <v>570632</v>
       </c>
       <c r="C218" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3434,10 +3446,54 @@
         <v>219</v>
       </c>
       <c r="B219">
+        <v>695418</v>
+      </c>
+      <c r="C219" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>663372</v>
+      </c>
+      <c r="C220" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>471911</v>
+      </c>
+      <c r="C221" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>686249</v>
+      </c>
+      <c r="C222" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
         <v>527048</v>
       </c>
-      <c r="C219" t="s">
-        <v>221</v>
+      <c r="C223" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="231">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,15 +25,180 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Cal Quantrill</t>
+  </si>
+  <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Emmet Sheehan</t>
+  </si>
+  <si>
+    <t>Freddy Peralta</t>
+  </si>
+  <si>
+    <t>Joey Wentz</t>
+  </si>
+  <si>
+    <t>Keider Montero</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Ryne Nelson</t>
+  </si>
+  <si>
+    <t>Shota Imanaga</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Taijuan Walker</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Zack Littell</t>
+  </si>
+  <si>
+    <t>Zebby Matthews</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Mike Burrows</t>
+  </si>
+  <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Brandon Walter</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Kyle Freeland</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Reese Olson</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Taj Bradley</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Ryan Zeferjahn</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
     <t>Austin Gomber</t>
   </si>
   <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
     <t>Cristopher Sánchez</t>
   </si>
   <si>
@@ -43,9 +208,6 @@
     <t>Eury Perez</t>
   </si>
   <si>
-    <t>Freddy Peralta</t>
-  </si>
-  <si>
     <t>Hunter Brown</t>
   </si>
   <si>
@@ -79,9 +241,6 @@
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
@@ -91,21 +250,9 @@
     <t>Ryan Pepiot</t>
   </si>
   <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Shota Imanaga</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
     <t>Yoshinobu Yamamoto</t>
   </si>
   <si>
@@ -118,18 +265,6 @@
     <t>Bryan Woo</t>
   </si>
   <si>
-    <t>Cal Quantrill</t>
-  </si>
-  <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
     <t>David Peterson</t>
   </si>
   <si>
@@ -139,39 +274,15 @@
     <t>Jack Kochanowicz</t>
   </si>
   <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
     <t>Marcus Stroman</t>
   </si>
   <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
     <t>Randy Vásquez</t>
   </si>
   <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
-    <t>Taj Bradley</t>
-  </si>
-  <si>
     <t>Walker Buehler</t>
   </si>
   <si>
@@ -187,9 +298,6 @@
     <t>Casey Mize</t>
   </si>
   <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Framber Valdez</t>
   </si>
   <si>
@@ -205,42 +313,21 @@
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Matthew Liberatore</t>
   </si>
   <si>
     <t>Max Scherzer</t>
   </si>
   <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Ranger Suárez</t>
   </si>
   <si>
-    <t>Ryne Nelson</t>
-  </si>
-  <si>
     <t>Chad Patrick</t>
   </si>
   <si>
     <t>Stephen Kolek</t>
   </si>
   <si>
-    <t>Mike Burrows</t>
-  </si>
-  <si>
     <t>Travis Adams</t>
   </si>
   <si>
@@ -268,9 +355,6 @@
     <t>Braxton Ashcraft</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
     <t>Brady Singer</t>
   </si>
   <si>
@@ -313,9 +397,6 @@
     <t>Tyler Alexander</t>
   </si>
   <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
@@ -337,9 +418,6 @@
     <t>Andrew Heaney</t>
   </si>
   <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
@@ -352,9 +430,6 @@
     <t>Jameson Taillon</t>
   </si>
   <si>
-    <t>Keider Montero</t>
-  </si>
-  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
@@ -403,9 +478,6 @@
     <t>Garrett Crochet</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Kris Bubic</t>
   </si>
   <si>
@@ -415,36 +487,15 @@
     <t>Andrew Abbott</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
     <t>Jack Leiter</t>
   </si>
   <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
-    <t>Zack Littell</t>
-  </si>
-  <si>
     <t>Matt Sauer</t>
   </si>
   <si>
@@ -454,15 +505,6 @@
     <t>Clarke Schmidt</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
     <t>Zach Eflin</t>
   </si>
   <si>
@@ -496,15 +538,9 @@
     <t>Mitch Spence</t>
   </si>
   <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
     <t>Tyler Mahle</t>
   </si>
   <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
     <t>Sawyer Gipson-Long</t>
   </si>
   <si>
@@ -520,9 +556,6 @@
     <t>Bowden Francis</t>
   </si>
   <si>
-    <t>Brandon Walter</t>
-  </si>
-  <si>
     <t>Connor Gillispie</t>
   </si>
   <si>
@@ -538,9 +571,6 @@
     <t>Caleb Boushley</t>
   </si>
   <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
@@ -562,18 +592,9 @@
     <t>Landon Knack</t>
   </si>
   <si>
-    <t>Kumar Rocker</t>
-  </si>
-  <si>
-    <t>Kyle Freeland</t>
-  </si>
-  <si>
     <t>Tony Gonsolin</t>
   </si>
   <si>
-    <t>Zebby Matthews</t>
-  </si>
-  <si>
     <t>Ryan Gusto</t>
   </si>
   <si>
@@ -601,9 +622,6 @@
     <t>Gunnar Hoglund</t>
   </si>
   <si>
-    <t>Taijuan Walker</t>
-  </si>
-  <si>
     <t>AJ Smith-Shawver</t>
   </si>
   <si>
@@ -638,9 +656,6 @@
   </si>
   <si>
     <t>Kyle Gibson</t>
-  </si>
-  <si>
-    <t>Reese Olson</t>
   </si>
   <si>
     <t>Ronel Blanco</t>
@@ -1049,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1071,609 +1086,606 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>650644</v>
+        <v>605288</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>596295</v>
-      </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>678394</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>650911</v>
+        <v>615698</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>669721</v>
+        <v>605280</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>691587</v>
+        <v>665152</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>642547</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>686613</v>
+        <v>642547</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>656427</v>
+        <v>666214</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>663623</v>
+        <v>672456</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>605488</v>
+        <v>677958</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>676282</v>
+        <v>671106</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>621244</v>
+        <v>657277</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>667755</v>
+        <v>622663</v>
       </c>
       <c r="C15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>669302</v>
+        <v>608379</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>518876</v>
+        <v>680730</v>
       </c>
       <c r="C17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>656605</v>
+        <v>607259</v>
       </c>
       <c r="C18" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>543135</v>
+        <v>669194</v>
       </c>
       <c r="C19" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>607259</v>
+        <v>684007</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>601713</v>
+        <v>543243</v>
       </c>
       <c r="C21" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>592662</v>
+        <v>592836</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>686752</v>
+        <v>701542</v>
       </c>
       <c r="C23" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>640455</v>
+        <v>506433</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>684007</v>
+        <v>579328</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>680573</v>
+        <v>641793</v>
       </c>
       <c r="C26" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>543243</v>
+        <v>805673</v>
       </c>
       <c r="C27" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>701542</v>
+        <v>688138</v>
       </c>
       <c r="C28" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>808967</v>
+        <v>681347</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>687064</v>
+        <v>669467</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>702070</v>
+        <v>663559</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>693433</v>
+        <v>694297</v>
       </c>
       <c r="C32" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>615698</v>
+        <v>687888</v>
       </c>
       <c r="C33" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>450203</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>663978</v>
+        <v>605135</v>
       </c>
       <c r="C35" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>607067</v>
+        <v>663978</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>656849</v>
+        <v>607067</v>
       </c>
       <c r="C37" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>593958</v>
+        <v>656302</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>686799</v>
+        <v>666200</v>
       </c>
       <c r="C39" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>686563</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>676664</v>
       </c>
       <c r="C41" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>671106</v>
+        <v>434378</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>573186</v>
+        <v>607536</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>647336</v>
+        <v>608337</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>571945</v>
+        <v>622491</v>
       </c>
       <c r="C45" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>666157</v>
+        <v>647336</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>571578</v>
+        <v>666157</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>681190</v>
+        <v>571578</v>
       </c>
       <c r="C48" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>675911</v>
+        <v>682990</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>671737</v>
+        <v>681857</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>621111</v>
+        <v>645261</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>608372</v>
+        <v>640455</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>663795</v>
+        <v>607625</v>
       </c>
       <c r="C53" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>607074</v>
+        <v>677944</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>663554</v>
+        <v>675911</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>671737</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B56">
-        <v>665152</v>
-      </c>
-      <c r="C56" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="B57">
+        <v>607192</v>
+      </c>
       <c r="C57" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1681,10 +1693,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>664285</v>
+        <v>666171</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1692,10 +1704,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>593423</v>
+        <v>650644</v>
       </c>
       <c r="C59" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1703,10 +1715,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>608566</v>
+        <v>596295</v>
       </c>
       <c r="C60" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1714,10 +1726,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>696136</v>
+        <v>650911</v>
       </c>
       <c r="C61" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1725,10 +1737,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>680736</v>
+        <v>669721</v>
       </c>
       <c r="C62" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1736,10 +1748,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>657277</v>
+        <v>691587</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1747,10 +1759,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>622491</v>
+        <v>686613</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1758,10 +1770,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>622663</v>
+        <v>656427</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1769,10 +1781,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>669461</v>
+        <v>663623</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1780,10 +1792,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>453286</v>
+        <v>605488</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1791,10 +1803,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>608379</v>
+        <v>676282</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1802,10 +1814,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>680730</v>
+        <v>621244</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1813,10 +1825,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>624133</v>
+        <v>667755</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1824,10 +1836,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>669194</v>
+        <v>669302</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1835,10 +1847,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>694477</v>
+        <v>518876</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1846,10 +1858,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>663568</v>
+        <v>656605</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1857,10 +1869,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>681347</v>
+        <v>543135</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1868,10 +1880,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>701519</v>
+        <v>601713</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1879,10 +1891,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>642216</v>
+        <v>592662</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1890,10 +1902,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>641927</v>
+        <v>686752</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1901,10 +1913,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>676962</v>
+        <v>680573</v>
       </c>
       <c r="C78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1912,10 +1924,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>621112</v>
+        <v>808967</v>
       </c>
       <c r="C79" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1923,10 +1935,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>680885</v>
+        <v>687064</v>
       </c>
       <c r="C80" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1934,10 +1946,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>669432</v>
+        <v>702070</v>
       </c>
       <c r="C81" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1945,10 +1957,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>681343</v>
+        <v>693433</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1956,10 +1968,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>677952</v>
+        <v>656849</v>
       </c>
       <c r="C83" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1967,10 +1979,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>669467</v>
+        <v>593958</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1978,10 +1990,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>663903</v>
+        <v>686799</v>
       </c>
       <c r="C85" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1989,10 +2001,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>477132</v>
+        <v>573186</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2000,10 +2012,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>669923</v>
+        <v>571945</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2011,10 +2023,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>806185</v>
+        <v>681190</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2022,10 +2034,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>594798</v>
+        <v>621111</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2033,10 +2045,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>657746</v>
+        <v>608372</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2044,10 +2056,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>669022</v>
+        <v>663795</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2055,10 +2067,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>571510</v>
+        <v>607074</v>
       </c>
       <c r="C92" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2066,10 +2078,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>608331</v>
+        <v>663554</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2077,10 +2089,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>547179</v>
+        <v>664285</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2088,10 +2100,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>669358</v>
+        <v>593423</v>
       </c>
       <c r="C95" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2099,10 +2111,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>605513</v>
+        <v>608566</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2110,10 +2122,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>676440</v>
+        <v>696136</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2121,10 +2133,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>641302</v>
+        <v>680736</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2132,10 +2144,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>579328</v>
+        <v>669461</v>
       </c>
       <c r="C99" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2143,10 +2155,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>668678</v>
+        <v>453286</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2154,10 +2166,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>554430</v>
+        <v>624133</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2165,10 +2177,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>690928</v>
+        <v>694477</v>
       </c>
       <c r="C102" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2176,10 +2188,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>694918</v>
+        <v>663568</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2187,10 +2199,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>694819</v>
+        <v>701519</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2198,10 +2210,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>800311</v>
+        <v>642216</v>
       </c>
       <c r="C105" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2209,10 +2221,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>571760</v>
+        <v>641927</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2220,10 +2232,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>605280</v>
+        <v>676962</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2231,10 +2243,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>665795</v>
+        <v>621112</v>
       </c>
       <c r="C108" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2242,10 +2254,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>607200</v>
+        <v>680885</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2253,10 +2265,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>668909</v>
+        <v>669432</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2264,10 +2276,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>592791</v>
+        <v>681343</v>
       </c>
       <c r="C111" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2275,10 +2287,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>672456</v>
+        <v>677952</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2286,10 +2298,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>592332</v>
+        <v>663903</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2297,10 +2309,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>700241</v>
+        <v>477132</v>
       </c>
       <c r="C114" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2308,10 +2320,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>694973</v>
+        <v>669923</v>
       </c>
       <c r="C115" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2319,10 +2331,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>680732</v>
+        <v>806185</v>
       </c>
       <c r="C116" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2330,10 +2342,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>669373</v>
+        <v>594798</v>
       </c>
       <c r="C117" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2341,10 +2353,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>592866</v>
+        <v>657746</v>
       </c>
       <c r="C118" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2352,10 +2364,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>542881</v>
+        <v>669022</v>
       </c>
       <c r="C119" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2363,10 +2375,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>801403</v>
+        <v>571510</v>
       </c>
       <c r="C120" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2374,10 +2386,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>682052</v>
+        <v>608331</v>
       </c>
       <c r="C121" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2385,10 +2397,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>676467</v>
+        <v>547179</v>
       </c>
       <c r="C122" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2396,10 +2408,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>686701</v>
+        <v>669358</v>
       </c>
       <c r="C123" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2407,10 +2419,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>678024</v>
+        <v>605513</v>
       </c>
       <c r="C124" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2418,10 +2430,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>656641</v>
+        <v>676440</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2429,10 +2441,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>800049</v>
+        <v>641302</v>
       </c>
       <c r="C126" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2440,10 +2452,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>519242</v>
+        <v>668678</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2451,10 +2463,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>676979</v>
+        <v>554430</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2462,10 +2474,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>434378</v>
+        <v>690928</v>
       </c>
       <c r="C129" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2473,10 +2485,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>663460</v>
+        <v>694918</v>
       </c>
       <c r="C130" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2484,10 +2496,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>642232</v>
+        <v>694819</v>
       </c>
       <c r="C131" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2495,10 +2507,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>671096</v>
+        <v>800311</v>
       </c>
       <c r="C132" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2506,10 +2518,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>663559</v>
+        <v>571760</v>
       </c>
       <c r="C133" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2517,10 +2529,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>694297</v>
+        <v>665795</v>
       </c>
       <c r="C134" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2528,10 +2540,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>605135</v>
+        <v>607200</v>
       </c>
       <c r="C135" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2539,10 +2551,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>701581</v>
+        <v>668909</v>
       </c>
       <c r="C136" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2550,10 +2562,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>683004</v>
+        <v>592791</v>
       </c>
       <c r="C137" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2561,10 +2573,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>666200</v>
+        <v>592332</v>
       </c>
       <c r="C138" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2572,10 +2584,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>543294</v>
+        <v>700241</v>
       </c>
       <c r="C139" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2583,10 +2595,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>607625</v>
+        <v>694973</v>
       </c>
       <c r="C140" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2594,10 +2606,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>677944</v>
+        <v>680732</v>
       </c>
       <c r="C141" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2605,10 +2617,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>641793</v>
+        <v>669373</v>
       </c>
       <c r="C142" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2616,10 +2628,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>669422</v>
+        <v>592866</v>
       </c>
       <c r="C143" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2627,10 +2639,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>669920</v>
+        <v>542881</v>
       </c>
       <c r="C144" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2638,10 +2650,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>657376</v>
+        <v>801403</v>
       </c>
       <c r="C145" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2649,10 +2661,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>656302</v>
+        <v>682052</v>
       </c>
       <c r="C146" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2660,10 +2672,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>608337</v>
+        <v>676467</v>
       </c>
       <c r="C147" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2671,10 +2683,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>645261</v>
+        <v>686701</v>
       </c>
       <c r="C148" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2682,10 +2694,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>621107</v>
+        <v>678024</v>
       </c>
       <c r="C149" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2693,10 +2705,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>676508</v>
+        <v>656641</v>
       </c>
       <c r="C150" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2704,10 +2716,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>687223</v>
+        <v>800049</v>
       </c>
       <c r="C151" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2715,10 +2727,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>690953</v>
+        <v>519242</v>
       </c>
       <c r="C152" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2726,10 +2738,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>663436</v>
+        <v>676979</v>
       </c>
       <c r="C153" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2737,10 +2749,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>673540</v>
+        <v>663460</v>
       </c>
       <c r="C154" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2748,10 +2760,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>700249</v>
+        <v>642232</v>
       </c>
       <c r="C155" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2759,10 +2771,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>656550</v>
+        <v>671096</v>
       </c>
       <c r="C156" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2770,10 +2782,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>656288</v>
+        <v>701581</v>
       </c>
       <c r="C157" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2781,10 +2793,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>690986</v>
+        <v>683004</v>
       </c>
       <c r="C158" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2792,10 +2804,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>687765</v>
+        <v>543294</v>
       </c>
       <c r="C159" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2803,10 +2815,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>682990</v>
+        <v>669422</v>
       </c>
       <c r="C160" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2814,10 +2826,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>641816</v>
+        <v>669920</v>
       </c>
       <c r="C161" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2825,10 +2837,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>688138</v>
+        <v>657376</v>
       </c>
       <c r="C162" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2836,10 +2848,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>687830</v>
+        <v>621107</v>
       </c>
       <c r="C163" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2847,18 +2859,21 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>676106</v>
+        <v>676508</v>
       </c>
       <c r="C164" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>165</v>
       </c>
+      <c r="B165">
+        <v>687223</v>
+      </c>
       <c r="C165" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2866,10 +2881,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>489119</v>
+        <v>690953</v>
       </c>
       <c r="C166" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2877,10 +2892,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>670102</v>
+        <v>663436</v>
       </c>
       <c r="C167" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2888,18 +2903,21 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>687888</v>
+        <v>673540</v>
       </c>
       <c r="C168" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
+      <c r="B169">
+        <v>700249</v>
+      </c>
       <c r="C169" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2907,10 +2925,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>689017</v>
+        <v>656550</v>
       </c>
       <c r="C170" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2918,10 +2936,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>656731</v>
+        <v>656288</v>
       </c>
       <c r="C171" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2929,10 +2947,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>690990</v>
+        <v>690986</v>
       </c>
       <c r="C172" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2940,10 +2958,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>676961</v>
+        <v>687765</v>
       </c>
       <c r="C173" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2951,10 +2969,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>605288</v>
+        <v>641816</v>
       </c>
       <c r="C174" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2962,10 +2980,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>693821</v>
+        <v>687830</v>
       </c>
       <c r="C175" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2973,21 +2991,18 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>500779</v>
+        <v>676106</v>
       </c>
       <c r="C176" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
-      <c r="B177">
-        <v>677960</v>
-      </c>
       <c r="C177" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2995,10 +3010,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>682243</v>
+        <v>489119</v>
       </c>
       <c r="C178" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3006,21 +3021,18 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>605452</v>
+        <v>670102</v>
       </c>
       <c r="C179" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
-      <c r="B180">
-        <v>666142</v>
-      </c>
       <c r="C180" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3031,7 +3043,7 @@
         <v>689017</v>
       </c>
       <c r="C181" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3039,10 +3051,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>677958</v>
+        <v>656731</v>
       </c>
       <c r="C182" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3050,10 +3062,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>607536</v>
+        <v>690990</v>
       </c>
       <c r="C183" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3061,10 +3073,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>664062</v>
+        <v>676961</v>
       </c>
       <c r="C184" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3072,10 +3084,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>805673</v>
+        <v>693821</v>
       </c>
       <c r="C185" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3083,10 +3095,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>687473</v>
+        <v>500779</v>
       </c>
       <c r="C186" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3094,10 +3106,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>676428</v>
+        <v>677960</v>
       </c>
       <c r="C187" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3105,10 +3117,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>668881</v>
+        <v>682243</v>
       </c>
       <c r="C188" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3116,10 +3128,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>674370</v>
+        <v>605452</v>
       </c>
       <c r="C189" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3127,10 +3139,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>641154</v>
+        <v>666142</v>
       </c>
       <c r="C190" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3138,10 +3150,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>676974</v>
+        <v>689017</v>
       </c>
       <c r="C191" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3149,10 +3161,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>690916</v>
+        <v>664062</v>
       </c>
       <c r="C192" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3160,10 +3172,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>669203</v>
+        <v>687473</v>
       </c>
       <c r="C193" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3171,10 +3183,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>680684</v>
+        <v>676428</v>
       </c>
       <c r="C194" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3182,10 +3194,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>592836</v>
+        <v>668881</v>
       </c>
       <c r="C195" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3193,10 +3205,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>700363</v>
+        <v>674370</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3204,10 +3216,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>663465</v>
+        <v>641154</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3215,10 +3227,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>685299</v>
+        <v>676974</v>
       </c>
       <c r="C198" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3226,10 +3238,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>695549</v>
+        <v>690916</v>
       </c>
       <c r="C199" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3237,10 +3249,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>663738</v>
+        <v>669203</v>
       </c>
       <c r="C200" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3248,10 +3260,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>701656</v>
+        <v>680684</v>
       </c>
       <c r="C201" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3259,10 +3271,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>650633</v>
+        <v>700363</v>
       </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3270,10 +3282,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>694646</v>
+        <v>663465</v>
       </c>
       <c r="C203" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3281,10 +3293,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>669060</v>
+        <v>685299</v>
       </c>
       <c r="C204" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3292,10 +3304,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>669372</v>
+        <v>695549</v>
       </c>
       <c r="C205" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3303,10 +3315,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>669387</v>
+        <v>663738</v>
       </c>
       <c r="C206" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3314,10 +3326,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>502043</v>
+        <v>701656</v>
       </c>
       <c r="C207" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3325,10 +3337,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>681857</v>
+        <v>650633</v>
       </c>
       <c r="C208" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3336,10 +3348,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>669854</v>
+        <v>694646</v>
       </c>
       <c r="C209" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3347,10 +3359,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>668964</v>
+        <v>669060</v>
       </c>
       <c r="C210" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3358,10 +3370,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>695534</v>
+        <v>669372</v>
       </c>
       <c r="C211" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3369,10 +3381,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>605400</v>
+        <v>669387</v>
       </c>
       <c r="C212" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3380,10 +3392,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>663855</v>
+        <v>502043</v>
       </c>
       <c r="C213" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3391,10 +3403,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>678368</v>
+        <v>669854</v>
       </c>
       <c r="C214" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3402,10 +3414,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>594902</v>
+        <v>668964</v>
       </c>
       <c r="C215" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3413,10 +3425,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>656557</v>
+        <v>695534</v>
       </c>
       <c r="C216" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3424,10 +3436,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>669713</v>
+        <v>605400</v>
       </c>
       <c r="C217" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3435,10 +3447,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>570632</v>
+        <v>663855</v>
       </c>
       <c r="C218" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3446,10 +3458,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>695418</v>
+        <v>678368</v>
       </c>
       <c r="C219" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3457,10 +3469,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>663372</v>
+        <v>594902</v>
       </c>
       <c r="C220" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3468,10 +3480,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>471911</v>
+        <v>656557</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3479,10 +3491,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>686249</v>
+        <v>669713</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3490,10 +3502,65 @@
         <v>223</v>
       </c>
       <c r="B223">
+        <v>570632</v>
+      </c>
+      <c r="C223" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>695418</v>
+      </c>
+      <c r="C224" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>663372</v>
+      </c>
+      <c r="C225" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>471911</v>
+      </c>
+      <c r="C226" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>686249</v>
+      </c>
+      <c r="C227" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
         <v>527048</v>
       </c>
-      <c r="C223" t="s">
-        <v>225</v>
+      <c r="C228" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,6 +25,177 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>David Festa</t>
+  </si>
+  <si>
+    <t>Eury Perez</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Hayden Birdsong</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Bryan Woo</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>German Marquez</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Jacob Latz</t>
+  </si>
+  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
@@ -193,63 +364,24 @@
     <t>Ryan Zeferjahn</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Austin Gomber</t>
-  </si>
-  <si>
     <t>Cristopher Sánchez</t>
   </si>
   <si>
     <t>Davis Daniel</t>
   </si>
   <si>
-    <t>Eury Perez</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
     <t>Joey Cantillo</t>
   </si>
   <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
@@ -259,42 +391,15 @@
     <t>Brandon Young</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
-    <t>Bryan Woo</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
     <t>Eduardo Rodriguez</t>
   </si>
   <si>
     <t>Jack Kochanowicz</t>
   </si>
   <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Justin Hagenman</t>
   </si>
   <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>Casey Mize</t>
   </si>
   <si>
@@ -304,9 +409,6 @@
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>German Marquez</t>
-  </si>
-  <si>
     <t>Jordan Wicks</t>
   </si>
   <si>
@@ -319,9 +421,6 @@
     <t>Max Scherzer</t>
   </si>
   <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
     <t>Chad Patrick</t>
   </si>
   <si>
@@ -337,45 +436,21 @@
     <t>Bailey Ober</t>
   </si>
   <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
     <t>Paul Blackburn</t>
   </si>
   <si>
     <t>Spencer Schwellenbach</t>
   </si>
   <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
     <t>Shane Smith</t>
   </si>
   <si>
     <t>Braxton Ashcraft</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
-    <t>Hayden Birdsong</t>
-  </si>
-  <si>
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
@@ -385,24 +460,12 @@
     <t>Michael Lorenzen</t>
   </si>
   <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
     <t>Tyler Alexander</t>
   </si>
   <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
     <t>Hunter Dobbins</t>
   </si>
   <si>
@@ -415,84 +478,36 @@
     <t>Didier Fuentes</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Edward Cabrera</t>
   </si>
   <si>
     <t>Erick Fedde</t>
   </si>
   <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
-    <t>Michael McGreevy</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
     <t>Trevor Williams</t>
   </si>
   <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Chase Dollander</t>
   </si>
   <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
     <t>Ryan Bergert</t>
   </si>
   <si>
     <t>Mike Vasil</t>
   </si>
   <si>
-    <t>Jacob Latz</t>
-  </si>
-  <si>
     <t>Adam Mazur</t>
   </si>
   <si>
     <t>Chris Sale</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
     <t>Ryan Yarbrough</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>David Festa</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
     <t>Kyle Hendricks</t>
   </si>
   <si>
@@ -520,15 +535,9 @@
     <t>Davis Martin</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
     <t>Griffin Canning</t>
   </si>
   <si>
@@ -565,18 +574,9 @@
     <t>Tylor Megill</t>
   </si>
   <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
     <t>Caleb Boushley</t>
   </si>
   <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
     <t>Ryan Weathers</t>
   </si>
   <si>
@@ -703,10 +703,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -1086,37 +1086,37 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605288</v>
+        <v>596295</v>
       </c>
       <c r="C2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>676962</v>
+      </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>678394</v>
+        <v>663903</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>615698</v>
-      </c>
       <c r="C5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>605280</v>
+        <v>693821</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>665152</v>
+        <v>607074</v>
       </c>
       <c r="C7" t="s">
         <v>229</v>
@@ -1145,8 +1145,11 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>701581</v>
+      </c>
       <c r="C8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1154,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>642547</v>
+        <v>691587</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1165,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>666214</v>
+        <v>669923</v>
       </c>
       <c r="C10" t="s">
         <v>230</v>
@@ -1176,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>672456</v>
+        <v>806185</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1187,10 +1190,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>677958</v>
+        <v>656427</v>
       </c>
       <c r="C12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1198,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>671106</v>
+        <v>683004</v>
       </c>
       <c r="C13" t="s">
         <v>230</v>
@@ -1209,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>657277</v>
+        <v>663623</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1220,10 +1223,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>622663</v>
+        <v>592332</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1231,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>608379</v>
+        <v>673540</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1242,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>680730</v>
+        <v>700241</v>
       </c>
       <c r="C17" t="s">
         <v>230</v>
@@ -1253,10 +1256,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>607259</v>
+        <v>694973</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1264,10 +1267,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>669194</v>
+        <v>681190</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1275,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>684007</v>
+        <v>680732</v>
       </c>
       <c r="C20" t="s">
         <v>230</v>
@@ -1286,10 +1289,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>543243</v>
+        <v>669358</v>
       </c>
       <c r="C21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1297,10 +1300,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>592836</v>
+        <v>676440</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1308,7 +1311,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>701542</v>
+        <v>542881</v>
       </c>
       <c r="C23" t="s">
         <v>229</v>
@@ -1319,10 +1322,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>506433</v>
+        <v>621111</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1330,7 +1333,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>579328</v>
+        <v>668678</v>
       </c>
       <c r="C25" t="s">
         <v>230</v>
@@ -1341,10 +1344,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>641793</v>
+        <v>554430</v>
       </c>
       <c r="C26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1352,10 +1355,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>805673</v>
+        <v>608372</v>
       </c>
       <c r="C27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1363,7 +1366,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>688138</v>
+        <v>682052</v>
       </c>
       <c r="C28" t="s">
         <v>229</v>
@@ -1374,7 +1377,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>681347</v>
+        <v>676467</v>
       </c>
       <c r="C29" t="s">
         <v>229</v>
@@ -1385,7 +1388,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>669467</v>
+        <v>702070</v>
       </c>
       <c r="C30" t="s">
         <v>229</v>
@@ -1396,7 +1399,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>663559</v>
+        <v>650644</v>
       </c>
       <c r="C31" t="s">
         <v>230</v>
@@ -1407,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>694297</v>
+        <v>671096</v>
       </c>
       <c r="C32" t="s">
         <v>229</v>
@@ -1418,10 +1421,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>687888</v>
+        <v>571760</v>
       </c>
       <c r="C33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1429,10 +1432,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>450203</v>
+        <v>693433</v>
       </c>
       <c r="C34" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1440,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>605135</v>
+        <v>477132</v>
       </c>
       <c r="C35" t="s">
         <v>229</v>
@@ -1451,7 +1454,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>663978</v>
+        <v>656849</v>
       </c>
       <c r="C36" t="s">
         <v>229</v>
@@ -1462,7 +1465,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>607067</v>
+        <v>676979</v>
       </c>
       <c r="C37" t="s">
         <v>229</v>
@@ -1473,10 +1476,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>656302</v>
+        <v>668909</v>
       </c>
       <c r="C38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1484,7 +1487,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>666200</v>
+        <v>608566</v>
       </c>
       <c r="C39" t="s">
         <v>230</v>
@@ -1495,10 +1498,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>686563</v>
+        <v>656550</v>
       </c>
       <c r="C40" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1506,7 +1509,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>676664</v>
+        <v>686613</v>
       </c>
       <c r="C41" t="s">
         <v>230</v>
@@ -1517,7 +1520,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>434378</v>
+        <v>605488</v>
       </c>
       <c r="C42" t="s">
         <v>229</v>
@@ -1528,7 +1531,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>607536</v>
+        <v>657746</v>
       </c>
       <c r="C43" t="s">
         <v>230</v>
@@ -1539,10 +1542,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>608337</v>
+        <v>621244</v>
       </c>
       <c r="C44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1550,7 +1553,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>622491</v>
+        <v>500779</v>
       </c>
       <c r="C45" t="s">
         <v>229</v>
@@ -1561,10 +1564,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>647336</v>
+        <v>667755</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1572,10 +1575,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>666157</v>
+        <v>663460</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1583,10 +1586,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>571578</v>
+        <v>669022</v>
       </c>
       <c r="C48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1594,10 +1597,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>682990</v>
+        <v>573186</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1605,10 +1608,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>681857</v>
+        <v>518876</v>
       </c>
       <c r="C50" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1616,10 +1619,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>645261</v>
+        <v>571945</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1627,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>640455</v>
+        <v>601713</v>
       </c>
       <c r="C52" t="s">
         <v>230</v>
@@ -1638,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>607625</v>
+        <v>624133</v>
       </c>
       <c r="C53" t="s">
         <v>229</v>
@@ -1649,7 +1652,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>677944</v>
+        <v>592662</v>
       </c>
       <c r="C54" t="s">
         <v>229</v>
@@ -1660,10 +1663,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>675911</v>
+        <v>686752</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1671,7 +1674,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>671737</v>
+        <v>669373</v>
       </c>
       <c r="C56" t="s">
         <v>229</v>
@@ -1682,7 +1685,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>607192</v>
+        <v>669432</v>
       </c>
       <c r="C57" t="s">
         <v>229</v>
@@ -1693,10 +1696,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>666171</v>
+        <v>690990</v>
       </c>
       <c r="C58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1704,7 +1707,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>650644</v>
+        <v>656641</v>
       </c>
       <c r="C59" t="s">
         <v>229</v>
@@ -1715,7 +1718,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>596295</v>
+        <v>605288</v>
       </c>
       <c r="C60" t="s">
         <v>230</v>
@@ -1726,7 +1729,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>650911</v>
+        <v>678394</v>
       </c>
       <c r="C61" t="s">
         <v>230</v>
@@ -1737,10 +1740,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>669721</v>
+        <v>615698</v>
       </c>
       <c r="C62" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1748,10 +1751,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>691587</v>
+        <v>605280</v>
       </c>
       <c r="C63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1759,21 +1762,18 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>686613</v>
+        <v>665152</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>656427</v>
-      </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1781,10 +1781,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>663623</v>
+        <v>642547</v>
       </c>
       <c r="C66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1792,10 +1792,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>605488</v>
+        <v>666214</v>
       </c>
       <c r="C67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1803,7 +1803,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>676282</v>
+        <v>672456</v>
       </c>
       <c r="C68" t="s">
         <v>230</v>
@@ -1814,10 +1814,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>621244</v>
+        <v>677958</v>
       </c>
       <c r="C69" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1825,7 +1825,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>667755</v>
+        <v>671106</v>
       </c>
       <c r="C70" t="s">
         <v>229</v>
@@ -1836,10 +1836,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>669302</v>
+        <v>657277</v>
       </c>
       <c r="C71" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1847,10 +1847,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>518876</v>
+        <v>622663</v>
       </c>
       <c r="C72" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1858,10 +1858,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>656605</v>
+        <v>608379</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1869,7 +1869,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>543135</v>
+        <v>680730</v>
       </c>
       <c r="C74" t="s">
         <v>229</v>
@@ -1880,10 +1880,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>601713</v>
+        <v>607259</v>
       </c>
       <c r="C75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1891,7 +1891,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>592662</v>
+        <v>669194</v>
       </c>
       <c r="C76" t="s">
         <v>230</v>
@@ -1902,7 +1902,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>686752</v>
+        <v>684007</v>
       </c>
       <c r="C77" t="s">
         <v>229</v>
@@ -1913,10 +1913,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>680573</v>
+        <v>543243</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1924,10 +1924,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>808967</v>
+        <v>592836</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1935,10 +1935,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>687064</v>
+        <v>701542</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1946,7 +1946,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>702070</v>
+        <v>506433</v>
       </c>
       <c r="C81" t="s">
         <v>230</v>
@@ -1957,7 +1957,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>693433</v>
+        <v>579328</v>
       </c>
       <c r="C82" t="s">
         <v>229</v>
@@ -1968,7 +1968,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>656849</v>
+        <v>641793</v>
       </c>
       <c r="C83" t="s">
         <v>230</v>
@@ -1979,7 +1979,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>593958</v>
+        <v>805673</v>
       </c>
       <c r="C84" t="s">
         <v>230</v>
@@ -1990,10 +1990,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>686799</v>
+        <v>688138</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2001,10 +2001,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>573186</v>
+        <v>681347</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2012,10 +2012,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>571945</v>
+        <v>669467</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2023,7 +2023,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>681190</v>
+        <v>663559</v>
       </c>
       <c r="C88" t="s">
         <v>229</v>
@@ -2034,10 +2034,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>621111</v>
+        <v>694297</v>
       </c>
       <c r="C89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2045,7 +2045,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>608372</v>
+        <v>687888</v>
       </c>
       <c r="C90" t="s">
         <v>229</v>
@@ -2056,10 +2056,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>663795</v>
+        <v>450203</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2067,7 +2067,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>607074</v>
+        <v>605135</v>
       </c>
       <c r="C92" t="s">
         <v>230</v>
@@ -2078,10 +2078,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>663554</v>
+        <v>663978</v>
       </c>
       <c r="C93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2089,7 +2089,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>664285</v>
+        <v>607067</v>
       </c>
       <c r="C94" t="s">
         <v>230</v>
@@ -2100,10 +2100,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>593423</v>
+        <v>656302</v>
       </c>
       <c r="C95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2111,7 +2111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>608566</v>
+        <v>666200</v>
       </c>
       <c r="C96" t="s">
         <v>229</v>
@@ -2122,7 +2122,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>696136</v>
+        <v>686563</v>
       </c>
       <c r="C97" t="s">
         <v>230</v>
@@ -2133,10 +2133,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>680736</v>
+        <v>676664</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2144,7 +2144,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>669461</v>
+        <v>434378</v>
       </c>
       <c r="C99" t="s">
         <v>230</v>
@@ -2155,7 +2155,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>453286</v>
+        <v>607536</v>
       </c>
       <c r="C100" t="s">
         <v>229</v>
@@ -2166,7 +2166,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>624133</v>
+        <v>608337</v>
       </c>
       <c r="C101" t="s">
         <v>230</v>
@@ -2177,10 +2177,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>694477</v>
+        <v>622491</v>
       </c>
       <c r="C102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2188,10 +2188,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>663568</v>
+        <v>647336</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2199,7 +2199,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>701519</v>
+        <v>666157</v>
       </c>
       <c r="C104" t="s">
         <v>229</v>
@@ -2210,7 +2210,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>642216</v>
+        <v>571578</v>
       </c>
       <c r="C105" t="s">
         <v>229</v>
@@ -2221,10 +2221,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>641927</v>
+        <v>682990</v>
       </c>
       <c r="C106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2232,10 +2232,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>676962</v>
+        <v>681857</v>
       </c>
       <c r="C107" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2243,10 +2243,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>621112</v>
+        <v>645261</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2254,7 +2254,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>680885</v>
+        <v>640455</v>
       </c>
       <c r="C109" t="s">
         <v>229</v>
@@ -2265,7 +2265,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>669432</v>
+        <v>607625</v>
       </c>
       <c r="C110" t="s">
         <v>230</v>
@@ -2276,10 +2276,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>681343</v>
+        <v>677944</v>
       </c>
       <c r="C111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2287,10 +2287,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>677952</v>
+        <v>675911</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2298,10 +2298,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>663903</v>
+        <v>671737</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2309,7 +2309,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>477132</v>
+        <v>607192</v>
       </c>
       <c r="C114" t="s">
         <v>230</v>
@@ -2320,10 +2320,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669923</v>
+        <v>666171</v>
       </c>
       <c r="C115" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2331,7 +2331,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>806185</v>
+        <v>650911</v>
       </c>
       <c r="C116" t="s">
         <v>229</v>
@@ -2342,10 +2342,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>594798</v>
+        <v>669721</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2353,7 +2353,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>657746</v>
+        <v>676282</v>
       </c>
       <c r="C118" t="s">
         <v>229</v>
@@ -2364,7 +2364,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>669022</v>
+        <v>669302</v>
       </c>
       <c r="C119" t="s">
         <v>230</v>
@@ -2375,7 +2375,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>571510</v>
+        <v>656605</v>
       </c>
       <c r="C120" t="s">
         <v>230</v>
@@ -2386,7 +2386,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>608331</v>
+        <v>543135</v>
       </c>
       <c r="C121" t="s">
         <v>230</v>
@@ -2397,10 +2397,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>547179</v>
+        <v>680573</v>
       </c>
       <c r="C122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2408,10 +2408,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>669358</v>
+        <v>808967</v>
       </c>
       <c r="C123" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2419,10 +2419,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>605513</v>
+        <v>687064</v>
       </c>
       <c r="C124" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2430,7 +2430,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>676440</v>
+        <v>593958</v>
       </c>
       <c r="C125" t="s">
         <v>229</v>
@@ -2441,7 +2441,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>641302</v>
+        <v>686799</v>
       </c>
       <c r="C126" t="s">
         <v>230</v>
@@ -2452,10 +2452,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>668678</v>
+        <v>663795</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2463,10 +2463,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>554430</v>
+        <v>663554</v>
       </c>
       <c r="C128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2474,7 +2474,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>690928</v>
+        <v>664285</v>
       </c>
       <c r="C129" t="s">
         <v>229</v>
@@ -2485,10 +2485,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>694918</v>
+        <v>593423</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2496,7 +2496,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>694819</v>
+        <v>696136</v>
       </c>
       <c r="C131" t="s">
         <v>229</v>
@@ -2507,7 +2507,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>800311</v>
+        <v>680736</v>
       </c>
       <c r="C132" t="s">
         <v>229</v>
@@ -2518,10 +2518,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>571760</v>
+        <v>669461</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2529,10 +2529,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>665795</v>
+        <v>453286</v>
       </c>
       <c r="C134" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2540,10 +2540,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>607200</v>
+        <v>694477</v>
       </c>
       <c r="C135" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2551,10 +2551,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>668909</v>
+        <v>663568</v>
       </c>
       <c r="C136" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2562,10 +2562,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>592791</v>
+        <v>701519</v>
       </c>
       <c r="C137" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2573,10 +2573,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>592332</v>
+        <v>642216</v>
       </c>
       <c r="C138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2584,10 +2584,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>700241</v>
+        <v>641927</v>
       </c>
       <c r="C139" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2595,10 +2595,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>694973</v>
+        <v>621112</v>
       </c>
       <c r="C140" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2606,10 +2606,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>680732</v>
+        <v>680885</v>
       </c>
       <c r="C141" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2617,7 +2617,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>669373</v>
+        <v>681343</v>
       </c>
       <c r="C142" t="s">
         <v>230</v>
@@ -2628,10 +2628,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>592866</v>
+        <v>677952</v>
       </c>
       <c r="C143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2639,7 +2639,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>542881</v>
+        <v>594798</v>
       </c>
       <c r="C144" t="s">
         <v>230</v>
@@ -2650,7 +2650,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>801403</v>
+        <v>571510</v>
       </c>
       <c r="C145" t="s">
         <v>229</v>
@@ -2661,10 +2661,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>682052</v>
+        <v>608331</v>
       </c>
       <c r="C146" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2672,7 +2672,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>676467</v>
+        <v>547179</v>
       </c>
       <c r="C147" t="s">
         <v>230</v>
@@ -2683,10 +2683,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>686701</v>
+        <v>605513</v>
       </c>
       <c r="C148" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2694,7 +2694,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>678024</v>
+        <v>641302</v>
       </c>
       <c r="C149" t="s">
         <v>229</v>
@@ -2705,7 +2705,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>656641</v>
+        <v>690928</v>
       </c>
       <c r="C150" t="s">
         <v>230</v>
@@ -2716,10 +2716,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>800049</v>
+        <v>694918</v>
       </c>
       <c r="C151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>519242</v>
+        <v>694819</v>
       </c>
       <c r="C152" t="s">
         <v>230</v>
@@ -2738,7 +2738,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>676979</v>
+        <v>800311</v>
       </c>
       <c r="C153" t="s">
         <v>230</v>
@@ -2749,7 +2749,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>663460</v>
+        <v>665795</v>
       </c>
       <c r="C154" t="s">
         <v>230</v>
@@ -2760,7 +2760,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>642232</v>
+        <v>607200</v>
       </c>
       <c r="C155" t="s">
         <v>230</v>
@@ -2771,7 +2771,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>671096</v>
+        <v>592791</v>
       </c>
       <c r="C156" t="s">
         <v>230</v>
@@ -2782,10 +2782,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>701581</v>
+        <v>592866</v>
       </c>
       <c r="C157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2793,10 +2793,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>683004</v>
+        <v>801403</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2804,10 +2804,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>543294</v>
+        <v>686701</v>
       </c>
       <c r="C159" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2815,10 +2815,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>669422</v>
+        <v>678024</v>
       </c>
       <c r="C160" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2826,10 +2826,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>669920</v>
+        <v>800049</v>
       </c>
       <c r="C161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2837,7 +2837,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>657376</v>
+        <v>519242</v>
       </c>
       <c r="C162" t="s">
         <v>229</v>
@@ -2848,7 +2848,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>621107</v>
+        <v>642232</v>
       </c>
       <c r="C163" t="s">
         <v>229</v>
@@ -2859,10 +2859,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>676508</v>
+        <v>543294</v>
       </c>
       <c r="C164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2870,7 +2870,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>687223</v>
+        <v>669422</v>
       </c>
       <c r="C165" t="s">
         <v>230</v>
@@ -2881,10 +2881,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>690953</v>
+        <v>669920</v>
       </c>
       <c r="C166" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2892,10 +2892,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>663436</v>
+        <v>657376</v>
       </c>
       <c r="C167" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2903,10 +2903,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>673540</v>
+        <v>621107</v>
       </c>
       <c r="C168" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2914,7 +2914,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>700249</v>
+        <v>676508</v>
       </c>
       <c r="C169" t="s">
         <v>230</v>
@@ -2925,7 +2925,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>656550</v>
+        <v>687223</v>
       </c>
       <c r="C170" t="s">
         <v>229</v>
@@ -2936,10 +2936,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>656288</v>
+        <v>690953</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2947,7 +2947,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>690986</v>
+        <v>663436</v>
       </c>
       <c r="C172" t="s">
         <v>230</v>
@@ -2958,7 +2958,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>687765</v>
+        <v>700249</v>
       </c>
       <c r="C173" t="s">
         <v>229</v>
@@ -2969,10 +2969,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>641816</v>
+        <v>656288</v>
       </c>
       <c r="C174" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2980,7 +2980,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>687830</v>
+        <v>690986</v>
       </c>
       <c r="C175" t="s">
         <v>229</v>
@@ -2991,18 +2991,21 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>676106</v>
+        <v>687765</v>
       </c>
       <c r="C176" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>177</v>
       </c>
+      <c r="B177">
+        <v>641816</v>
+      </c>
       <c r="C177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3010,7 +3013,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>489119</v>
+        <v>687830</v>
       </c>
       <c r="C178" t="s">
         <v>230</v>
@@ -3021,10 +3024,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>670102</v>
+        <v>676106</v>
       </c>
       <c r="C179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3032,7 +3035,7 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3040,7 +3043,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>689017</v>
+        <v>489119</v>
       </c>
       <c r="C181" t="s">
         <v>229</v>
@@ -3051,21 +3054,18 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>656731</v>
+        <v>670102</v>
       </c>
       <c r="C182" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
-      <c r="B183">
-        <v>690990</v>
-      </c>
       <c r="C183" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3073,10 +3073,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>676961</v>
+        <v>689017</v>
       </c>
       <c r="C184" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3084,10 +3084,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>693821</v>
+        <v>656731</v>
       </c>
       <c r="C185" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3095,7 +3095,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>500779</v>
+        <v>676961</v>
       </c>
       <c r="C186" t="s">
         <v>230</v>
@@ -3109,7 +3109,7 @@
         <v>677960</v>
       </c>
       <c r="C187" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3120,7 +3120,7 @@
         <v>682243</v>
       </c>
       <c r="C188" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3131,7 +3131,7 @@
         <v>605452</v>
       </c>
       <c r="C189" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3142,7 +3142,7 @@
         <v>666142</v>
       </c>
       <c r="C190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3153,7 +3153,7 @@
         <v>689017</v>
       </c>
       <c r="C191" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3164,7 +3164,7 @@
         <v>664062</v>
       </c>
       <c r="C192" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3175,7 +3175,7 @@
         <v>687473</v>
       </c>
       <c r="C193" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3186,7 +3186,7 @@
         <v>676428</v>
       </c>
       <c r="C194" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3197,7 +3197,7 @@
         <v>668881</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3208,7 +3208,7 @@
         <v>674370</v>
       </c>
       <c r="C196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3219,7 +3219,7 @@
         <v>641154</v>
       </c>
       <c r="C197" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3230,7 +3230,7 @@
         <v>676974</v>
       </c>
       <c r="C198" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3241,7 +3241,7 @@
         <v>690916</v>
       </c>
       <c r="C199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3252,7 +3252,7 @@
         <v>669203</v>
       </c>
       <c r="C200" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3263,7 +3263,7 @@
         <v>680684</v>
       </c>
       <c r="C201" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3274,7 +3274,7 @@
         <v>700363</v>
       </c>
       <c r="C202" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3285,7 +3285,7 @@
         <v>663465</v>
       </c>
       <c r="C203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3296,7 +3296,7 @@
         <v>685299</v>
       </c>
       <c r="C204" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3307,7 +3307,7 @@
         <v>695549</v>
       </c>
       <c r="C205" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3318,7 +3318,7 @@
         <v>663738</v>
       </c>
       <c r="C206" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3329,7 +3329,7 @@
         <v>701656</v>
       </c>
       <c r="C207" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3340,7 +3340,7 @@
         <v>650633</v>
       </c>
       <c r="C208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3351,7 +3351,7 @@
         <v>694646</v>
       </c>
       <c r="C209" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3362,7 +3362,7 @@
         <v>669060</v>
       </c>
       <c r="C210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3373,7 +3373,7 @@
         <v>669372</v>
       </c>
       <c r="C211" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3384,7 +3384,7 @@
         <v>669387</v>
       </c>
       <c r="C212" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3395,7 +3395,7 @@
         <v>502043</v>
       </c>
       <c r="C213" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3406,7 +3406,7 @@
         <v>669854</v>
       </c>
       <c r="C214" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3417,7 +3417,7 @@
         <v>668964</v>
       </c>
       <c r="C215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3428,7 +3428,7 @@
         <v>695534</v>
       </c>
       <c r="C216" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3439,7 +3439,7 @@
         <v>605400</v>
       </c>
       <c r="C217" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3450,7 +3450,7 @@
         <v>663855</v>
       </c>
       <c r="C218" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3461,7 +3461,7 @@
         <v>678368</v>
       </c>
       <c r="C219" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3472,7 +3472,7 @@
         <v>594902</v>
       </c>
       <c r="C220" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3483,7 +3483,7 @@
         <v>656557</v>
       </c>
       <c r="C221" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3494,7 +3494,7 @@
         <v>669713</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3505,7 +3505,7 @@
         <v>570632</v>
       </c>
       <c r="C223" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3516,7 +3516,7 @@
         <v>695418</v>
       </c>
       <c r="C224" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3527,7 +3527,7 @@
         <v>663372</v>
       </c>
       <c r="C225" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3538,7 +3538,7 @@
         <v>471911</v>
       </c>
       <c r="C226" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3549,7 +3549,7 @@
         <v>686249</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3560,7 +3560,7 @@
         <v>527048</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="236">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,186 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Civale</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>Gavin Williams</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Grant Holmes</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>Kevin Gausman</t>
+  </si>
+  <si>
+    <t>Kris Bubic</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Matthew Liberatore</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Michael Wacha</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Randy Vásquez</t>
+  </si>
+  <si>
+    <t>Ranger Suárez</t>
+  </si>
+  <si>
+    <t>Robbie Ray</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Trevor Rogers</t>
+  </si>
+  <si>
+    <t>Tyler Anderson</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Cade Horton</t>
+  </si>
+  <si>
+    <t>Bradley Blalock</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Davis Daniel</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>Joey Cantillo</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>Simeon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Brandon Young</t>
+  </si>
+  <si>
+    <t>Brad Lord</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Chase Burns</t>
+  </si>
+  <si>
+    <t>Cam Schlittler</t>
+  </si>
+  <si>
     <t>Austin Gomber</t>
   </si>
   <si>
@@ -46,9 +226,6 @@
     <t>Eury Perez</t>
   </si>
   <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
     <t>Hayden Birdsong</t>
   </si>
   <si>
@@ -61,9 +238,6 @@
     <t>Jake Irvin</t>
   </si>
   <si>
-    <t>Kevin Gausman</t>
-  </si>
-  <si>
     <t>Kodai Senga</t>
   </si>
   <si>
@@ -73,21 +247,12 @@
     <t>Paul Skenes</t>
   </si>
   <si>
-    <t>Randy Vásquez</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
     <t>Shane Baz</t>
   </si>
   <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Tyler Anderson</t>
-  </si>
-  <si>
     <t>Walker Buehler</t>
   </si>
   <si>
@@ -100,99 +265,36 @@
     <t>Tomoyuki Sugano</t>
   </si>
   <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Colton Gordon</t>
   </si>
   <si>
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Aaron Civale</t>
-  </si>
-  <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Bryan Woo</t>
   </si>
   <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
-    <t>Gavin Williams</t>
-  </si>
-  <si>
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Grant Holmes</t>
-  </si>
-  <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
     <t>Jeffrey Springs</t>
   </si>
   <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
     <t>José Berríos</t>
   </si>
   <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
     <t>José Soriano</t>
   </si>
   <si>
-    <t>Kris Bubic</t>
-  </si>
-  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Miles Mikolas</t>
   </si>
   <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
-    <t>Ranger Suárez</t>
-  </si>
-  <si>
-    <t>Robbie Ray</t>
-  </si>
-  <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
-    <t>Trevor Rogers</t>
-  </si>
-  <si>
-    <t>Cade Horton</t>
-  </si>
-  <si>
     <t>Jacob Latz</t>
   </si>
   <si>
@@ -223,9 +325,6 @@
     <t>Keider Montero</t>
   </si>
   <si>
-    <t>Kumar Rocker</t>
-  </si>
-  <si>
     <t>Logan Allen</t>
   </si>
   <si>
@@ -235,12 +334,6 @@
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Michael Wacha</t>
-  </si>
-  <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
@@ -364,69 +457,24 @@
     <t>Ryan Zeferjahn</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>Davis Daniel</t>
-  </si>
-  <si>
-    <t>Joey Cantillo</t>
-  </si>
-  <si>
-    <t>Logan Gilbert</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Simeon Woods Richardson</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
-    <t>Brandon Young</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
     <t>Jack Kochanowicz</t>
   </si>
   <si>
     <t>Justin Hagenman</t>
   </si>
   <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Frankie Montas</t>
-  </si>
-  <si>
     <t>Jordan Wicks</t>
   </si>
   <si>
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>Matthew Liberatore</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
     <t>Chad Patrick</t>
   </si>
   <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
     <t>Travis Adams</t>
   </si>
   <si>
@@ -448,12 +496,6 @@
     <t>Braxton Ashcraft</t>
   </si>
   <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
     <t>Max Fried</t>
   </si>
   <si>
@@ -472,18 +514,9 @@
     <t>Blade Tidwell</t>
   </si>
   <si>
-    <t>Jacob Misiorowski</t>
-  </si>
-  <si>
     <t>Didier Fuentes</t>
   </si>
   <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
     <t>Jameson Taillon</t>
   </si>
   <si>
@@ -508,9 +541,6 @@
     <t>Ryan Yarbrough</t>
   </si>
   <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
     <t>Matt Sauer</t>
   </si>
   <si>
@@ -532,9 +562,6 @@
     <t>Mick Abel</t>
   </si>
   <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
     <t>Cade Povich</t>
   </si>
   <si>
@@ -568,9 +595,6 @@
     <t>Connor Gillispie</t>
   </si>
   <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
     <t>Tylor Megill</t>
   </si>
   <si>
@@ -613,9 +637,6 @@
     <t>Max Meyer</t>
   </si>
   <si>
-    <t>Richard Fitts</t>
-  </si>
-  <si>
     <t>Corbin Burnes</t>
   </si>
   <si>
@@ -649,9 +670,6 @@
     <t>Bryse Wilson</t>
   </si>
   <si>
-    <t>J T Ginn</t>
-  </si>
-  <si>
     <t>Carmen Mlodzinski</t>
   </si>
   <si>
@@ -688,9 +706,6 @@
     <t>José Ureña</t>
   </si>
   <si>
-    <t>Brad Lord</t>
-  </si>
-  <si>
     <t>Ryan Feltner</t>
   </si>
   <si>
@@ -703,10 +718,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1086,10 +1101,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>596295</v>
+        <v>650644</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1097,10 +1112,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>676962</v>
+        <v>671096</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1108,15 +1123,15 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>663903</v>
+        <v>571760</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1124,10 +1139,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>693821</v>
+        <v>477132</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1135,10 +1150,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>607074</v>
+        <v>656849</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1146,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>701581</v>
+        <v>676979</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1157,10 +1172,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>691587</v>
+        <v>668909</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1171,7 +1186,7 @@
         <v>669923</v>
       </c>
       <c r="C10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1179,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>806185</v>
+        <v>656550</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1190,10 +1205,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>656427</v>
+        <v>686613</v>
       </c>
       <c r="C12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1201,10 +1216,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>683004</v>
+        <v>657746</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1212,10 +1227,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>663623</v>
+        <v>500779</v>
       </c>
       <c r="C14" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1226,7 +1241,7 @@
         <v>592332</v>
       </c>
       <c r="C15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1234,10 +1249,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>673540</v>
+        <v>663460</v>
       </c>
       <c r="C16" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1245,10 +1260,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>700241</v>
+        <v>677958</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1256,10 +1271,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>694973</v>
+        <v>573186</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1267,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>681190</v>
+        <v>669461</v>
       </c>
       <c r="C19" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1278,10 +1293,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>680732</v>
+        <v>518876</v>
       </c>
       <c r="C20" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1289,10 +1304,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>669358</v>
+        <v>608379</v>
       </c>
       <c r="C21" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1300,10 +1315,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>676440</v>
+        <v>680730</v>
       </c>
       <c r="C22" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1311,10 +1326,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>542881</v>
+        <v>681190</v>
       </c>
       <c r="C23" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1322,10 +1337,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>621111</v>
+        <v>624133</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1333,10 +1348,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>668678</v>
+        <v>592662</v>
       </c>
       <c r="C25" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1344,10 +1359,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>554430</v>
+        <v>686752</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1355,10 +1370,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>608372</v>
+        <v>676440</v>
       </c>
       <c r="C27" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1366,10 +1381,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>682052</v>
+        <v>669373</v>
       </c>
       <c r="C28" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1377,10 +1392,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>676467</v>
+        <v>669432</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1388,10 +1403,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>702070</v>
+        <v>542881</v>
       </c>
       <c r="C30" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1399,10 +1414,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>650644</v>
+        <v>682052</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1410,10 +1425,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>671096</v>
+        <v>690990</v>
       </c>
       <c r="C32" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1421,10 +1436,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>571760</v>
+        <v>687134</v>
       </c>
       <c r="C33" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1432,10 +1447,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>693433</v>
+        <v>663554</v>
       </c>
       <c r="C34" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1443,10 +1458,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>477132</v>
+        <v>650911</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1454,10 +1469,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>656849</v>
+        <v>669721</v>
       </c>
       <c r="C36" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1465,10 +1480,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>676979</v>
+        <v>663436</v>
       </c>
       <c r="C37" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1476,10 +1491,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>668909</v>
+        <v>656876</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1487,10 +1502,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>608566</v>
+        <v>593958</v>
       </c>
       <c r="C39" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1498,10 +1513,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>656550</v>
+        <v>665795</v>
       </c>
       <c r="C40" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1509,10 +1524,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>686613</v>
+        <v>607200</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1520,10 +1535,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>605488</v>
+        <v>664285</v>
       </c>
       <c r="C42" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1531,10 +1546,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>657746</v>
+        <v>593423</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1542,10 +1557,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>621244</v>
+        <v>669372</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1553,10 +1568,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>500779</v>
+        <v>594798</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1564,10 +1579,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>667755</v>
+        <v>676282</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1575,10 +1590,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>663460</v>
+        <v>543294</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1586,10 +1601,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>669022</v>
+        <v>689017</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1597,10 +1612,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>573186</v>
+        <v>669302</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1608,10 +1623,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>518876</v>
+        <v>571510</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1619,10 +1634,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>571945</v>
+        <v>453286</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1630,10 +1645,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>601713</v>
+        <v>656605</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1641,10 +1656,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>624133</v>
+        <v>448179</v>
       </c>
       <c r="C53" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1652,10 +1667,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>592662</v>
+        <v>690916</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1663,10 +1678,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>686752</v>
+        <v>680573</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1674,10 +1689,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>669373</v>
+        <v>808967</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1685,10 +1700,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>669432</v>
+        <v>687064</v>
       </c>
       <c r="C57" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1696,10 +1711,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>690990</v>
+        <v>695418</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1707,10 +1722,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>656641</v>
+        <v>663568</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1718,10 +1733,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>605288</v>
+        <v>694819</v>
       </c>
       <c r="C60" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1729,10 +1744,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>678394</v>
+        <v>695505</v>
       </c>
       <c r="C61" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1740,10 +1755,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>615698</v>
+        <v>693645</v>
       </c>
       <c r="C62" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1751,10 +1766,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>605280</v>
+        <v>596295</v>
       </c>
       <c r="C63" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1762,18 +1777,21 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>665152</v>
+        <v>676962</v>
       </c>
       <c r="C64" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
+      <c r="B65">
+        <v>663903</v>
+      </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1781,10 +1799,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>642547</v>
+        <v>693821</v>
       </c>
       <c r="C66" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1792,10 +1810,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>666214</v>
+        <v>607074</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1803,10 +1821,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>672456</v>
+        <v>701581</v>
       </c>
       <c r="C68" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1814,10 +1832,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>677958</v>
+        <v>691587</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1825,10 +1843,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>671106</v>
+        <v>806185</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1836,10 +1854,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>657277</v>
+        <v>656427</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1847,10 +1865,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>622663</v>
+        <v>683004</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1858,10 +1876,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>608379</v>
+        <v>663623</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1869,10 +1887,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>680730</v>
+        <v>673540</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1880,10 +1898,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>607259</v>
+        <v>700241</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1891,10 +1909,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>669194</v>
+        <v>694973</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1902,10 +1920,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>684007</v>
+        <v>680732</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1913,10 +1931,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>543243</v>
+        <v>669358</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1924,10 +1942,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>592836</v>
+        <v>621111</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1935,10 +1953,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>701542</v>
+        <v>668678</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1946,10 +1964,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>506433</v>
+        <v>554430</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1957,10 +1975,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>579328</v>
+        <v>608372</v>
       </c>
       <c r="C82" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1968,10 +1986,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>641793</v>
+        <v>676467</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1979,10 +1997,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>805673</v>
+        <v>702070</v>
       </c>
       <c r="C84" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1990,10 +2008,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>688138</v>
+        <v>693433</v>
       </c>
       <c r="C85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2001,10 +2019,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>681347</v>
+        <v>608566</v>
       </c>
       <c r="C86" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2012,10 +2030,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>669467</v>
+        <v>605488</v>
       </c>
       <c r="C87" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2023,10 +2041,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>663559</v>
+        <v>621244</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2034,10 +2052,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>694297</v>
+        <v>667755</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2045,10 +2063,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>687888</v>
+        <v>669022</v>
       </c>
       <c r="C90" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2056,10 +2074,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>450203</v>
+        <v>571945</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2067,10 +2085,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>605135</v>
+        <v>601713</v>
       </c>
       <c r="C92" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2078,10 +2096,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>663978</v>
+        <v>656641</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2089,10 +2107,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>607067</v>
+        <v>605288</v>
       </c>
       <c r="C94" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2100,10 +2118,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>656302</v>
+        <v>678394</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2111,10 +2129,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>666200</v>
+        <v>615698</v>
       </c>
       <c r="C96" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2122,10 +2140,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>686563</v>
+        <v>605280</v>
       </c>
       <c r="C97" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2133,21 +2151,18 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>676664</v>
+        <v>665152</v>
       </c>
       <c r="C98" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99">
-        <v>434378</v>
-      </c>
       <c r="C99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2155,10 +2170,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>607536</v>
+        <v>642547</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2166,10 +2181,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>608337</v>
+        <v>666214</v>
       </c>
       <c r="C101" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2177,10 +2192,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>622491</v>
+        <v>672456</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2188,10 +2203,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>647336</v>
+        <v>671106</v>
       </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2199,10 +2214,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>666157</v>
+        <v>657277</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2210,10 +2225,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>571578</v>
+        <v>622663</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2221,10 +2236,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>682990</v>
+        <v>607259</v>
       </c>
       <c r="C106" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2232,10 +2247,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>681857</v>
+        <v>669194</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2243,10 +2258,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>645261</v>
+        <v>684007</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2254,10 +2269,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>640455</v>
+        <v>543243</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2265,10 +2280,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>607625</v>
+        <v>592836</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2276,10 +2291,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>677944</v>
+        <v>701542</v>
       </c>
       <c r="C111" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2287,10 +2302,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>675911</v>
+        <v>506433</v>
       </c>
       <c r="C112" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2298,10 +2313,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>671737</v>
+        <v>579328</v>
       </c>
       <c r="C113" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2309,10 +2324,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>607192</v>
+        <v>641793</v>
       </c>
       <c r="C114" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2320,10 +2335,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>666171</v>
+        <v>805673</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2331,10 +2346,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>650911</v>
+        <v>688138</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2342,10 +2357,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>669721</v>
+        <v>681347</v>
       </c>
       <c r="C117" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2353,10 +2368,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>676282</v>
+        <v>669467</v>
       </c>
       <c r="C118" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2364,10 +2379,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>669302</v>
+        <v>663559</v>
       </c>
       <c r="C119" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2375,10 +2390,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>656605</v>
+        <v>694297</v>
       </c>
       <c r="C120" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2386,10 +2401,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>543135</v>
+        <v>687888</v>
       </c>
       <c r="C121" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2397,10 +2412,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>680573</v>
+        <v>450203</v>
       </c>
       <c r="C122" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2408,10 +2423,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>808967</v>
+        <v>605135</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2419,10 +2434,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>687064</v>
+        <v>663978</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2430,10 +2445,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>593958</v>
+        <v>607067</v>
       </c>
       <c r="C125" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2441,10 +2456,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>686799</v>
+        <v>656302</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2452,10 +2467,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>663795</v>
+        <v>666200</v>
       </c>
       <c r="C127" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2463,10 +2478,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>663554</v>
+        <v>686563</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2474,10 +2489,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>664285</v>
+        <v>676664</v>
       </c>
       <c r="C129" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2485,10 +2500,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>593423</v>
+        <v>434378</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2496,10 +2511,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>696136</v>
+        <v>607536</v>
       </c>
       <c r="C131" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2507,10 +2522,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>680736</v>
+        <v>608337</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2518,10 +2533,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>669461</v>
+        <v>622491</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2529,10 +2544,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>453286</v>
+        <v>647336</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2540,10 +2555,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>694477</v>
+        <v>666157</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2551,10 +2566,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>663568</v>
+        <v>571578</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2562,10 +2577,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>701519</v>
+        <v>682990</v>
       </c>
       <c r="C137" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2573,10 +2588,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>642216</v>
+        <v>681857</v>
       </c>
       <c r="C138" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2584,10 +2599,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>641927</v>
+        <v>645261</v>
       </c>
       <c r="C139" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2595,10 +2610,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>621112</v>
+        <v>640455</v>
       </c>
       <c r="C140" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2606,10 +2621,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>680885</v>
+        <v>607625</v>
       </c>
       <c r="C141" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2617,10 +2632,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>681343</v>
+        <v>677944</v>
       </c>
       <c r="C142" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2628,10 +2643,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>677952</v>
+        <v>675911</v>
       </c>
       <c r="C143" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2639,10 +2654,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>594798</v>
+        <v>671737</v>
       </c>
       <c r="C144" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2650,10 +2665,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>571510</v>
+        <v>607192</v>
       </c>
       <c r="C145" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2661,10 +2676,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>608331</v>
+        <v>666171</v>
       </c>
       <c r="C146" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2672,10 +2687,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>547179</v>
+        <v>543135</v>
       </c>
       <c r="C147" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2683,10 +2698,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>605513</v>
+        <v>686799</v>
       </c>
       <c r="C148" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2694,10 +2709,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>641302</v>
+        <v>663795</v>
       </c>
       <c r="C149" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2705,10 +2720,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>690928</v>
+        <v>696136</v>
       </c>
       <c r="C150" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2716,10 +2731,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>694918</v>
+        <v>680736</v>
       </c>
       <c r="C151" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2727,10 +2742,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>694819</v>
+        <v>694477</v>
       </c>
       <c r="C152" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2738,10 +2753,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>800311</v>
+        <v>701519</v>
       </c>
       <c r="C153" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2749,10 +2764,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>665795</v>
+        <v>642216</v>
       </c>
       <c r="C154" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2760,10 +2775,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>607200</v>
+        <v>641927</v>
       </c>
       <c r="C155" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2771,10 +2786,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>592791</v>
+        <v>621112</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2782,10 +2797,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>592866</v>
+        <v>680885</v>
       </c>
       <c r="C157" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2793,10 +2808,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>801403</v>
+        <v>681343</v>
       </c>
       <c r="C158" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2804,10 +2819,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>686701</v>
+        <v>677952</v>
       </c>
       <c r="C159" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2815,10 +2830,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>678024</v>
+        <v>608331</v>
       </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2826,10 +2841,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>800049</v>
+        <v>547179</v>
       </c>
       <c r="C161" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2837,10 +2852,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>519242</v>
+        <v>605513</v>
       </c>
       <c r="C162" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2848,10 +2863,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>642232</v>
+        <v>641302</v>
       </c>
       <c r="C163" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2859,10 +2874,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>543294</v>
+        <v>690928</v>
       </c>
       <c r="C164" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2870,10 +2885,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>669422</v>
+        <v>694918</v>
       </c>
       <c r="C165" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2881,10 +2896,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>669920</v>
+        <v>800311</v>
       </c>
       <c r="C166" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2892,10 +2907,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>657376</v>
+        <v>592791</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2903,10 +2918,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>621107</v>
+        <v>592866</v>
       </c>
       <c r="C168" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2914,10 +2929,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>676508</v>
+        <v>801403</v>
       </c>
       <c r="C169" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2925,10 +2940,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>687223</v>
+        <v>686701</v>
       </c>
       <c r="C170" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2936,10 +2951,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>690953</v>
+        <v>678024</v>
       </c>
       <c r="C171" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2947,10 +2962,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>663436</v>
+        <v>800049</v>
       </c>
       <c r="C172" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2958,10 +2973,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>700249</v>
+        <v>519242</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2969,10 +2984,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>656288</v>
+        <v>642232</v>
       </c>
       <c r="C174" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2980,10 +2995,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>690986</v>
+        <v>669422</v>
       </c>
       <c r="C175" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2991,10 +3006,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>687765</v>
+        <v>669920</v>
       </c>
       <c r="C176" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3002,10 +3017,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>641816</v>
+        <v>657376</v>
       </c>
       <c r="C177" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3013,10 +3028,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>687830</v>
+        <v>621107</v>
       </c>
       <c r="C178" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3024,18 +3039,21 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>676106</v>
+        <v>676508</v>
       </c>
       <c r="C179" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>180</v>
       </c>
+      <c r="B180">
+        <v>687223</v>
+      </c>
       <c r="C180" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3043,10 +3061,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>489119</v>
+        <v>690953</v>
       </c>
       <c r="C181" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3054,18 +3072,21 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>670102</v>
+        <v>700249</v>
       </c>
       <c r="C182" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>183</v>
       </c>
+      <c r="B183">
+        <v>656288</v>
+      </c>
       <c r="C183" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3073,10 +3094,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>689017</v>
+        <v>690986</v>
       </c>
       <c r="C184" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3084,10 +3105,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>656731</v>
+        <v>687765</v>
       </c>
       <c r="C185" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3095,10 +3116,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>676961</v>
+        <v>641816</v>
       </c>
       <c r="C186" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3106,10 +3127,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>677960</v>
+        <v>687830</v>
       </c>
       <c r="C187" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3117,21 +3138,18 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>682243</v>
+        <v>676106</v>
       </c>
       <c r="C188" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
-      <c r="B189">
-        <v>605452</v>
-      </c>
       <c r="C189" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3139,10 +3157,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>666142</v>
+        <v>489119</v>
       </c>
       <c r="C190" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3150,21 +3168,18 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>689017</v>
+        <v>670102</v>
       </c>
       <c r="C191" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>664062</v>
-      </c>
       <c r="C192" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3172,10 +3187,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>687473</v>
+        <v>656731</v>
       </c>
       <c r="C193" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3183,10 +3198,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>676428</v>
+        <v>676961</v>
       </c>
       <c r="C194" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3194,10 +3209,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>668881</v>
+        <v>677960</v>
       </c>
       <c r="C195" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3205,10 +3220,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>674370</v>
+        <v>682243</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3216,10 +3231,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>641154</v>
+        <v>605452</v>
       </c>
       <c r="C197" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3227,10 +3242,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>676974</v>
+        <v>666142</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3238,10 +3253,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>690916</v>
+        <v>689017</v>
       </c>
       <c r="C199" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3249,10 +3264,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>669203</v>
+        <v>664062</v>
       </c>
       <c r="C200" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3260,10 +3275,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>680684</v>
+        <v>687473</v>
       </c>
       <c r="C201" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3271,10 +3286,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>700363</v>
+        <v>676428</v>
       </c>
       <c r="C202" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3282,10 +3297,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>663465</v>
+        <v>668881</v>
       </c>
       <c r="C203" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3293,10 +3308,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>685299</v>
+        <v>674370</v>
       </c>
       <c r="C204" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3304,10 +3319,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>695549</v>
+        <v>641154</v>
       </c>
       <c r="C205" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3315,10 +3330,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>663738</v>
+        <v>676974</v>
       </c>
       <c r="C206" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3326,10 +3341,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>701656</v>
+        <v>669203</v>
       </c>
       <c r="C207" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3337,10 +3352,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>650633</v>
+        <v>680684</v>
       </c>
       <c r="C208" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3348,10 +3363,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>694646</v>
+        <v>700363</v>
       </c>
       <c r="C209" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3359,10 +3374,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>669060</v>
+        <v>663465</v>
       </c>
       <c r="C210" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3370,10 +3385,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>669372</v>
+        <v>685299</v>
       </c>
       <c r="C211" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3381,10 +3396,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>669387</v>
+        <v>695549</v>
       </c>
       <c r="C212" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3392,10 +3407,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>502043</v>
+        <v>663738</v>
       </c>
       <c r="C213" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3403,10 +3418,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>669854</v>
+        <v>701656</v>
       </c>
       <c r="C214" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3414,10 +3429,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>668964</v>
+        <v>650633</v>
       </c>
       <c r="C215" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3425,10 +3440,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>695534</v>
+        <v>694646</v>
       </c>
       <c r="C216" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3436,10 +3451,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>605400</v>
+        <v>669060</v>
       </c>
       <c r="C217" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3447,10 +3462,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>663855</v>
+        <v>669387</v>
       </c>
       <c r="C218" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3458,10 +3473,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>678368</v>
+        <v>502043</v>
       </c>
       <c r="C219" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3469,10 +3484,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>594902</v>
+        <v>669854</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3480,10 +3495,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>656557</v>
+        <v>668964</v>
       </c>
       <c r="C221" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3491,10 +3506,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>669713</v>
+        <v>695534</v>
       </c>
       <c r="C222" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3502,10 +3517,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>570632</v>
+        <v>605400</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3513,10 +3528,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>695418</v>
+        <v>663855</v>
       </c>
       <c r="C224" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3524,10 +3539,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>663372</v>
+        <v>678368</v>
       </c>
       <c r="C225" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3535,10 +3550,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>471911</v>
+        <v>594902</v>
       </c>
       <c r="C226" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3546,10 +3561,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>686249</v>
+        <v>656557</v>
       </c>
       <c r="C227" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3557,10 +3572,65 @@
         <v>228</v>
       </c>
       <c r="B228">
+        <v>669713</v>
+      </c>
+      <c r="C228" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>570632</v>
+      </c>
+      <c r="C229" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>663372</v>
+      </c>
+      <c r="C230" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>471911</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>686249</v>
+      </c>
+      <c r="C232" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
         <v>527048</v>
       </c>
-      <c r="C228" t="s">
-        <v>229</v>
+      <c r="C233" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="237">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,90 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Ben Brown</t>
+  </si>
+  <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Eury Perez</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>Jack Flaherty</t>
+  </si>
+  <si>
+    <t>Jack Leiter</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Joey Cantillo</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Sean Burke</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Zac Gallen</t>
+  </si>
+  <si>
+    <t>Zack Wheeler</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Stephen Kolek</t>
+  </si>
+  <si>
+    <t>Colton Gordon</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Travis Adams</t>
+  </si>
+  <si>
+    <t>Carson Seymour</t>
+  </si>
+  <si>
     <t>Aaron Civale</t>
   </si>
   <si>
@@ -148,30 +232,15 @@
     <t>Frankie Montas</t>
   </si>
   <si>
-    <t>J T Ginn</t>
-  </si>
-  <si>
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>Joey Cantillo</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
     <t>Landen Roupp</t>
   </si>
   <si>
-    <t>Logan Gilbert</t>
-  </si>
-  <si>
     <t>Matthew Boyd</t>
   </si>
   <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
     <t>Mitch Keller</t>
   </si>
   <si>
@@ -193,9 +262,6 @@
     <t>Brad Lord</t>
   </si>
   <si>
-    <t>Stephen Kolek</t>
-  </si>
-  <si>
     <t>Jacob Misiorowski</t>
   </si>
   <si>
@@ -205,72 +271,12 @@
     <t>Cam Schlittler</t>
   </si>
   <si>
-    <t>Austin Gomber</t>
-  </si>
-  <si>
-    <t>Ben Brown</t>
-  </si>
-  <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
-    <t>Eury Perez</t>
-  </si>
-  <si>
     <t>Hayden Birdsong</t>
   </si>
   <si>
-    <t>Jack Flaherty</t>
-  </si>
-  <si>
-    <t>Jack Leiter</t>
-  </si>
-  <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Michael McGreevy</t>
-  </si>
-  <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
-    <t>Sean Burke</t>
-  </si>
-  <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
-    <t>Zac Gallen</t>
-  </si>
-  <si>
-    <t>Zack Wheeler</t>
-  </si>
-  <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
-    <t>Colton Gordon</t>
-  </si>
-  <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
     <t>Bryan Woo</t>
   </si>
   <si>
@@ -475,9 +481,6 @@
     <t>Chad Patrick</t>
   </si>
   <si>
-    <t>Travis Adams</t>
-  </si>
-  <si>
     <t>Allan Winans</t>
   </si>
   <si>
@@ -718,10 +721,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C233"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>650644</v>
+        <v>596295</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1112,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>671096</v>
+        <v>676962</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1123,15 +1126,15 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>571760</v>
+        <v>663903</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1139,10 +1142,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>477132</v>
+        <v>693821</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1150,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>656849</v>
+        <v>607074</v>
       </c>
       <c r="C7" t="s">
         <v>235</v>
@@ -1161,10 +1164,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>676979</v>
+        <v>691587</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1172,10 +1175,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>668909</v>
+        <v>669372</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1183,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>669923</v>
+        <v>656427</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1194,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>656550</v>
+        <v>683004</v>
       </c>
       <c r="C11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1205,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>686613</v>
+        <v>663623</v>
       </c>
       <c r="C12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1216,10 +1219,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>657746</v>
+        <v>676282</v>
       </c>
       <c r="C13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1227,10 +1230,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>500779</v>
+        <v>673540</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1238,10 +1241,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>592332</v>
+        <v>543294</v>
       </c>
       <c r="C15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1249,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>663460</v>
+        <v>669302</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1260,10 +1263,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>677958</v>
+        <v>453286</v>
       </c>
       <c r="C17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1271,10 +1274,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>573186</v>
+        <v>700241</v>
       </c>
       <c r="C18" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1282,10 +1285,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>669461</v>
+        <v>694973</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1293,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>518876</v>
+        <v>680732</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1304,10 +1307,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>608379</v>
+        <v>669358</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1315,10 +1318,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>680730</v>
+        <v>621111</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1326,10 +1329,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>681190</v>
+        <v>668678</v>
       </c>
       <c r="C23" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1337,10 +1340,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>624133</v>
+        <v>554430</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1348,10 +1351,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>592662</v>
+        <v>608372</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1359,10 +1362,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>686752</v>
+        <v>663568</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1370,10 +1373,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>676440</v>
+        <v>676467</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1381,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>669373</v>
+        <v>702070</v>
       </c>
       <c r="C28" t="s">
         <v>235</v>
@@ -1392,10 +1395,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>669432</v>
+        <v>701519</v>
       </c>
       <c r="C29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1403,10 +1406,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>542881</v>
+        <v>693313</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1414,10 +1417,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>682052</v>
+        <v>650644</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1425,10 +1428,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>690990</v>
+        <v>671096</v>
       </c>
       <c r="C32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1436,10 +1439,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>687134</v>
+        <v>571760</v>
       </c>
       <c r="C33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1447,10 +1450,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>663554</v>
+        <v>477132</v>
       </c>
       <c r="C34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1458,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>650911</v>
+        <v>656849</v>
       </c>
       <c r="C35" t="s">
         <v>235</v>
@@ -1469,10 +1472,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>669721</v>
+        <v>676979</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1480,10 +1483,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>663436</v>
+        <v>668909</v>
       </c>
       <c r="C37" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1491,10 +1494,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>656876</v>
+        <v>669923</v>
       </c>
       <c r="C38" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1502,10 +1505,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>593958</v>
+        <v>656550</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1513,10 +1516,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>665795</v>
+        <v>686613</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1524,10 +1527,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>607200</v>
+        <v>657746</v>
       </c>
       <c r="C41" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1535,7 +1538,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>664285</v>
+        <v>500779</v>
       </c>
       <c r="C42" t="s">
         <v>235</v>
@@ -1546,10 +1549,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>593423</v>
+        <v>592332</v>
       </c>
       <c r="C43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1557,10 +1560,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>669372</v>
+        <v>663460</v>
       </c>
       <c r="C44" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1568,10 +1571,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>594798</v>
+        <v>677958</v>
       </c>
       <c r="C45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1579,10 +1582,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>676282</v>
+        <v>573186</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1590,10 +1593,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>543294</v>
+        <v>669461</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1601,10 +1604,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>689017</v>
+        <v>518876</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1612,10 +1615,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>669302</v>
+        <v>608379</v>
       </c>
       <c r="C49" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1623,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>571510</v>
+        <v>680730</v>
       </c>
       <c r="C50" t="s">
         <v>235</v>
@@ -1634,10 +1637,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>453286</v>
+        <v>681190</v>
       </c>
       <c r="C51" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1645,10 +1648,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>656605</v>
+        <v>624133</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1656,7 +1659,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>448179</v>
+        <v>592662</v>
       </c>
       <c r="C53" t="s">
         <v>235</v>
@@ -1667,10 +1670,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>690916</v>
+        <v>686752</v>
       </c>
       <c r="C54" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1678,10 +1681,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>680573</v>
+        <v>676440</v>
       </c>
       <c r="C55" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1689,10 +1692,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>808967</v>
+        <v>669373</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1700,10 +1703,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>687064</v>
+        <v>669432</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1711,10 +1714,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>695418</v>
+        <v>542881</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1722,10 +1725,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>663568</v>
+        <v>682052</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1733,10 +1736,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>694819</v>
+        <v>690990</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1744,10 +1747,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>695505</v>
+        <v>687134</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1755,10 +1758,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>693645</v>
+        <v>663554</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1766,7 +1769,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>596295</v>
+        <v>650911</v>
       </c>
       <c r="C63" t="s">
         <v>235</v>
@@ -1777,10 +1780,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>676962</v>
+        <v>669721</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1788,10 +1791,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>663903</v>
+        <v>663436</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1799,10 +1802,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>693821</v>
+        <v>656876</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1810,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>607074</v>
+        <v>593958</v>
       </c>
       <c r="C67" t="s">
         <v>235</v>
@@ -1821,10 +1824,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>701581</v>
+        <v>665795</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1832,10 +1835,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>691587</v>
+        <v>607200</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1843,10 +1846,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>806185</v>
+        <v>664285</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1854,10 +1857,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>656427</v>
+        <v>593423</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1865,10 +1868,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>683004</v>
+        <v>594798</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1876,10 +1879,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>663623</v>
+        <v>689017</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1887,10 +1890,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>673540</v>
+        <v>571510</v>
       </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1898,10 +1901,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>700241</v>
+        <v>656605</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1909,10 +1912,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>694973</v>
+        <v>448179</v>
       </c>
       <c r="C76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1920,10 +1923,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>680732</v>
+        <v>690916</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1931,10 +1934,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>669358</v>
+        <v>680573</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1942,10 +1945,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>621111</v>
+        <v>808967</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1953,10 +1956,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>668678</v>
+        <v>687064</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1964,10 +1967,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>554430</v>
+        <v>695418</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1975,10 +1978,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>608372</v>
+        <v>694819</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1986,10 +1989,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>676467</v>
+        <v>695505</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1997,10 +2000,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>702070</v>
+        <v>693645</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2008,10 +2011,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>693433</v>
+        <v>701581</v>
       </c>
       <c r="C85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2019,10 +2022,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>608566</v>
+        <v>806185</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2030,10 +2033,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>605488</v>
+        <v>693433</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2041,10 +2044,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>621244</v>
+        <v>608566</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2052,10 +2055,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>667755</v>
+        <v>605488</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2063,10 +2066,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>669022</v>
+        <v>621244</v>
       </c>
       <c r="C90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2074,10 +2077,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>571945</v>
+        <v>667755</v>
       </c>
       <c r="C91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2085,10 +2088,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>601713</v>
+        <v>669022</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2096,10 +2099,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>656641</v>
+        <v>571945</v>
       </c>
       <c r="C93" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2107,10 +2110,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>605288</v>
+        <v>601713</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2118,10 +2121,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>678394</v>
+        <v>656641</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2129,10 +2132,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>615698</v>
+        <v>605288</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2140,10 +2143,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>605280</v>
+        <v>678394</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2151,18 +2154,21 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>665152</v>
+        <v>615698</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
+      <c r="B99">
+        <v>605280</v>
+      </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2170,21 +2176,18 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>642547</v>
+        <v>665152</v>
       </c>
       <c r="C100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
-      <c r="B101">
-        <v>666214</v>
-      </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2192,10 +2195,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>672456</v>
+        <v>642547</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2203,7 +2206,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>671106</v>
+        <v>666214</v>
       </c>
       <c r="C103" t="s">
         <v>235</v>
@@ -2214,10 +2217,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>657277</v>
+        <v>672456</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2225,10 +2228,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>622663</v>
+        <v>671106</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2236,10 +2239,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>607259</v>
+        <v>657277</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2247,10 +2250,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>669194</v>
+        <v>622663</v>
       </c>
       <c r="C107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2258,10 +2261,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>684007</v>
+        <v>607259</v>
       </c>
       <c r="C108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2269,10 +2272,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>543243</v>
+        <v>669194</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2280,10 +2283,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>592836</v>
+        <v>684007</v>
       </c>
       <c r="C110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2291,10 +2294,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>701542</v>
+        <v>543243</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2302,10 +2305,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>506433</v>
+        <v>592836</v>
       </c>
       <c r="C112" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2313,10 +2316,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>579328</v>
+        <v>701542</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2324,10 +2327,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>641793</v>
+        <v>506433</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2335,10 +2338,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>805673</v>
+        <v>579328</v>
       </c>
       <c r="C115" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2346,10 +2349,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>688138</v>
+        <v>641793</v>
       </c>
       <c r="C116" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2357,10 +2360,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>681347</v>
+        <v>805673</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2368,10 +2371,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>669467</v>
+        <v>688138</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2379,10 +2382,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>663559</v>
+        <v>681347</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2390,10 +2393,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>694297</v>
+        <v>669467</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2401,7 +2404,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>687888</v>
+        <v>663559</v>
       </c>
       <c r="C121" t="s">
         <v>235</v>
@@ -2412,10 +2415,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>450203</v>
+        <v>694297</v>
       </c>
       <c r="C122" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2423,10 +2426,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>605135</v>
+        <v>687888</v>
       </c>
       <c r="C123" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2434,10 +2437,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>663978</v>
+        <v>450203</v>
       </c>
       <c r="C124" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2445,10 +2448,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>607067</v>
+        <v>605135</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2456,10 +2459,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>656302</v>
+        <v>663978</v>
       </c>
       <c r="C126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2467,10 +2470,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>666200</v>
+        <v>607067</v>
       </c>
       <c r="C127" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2478,10 +2481,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>686563</v>
+        <v>656302</v>
       </c>
       <c r="C128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2489,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>676664</v>
+        <v>666200</v>
       </c>
       <c r="C129" t="s">
         <v>235</v>
@@ -2500,10 +2503,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>434378</v>
+        <v>686563</v>
       </c>
       <c r="C130" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2511,7 +2514,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>607536</v>
+        <v>676664</v>
       </c>
       <c r="C131" t="s">
         <v>235</v>
@@ -2522,10 +2525,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>608337</v>
+        <v>434378</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2533,10 +2536,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>622491</v>
+        <v>607536</v>
       </c>
       <c r="C133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2544,10 +2547,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>647336</v>
+        <v>608337</v>
       </c>
       <c r="C134" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2555,10 +2558,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>666157</v>
+        <v>622491</v>
       </c>
       <c r="C135" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2566,10 +2569,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>571578</v>
+        <v>647336</v>
       </c>
       <c r="C136" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2577,10 +2580,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>682990</v>
+        <v>666157</v>
       </c>
       <c r="C137" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2588,10 +2591,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>681857</v>
+        <v>571578</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2599,10 +2602,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>645261</v>
+        <v>682990</v>
       </c>
       <c r="C139" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2610,10 +2613,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>640455</v>
+        <v>681857</v>
       </c>
       <c r="C140" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2621,10 +2624,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>607625</v>
+        <v>645261</v>
       </c>
       <c r="C141" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2632,10 +2635,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>677944</v>
+        <v>640455</v>
       </c>
       <c r="C142" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2643,10 +2646,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>675911</v>
+        <v>607625</v>
       </c>
       <c r="C143" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2654,10 +2657,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>671737</v>
+        <v>677944</v>
       </c>
       <c r="C144" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2665,10 +2668,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>607192</v>
+        <v>675911</v>
       </c>
       <c r="C145" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2676,10 +2679,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>666171</v>
+        <v>671737</v>
       </c>
       <c r="C146" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2687,10 +2690,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>543135</v>
+        <v>607192</v>
       </c>
       <c r="C147" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2698,10 +2701,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>686799</v>
+        <v>666171</v>
       </c>
       <c r="C148" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2709,10 +2712,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>663795</v>
+        <v>543135</v>
       </c>
       <c r="C149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2720,10 +2723,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>696136</v>
+        <v>686799</v>
       </c>
       <c r="C150" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2731,10 +2734,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>680736</v>
+        <v>663795</v>
       </c>
       <c r="C151" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2742,10 +2745,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>694477</v>
+        <v>696136</v>
       </c>
       <c r="C152" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2753,10 +2756,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>701519</v>
+        <v>680736</v>
       </c>
       <c r="C153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2764,10 +2767,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>642216</v>
+        <v>694477</v>
       </c>
       <c r="C154" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2775,10 +2778,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>641927</v>
+        <v>642216</v>
       </c>
       <c r="C155" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2786,10 +2789,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>621112</v>
+        <v>641927</v>
       </c>
       <c r="C156" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2797,10 +2800,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>680885</v>
+        <v>621112</v>
       </c>
       <c r="C157" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2808,10 +2811,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>681343</v>
+        <v>680885</v>
       </c>
       <c r="C158" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2819,10 +2822,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>677952</v>
+        <v>681343</v>
       </c>
       <c r="C159" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2830,10 +2833,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>608331</v>
+        <v>677952</v>
       </c>
       <c r="C160" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2841,10 +2844,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>547179</v>
+        <v>608331</v>
       </c>
       <c r="C161" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2852,10 +2855,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>605513</v>
+        <v>547179</v>
       </c>
       <c r="C162" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2863,10 +2866,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>641302</v>
+        <v>605513</v>
       </c>
       <c r="C163" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2874,10 +2877,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>690928</v>
+        <v>641302</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2885,10 +2888,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>694918</v>
+        <v>690928</v>
       </c>
       <c r="C165" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2896,10 +2899,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>800311</v>
+        <v>694918</v>
       </c>
       <c r="C166" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2907,10 +2910,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>592791</v>
+        <v>800311</v>
       </c>
       <c r="C167" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2918,10 +2921,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>592866</v>
+        <v>592791</v>
       </c>
       <c r="C168" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2929,10 +2932,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>801403</v>
+        <v>592866</v>
       </c>
       <c r="C169" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2940,10 +2943,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>686701</v>
+        <v>801403</v>
       </c>
       <c r="C170" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2951,10 +2954,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>678024</v>
+        <v>686701</v>
       </c>
       <c r="C171" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2962,10 +2965,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>800049</v>
+        <v>678024</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2973,10 +2976,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>519242</v>
+        <v>800049</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2984,7 +2987,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>642232</v>
+        <v>519242</v>
       </c>
       <c r="C174" t="s">
         <v>235</v>
@@ -2995,10 +2998,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>669422</v>
+        <v>642232</v>
       </c>
       <c r="C175" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3006,10 +3009,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>669920</v>
+        <v>669422</v>
       </c>
       <c r="C176" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3017,10 +3020,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>657376</v>
+        <v>669920</v>
       </c>
       <c r="C177" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3028,10 +3031,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>621107</v>
+        <v>657376</v>
       </c>
       <c r="C178" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3039,10 +3042,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>676508</v>
+        <v>621107</v>
       </c>
       <c r="C179" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3050,10 +3053,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>687223</v>
+        <v>676508</v>
       </c>
       <c r="C180" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3061,10 +3064,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>690953</v>
+        <v>687223</v>
       </c>
       <c r="C181" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3072,10 +3075,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>700249</v>
+        <v>690953</v>
       </c>
       <c r="C182" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3083,10 +3086,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>656288</v>
+        <v>700249</v>
       </c>
       <c r="C183" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3094,10 +3097,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>690986</v>
+        <v>656288</v>
       </c>
       <c r="C184" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3105,10 +3108,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>687765</v>
+        <v>690986</v>
       </c>
       <c r="C185" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3116,10 +3119,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>641816</v>
+        <v>687765</v>
       </c>
       <c r="C186" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3127,10 +3130,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>687830</v>
+        <v>641816</v>
       </c>
       <c r="C187" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3138,29 +3141,29 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>676106</v>
+        <v>687830</v>
       </c>
       <c r="C188" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>189</v>
       </c>
+      <c r="B189">
+        <v>676106</v>
+      </c>
       <c r="C189" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
-      <c r="B190">
-        <v>489119</v>
-      </c>
       <c r="C190" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3168,29 +3171,29 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>670102</v>
+        <v>489119</v>
       </c>
       <c r="C191" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
+      <c r="B192">
+        <v>670102</v>
+      </c>
       <c r="C192" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
-      <c r="B193">
-        <v>656731</v>
-      </c>
       <c r="C193" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3198,10 +3201,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>676961</v>
+        <v>656731</v>
       </c>
       <c r="C194" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3209,10 +3212,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>677960</v>
+        <v>676961</v>
       </c>
       <c r="C195" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3220,10 +3223,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>682243</v>
+        <v>677960</v>
       </c>
       <c r="C196" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3231,10 +3234,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>605452</v>
+        <v>682243</v>
       </c>
       <c r="C197" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3242,10 +3245,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>666142</v>
+        <v>605452</v>
       </c>
       <c r="C198" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3253,10 +3256,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>689017</v>
+        <v>666142</v>
       </c>
       <c r="C199" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3264,10 +3267,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>664062</v>
+        <v>689017</v>
       </c>
       <c r="C200" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3275,10 +3278,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>687473</v>
+        <v>664062</v>
       </c>
       <c r="C201" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3286,10 +3289,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>676428</v>
+        <v>687473</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3297,10 +3300,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>668881</v>
+        <v>676428</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3308,10 +3311,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>674370</v>
+        <v>668881</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3319,10 +3322,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>641154</v>
+        <v>674370</v>
       </c>
       <c r="C205" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3330,10 +3333,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>676974</v>
+        <v>641154</v>
       </c>
       <c r="C206" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3341,10 +3344,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>669203</v>
+        <v>676974</v>
       </c>
       <c r="C207" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3352,10 +3355,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>680684</v>
+        <v>669203</v>
       </c>
       <c r="C208" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3363,10 +3366,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>700363</v>
+        <v>680684</v>
       </c>
       <c r="C209" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3374,10 +3377,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>663465</v>
+        <v>700363</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3385,10 +3388,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>685299</v>
+        <v>663465</v>
       </c>
       <c r="C211" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3396,10 +3399,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>695549</v>
+        <v>685299</v>
       </c>
       <c r="C212" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3407,10 +3410,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>663738</v>
+        <v>695549</v>
       </c>
       <c r="C213" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3418,10 +3421,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>701656</v>
+        <v>663738</v>
       </c>
       <c r="C214" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3429,10 +3432,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>650633</v>
+        <v>701656</v>
       </c>
       <c r="C215" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3440,10 +3443,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>694646</v>
+        <v>650633</v>
       </c>
       <c r="C216" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3451,10 +3454,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>669060</v>
+        <v>694646</v>
       </c>
       <c r="C217" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3462,10 +3465,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>669387</v>
+        <v>669060</v>
       </c>
       <c r="C218" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3473,10 +3476,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>502043</v>
+        <v>669387</v>
       </c>
       <c r="C219" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3484,10 +3487,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>669854</v>
+        <v>502043</v>
       </c>
       <c r="C220" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3495,10 +3498,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>668964</v>
+        <v>669854</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3506,10 +3509,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>695534</v>
+        <v>668964</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3517,10 +3520,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>605400</v>
+        <v>695534</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3528,10 +3531,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>663855</v>
+        <v>605400</v>
       </c>
       <c r="C224" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3539,10 +3542,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>678368</v>
+        <v>663855</v>
       </c>
       <c r="C225" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3550,10 +3553,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>594902</v>
+        <v>678368</v>
       </c>
       <c r="C226" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3561,10 +3564,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>656557</v>
+        <v>594902</v>
       </c>
       <c r="C227" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3572,10 +3575,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>669713</v>
+        <v>656557</v>
       </c>
       <c r="C228" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3583,10 +3586,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>570632</v>
+        <v>669713</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3594,10 +3597,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>663372</v>
+        <v>570632</v>
       </c>
       <c r="C230" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3605,10 +3608,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>471911</v>
+        <v>663372</v>
       </c>
       <c r="C231" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3616,10 +3619,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>686249</v>
+        <v>471911</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3627,9 +3630,20 @@
         <v>233</v>
       </c>
       <c r="B233">
+        <v>686249</v>
+      </c>
+      <c r="C233" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
         <v>527048</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>235</v>
       </c>
     </row>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="239">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,96 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bradley Blalock</t>
+  </si>
+  <si>
+    <t>Carson Whisenhunt</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Frankie Montas</t>
+  </si>
+  <si>
+    <t>Jack Kochanowicz</t>
+  </si>
+  <si>
+    <t>Jacob deGrom</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Rich Hill</t>
+  </si>
+  <si>
+    <t>Richard Fitts</t>
+  </si>
+  <si>
+    <t>Simeon Woods Richardson</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Spencer Strider</t>
+  </si>
+  <si>
+    <t>Yoshinobu Yamamoto</t>
+  </si>
+  <si>
+    <t>Zach Eflin</t>
+  </si>
+  <si>
+    <t>Brad Lord</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Chase Burns</t>
+  </si>
+  <si>
+    <t>Cam Schlittler</t>
+  </si>
+  <si>
+    <t>Troy Melton</t>
+  </si>
+  <si>
     <t>Austin Gomber</t>
   </si>
   <si>
@@ -199,78 +289,21 @@
     <t>Cade Horton</t>
   </si>
   <si>
-    <t>Bradley Blalock</t>
-  </si>
-  <si>
     <t>Casey Mize</t>
   </si>
   <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
     <t>Davis Daniel</t>
   </si>
   <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
-    <t>Drew Rasmussen</t>
-  </si>
-  <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
     <t>Erick Fedde</t>
   </si>
   <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
-    <t>Frankie Montas</t>
-  </si>
-  <si>
-    <t>Jacob deGrom</t>
-  </si>
-  <si>
     <t>Landen Roupp</t>
   </si>
   <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
-    <t>Rich Hill</t>
-  </si>
-  <si>
-    <t>Richard Fitts</t>
-  </si>
-  <si>
-    <t>Simeon Woods Richardson</t>
-  </si>
-  <si>
-    <t>Yoshinobu Yamamoto</t>
-  </si>
-  <si>
     <t>Brandon Young</t>
   </si>
   <si>
-    <t>Brad Lord</t>
-  </si>
-  <si>
-    <t>Jacob Misiorowski</t>
-  </si>
-  <si>
-    <t>Chase Burns</t>
-  </si>
-  <si>
-    <t>Cam Schlittler</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
@@ -376,9 +409,6 @@
     <t>Mike Burrows</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
@@ -391,27 +421,18 @@
     <t>Charlie Morton</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
     <t>Chris Paddack</t>
   </si>
   <si>
     <t>Colin Rea</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
@@ -421,9 +442,6 @@
     <t>Lucas Giolito</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
     <t>Michael Soroka</t>
   </si>
   <si>
@@ -448,12 +466,6 @@
     <t>Seth Lugo</t>
   </si>
   <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
-    <t>Spencer Strider</t>
-  </si>
-  <si>
     <t>Taj Bradley</t>
   </si>
   <si>
@@ -466,9 +478,6 @@
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Jack Kochanowicz</t>
-  </si>
-  <si>
     <t>Justin Hagenman</t>
   </si>
   <si>
@@ -553,9 +562,6 @@
     <t>Clarke Schmidt</t>
   </si>
   <si>
-    <t>Zach Eflin</t>
-  </si>
-  <si>
     <t>Ben Casparius</t>
   </si>
   <si>
@@ -721,10 +727,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,10 +1110,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>596295</v>
+        <v>669467</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1115,10 +1121,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>676962</v>
+        <v>687134</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1126,345 +1132,345 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>663903</v>
+        <v>687931</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>605135</v>
+      </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>693821</v>
+        <v>650911</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>607074</v>
+        <v>663436</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>691587</v>
+        <v>656876</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>669372</v>
+        <v>656302</v>
       </c>
       <c r="C9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>656427</v>
+        <v>593958</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>683004</v>
+        <v>665795</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>663623</v>
+        <v>664285</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>676282</v>
+        <v>593423</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>673540</v>
+        <v>686799</v>
       </c>
       <c r="C14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>543294</v>
+        <v>594798</v>
       </c>
       <c r="C15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>669302</v>
+        <v>676664</v>
       </c>
       <c r="C16" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>453286</v>
+        <v>622491</v>
       </c>
       <c r="C17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>700241</v>
+        <v>571510</v>
       </c>
       <c r="C18" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>694973</v>
+        <v>656605</v>
       </c>
       <c r="C19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>680732</v>
+        <v>448179</v>
       </c>
       <c r="C20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>669358</v>
+        <v>690916</v>
       </c>
       <c r="C21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>621111</v>
+        <v>680573</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>668678</v>
+        <v>677944</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>554430</v>
+        <v>675911</v>
       </c>
       <c r="C24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>608372</v>
+        <v>808967</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>663568</v>
+        <v>621107</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>676467</v>
+        <v>695418</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>702070</v>
+        <v>694819</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>701519</v>
+        <v>695505</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>693313</v>
+        <v>693645</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>650644</v>
+        <v>675512</v>
       </c>
       <c r="C31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>671096</v>
+        <v>596295</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>571760</v>
+        <v>676962</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>477132</v>
+        <v>663903</v>
       </c>
       <c r="C34" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>656849</v>
-      </c>
       <c r="C35" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1472,10 +1478,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>676979</v>
+        <v>693821</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1483,10 +1489,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>668909</v>
+        <v>607074</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1494,10 +1500,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>669923</v>
+        <v>691587</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1505,10 +1511,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>656550</v>
+        <v>669372</v>
       </c>
       <c r="C39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1516,10 +1522,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>686613</v>
+        <v>656427</v>
       </c>
       <c r="C40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1527,10 +1533,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>657746</v>
+        <v>683004</v>
       </c>
       <c r="C41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1538,10 +1544,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>500779</v>
+        <v>663623</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1549,10 +1555,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>592332</v>
+        <v>676282</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1560,10 +1566,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>663460</v>
+        <v>673540</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1571,10 +1577,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>677958</v>
+        <v>543294</v>
       </c>
       <c r="C45" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1582,10 +1588,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>573186</v>
+        <v>669302</v>
       </c>
       <c r="C46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1593,10 +1599,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>669461</v>
+        <v>453286</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1604,10 +1610,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>518876</v>
+        <v>700241</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1615,10 +1621,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>608379</v>
+        <v>694973</v>
       </c>
       <c r="C49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1626,10 +1632,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>680730</v>
+        <v>680732</v>
       </c>
       <c r="C50" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1637,10 +1643,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>681190</v>
+        <v>669358</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1648,10 +1654,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>624133</v>
+        <v>621111</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1659,10 +1665,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>592662</v>
+        <v>668678</v>
       </c>
       <c r="C53" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1670,10 +1676,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>686752</v>
+        <v>554430</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1681,10 +1687,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>676440</v>
+        <v>608372</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1692,10 +1698,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>669373</v>
+        <v>663568</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1703,10 +1709,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>669432</v>
+        <v>676467</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1714,10 +1720,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>542881</v>
+        <v>702070</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1725,10 +1731,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>682052</v>
+        <v>701519</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1736,10 +1742,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>690990</v>
+        <v>693313</v>
       </c>
       <c r="C60" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1747,10 +1753,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>687134</v>
+        <v>650644</v>
       </c>
       <c r="C61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1758,10 +1764,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>663554</v>
+        <v>671096</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1769,10 +1775,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>650911</v>
+        <v>571760</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1780,10 +1786,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>669721</v>
+        <v>477132</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1791,10 +1797,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>663436</v>
+        <v>656849</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1802,10 +1808,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>656876</v>
+        <v>676979</v>
       </c>
       <c r="C66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1813,10 +1819,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>593958</v>
+        <v>668909</v>
       </c>
       <c r="C67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1824,10 +1830,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>665795</v>
+        <v>669923</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1835,10 +1841,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>607200</v>
+        <v>656550</v>
       </c>
       <c r="C69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1846,10 +1852,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>664285</v>
+        <v>686613</v>
       </c>
       <c r="C70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1857,10 +1863,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>593423</v>
+        <v>657746</v>
       </c>
       <c r="C71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1868,10 +1874,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>594798</v>
+        <v>500779</v>
       </c>
       <c r="C72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1879,10 +1885,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>689017</v>
+        <v>592332</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1890,10 +1896,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>571510</v>
+        <v>663460</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1901,10 +1907,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>656605</v>
+        <v>677958</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1912,10 +1918,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>448179</v>
+        <v>573186</v>
       </c>
       <c r="C76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1923,10 +1929,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>690916</v>
+        <v>669461</v>
       </c>
       <c r="C77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1934,10 +1940,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>680573</v>
+        <v>518876</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1945,10 +1951,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>808967</v>
+        <v>608379</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1956,10 +1962,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>687064</v>
+        <v>680730</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1967,10 +1973,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>695418</v>
+        <v>681190</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1978,10 +1984,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>694819</v>
+        <v>624133</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1989,10 +1995,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>695505</v>
+        <v>592662</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2000,10 +2006,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>693645</v>
+        <v>686752</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2011,10 +2017,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>701581</v>
+        <v>676440</v>
       </c>
       <c r="C85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2022,10 +2028,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>806185</v>
+        <v>669373</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2033,10 +2039,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>693433</v>
+        <v>669432</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2044,10 +2050,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>608566</v>
+        <v>542881</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2055,10 +2061,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>605488</v>
+        <v>682052</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2066,10 +2072,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>621244</v>
+        <v>690990</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2077,10 +2083,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>667755</v>
+        <v>663554</v>
       </c>
       <c r="C91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2088,10 +2094,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>669022</v>
+        <v>669721</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2099,10 +2105,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>571945</v>
+        <v>607200</v>
       </c>
       <c r="C93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2110,10 +2116,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>601713</v>
+        <v>689017</v>
       </c>
       <c r="C94" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2121,10 +2127,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>656641</v>
+        <v>687064</v>
       </c>
       <c r="C95" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2132,10 +2138,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>605288</v>
+        <v>701581</v>
       </c>
       <c r="C96" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2143,10 +2149,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>678394</v>
+        <v>806185</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2154,10 +2160,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>615698</v>
+        <v>693433</v>
       </c>
       <c r="C98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2165,10 +2171,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>605280</v>
+        <v>608566</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2176,18 +2182,21 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>665152</v>
+        <v>605488</v>
       </c>
       <c r="C100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>101</v>
       </c>
+      <c r="B101">
+        <v>621244</v>
+      </c>
       <c r="C101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2195,10 +2204,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>642547</v>
+        <v>667755</v>
       </c>
       <c r="C102" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2206,10 +2215,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>666214</v>
+        <v>669022</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2217,10 +2226,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>672456</v>
+        <v>571945</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2228,10 +2237,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>671106</v>
+        <v>601713</v>
       </c>
       <c r="C105" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2239,10 +2248,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>657277</v>
+        <v>656641</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2250,10 +2259,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>622663</v>
+        <v>605288</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2261,10 +2270,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>607259</v>
+        <v>678394</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2272,10 +2281,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>669194</v>
+        <v>615698</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2283,10 +2292,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>684007</v>
+        <v>605280</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2294,21 +2303,18 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>543243</v>
+        <v>665152</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
-      <c r="B112">
-        <v>592836</v>
-      </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2316,10 +2322,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>701542</v>
+        <v>642547</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2327,10 +2333,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>506433</v>
+        <v>666214</v>
       </c>
       <c r="C114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2338,10 +2344,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>579328</v>
+        <v>672456</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2349,10 +2355,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>641793</v>
+        <v>671106</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2360,10 +2366,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>805673</v>
+        <v>657277</v>
       </c>
       <c r="C117" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2371,10 +2377,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>688138</v>
+        <v>622663</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2382,10 +2388,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>681347</v>
+        <v>607259</v>
       </c>
       <c r="C119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2393,10 +2399,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>669467</v>
+        <v>669194</v>
       </c>
       <c r="C120" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2404,10 +2410,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>663559</v>
+        <v>684007</v>
       </c>
       <c r="C121" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2415,10 +2421,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>694297</v>
+        <v>543243</v>
       </c>
       <c r="C122" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2426,10 +2432,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>687888</v>
+        <v>592836</v>
       </c>
       <c r="C123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2437,10 +2443,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>450203</v>
+        <v>701542</v>
       </c>
       <c r="C124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2448,10 +2454,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>605135</v>
+        <v>506433</v>
       </c>
       <c r="C125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2459,10 +2465,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>663978</v>
+        <v>579328</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2470,10 +2476,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>607067</v>
+        <v>641793</v>
       </c>
       <c r="C127" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2481,10 +2487,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>656302</v>
+        <v>805673</v>
       </c>
       <c r="C128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2492,10 +2498,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>666200</v>
+        <v>688138</v>
       </c>
       <c r="C129" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2503,10 +2509,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>686563</v>
+        <v>681347</v>
       </c>
       <c r="C130" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2514,10 +2520,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>676664</v>
+        <v>663559</v>
       </c>
       <c r="C131" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2525,10 +2531,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>434378</v>
+        <v>694297</v>
       </c>
       <c r="C132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2536,10 +2542,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>607536</v>
+        <v>687888</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2547,10 +2553,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>608337</v>
+        <v>450203</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2558,10 +2564,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>622491</v>
+        <v>663978</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2569,10 +2575,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>647336</v>
+        <v>607067</v>
       </c>
       <c r="C136" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2580,10 +2586,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>666157</v>
+        <v>666200</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2591,10 +2597,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>571578</v>
+        <v>686563</v>
       </c>
       <c r="C138" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2602,10 +2608,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>682990</v>
+        <v>434378</v>
       </c>
       <c r="C139" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2613,10 +2619,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>681857</v>
+        <v>607536</v>
       </c>
       <c r="C140" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2624,10 +2630,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>645261</v>
+        <v>608337</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2635,10 +2641,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>640455</v>
+        <v>647336</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2646,10 +2652,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>607625</v>
+        <v>666157</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2657,10 +2663,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>677944</v>
+        <v>571578</v>
       </c>
       <c r="C144" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2668,10 +2674,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>675911</v>
+        <v>682990</v>
       </c>
       <c r="C145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2679,10 +2685,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>671737</v>
+        <v>681857</v>
       </c>
       <c r="C146" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2690,10 +2696,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>607192</v>
+        <v>645261</v>
       </c>
       <c r="C147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2701,10 +2707,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>666171</v>
+        <v>640455</v>
       </c>
       <c r="C148" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2712,10 +2718,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>543135</v>
+        <v>607625</v>
       </c>
       <c r="C149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2723,10 +2729,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>686799</v>
+        <v>671737</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2734,10 +2740,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>663795</v>
+        <v>607192</v>
       </c>
       <c r="C151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2745,10 +2751,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>696136</v>
+        <v>666171</v>
       </c>
       <c r="C152" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2756,10 +2762,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>680736</v>
+        <v>543135</v>
       </c>
       <c r="C153" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2767,10 +2773,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>694477</v>
+        <v>663795</v>
       </c>
       <c r="C154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2778,10 +2784,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>642216</v>
+        <v>696136</v>
       </c>
       <c r="C155" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2789,10 +2795,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>641927</v>
+        <v>680736</v>
       </c>
       <c r="C156" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2800,10 +2806,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>621112</v>
+        <v>694477</v>
       </c>
       <c r="C157" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2811,10 +2817,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>680885</v>
+        <v>642216</v>
       </c>
       <c r="C158" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2822,10 +2828,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>681343</v>
+        <v>641927</v>
       </c>
       <c r="C159" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2833,10 +2839,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>677952</v>
+        <v>621112</v>
       </c>
       <c r="C160" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2844,10 +2850,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>608331</v>
+        <v>680885</v>
       </c>
       <c r="C161" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2855,10 +2861,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>547179</v>
+        <v>681343</v>
       </c>
       <c r="C162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2866,10 +2872,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>605513</v>
+        <v>677952</v>
       </c>
       <c r="C163" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2877,10 +2883,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>641302</v>
+        <v>608331</v>
       </c>
       <c r="C164" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2888,10 +2894,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>690928</v>
+        <v>547179</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2899,10 +2905,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>694918</v>
+        <v>605513</v>
       </c>
       <c r="C166" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2910,10 +2916,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>800311</v>
+        <v>641302</v>
       </c>
       <c r="C167" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2921,10 +2927,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>592791</v>
+        <v>690928</v>
       </c>
       <c r="C168" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2932,10 +2938,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>592866</v>
+        <v>694918</v>
       </c>
       <c r="C169" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2943,10 +2949,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>801403</v>
+        <v>800311</v>
       </c>
       <c r="C170" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2954,10 +2960,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>686701</v>
+        <v>592791</v>
       </c>
       <c r="C171" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2965,10 +2971,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>678024</v>
+        <v>592866</v>
       </c>
       <c r="C172" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2976,10 +2982,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>800049</v>
+        <v>801403</v>
       </c>
       <c r="C173" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2987,10 +2993,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>519242</v>
+        <v>686701</v>
       </c>
       <c r="C174" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2998,10 +3004,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>642232</v>
+        <v>678024</v>
       </c>
       <c r="C175" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3009,10 +3015,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>669422</v>
+        <v>800049</v>
       </c>
       <c r="C176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3020,10 +3026,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>669920</v>
+        <v>519242</v>
       </c>
       <c r="C177" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3031,10 +3037,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>657376</v>
+        <v>642232</v>
       </c>
       <c r="C178" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3042,10 +3048,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>621107</v>
+        <v>669422</v>
       </c>
       <c r="C179" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3053,10 +3059,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>676508</v>
+        <v>669920</v>
       </c>
       <c r="C180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3064,10 +3070,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>687223</v>
+        <v>657376</v>
       </c>
       <c r="C181" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3075,10 +3081,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>690953</v>
+        <v>676508</v>
       </c>
       <c r="C182" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3086,10 +3092,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>700249</v>
+        <v>687223</v>
       </c>
       <c r="C183" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3097,10 +3103,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>656288</v>
+        <v>690953</v>
       </c>
       <c r="C184" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3108,10 +3114,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>690986</v>
+        <v>700249</v>
       </c>
       <c r="C185" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3119,10 +3125,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>687765</v>
+        <v>656288</v>
       </c>
       <c r="C186" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3130,10 +3136,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>641816</v>
+        <v>690986</v>
       </c>
       <c r="C187" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3141,10 +3147,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>687830</v>
+        <v>687765</v>
       </c>
       <c r="C188" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3152,18 +3158,21 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>676106</v>
+        <v>641816</v>
       </c>
       <c r="C189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>190</v>
       </c>
+      <c r="B190">
+        <v>687830</v>
+      </c>
       <c r="C190" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3171,29 +3180,29 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>489119</v>
+        <v>676106</v>
       </c>
       <c r="C191" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
-      <c r="B192">
-        <v>670102</v>
-      </c>
       <c r="C192" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>193</v>
       </c>
+      <c r="B193">
+        <v>489119</v>
+      </c>
       <c r="C193" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3201,21 +3210,18 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>656731</v>
+        <v>670102</v>
       </c>
       <c r="C194" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
-      <c r="B195">
-        <v>676961</v>
-      </c>
       <c r="C195" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3223,10 +3229,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>677960</v>
+        <v>656731</v>
       </c>
       <c r="C196" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3234,10 +3240,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>682243</v>
+        <v>676961</v>
       </c>
       <c r="C197" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3245,10 +3251,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>605452</v>
+        <v>677960</v>
       </c>
       <c r="C198" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3256,10 +3262,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>666142</v>
+        <v>682243</v>
       </c>
       <c r="C199" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3267,10 +3273,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>689017</v>
+        <v>605452</v>
       </c>
       <c r="C200" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3278,10 +3284,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>664062</v>
+        <v>666142</v>
       </c>
       <c r="C201" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3289,10 +3295,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>687473</v>
+        <v>689017</v>
       </c>
       <c r="C202" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3300,10 +3306,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>676428</v>
+        <v>664062</v>
       </c>
       <c r="C203" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3311,10 +3317,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>668881</v>
+        <v>687473</v>
       </c>
       <c r="C204" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3322,10 +3328,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>674370</v>
+        <v>676428</v>
       </c>
       <c r="C205" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3333,10 +3339,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>641154</v>
+        <v>668881</v>
       </c>
       <c r="C206" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3344,10 +3350,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>676974</v>
+        <v>674370</v>
       </c>
       <c r="C207" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3355,10 +3361,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>669203</v>
+        <v>641154</v>
       </c>
       <c r="C208" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3366,10 +3372,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>680684</v>
+        <v>676974</v>
       </c>
       <c r="C209" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3377,10 +3383,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>700363</v>
+        <v>669203</v>
       </c>
       <c r="C210" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3388,10 +3394,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>663465</v>
+        <v>680684</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3399,10 +3405,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>685299</v>
+        <v>700363</v>
       </c>
       <c r="C212" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3410,10 +3416,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>695549</v>
+        <v>663465</v>
       </c>
       <c r="C213" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3421,10 +3427,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>663738</v>
+        <v>685299</v>
       </c>
       <c r="C214" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3432,10 +3438,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>701656</v>
+        <v>695549</v>
       </c>
       <c r="C215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3443,10 +3449,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>650633</v>
+        <v>663738</v>
       </c>
       <c r="C216" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3454,10 +3460,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>694646</v>
+        <v>701656</v>
       </c>
       <c r="C217" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3465,10 +3471,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>669060</v>
+        <v>650633</v>
       </c>
       <c r="C218" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3476,10 +3482,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>669387</v>
+        <v>694646</v>
       </c>
       <c r="C219" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3487,10 +3493,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>502043</v>
+        <v>669060</v>
       </c>
       <c r="C220" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3498,10 +3504,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>669854</v>
+        <v>669387</v>
       </c>
       <c r="C221" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3509,10 +3515,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>668964</v>
+        <v>502043</v>
       </c>
       <c r="C222" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3520,10 +3526,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>695534</v>
+        <v>669854</v>
       </c>
       <c r="C223" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3531,10 +3537,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>605400</v>
+        <v>668964</v>
       </c>
       <c r="C224" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3542,10 +3548,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>663855</v>
+        <v>695534</v>
       </c>
       <c r="C225" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3553,10 +3559,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>678368</v>
+        <v>605400</v>
       </c>
       <c r="C226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3564,10 +3570,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>594902</v>
+        <v>663855</v>
       </c>
       <c r="C227" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3575,10 +3581,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>656557</v>
+        <v>678368</v>
       </c>
       <c r="C228" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3586,10 +3592,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>669713</v>
+        <v>594902</v>
       </c>
       <c r="C229" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3597,10 +3603,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>570632</v>
+        <v>656557</v>
       </c>
       <c r="C230" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3608,10 +3614,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>663372</v>
+        <v>669713</v>
       </c>
       <c r="C231" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3619,10 +3625,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>471911</v>
+        <v>570632</v>
       </c>
       <c r="C232" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3630,10 +3636,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>686249</v>
+        <v>663372</v>
       </c>
       <c r="C233" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3641,10 +3647,32 @@
         <v>234</v>
       </c>
       <c r="B234">
+        <v>471911</v>
+      </c>
+      <c r="C234" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>686249</v>
+      </c>
+      <c r="C235" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
         <v>527048</v>
       </c>
-      <c r="C234" t="s">
-        <v>235</v>
+      <c r="C236" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="242">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,99 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Bailey Falter</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Casey Mize</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Joe Boyle</t>
+  </si>
+  <si>
+    <t>Jonathan Cannon</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Severino</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Easton Lucas</t>
+  </si>
+  <si>
+    <t>Brandon Young</t>
+  </si>
+  <si>
+    <t>Logan Evans</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
+    <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Pierson Ohl</t>
+  </si>
+  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
@@ -289,21 +382,12 @@
     <t>Cade Horton</t>
   </si>
   <si>
-    <t>Casey Mize</t>
-  </si>
-  <si>
     <t>Davis Daniel</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
     <t>Landen Roupp</t>
   </si>
   <si>
-    <t>Brandon Young</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
@@ -364,15 +448,9 @@
     <t>Keider Montero</t>
   </si>
   <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
     <t>Logan Webb</t>
   </si>
   <si>
-    <t>Luis Severino</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
@@ -382,9 +460,6 @@
     <t>Shota Imanaga</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
@@ -394,84 +469,30 @@
     <t>Yu Darvish</t>
   </si>
   <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
     <t>Zack Littell</t>
   </si>
   <si>
     <t>Zebby Matthews</t>
   </si>
   <si>
-    <t>Logan Evans</t>
-  </si>
-  <si>
     <t>Mike Burrows</t>
   </si>
   <si>
-    <t>Bailey Falter</t>
-  </si>
-  <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
     <t>Brandon Walter</t>
   </si>
   <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
     <t>Chris Paddack</t>
   </si>
   <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Jonathan Cannon</t>
-  </si>
-  <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Kyle Freeland</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
     <t>Reese Olson</t>
   </si>
   <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
     <t>Taj Bradley</t>
   </si>
   <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
     <t>Ryan Zeferjahn</t>
   </si>
   <si>
@@ -508,9 +529,6 @@
     <t>Braxton Ashcraft</t>
   </si>
   <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
     <t>Michael Lorenzen</t>
   </si>
   <si>
@@ -538,9 +556,6 @@
     <t>Chase Dollander</t>
   </si>
   <si>
-    <t>Ryan Bergert</t>
-  </si>
-  <si>
     <t>Mike Vasil</t>
   </si>
   <si>
@@ -556,9 +571,6 @@
     <t>Matt Sauer</t>
   </si>
   <si>
-    <t>Jason Alexander</t>
-  </si>
-  <si>
     <t>Clarke Schmidt</t>
   </si>
   <si>
@@ -658,9 +670,6 @@
     <t>Kolby Allard</t>
   </si>
   <si>
-    <t>Tanner Gordon</t>
-  </si>
-  <si>
     <t>Jackson Jobe</t>
   </si>
   <si>
@@ -727,10 +736,10 @@
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>669467</v>
+        <v>663559</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1121,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>687134</v>
+        <v>694297</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1132,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>687931</v>
+        <v>663554</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1143,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>605135</v>
+        <v>450203</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1154,323 +1163,323 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>650911</v>
+        <v>607067</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>663436</v>
-      </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>656876</v>
+        <v>607200</v>
       </c>
       <c r="C8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>656302</v>
+        <v>666200</v>
       </c>
       <c r="C9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>593958</v>
+        <v>671212</v>
       </c>
       <c r="C10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>665795</v>
+        <v>686563</v>
       </c>
       <c r="C11" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>664285</v>
+        <v>434378</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>593423</v>
+        <v>671106</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>686799</v>
+        <v>608337</v>
       </c>
       <c r="C14" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>594798</v>
+        <v>622663</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>676664</v>
+        <v>608331</v>
       </c>
       <c r="C16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>622491</v>
+        <v>647336</v>
       </c>
       <c r="C17" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>571510</v>
+        <v>666157</v>
       </c>
       <c r="C18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>656605</v>
+        <v>571578</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>448179</v>
+        <v>682990</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>690916</v>
+        <v>645261</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>680573</v>
+        <v>640455</v>
       </c>
       <c r="C22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>677944</v>
+        <v>607625</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>675911</v>
+        <v>543243</v>
       </c>
       <c r="C24" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>808967</v>
+        <v>685299</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>621107</v>
+        <v>607192</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>695418</v>
+        <v>579328</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>694819</v>
+        <v>687922</v>
       </c>
       <c r="C28" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>695505</v>
+        <v>687064</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>693645</v>
+        <v>688138</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>675512</v>
+        <v>686701</v>
       </c>
       <c r="C31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>596295</v>
+        <v>669920</v>
       </c>
       <c r="C32" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>676962</v>
+        <v>701487</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>669467</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>663903</v>
-      </c>
-      <c r="C34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="B35">
+        <v>687134</v>
+      </c>
       <c r="C35" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1478,10 +1487,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>693821</v>
+        <v>687931</v>
       </c>
       <c r="C36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1489,10 +1498,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>607074</v>
+        <v>605135</v>
       </c>
       <c r="C37" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1500,10 +1509,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>691587</v>
+        <v>650911</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1511,10 +1520,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>669372</v>
+        <v>663436</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1522,10 +1531,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>656427</v>
+        <v>656876</v>
       </c>
       <c r="C40" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1533,10 +1542,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>683004</v>
+        <v>656302</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1544,10 +1553,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>663623</v>
+        <v>593958</v>
       </c>
       <c r="C42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1555,10 +1564,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>676282</v>
+        <v>665795</v>
       </c>
       <c r="C43" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1566,10 +1575,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>673540</v>
+        <v>664285</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1577,10 +1586,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>543294</v>
+        <v>593423</v>
       </c>
       <c r="C45" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1588,10 +1597,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>669302</v>
+        <v>686799</v>
       </c>
       <c r="C46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1599,10 +1608,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>453286</v>
+        <v>594798</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1610,10 +1619,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>700241</v>
+        <v>676664</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1621,10 +1630,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>694973</v>
+        <v>622491</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1632,10 +1641,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>680732</v>
+        <v>571510</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1643,10 +1652,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>669358</v>
+        <v>656605</v>
       </c>
       <c r="C51" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1654,10 +1663,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>621111</v>
+        <v>448179</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1665,10 +1674,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>668678</v>
+        <v>690916</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1676,10 +1685,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>554430</v>
+        <v>680573</v>
       </c>
       <c r="C54" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1687,10 +1696,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>608372</v>
+        <v>677944</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1698,10 +1707,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>663568</v>
+        <v>675911</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1709,10 +1718,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>676467</v>
+        <v>808967</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1720,10 +1729,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>702070</v>
+        <v>621107</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1731,10 +1740,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>701519</v>
+        <v>695418</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1742,10 +1751,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>693313</v>
+        <v>694819</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1753,10 +1762,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>650644</v>
+        <v>695505</v>
       </c>
       <c r="C61" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1764,10 +1773,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>671096</v>
+        <v>693645</v>
       </c>
       <c r="C62" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1775,10 +1784,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>571760</v>
+        <v>675512</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1786,10 +1795,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>477132</v>
+        <v>596295</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1797,10 +1806,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>656849</v>
+        <v>676962</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1808,10 +1817,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>676979</v>
+        <v>663903</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1819,10 +1828,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>668909</v>
+        <v>693821</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1830,10 +1839,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>669923</v>
+        <v>607074</v>
       </c>
       <c r="C68" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1841,10 +1850,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>656550</v>
+        <v>691587</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1852,10 +1861,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>686613</v>
+        <v>669372</v>
       </c>
       <c r="C70" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1863,10 +1872,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>657746</v>
+        <v>656427</v>
       </c>
       <c r="C71" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1874,10 +1883,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>500779</v>
+        <v>683004</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1885,10 +1894,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>592332</v>
+        <v>663623</v>
       </c>
       <c r="C73" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1896,10 +1905,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>663460</v>
+        <v>676282</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1907,10 +1916,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>677958</v>
+        <v>673540</v>
       </c>
       <c r="C75" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1918,10 +1927,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>573186</v>
+        <v>543294</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1929,10 +1938,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669461</v>
+        <v>669302</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1940,10 +1949,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>518876</v>
+        <v>453286</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1951,10 +1960,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>608379</v>
+        <v>700241</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1962,10 +1971,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>680730</v>
+        <v>694973</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1973,10 +1982,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>681190</v>
+        <v>680732</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1984,10 +1993,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>624133</v>
+        <v>669358</v>
       </c>
       <c r="C82" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1995,10 +2004,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>592662</v>
+        <v>621111</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2006,10 +2015,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>686752</v>
+        <v>668678</v>
       </c>
       <c r="C84" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2017,10 +2026,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>676440</v>
+        <v>554430</v>
       </c>
       <c r="C85" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2028,10 +2037,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>669373</v>
+        <v>608372</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2039,10 +2048,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>669432</v>
+        <v>663568</v>
       </c>
       <c r="C87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2050,10 +2059,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>542881</v>
+        <v>676467</v>
       </c>
       <c r="C88" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2061,10 +2070,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>682052</v>
+        <v>702070</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2072,10 +2081,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>690990</v>
+        <v>701519</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2083,10 +2092,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>663554</v>
+        <v>693313</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2094,10 +2103,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>669721</v>
+        <v>650644</v>
       </c>
       <c r="C92" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2105,10 +2114,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>607200</v>
+        <v>671096</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2116,10 +2125,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>689017</v>
+        <v>571760</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2127,10 +2136,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>687064</v>
+        <v>477132</v>
       </c>
       <c r="C95" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2138,10 +2147,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>701581</v>
+        <v>656849</v>
       </c>
       <c r="C96" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2149,10 +2158,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>806185</v>
+        <v>676979</v>
       </c>
       <c r="C97" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2160,10 +2169,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>693433</v>
+        <v>668909</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2171,10 +2180,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>608566</v>
+        <v>669923</v>
       </c>
       <c r="C99" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2182,10 +2191,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>605488</v>
+        <v>656550</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2193,10 +2202,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>621244</v>
+        <v>686613</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2204,10 +2213,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>667755</v>
+        <v>657746</v>
       </c>
       <c r="C102" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2215,10 +2224,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>669022</v>
+        <v>500779</v>
       </c>
       <c r="C103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2226,10 +2235,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>571945</v>
+        <v>592332</v>
       </c>
       <c r="C104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2237,10 +2246,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>601713</v>
+        <v>663460</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2248,10 +2257,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656641</v>
+        <v>677958</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2259,10 +2268,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>605288</v>
+        <v>573186</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2270,10 +2279,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>678394</v>
+        <v>669461</v>
       </c>
       <c r="C108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2281,10 +2290,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>615698</v>
+        <v>518876</v>
       </c>
       <c r="C109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2292,10 +2301,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>605280</v>
+        <v>608379</v>
       </c>
       <c r="C110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2303,18 +2312,21 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>665152</v>
+        <v>680730</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>112</v>
       </c>
+      <c r="B112">
+        <v>681190</v>
+      </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2322,10 +2334,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>642547</v>
+        <v>624133</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2333,10 +2345,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>666214</v>
+        <v>592662</v>
       </c>
       <c r="C114" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2344,10 +2356,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>672456</v>
+        <v>686752</v>
       </c>
       <c r="C115" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2355,10 +2367,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>671106</v>
+        <v>676440</v>
       </c>
       <c r="C116" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2366,10 +2378,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>657277</v>
+        <v>669373</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2377,10 +2389,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>622663</v>
+        <v>669432</v>
       </c>
       <c r="C118" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2388,10 +2400,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>607259</v>
+        <v>542881</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2399,10 +2411,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>669194</v>
+        <v>682052</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2410,10 +2422,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>684007</v>
+        <v>690990</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2421,10 +2433,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>543243</v>
+        <v>669721</v>
       </c>
       <c r="C122" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2432,10 +2444,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>592836</v>
+        <v>689017</v>
       </c>
       <c r="C123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2443,10 +2455,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>701542</v>
+        <v>701581</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2454,10 +2466,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>506433</v>
+        <v>806185</v>
       </c>
       <c r="C125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2465,10 +2477,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>579328</v>
+        <v>693433</v>
       </c>
       <c r="C126" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2476,10 +2488,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>641793</v>
+        <v>608566</v>
       </c>
       <c r="C127" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2487,10 +2499,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>805673</v>
+        <v>605488</v>
       </c>
       <c r="C128" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2498,10 +2510,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>688138</v>
+        <v>621244</v>
       </c>
       <c r="C129" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2509,10 +2521,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>681347</v>
+        <v>667755</v>
       </c>
       <c r="C130" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2520,10 +2532,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>663559</v>
+        <v>669022</v>
       </c>
       <c r="C131" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2531,10 +2543,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>694297</v>
+        <v>571945</v>
       </c>
       <c r="C132" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2542,10 +2554,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>687888</v>
+        <v>601713</v>
       </c>
       <c r="C133" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2553,10 +2565,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>450203</v>
+        <v>656641</v>
       </c>
       <c r="C134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2564,10 +2576,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>663978</v>
+        <v>605288</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2575,10 +2587,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>607067</v>
+        <v>678394</v>
       </c>
       <c r="C136" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2586,10 +2598,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>666200</v>
+        <v>615698</v>
       </c>
       <c r="C137" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2597,10 +2609,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>686563</v>
+        <v>605280</v>
       </c>
       <c r="C138" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2608,21 +2620,18 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>434378</v>
+        <v>665152</v>
       </c>
       <c r="C139" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
-      <c r="B140">
-        <v>607536</v>
-      </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2630,10 +2639,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>608337</v>
+        <v>642547</v>
       </c>
       <c r="C141" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2641,10 +2650,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>647336</v>
+        <v>666214</v>
       </c>
       <c r="C142" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2652,10 +2661,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>666157</v>
+        <v>672456</v>
       </c>
       <c r="C143" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2663,10 +2672,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>571578</v>
+        <v>657277</v>
       </c>
       <c r="C144" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2674,10 +2683,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>682990</v>
+        <v>607259</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2685,10 +2694,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>681857</v>
+        <v>669194</v>
       </c>
       <c r="C146" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2696,10 +2705,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>645261</v>
+        <v>684007</v>
       </c>
       <c r="C147" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2707,10 +2716,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>640455</v>
+        <v>592836</v>
       </c>
       <c r="C148" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2718,10 +2727,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>607625</v>
+        <v>701542</v>
       </c>
       <c r="C149" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2729,10 +2738,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>671737</v>
+        <v>506433</v>
       </c>
       <c r="C150" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2740,10 +2749,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>607192</v>
+        <v>641793</v>
       </c>
       <c r="C151" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2751,10 +2760,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>666171</v>
+        <v>805673</v>
       </c>
       <c r="C152" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2762,10 +2771,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>543135</v>
+        <v>681347</v>
       </c>
       <c r="C153" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2773,10 +2782,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>663795</v>
+        <v>687888</v>
       </c>
       <c r="C154" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2784,10 +2793,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>696136</v>
+        <v>663978</v>
       </c>
       <c r="C155" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2795,10 +2804,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>680736</v>
+        <v>607536</v>
       </c>
       <c r="C156" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2806,10 +2815,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>694477</v>
+        <v>681857</v>
       </c>
       <c r="C157" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2817,10 +2826,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>642216</v>
+        <v>671737</v>
       </c>
       <c r="C158" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2828,10 +2837,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>641927</v>
+        <v>666171</v>
       </c>
       <c r="C159" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2839,10 +2848,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>621112</v>
+        <v>543135</v>
       </c>
       <c r="C160" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2850,10 +2859,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>680885</v>
+        <v>663795</v>
       </c>
       <c r="C161" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2861,10 +2870,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>681343</v>
+        <v>696136</v>
       </c>
       <c r="C162" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2872,10 +2881,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>677952</v>
+        <v>680736</v>
       </c>
       <c r="C163" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2883,10 +2892,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>608331</v>
+        <v>694477</v>
       </c>
       <c r="C164" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2894,10 +2903,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>547179</v>
+        <v>642216</v>
       </c>
       <c r="C165" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2905,10 +2914,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>605513</v>
+        <v>641927</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2916,10 +2925,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>641302</v>
+        <v>621112</v>
       </c>
       <c r="C167" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2927,10 +2936,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>690928</v>
+        <v>680885</v>
       </c>
       <c r="C168" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2938,10 +2947,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>694918</v>
+        <v>681343</v>
       </c>
       <c r="C169" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2949,10 +2958,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>800311</v>
+        <v>677952</v>
       </c>
       <c r="C170" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2960,10 +2969,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>592791</v>
+        <v>547179</v>
       </c>
       <c r="C171" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2971,10 +2980,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>592866</v>
+        <v>605513</v>
       </c>
       <c r="C172" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2982,10 +2991,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>801403</v>
+        <v>641302</v>
       </c>
       <c r="C173" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2993,10 +3002,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>686701</v>
+        <v>690928</v>
       </c>
       <c r="C174" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3004,10 +3013,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>678024</v>
+        <v>694918</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3015,10 +3024,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>800049</v>
+        <v>800311</v>
       </c>
       <c r="C176" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3026,10 +3035,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>519242</v>
+        <v>592791</v>
       </c>
       <c r="C177" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3037,10 +3046,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>642232</v>
+        <v>592866</v>
       </c>
       <c r="C178" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3048,10 +3057,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>669422</v>
+        <v>801403</v>
       </c>
       <c r="C179" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3059,10 +3068,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>669920</v>
+        <v>678024</v>
       </c>
       <c r="C180" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3070,10 +3079,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>657376</v>
+        <v>800049</v>
       </c>
       <c r="C181" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3081,10 +3090,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>676508</v>
+        <v>519242</v>
       </c>
       <c r="C182" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3092,10 +3101,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>687223</v>
+        <v>642232</v>
       </c>
       <c r="C183" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3103,10 +3112,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>690953</v>
+        <v>669422</v>
       </c>
       <c r="C184" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3114,10 +3123,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>700249</v>
+        <v>657376</v>
       </c>
       <c r="C185" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3125,10 +3134,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>656288</v>
+        <v>676508</v>
       </c>
       <c r="C186" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3136,10 +3145,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>690986</v>
+        <v>687223</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3147,10 +3156,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>687765</v>
+        <v>690953</v>
       </c>
       <c r="C188" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3158,10 +3167,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>641816</v>
+        <v>700249</v>
       </c>
       <c r="C189" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3169,10 +3178,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>687830</v>
+        <v>656288</v>
       </c>
       <c r="C190" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3180,18 +3189,21 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>676106</v>
+        <v>690986</v>
       </c>
       <c r="C191" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>192</v>
       </c>
+      <c r="B192">
+        <v>687765</v>
+      </c>
       <c r="C192" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3199,10 +3211,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>489119</v>
+        <v>641816</v>
       </c>
       <c r="C193" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3210,29 +3222,29 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>670102</v>
+        <v>687830</v>
       </c>
       <c r="C194" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>195</v>
       </c>
+      <c r="B195">
+        <v>676106</v>
+      </c>
       <c r="C195" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
-      <c r="B196">
-        <v>656731</v>
-      </c>
       <c r="C196" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3240,10 +3252,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>676961</v>
+        <v>489119</v>
       </c>
       <c r="C197" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3251,21 +3263,18 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>677960</v>
+        <v>670102</v>
       </c>
       <c r="C198" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
-      <c r="B199">
-        <v>682243</v>
-      </c>
       <c r="C199" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3273,10 +3282,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>605452</v>
+        <v>656731</v>
       </c>
       <c r="C200" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3284,10 +3293,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>666142</v>
+        <v>676961</v>
       </c>
       <c r="C201" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3295,10 +3304,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>689017</v>
+        <v>677960</v>
       </c>
       <c r="C202" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3306,10 +3315,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>664062</v>
+        <v>682243</v>
       </c>
       <c r="C203" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3317,10 +3326,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>687473</v>
+        <v>605452</v>
       </c>
       <c r="C204" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3328,10 +3337,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>676428</v>
+        <v>666142</v>
       </c>
       <c r="C205" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3339,10 +3348,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>668881</v>
+        <v>689017</v>
       </c>
       <c r="C206" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3350,10 +3359,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>674370</v>
+        <v>664062</v>
       </c>
       <c r="C207" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3361,10 +3370,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>641154</v>
+        <v>687473</v>
       </c>
       <c r="C208" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3372,10 +3381,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>676974</v>
+        <v>676428</v>
       </c>
       <c r="C209" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3383,10 +3392,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>669203</v>
+        <v>668881</v>
       </c>
       <c r="C210" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3394,10 +3403,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>680684</v>
+        <v>674370</v>
       </c>
       <c r="C211" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3405,10 +3414,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>700363</v>
+        <v>641154</v>
       </c>
       <c r="C212" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3416,10 +3425,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>663465</v>
+        <v>676974</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3427,10 +3436,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>685299</v>
+        <v>669203</v>
       </c>
       <c r="C214" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3438,10 +3447,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>695549</v>
+        <v>680684</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3449,10 +3458,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>663738</v>
+        <v>700363</v>
       </c>
       <c r="C216" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3460,10 +3469,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>701656</v>
+        <v>663465</v>
       </c>
       <c r="C217" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3471,10 +3480,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>650633</v>
+        <v>695549</v>
       </c>
       <c r="C218" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3482,10 +3491,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>694646</v>
+        <v>663738</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3493,10 +3502,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>669060</v>
+        <v>701656</v>
       </c>
       <c r="C220" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3504,10 +3513,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>669387</v>
+        <v>650633</v>
       </c>
       <c r="C221" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3515,10 +3524,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>502043</v>
+        <v>694646</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3526,10 +3535,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>669854</v>
+        <v>669060</v>
       </c>
       <c r="C223" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3537,10 +3546,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>668964</v>
+        <v>669387</v>
       </c>
       <c r="C224" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3548,10 +3557,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>695534</v>
+        <v>502043</v>
       </c>
       <c r="C225" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3559,10 +3568,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>605400</v>
+        <v>669854</v>
       </c>
       <c r="C226" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3570,10 +3579,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>663855</v>
+        <v>668964</v>
       </c>
       <c r="C227" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3581,10 +3590,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>678368</v>
+        <v>695534</v>
       </c>
       <c r="C228" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3592,10 +3601,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C229" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3603,10 +3612,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3614,10 +3623,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>669713</v>
+        <v>678368</v>
       </c>
       <c r="C231" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3625,10 +3634,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>570632</v>
+        <v>594902</v>
       </c>
       <c r="C232" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3636,10 +3645,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>663372</v>
+        <v>656557</v>
       </c>
       <c r="C233" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3647,10 +3656,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>471911</v>
+        <v>669713</v>
       </c>
       <c r="C234" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3658,10 +3667,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>686249</v>
+        <v>570632</v>
       </c>
       <c r="C235" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3669,10 +3678,43 @@
         <v>236</v>
       </c>
       <c r="B236">
+        <v>663372</v>
+      </c>
+      <c r="C236" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>471911</v>
+      </c>
+      <c r="C237" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>686249</v>
+      </c>
+      <c r="C238" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
         <v>527048</v>
       </c>
-      <c r="C236" t="s">
-        <v>238</v>
+      <c r="C239" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="244">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,36 +25,114 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Adrian Houser</t>
+  </si>
+  <si>
     <t>Bailey Falter</t>
   </si>
   <si>
     <t>Brandon Pfaadt</t>
   </si>
   <si>
+    <t>Brayan Bello</t>
+  </si>
+  <si>
+    <t>Cade Povich</t>
+  </si>
+  <si>
     <t>Casey Mize</t>
   </si>
   <si>
+    <t>Eric Lauer</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Johan Oviedo</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Max Fried</t>
+  </si>
+  <si>
+    <t>Michael Soroka</t>
+  </si>
+  <si>
+    <t>Nick Lodolo</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Slade Cecconi</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Travis Adams</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Kumar Rocker</t>
+  </si>
+  <si>
+    <t>Marcus Stroman</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
     <t>Colin Rea</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
     <t>Joe Boyle</t>
   </si>
   <si>
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Logan Allen</t>
   </si>
   <si>
@@ -64,42 +142,9 @@
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Max Fried</t>
-  </si>
-  <si>
-    <t>Michael Soroka</t>
-  </si>
-  <si>
-    <t>Nick Lodolo</t>
-  </si>
-  <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
     <t>Seth Lugo</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Tanner Gordon</t>
-  </si>
-  <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
     <t>Easton Lucas</t>
   </si>
   <si>
@@ -112,9 +157,6 @@
     <t>Ryan Bergert</t>
   </si>
   <si>
-    <t>Jason Alexander</t>
-  </si>
-  <si>
     <t>Pierson Ohl</t>
   </si>
   <si>
@@ -160,9 +202,6 @@
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Luis Castillo</t>
   </si>
   <si>
@@ -181,9 +220,6 @@
     <t>Simeon Woods Richardson</t>
   </si>
   <si>
-    <t>Slade Cecconi</t>
-  </si>
-  <si>
     <t>Spencer Strider</t>
   </si>
   <si>
@@ -286,18 +322,12 @@
     <t>Noah Cameron</t>
   </si>
   <si>
-    <t>Travis Adams</t>
-  </si>
-  <si>
     <t>Carson Seymour</t>
   </si>
   <si>
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
     <t>Andrew Heaney</t>
   </si>
   <si>
@@ -313,9 +343,6 @@
     <t>Gavin Williams</t>
   </si>
   <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
     <t>Grant Holmes</t>
   </si>
   <si>
@@ -334,12 +361,6 @@
     <t>Kris Bubic</t>
   </si>
   <si>
-    <t>Kumar Rocker</t>
-  </si>
-  <si>
-    <t>Marcus Stroman</t>
-  </si>
-  <si>
     <t>Matthew Liberatore</t>
   </si>
   <si>
@@ -361,9 +382,6 @@
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Tanner Bibee</t>
   </si>
   <si>
@@ -421,12 +439,6 @@
     <t>Jacob Latz</t>
   </si>
   <si>
-    <t>Adrian Houser</t>
-  </si>
-  <si>
-    <t>Brayan Bello</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
@@ -583,9 +595,6 @@
     <t>Mick Abel</t>
   </si>
   <si>
-    <t>Cade Povich</t>
-  </si>
-  <si>
     <t>Griffin Canning</t>
   </si>
   <si>
@@ -727,19 +736,16 @@
     <t>Ryan Feltner</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
     <t>Nathan Wiles</t>
   </si>
   <si>
     <t>Martín Pérez</t>
   </si>
   <si>
+    <t>RHP</t>
+  </si>
+  <si>
     <t>LHP</t>
-  </si>
-  <si>
-    <t>RHP</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C239"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,10 +1125,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>663559</v>
+        <v>605288</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1130,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>694297</v>
+        <v>663559</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1141,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>663554</v>
+        <v>694297</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1152,10 +1158,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>450203</v>
+        <v>678394</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1163,246 +1169,246 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>607067</v>
+        <v>700249</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>663554</v>
+      </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>607200</v>
+        <v>641778</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>666200</v>
+        <v>607200</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>671212</v>
+        <v>666200</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>686563</v>
+        <v>670912</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>434378</v>
+        <v>676664</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>671106</v>
+        <v>434378</v>
       </c>
       <c r="C13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>608337</v>
+        <v>608331</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>622663</v>
+        <v>647336</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>608331</v>
+        <v>666157</v>
       </c>
       <c r="C16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>647336</v>
+        <v>571578</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>666157</v>
+        <v>682990</v>
       </c>
       <c r="C18" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>571578</v>
+        <v>645261</v>
       </c>
       <c r="C19" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>682990</v>
+        <v>640455</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>645261</v>
+        <v>677944</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>640455</v>
+        <v>543243</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>607625</v>
+        <v>685299</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>543243</v>
+        <v>607192</v>
       </c>
       <c r="C24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>685299</v>
+        <v>579328</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>607192</v>
+        <v>669920</v>
       </c>
       <c r="C26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>579328</v>
+        <v>701519</v>
       </c>
       <c r="C27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>687922</v>
-      </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1410,10 +1416,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>687064</v>
+        <v>671096</v>
       </c>
       <c r="C29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1421,10 +1427,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>688138</v>
+        <v>471911</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1432,10 +1438,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>686701</v>
+        <v>669923</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1443,10 +1449,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>669920</v>
+        <v>677958</v>
       </c>
       <c r="C32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1454,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>701487</v>
+        <v>573186</v>
       </c>
       <c r="C33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1465,10 +1471,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>669467</v>
+        <v>686752</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1476,10 +1482,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>687134</v>
+        <v>450203</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1487,10 +1493,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>687931</v>
+        <v>607067</v>
       </c>
       <c r="C36" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1498,10 +1504,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>605135</v>
+        <v>671212</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1509,10 +1515,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>650911</v>
+        <v>686563</v>
       </c>
       <c r="C38" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1520,10 +1526,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>663436</v>
+        <v>671106</v>
       </c>
       <c r="C39" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1531,10 +1537,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>656876</v>
+        <v>608337</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1542,10 +1548,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>656302</v>
+        <v>622663</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1553,10 +1559,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>593958</v>
+        <v>607625</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1564,10 +1570,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>665795</v>
+        <v>687922</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1575,10 +1581,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>664285</v>
+        <v>687064</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1586,10 +1592,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>593423</v>
+        <v>688138</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1597,10 +1603,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>686799</v>
+        <v>686701</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1608,10 +1614,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>594798</v>
+        <v>701487</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1619,10 +1625,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>676664</v>
+        <v>669467</v>
       </c>
       <c r="C48" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1630,10 +1636,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>622491</v>
+        <v>687134</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1641,10 +1647,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>571510</v>
+        <v>687931</v>
       </c>
       <c r="C50" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1652,10 +1658,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>656605</v>
+        <v>605135</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1663,10 +1669,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>448179</v>
+        <v>650911</v>
       </c>
       <c r="C52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1674,10 +1680,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>690916</v>
+        <v>663436</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1685,10 +1691,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>680573</v>
+        <v>656876</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1696,10 +1702,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>677944</v>
+        <v>656302</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1707,10 +1713,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>675911</v>
+        <v>593958</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1718,10 +1724,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>808967</v>
+        <v>665795</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1729,10 +1735,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>621107</v>
+        <v>664285</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1740,10 +1746,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>695418</v>
+        <v>593423</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1751,10 +1757,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>694819</v>
+        <v>686799</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1762,10 +1768,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>695505</v>
+        <v>594798</v>
       </c>
       <c r="C61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1773,10 +1779,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>693645</v>
+        <v>622491</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1784,10 +1790,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>675512</v>
+        <v>571510</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1795,10 +1801,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>596295</v>
+        <v>656605</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1806,10 +1812,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>676962</v>
+        <v>448179</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1817,10 +1823,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>663903</v>
+        <v>690916</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1828,10 +1834,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>693821</v>
+        <v>680573</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1839,10 +1845,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>607074</v>
+        <v>675911</v>
       </c>
       <c r="C68" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1850,10 +1856,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>691587</v>
+        <v>808967</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1861,10 +1867,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>669372</v>
+        <v>621107</v>
       </c>
       <c r="C70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1872,10 +1878,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>656427</v>
+        <v>695418</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1883,10 +1889,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>683004</v>
+        <v>694819</v>
       </c>
       <c r="C72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1894,10 +1900,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>663623</v>
+        <v>695505</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1905,10 +1911,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>676282</v>
+        <v>693645</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1916,10 +1922,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>673540</v>
+        <v>675512</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1927,10 +1933,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>543294</v>
+        <v>596295</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1938,10 +1944,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>669302</v>
+        <v>676962</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1949,10 +1955,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>453286</v>
+        <v>663903</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1960,10 +1966,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>700241</v>
+        <v>693821</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1971,10 +1977,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>694973</v>
+        <v>607074</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1982,10 +1988,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>680732</v>
+        <v>691587</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1993,10 +1999,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>669358</v>
+        <v>669372</v>
       </c>
       <c r="C82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2004,10 +2010,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>621111</v>
+        <v>656427</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2015,10 +2021,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>668678</v>
+        <v>683004</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2026,10 +2032,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>554430</v>
+        <v>663623</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2037,10 +2043,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>608372</v>
+        <v>676282</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2048,10 +2054,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>663568</v>
+        <v>673540</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2059,10 +2065,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>676467</v>
+        <v>543294</v>
       </c>
       <c r="C88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2070,10 +2076,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>702070</v>
+        <v>669302</v>
       </c>
       <c r="C89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2081,10 +2087,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>701519</v>
+        <v>453286</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2092,10 +2098,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>693313</v>
+        <v>700241</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2103,10 +2109,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>650644</v>
+        <v>694973</v>
       </c>
       <c r="C92" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2114,10 +2120,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>671096</v>
+        <v>680732</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2125,10 +2131,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>571760</v>
+        <v>669358</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2136,10 +2142,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>477132</v>
+        <v>621111</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2147,10 +2153,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>656849</v>
+        <v>668678</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2158,10 +2164,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>676979</v>
+        <v>554430</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2169,10 +2175,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>668909</v>
+        <v>608372</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2180,10 +2186,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>669923</v>
+        <v>663568</v>
       </c>
       <c r="C99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2191,10 +2197,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>656550</v>
+        <v>676467</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2202,10 +2208,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>686613</v>
+        <v>702070</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2213,10 +2219,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>657746</v>
+        <v>693313</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2224,10 +2230,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>500779</v>
+        <v>650644</v>
       </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2235,10 +2241,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>592332</v>
+        <v>571760</v>
       </c>
       <c r="C104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2246,10 +2252,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>663460</v>
+        <v>477132</v>
       </c>
       <c r="C105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2257,10 +2263,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>677958</v>
+        <v>656849</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2268,10 +2274,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>573186</v>
+        <v>676979</v>
       </c>
       <c r="C107" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2279,10 +2285,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>669461</v>
+        <v>668909</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2290,10 +2296,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>518876</v>
+        <v>656550</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2301,10 +2307,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>608379</v>
+        <v>686613</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2312,10 +2318,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>680730</v>
+        <v>657746</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2323,10 +2329,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>681190</v>
+        <v>500779</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2334,10 +2340,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>624133</v>
+        <v>592332</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2345,10 +2351,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>592662</v>
+        <v>663460</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2356,10 +2362,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>686752</v>
+        <v>669461</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2367,10 +2373,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>676440</v>
+        <v>518876</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2378,10 +2384,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>669373</v>
+        <v>608379</v>
       </c>
       <c r="C117" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2389,10 +2395,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>669432</v>
+        <v>680730</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2400,10 +2406,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>542881</v>
+        <v>681190</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2411,10 +2417,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>682052</v>
+        <v>624133</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2422,10 +2428,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>690990</v>
+        <v>592662</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2433,10 +2439,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>669721</v>
+        <v>676440</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2444,10 +2450,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>689017</v>
+        <v>669373</v>
       </c>
       <c r="C123" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2455,10 +2461,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>701581</v>
+        <v>669432</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2466,10 +2472,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>806185</v>
+        <v>542881</v>
       </c>
       <c r="C125" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2477,10 +2483,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>693433</v>
+        <v>682052</v>
       </c>
       <c r="C126" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2488,10 +2494,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>608566</v>
+        <v>690990</v>
       </c>
       <c r="C127" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2499,10 +2505,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>605488</v>
+        <v>669721</v>
       </c>
       <c r="C128" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2510,10 +2516,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>621244</v>
+        <v>689017</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2521,10 +2527,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>667755</v>
+        <v>701581</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2532,10 +2538,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>669022</v>
+        <v>806185</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2543,10 +2549,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>571945</v>
+        <v>693433</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2554,10 +2560,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>601713</v>
+        <v>608566</v>
       </c>
       <c r="C133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2565,10 +2571,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>656641</v>
+        <v>605488</v>
       </c>
       <c r="C134" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2576,10 +2582,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>605288</v>
+        <v>621244</v>
       </c>
       <c r="C135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2587,10 +2593,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>678394</v>
+        <v>667755</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2598,10 +2604,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>615698</v>
+        <v>669022</v>
       </c>
       <c r="C137" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2609,10 +2615,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>605280</v>
+        <v>571945</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2620,18 +2626,21 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>665152</v>
+        <v>601713</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>140</v>
       </c>
+      <c r="B140">
+        <v>656641</v>
+      </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2639,10 +2648,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>642547</v>
+        <v>615698</v>
       </c>
       <c r="C141" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2650,10 +2659,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>666214</v>
+        <v>605280</v>
       </c>
       <c r="C142" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2661,21 +2670,18 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>672456</v>
+        <v>665152</v>
       </c>
       <c r="C143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>144</v>
       </c>
-      <c r="B144">
-        <v>657277</v>
-      </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2683,10 +2689,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>607259</v>
+        <v>642547</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2694,10 +2700,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>669194</v>
+        <v>666214</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2705,10 +2711,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>684007</v>
+        <v>672456</v>
       </c>
       <c r="C147" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2716,10 +2722,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>592836</v>
+        <v>657277</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2727,10 +2733,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>701542</v>
+        <v>607259</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2738,10 +2744,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>506433</v>
+        <v>669194</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2749,10 +2755,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>641793</v>
+        <v>684007</v>
       </c>
       <c r="C151" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2760,10 +2766,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>805673</v>
+        <v>592836</v>
       </c>
       <c r="C152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2771,10 +2777,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>681347</v>
+        <v>701542</v>
       </c>
       <c r="C153" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2782,10 +2788,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>687888</v>
+        <v>506433</v>
       </c>
       <c r="C154" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2793,10 +2799,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>663978</v>
+        <v>641793</v>
       </c>
       <c r="C155" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2804,10 +2810,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>607536</v>
+        <v>805673</v>
       </c>
       <c r="C156" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2815,10 +2821,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>681857</v>
+        <v>681347</v>
       </c>
       <c r="C157" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2826,10 +2832,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>671737</v>
+        <v>687888</v>
       </c>
       <c r="C158" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2837,10 +2843,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>666171</v>
+        <v>663978</v>
       </c>
       <c r="C159" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2848,10 +2854,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>543135</v>
+        <v>607536</v>
       </c>
       <c r="C160" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2859,10 +2865,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>663795</v>
+        <v>681857</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2870,10 +2876,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>696136</v>
+        <v>671737</v>
       </c>
       <c r="C162" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2881,10 +2887,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>680736</v>
+        <v>666171</v>
       </c>
       <c r="C163" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2892,10 +2898,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>694477</v>
+        <v>543135</v>
       </c>
       <c r="C164" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2903,10 +2909,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>642216</v>
+        <v>663795</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2914,10 +2920,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>641927</v>
+        <v>696136</v>
       </c>
       <c r="C166" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2925,10 +2931,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>621112</v>
+        <v>680736</v>
       </c>
       <c r="C167" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2936,10 +2942,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>680885</v>
+        <v>694477</v>
       </c>
       <c r="C168" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2947,10 +2953,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>681343</v>
+        <v>642216</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2958,10 +2964,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>677952</v>
+        <v>641927</v>
       </c>
       <c r="C170" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2969,10 +2975,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>547179</v>
+        <v>621112</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2980,10 +2986,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>605513</v>
+        <v>680885</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2991,10 +2997,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>641302</v>
+        <v>681343</v>
       </c>
       <c r="C173" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3002,10 +3008,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>690928</v>
+        <v>677952</v>
       </c>
       <c r="C174" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3013,10 +3019,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>694918</v>
+        <v>547179</v>
       </c>
       <c r="C175" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3024,10 +3030,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>800311</v>
+        <v>605513</v>
       </c>
       <c r="C176" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3035,10 +3041,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>592791</v>
+        <v>641302</v>
       </c>
       <c r="C177" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3046,10 +3052,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>592866</v>
+        <v>690928</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3057,10 +3063,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>801403</v>
+        <v>694918</v>
       </c>
       <c r="C179" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3068,10 +3074,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>678024</v>
+        <v>800311</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3079,10 +3085,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>800049</v>
+        <v>592791</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3090,10 +3096,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>519242</v>
+        <v>592866</v>
       </c>
       <c r="C182" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3101,10 +3107,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>642232</v>
+        <v>801403</v>
       </c>
       <c r="C183" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3112,10 +3118,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>669422</v>
+        <v>678024</v>
       </c>
       <c r="C184" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3123,10 +3129,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>657376</v>
+        <v>800049</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3134,10 +3140,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>676508</v>
+        <v>519242</v>
       </c>
       <c r="C186" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3145,10 +3151,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>687223</v>
+        <v>642232</v>
       </c>
       <c r="C187" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3156,10 +3162,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>690953</v>
+        <v>669422</v>
       </c>
       <c r="C188" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3167,10 +3173,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>700249</v>
+        <v>657376</v>
       </c>
       <c r="C189" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3178,10 +3184,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>656288</v>
+        <v>676508</v>
       </c>
       <c r="C190" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3189,10 +3195,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>690986</v>
+        <v>687223</v>
       </c>
       <c r="C191" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3200,10 +3206,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>687765</v>
+        <v>690953</v>
       </c>
       <c r="C192" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3211,10 +3217,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>641816</v>
+        <v>656288</v>
       </c>
       <c r="C193" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3222,10 +3228,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>687830</v>
+        <v>690986</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3233,18 +3239,21 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>676106</v>
+        <v>687765</v>
       </c>
       <c r="C195" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>196</v>
       </c>
+      <c r="B196">
+        <v>641816</v>
+      </c>
       <c r="C196" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3252,10 +3261,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>489119</v>
+        <v>687830</v>
       </c>
       <c r="C197" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3263,10 +3272,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>670102</v>
+        <v>676106</v>
       </c>
       <c r="C198" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3274,7 +3283,7 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3282,10 +3291,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>656731</v>
+        <v>489119</v>
       </c>
       <c r="C200" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3293,21 +3302,18 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>676961</v>
+        <v>670102</v>
       </c>
       <c r="C201" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
-      <c r="B202">
-        <v>677960</v>
-      </c>
       <c r="C202" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3315,10 +3321,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>682243</v>
+        <v>656731</v>
       </c>
       <c r="C203" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3326,10 +3332,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>605452</v>
+        <v>676961</v>
       </c>
       <c r="C204" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3337,10 +3343,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>666142</v>
+        <v>677960</v>
       </c>
       <c r="C205" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3348,10 +3354,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>689017</v>
+        <v>682243</v>
       </c>
       <c r="C206" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3359,10 +3365,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>664062</v>
+        <v>605452</v>
       </c>
       <c r="C207" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3370,10 +3376,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>687473</v>
+        <v>666142</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3381,10 +3387,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>676428</v>
+        <v>689017</v>
       </c>
       <c r="C209" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3392,10 +3398,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>668881</v>
+        <v>664062</v>
       </c>
       <c r="C210" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3403,10 +3409,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>674370</v>
+        <v>687473</v>
       </c>
       <c r="C211" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3414,10 +3420,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>641154</v>
+        <v>676428</v>
       </c>
       <c r="C212" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3425,10 +3431,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>676974</v>
+        <v>668881</v>
       </c>
       <c r="C213" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3436,10 +3442,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>669203</v>
+        <v>674370</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3447,10 +3453,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>680684</v>
+        <v>641154</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3458,10 +3464,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>700363</v>
+        <v>676974</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3469,10 +3475,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>663465</v>
+        <v>669203</v>
       </c>
       <c r="C217" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3480,10 +3486,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>695549</v>
+        <v>680684</v>
       </c>
       <c r="C218" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3491,10 +3497,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>663738</v>
+        <v>700363</v>
       </c>
       <c r="C219" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3502,10 +3508,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>701656</v>
+        <v>663465</v>
       </c>
       <c r="C220" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3513,10 +3519,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>650633</v>
+        <v>695549</v>
       </c>
       <c r="C221" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3524,10 +3530,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>694646</v>
+        <v>663738</v>
       </c>
       <c r="C222" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3535,10 +3541,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>669060</v>
+        <v>701656</v>
       </c>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3546,10 +3552,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>669387</v>
+        <v>650633</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3557,10 +3563,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>502043</v>
+        <v>694646</v>
       </c>
       <c r="C225" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3568,10 +3574,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>669854</v>
+        <v>669060</v>
       </c>
       <c r="C226" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3579,10 +3585,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>668964</v>
+        <v>669387</v>
       </c>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3590,10 +3596,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>695534</v>
+        <v>502043</v>
       </c>
       <c r="C228" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3601,10 +3607,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>605400</v>
+        <v>669854</v>
       </c>
       <c r="C229" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3612,10 +3618,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>663855</v>
+        <v>668964</v>
       </c>
       <c r="C230" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3623,10 +3629,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>678368</v>
+        <v>695534</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3634,10 +3640,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>594902</v>
+        <v>605400</v>
       </c>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3645,10 +3651,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C233" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3656,10 +3662,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>669713</v>
+        <v>678368</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3667,10 +3673,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>570632</v>
+        <v>594902</v>
       </c>
       <c r="C235" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3678,10 +3684,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>663372</v>
+        <v>656557</v>
       </c>
       <c r="C236" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3689,10 +3695,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>471911</v>
+        <v>669713</v>
       </c>
       <c r="C237" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3700,10 +3706,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>686249</v>
+        <v>570632</v>
       </c>
       <c r="C238" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3711,10 +3717,32 @@
         <v>239</v>
       </c>
       <c r="B239">
+        <v>663372</v>
+      </c>
+      <c r="C239" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>686249</v>
+      </c>
+      <c r="C240" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
         <v>527048</v>
       </c>
-      <c r="C239" t="s">
-        <v>240</v>
+      <c r="C241" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -25,6 +25,30 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Brady Singer</t>
+  </si>
+  <si>
+    <t>Carlos Carrasco</t>
+  </si>
+  <si>
+    <t>Eury Perez</t>
+  </si>
+  <si>
+    <t>Logan Gilbert</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Paul Skenes</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
@@ -106,9 +130,6 @@
     <t>Andrew Abbott</t>
   </si>
   <si>
-    <t>Carlos Carrasco</t>
-  </si>
-  <si>
     <t>George Kirby</t>
   </si>
   <si>
@@ -250,18 +271,12 @@
     <t>Ben Brown</t>
   </si>
   <si>
-    <t>Brady Singer</t>
-  </si>
-  <si>
     <t>Bryce Elder</t>
   </si>
   <si>
     <t>Carlos Rodón</t>
   </si>
   <si>
-    <t>Eury Perez</t>
-  </si>
-  <si>
     <t>J T Ginn</t>
   </si>
   <si>
@@ -283,18 +298,12 @@
     <t>Kyle Hendricks</t>
   </si>
   <si>
-    <t>Logan Gilbert</t>
-  </si>
-  <si>
     <t>Max Scherzer</t>
   </si>
   <si>
     <t>Michael McGreevy</t>
   </si>
   <si>
-    <t>Paul Skenes</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
@@ -370,9 +379,6 @@
     <t>Michael Wacha</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Randy Vásquez</t>
   </si>
   <si>
@@ -394,9 +400,6 @@
     <t>Tyler Anderson</t>
   </si>
   <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Cade Horton</t>
   </si>
   <si>
@@ -533,9 +536,6 @@
   </si>
   <si>
     <t>Spencer Schwellenbach</t>
-  </si>
-  <si>
-    <t>Shane Smith</t>
   </si>
   <si>
     <t>Braxton Ashcraft</t>
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605288</v>
+        <v>663903</v>
       </c>
       <c r="C2" t="s">
         <v>242</v>
@@ -1136,10 +1136,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>663559</v>
+        <v>471911</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1147,7 +1147,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>694297</v>
+        <v>691587</v>
       </c>
       <c r="C4" t="s">
         <v>242</v>
@@ -1158,7 +1158,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>678394</v>
+        <v>669302</v>
       </c>
       <c r="C5" t="s">
         <v>242</v>
@@ -1169,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>700249</v>
+        <v>680730</v>
       </c>
       <c r="C6" t="s">
         <v>243</v>
@@ -1180,7 +1180,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>663554</v>
+        <v>694973</v>
       </c>
       <c r="C7" t="s">
         <v>242</v>
@@ -1191,10 +1191,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>641778</v>
+        <v>681343</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>607200</v>
+        <v>682052</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1213,10 +1213,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>666200</v>
+        <v>605288</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1224,10 +1224,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>670912</v>
+        <v>663559</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1235,10 +1235,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>676664</v>
+        <v>694297</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1246,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>434378</v>
+        <v>678394</v>
       </c>
       <c r="C13" t="s">
         <v>242</v>
@@ -1257,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>608331</v>
+        <v>700249</v>
       </c>
       <c r="C14" t="s">
         <v>243</v>
@@ -1268,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>647336</v>
+        <v>663554</v>
       </c>
       <c r="C15" t="s">
         <v>242</v>
@@ -1279,7 +1279,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>666157</v>
+        <v>641778</v>
       </c>
       <c r="C16" t="s">
         <v>243</v>
@@ -1290,10 +1290,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>571578</v>
+        <v>607200</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1301,10 +1301,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>682990</v>
+        <v>666200</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1312,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>645261</v>
+        <v>670912</v>
       </c>
       <c r="C19" t="s">
         <v>242</v>
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>640455</v>
+        <v>676664</v>
       </c>
       <c r="C20" t="s">
         <v>243</v>
@@ -1334,7 +1334,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>677944</v>
+        <v>434378</v>
       </c>
       <c r="C21" t="s">
         <v>242</v>
@@ -1345,10 +1345,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>543243</v>
+        <v>608331</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1356,7 +1356,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>685299</v>
+        <v>647336</v>
       </c>
       <c r="C23" t="s">
         <v>242</v>
@@ -1367,10 +1367,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>607192</v>
+        <v>666157</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1378,7 +1378,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>579328</v>
+        <v>571578</v>
       </c>
       <c r="C25" t="s">
         <v>243</v>
@@ -1389,7 +1389,7 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>669920</v>
+        <v>682990</v>
       </c>
       <c r="C26" t="s">
         <v>242</v>
@@ -1400,34 +1400,40 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>701519</v>
+        <v>645261</v>
       </c>
       <c r="C27" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>640455</v>
+      </c>
       <c r="C28" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>671096</v>
+        <v>677944</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>471911</v>
+        <v>543243</v>
       </c>
       <c r="C30" t="s">
         <v>242</v>
@@ -1435,10 +1441,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>669923</v>
+        <v>685299</v>
       </c>
       <c r="C31" t="s">
         <v>242</v>
@@ -1446,10 +1452,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>677958</v>
+        <v>607192</v>
       </c>
       <c r="C32" t="s">
         <v>242</v>
@@ -1457,21 +1463,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>573186</v>
+        <v>579328</v>
       </c>
       <c r="C33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>686752</v>
+        <v>669920</v>
       </c>
       <c r="C34" t="s">
         <v>242</v>
@@ -1479,24 +1485,18 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>450203</v>
+        <v>701519</v>
       </c>
       <c r="C35" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>607067</v>
-      </c>
       <c r="C36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1504,10 +1504,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>671212</v>
+        <v>671096</v>
       </c>
       <c r="C37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1515,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>686563</v>
+        <v>669923</v>
       </c>
       <c r="C38" t="s">
         <v>242</v>
@@ -1526,10 +1526,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>671106</v>
+        <v>677958</v>
       </c>
       <c r="C39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1537,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>608337</v>
+        <v>573186</v>
       </c>
       <c r="C40" t="s">
         <v>242</v>
@@ -1548,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>622663</v>
+        <v>686752</v>
       </c>
       <c r="C41" t="s">
         <v>242</v>
@@ -1559,7 +1559,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>607625</v>
+        <v>450203</v>
       </c>
       <c r="C42" t="s">
         <v>242</v>
@@ -1570,10 +1570,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>687922</v>
+        <v>607067</v>
       </c>
       <c r="C43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1581,7 +1581,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>687064</v>
+        <v>671212</v>
       </c>
       <c r="C44" t="s">
         <v>242</v>
@@ -1592,7 +1592,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>688138</v>
+        <v>686563</v>
       </c>
       <c r="C45" t="s">
         <v>242</v>
@@ -1603,10 +1603,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>686701</v>
+        <v>671106</v>
       </c>
       <c r="C46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1614,7 +1614,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>701487</v>
+        <v>608337</v>
       </c>
       <c r="C47" t="s">
         <v>242</v>
@@ -1625,7 +1625,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>669467</v>
+        <v>622663</v>
       </c>
       <c r="C48" t="s">
         <v>242</v>
@@ -1636,7 +1636,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>687134</v>
+        <v>607625</v>
       </c>
       <c r="C49" t="s">
         <v>242</v>
@@ -1647,7 +1647,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>687931</v>
+        <v>687922</v>
       </c>
       <c r="C50" t="s">
         <v>243</v>
@@ -1658,7 +1658,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>605135</v>
+        <v>687064</v>
       </c>
       <c r="C51" t="s">
         <v>242</v>
@@ -1669,10 +1669,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>650911</v>
+        <v>688138</v>
       </c>
       <c r="C52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1680,7 +1680,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>663436</v>
+        <v>686701</v>
       </c>
       <c r="C53" t="s">
         <v>242</v>
@@ -1691,7 +1691,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>656876</v>
+        <v>701487</v>
       </c>
       <c r="C54" t="s">
         <v>242</v>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>656302</v>
+        <v>669467</v>
       </c>
       <c r="C55" t="s">
         <v>242</v>
@@ -1713,10 +1713,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>593958</v>
+        <v>687134</v>
       </c>
       <c r="C56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1724,10 +1724,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>665795</v>
+        <v>687931</v>
       </c>
       <c r="C57" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1735,10 +1735,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>664285</v>
+        <v>605135</v>
       </c>
       <c r="C58" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1746,10 +1746,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>593423</v>
+        <v>650911</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1757,7 +1757,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>686799</v>
+        <v>663436</v>
       </c>
       <c r="C60" t="s">
         <v>242</v>
@@ -1768,7 +1768,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>594798</v>
+        <v>656876</v>
       </c>
       <c r="C61" t="s">
         <v>242</v>
@@ -1779,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>622491</v>
+        <v>656302</v>
       </c>
       <c r="C62" t="s">
         <v>242</v>
@@ -1790,7 +1790,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>571510</v>
+        <v>593958</v>
       </c>
       <c r="C63" t="s">
         <v>243</v>
@@ -1801,7 +1801,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>656605</v>
+        <v>665795</v>
       </c>
       <c r="C64" t="s">
         <v>242</v>
@@ -1812,7 +1812,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>448179</v>
+        <v>664285</v>
       </c>
       <c r="C65" t="s">
         <v>243</v>
@@ -1823,7 +1823,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>690916</v>
+        <v>593423</v>
       </c>
       <c r="C66" t="s">
         <v>242</v>
@@ -1834,7 +1834,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>680573</v>
+        <v>686799</v>
       </c>
       <c r="C67" t="s">
         <v>242</v>
@@ -1845,7 +1845,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>675911</v>
+        <v>594798</v>
       </c>
       <c r="C68" t="s">
         <v>242</v>
@@ -1856,7 +1856,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>808967</v>
+        <v>622491</v>
       </c>
       <c r="C69" t="s">
         <v>242</v>
@@ -1867,10 +1867,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>621107</v>
+        <v>571510</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1878,7 +1878,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>695418</v>
+        <v>656605</v>
       </c>
       <c r="C71" t="s">
         <v>242</v>
@@ -1889,10 +1889,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>694819</v>
+        <v>448179</v>
       </c>
       <c r="C72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1900,7 +1900,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>695505</v>
+        <v>690916</v>
       </c>
       <c r="C73" t="s">
         <v>242</v>
@@ -1911,7 +1911,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>693645</v>
+        <v>680573</v>
       </c>
       <c r="C74" t="s">
         <v>242</v>
@@ -1922,7 +1922,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>675512</v>
+        <v>675911</v>
       </c>
       <c r="C75" t="s">
         <v>242</v>
@@ -1933,10 +1933,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>596295</v>
+        <v>808967</v>
       </c>
       <c r="C76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1944,7 +1944,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>676962</v>
+        <v>621107</v>
       </c>
       <c r="C77" t="s">
         <v>242</v>
@@ -1955,7 +1955,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>663903</v>
+        <v>695418</v>
       </c>
       <c r="C78" t="s">
         <v>242</v>
@@ -1966,7 +1966,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>693821</v>
+        <v>694819</v>
       </c>
       <c r="C79" t="s">
         <v>242</v>
@@ -1977,10 +1977,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>607074</v>
+        <v>695505</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1988,7 +1988,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>691587</v>
+        <v>693645</v>
       </c>
       <c r="C81" t="s">
         <v>242</v>
@@ -1999,7 +1999,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>669372</v>
+        <v>675512</v>
       </c>
       <c r="C82" t="s">
         <v>242</v>
@@ -2010,10 +2010,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>656427</v>
+        <v>596295</v>
       </c>
       <c r="C83" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2021,7 +2021,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>683004</v>
+        <v>676962</v>
       </c>
       <c r="C84" t="s">
         <v>242</v>
@@ -2032,7 +2032,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>663623</v>
+        <v>693821</v>
       </c>
       <c r="C85" t="s">
         <v>242</v>
@@ -2043,7 +2043,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>676282</v>
+        <v>607074</v>
       </c>
       <c r="C86" t="s">
         <v>243</v>
@@ -2054,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>673540</v>
+        <v>669372</v>
       </c>
       <c r="C87" t="s">
         <v>242</v>
@@ -2065,7 +2065,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>543294</v>
+        <v>656427</v>
       </c>
       <c r="C88" t="s">
         <v>242</v>
@@ -2076,7 +2076,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>669302</v>
+        <v>683004</v>
       </c>
       <c r="C89" t="s">
         <v>242</v>
@@ -2087,7 +2087,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>453286</v>
+        <v>663623</v>
       </c>
       <c r="C90" t="s">
         <v>242</v>
@@ -2098,10 +2098,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>700241</v>
+        <v>676282</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2109,7 +2109,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>694973</v>
+        <v>673540</v>
       </c>
       <c r="C92" t="s">
         <v>242</v>
@@ -2120,7 +2120,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>680732</v>
+        <v>543294</v>
       </c>
       <c r="C93" t="s">
         <v>242</v>
@@ -2131,7 +2131,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>669358</v>
+        <v>453286</v>
       </c>
       <c r="C94" t="s">
         <v>242</v>
@@ -2142,7 +2142,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>621111</v>
+        <v>700241</v>
       </c>
       <c r="C95" t="s">
         <v>242</v>
@@ -2153,7 +2153,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>668678</v>
+        <v>680732</v>
       </c>
       <c r="C96" t="s">
         <v>242</v>
@@ -2164,7 +2164,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>554430</v>
+        <v>669358</v>
       </c>
       <c r="C97" t="s">
         <v>242</v>
@@ -2175,7 +2175,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>608372</v>
+        <v>621111</v>
       </c>
       <c r="C98" t="s">
         <v>242</v>
@@ -2186,7 +2186,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>663568</v>
+        <v>668678</v>
       </c>
       <c r="C99" t="s">
         <v>242</v>
@@ -2197,10 +2197,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>676467</v>
+        <v>554430</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2208,10 +2208,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>702070</v>
+        <v>608372</v>
       </c>
       <c r="C101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2219,7 +2219,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>693313</v>
+        <v>663568</v>
       </c>
       <c r="C102" t="s">
         <v>242</v>
@@ -2230,10 +2230,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>650644</v>
+        <v>676467</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2241,7 +2241,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>571760</v>
+        <v>702070</v>
       </c>
       <c r="C104" t="s">
         <v>243</v>
@@ -2252,10 +2252,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>477132</v>
+        <v>693313</v>
       </c>
       <c r="C105" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2263,10 +2263,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656849</v>
+        <v>650644</v>
       </c>
       <c r="C106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2274,7 +2274,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>676979</v>
+        <v>571760</v>
       </c>
       <c r="C107" t="s">
         <v>243</v>
@@ -2285,10 +2285,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>668909</v>
+        <v>477132</v>
       </c>
       <c r="C108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2296,10 +2296,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>656550</v>
+        <v>656849</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2307,10 +2307,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>686613</v>
+        <v>676979</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2318,7 +2318,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>657746</v>
+        <v>668909</v>
       </c>
       <c r="C111" t="s">
         <v>242</v>
@@ -2329,10 +2329,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>500779</v>
+        <v>656550</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2340,7 +2340,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>592332</v>
+        <v>686613</v>
       </c>
       <c r="C113" t="s">
         <v>242</v>
@@ -2351,10 +2351,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>663460</v>
+        <v>657746</v>
       </c>
       <c r="C114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2362,7 +2362,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669461</v>
+        <v>500779</v>
       </c>
       <c r="C115" t="s">
         <v>243</v>
@@ -2373,7 +2373,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>518876</v>
+        <v>592332</v>
       </c>
       <c r="C116" t="s">
         <v>242</v>
@@ -2384,10 +2384,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>608379</v>
+        <v>663460</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2395,7 +2395,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>680730</v>
+        <v>669461</v>
       </c>
       <c r="C118" t="s">
         <v>243</v>
@@ -2406,7 +2406,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>681190</v>
+        <v>518876</v>
       </c>
       <c r="C119" t="s">
         <v>242</v>
@@ -2417,10 +2417,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>624133</v>
+        <v>608379</v>
       </c>
       <c r="C120" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2428,10 +2428,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>592662</v>
+        <v>681190</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2439,10 +2439,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>676440</v>
+        <v>624133</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2450,7 +2450,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>669373</v>
+        <v>592662</v>
       </c>
       <c r="C123" t="s">
         <v>243</v>
@@ -2461,10 +2461,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>669432</v>
+        <v>676440</v>
       </c>
       <c r="C124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2472,7 +2472,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>542881</v>
+        <v>669373</v>
       </c>
       <c r="C125" t="s">
         <v>243</v>
@@ -2483,7 +2483,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>682052</v>
+        <v>669432</v>
       </c>
       <c r="C126" t="s">
         <v>243</v>
@@ -2494,10 +2494,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>690990</v>
+        <v>542881</v>
       </c>
       <c r="C127" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2505,7 +2505,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>669721</v>
+        <v>690990</v>
       </c>
       <c r="C128" t="s">
         <v>242</v>
@@ -2516,7 +2516,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>689017</v>
+        <v>669721</v>
       </c>
       <c r="C129" t="s">
         <v>242</v>
@@ -2527,7 +2527,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>701581</v>
+        <v>689017</v>
       </c>
       <c r="C130" t="s">
         <v>242</v>
@@ -2538,7 +2538,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>806185</v>
+        <v>701581</v>
       </c>
       <c r="C131" t="s">
         <v>242</v>
@@ -2549,7 +2549,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>693433</v>
+        <v>806185</v>
       </c>
       <c r="C132" t="s">
         <v>242</v>
@@ -2560,7 +2560,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>608566</v>
+        <v>693433</v>
       </c>
       <c r="C133" t="s">
         <v>242</v>
@@ -2571,10 +2571,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>605488</v>
+        <v>608566</v>
       </c>
       <c r="C134" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2582,10 +2582,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>621244</v>
+        <v>605488</v>
       </c>
       <c r="C135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2593,7 +2593,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>667755</v>
+        <v>621244</v>
       </c>
       <c r="C136" t="s">
         <v>242</v>
@@ -2604,10 +2604,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>669022</v>
+        <v>667755</v>
       </c>
       <c r="C137" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2615,10 +2615,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>571945</v>
+        <v>669022</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2626,7 +2626,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>601713</v>
+        <v>571945</v>
       </c>
       <c r="C139" t="s">
         <v>242</v>
@@ -2637,10 +2637,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>656641</v>
+        <v>601713</v>
       </c>
       <c r="C140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2648,10 +2648,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>615698</v>
+        <v>656641</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2659,7 +2659,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>605280</v>
+        <v>615698</v>
       </c>
       <c r="C142" t="s">
         <v>242</v>
@@ -2670,7 +2670,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>665152</v>
+        <v>605280</v>
       </c>
       <c r="C143" t="s">
         <v>242</v>
@@ -2680,6 +2680,9 @@
       <c r="A144" t="s">
         <v>144</v>
       </c>
+      <c r="B144">
+        <v>665152</v>
+      </c>
       <c r="C144" t="s">
         <v>242</v>
       </c>
@@ -2688,9 +2691,6 @@
       <c r="A145" t="s">
         <v>145</v>
       </c>
-      <c r="B145">
-        <v>642547</v>
-      </c>
       <c r="C145" t="s">
         <v>242</v>
       </c>
@@ -2700,10 +2700,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>666214</v>
+        <v>642547</v>
       </c>
       <c r="C146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2711,10 +2711,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>672456</v>
+        <v>666214</v>
       </c>
       <c r="C147" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2722,7 +2722,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>657277</v>
+        <v>672456</v>
       </c>
       <c r="C148" t="s">
         <v>242</v>
@@ -2733,7 +2733,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>607259</v>
+        <v>657277</v>
       </c>
       <c r="C149" t="s">
         <v>242</v>
@@ -2744,7 +2744,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>669194</v>
+        <v>607259</v>
       </c>
       <c r="C150" t="s">
         <v>242</v>
@@ -2755,10 +2755,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>684007</v>
+        <v>669194</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2766,10 +2766,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>592836</v>
+        <v>684007</v>
       </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2777,7 +2777,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>701542</v>
+        <v>592836</v>
       </c>
       <c r="C153" t="s">
         <v>242</v>
@@ -2788,7 +2788,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>506433</v>
+        <v>701542</v>
       </c>
       <c r="C154" t="s">
         <v>242</v>
@@ -2799,7 +2799,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>641793</v>
+        <v>506433</v>
       </c>
       <c r="C155" t="s">
         <v>242</v>
@@ -2810,7 +2810,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>805673</v>
+        <v>641793</v>
       </c>
       <c r="C156" t="s">
         <v>242</v>
@@ -2821,7 +2821,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>681347</v>
+        <v>805673</v>
       </c>
       <c r="C157" t="s">
         <v>242</v>
@@ -2832,10 +2832,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>687888</v>
+        <v>681347</v>
       </c>
       <c r="C158" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2843,10 +2843,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>663978</v>
+        <v>687888</v>
       </c>
       <c r="C159" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2854,10 +2854,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>607536</v>
+        <v>663978</v>
       </c>
       <c r="C160" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2865,10 +2865,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>681857</v>
+        <v>607536</v>
       </c>
       <c r="C161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2876,7 +2876,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>671737</v>
+        <v>681857</v>
       </c>
       <c r="C162" t="s">
         <v>242</v>
@@ -2887,7 +2887,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>666171</v>
+        <v>671737</v>
       </c>
       <c r="C163" t="s">
         <v>242</v>
@@ -2898,7 +2898,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>543135</v>
+        <v>666171</v>
       </c>
       <c r="C164" t="s">
         <v>242</v>
@@ -2909,7 +2909,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>663795</v>
+        <v>543135</v>
       </c>
       <c r="C165" t="s">
         <v>242</v>
@@ -2920,10 +2920,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>696136</v>
+        <v>663795</v>
       </c>
       <c r="C166" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2931,7 +2931,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>680736</v>
+        <v>696136</v>
       </c>
       <c r="C167" t="s">
         <v>243</v>
@@ -2942,10 +2942,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>694477</v>
+        <v>680736</v>
       </c>
       <c r="C168" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>642216</v>
+        <v>694477</v>
       </c>
       <c r="C169" t="s">
         <v>242</v>
@@ -2964,7 +2964,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>641927</v>
+        <v>642216</v>
       </c>
       <c r="C170" t="s">
         <v>242</v>
@@ -2975,7 +2975,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>621112</v>
+        <v>641927</v>
       </c>
       <c r="C171" t="s">
         <v>242</v>
@@ -2986,7 +2986,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>680885</v>
+        <v>621112</v>
       </c>
       <c r="C172" t="s">
         <v>242</v>
@@ -2997,7 +2997,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>681343</v>
+        <v>680885</v>
       </c>
       <c r="C173" t="s">
         <v>242</v>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="247">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,87 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Aaron Nola</t>
+  </si>
+  <si>
+    <t>Andrew Abbott</t>
+  </si>
+  <si>
+    <t>Andrew Heaney</t>
+  </si>
+  <si>
+    <t>Chris Paddack</t>
+  </si>
+  <si>
+    <t>Clay Holmes</t>
+  </si>
+  <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
+    <t>Davis Martin</t>
+  </si>
+  <si>
+    <t>Dean Kremer</t>
+  </si>
+  <si>
+    <t>Erick Fedde</t>
+  </si>
+  <si>
+    <t>Garrett Crochet</t>
+  </si>
+  <si>
+    <t>George Kirby</t>
+  </si>
+  <si>
+    <t>Javier Assad</t>
+  </si>
+  <si>
+    <t>Jeffrey Springs</t>
+  </si>
+  <si>
+    <t>José Berríos</t>
+  </si>
+  <si>
+    <t>Jose Quintana</t>
+  </si>
+  <si>
+    <t>José Soriano</t>
+  </si>
+  <si>
+    <t>Logan Allen</t>
+  </si>
+  <si>
+    <t>Logan Webb</t>
+  </si>
+  <si>
+    <t>Miles Mikolas</t>
+  </si>
+  <si>
+    <t>Mitchell Parker</t>
+  </si>
+  <si>
+    <t>Nabil Crismatt</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi</t>
+  </si>
+  <si>
+    <t>Ryan Pepiot</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow</t>
+  </si>
+  <si>
+    <t>Will Warren</t>
+  </si>
+  <si>
+    <t>Yu Darvish</t>
+  </si>
+  <si>
+    <t>Ryan Bergert</t>
+  </si>
+  <si>
     <t>Brady Singer</t>
   </si>
   <si>
@@ -37,9 +118,6 @@
     <t>Logan Gilbert</t>
   </si>
   <si>
-    <t>Mitchell Parker</t>
-  </si>
-  <si>
     <t>Paul Skenes</t>
   </si>
   <si>
@@ -70,9 +148,6 @@
     <t>Eric Lauer</t>
   </si>
   <si>
-    <t>Erick Fedde</t>
-  </si>
-  <si>
     <t>Jesus Luzardo</t>
   </si>
   <si>
@@ -115,9 +190,6 @@
     <t>Tanner Gordon</t>
   </si>
   <si>
-    <t>Tyler Glasnow</t>
-  </si>
-  <si>
     <t>Yusei Kikuchi</t>
   </si>
   <si>
@@ -127,21 +199,12 @@
     <t>Travis Adams</t>
   </si>
   <si>
-    <t>Andrew Abbott</t>
-  </si>
-  <si>
-    <t>George Kirby</t>
-  </si>
-  <si>
     <t>Kumar Rocker</t>
   </si>
   <si>
     <t>Marcus Stroman</t>
   </si>
   <si>
-    <t>Ryan Pepiot</t>
-  </si>
-  <si>
     <t>Charlie Morton</t>
   </si>
   <si>
@@ -154,9 +217,6 @@
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>Logan Allen</t>
-  </si>
-  <si>
     <t>Lucas Giolito</t>
   </si>
   <si>
@@ -175,9 +235,6 @@
     <t>Logan Evans</t>
   </si>
   <si>
-    <t>Ryan Bergert</t>
-  </si>
-  <si>
     <t>Pierson Ohl</t>
   </si>
   <si>
@@ -196,9 +253,6 @@
     <t>Cristopher Sánchez</t>
   </si>
   <si>
-    <t>Davis Martin</t>
-  </si>
-  <si>
     <t>Drew Rasmussen</t>
   </si>
   <si>
@@ -337,18 +391,12 @@
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Andrew Heaney</t>
-  </si>
-  <si>
     <t>Clayton Kershaw</t>
   </si>
   <si>
     <t>David Peterson</t>
   </si>
   <si>
-    <t>Garrett Crochet</t>
-  </si>
-  <si>
     <t>Gavin Williams</t>
   </si>
   <si>
@@ -361,9 +409,6 @@
     <t>Joe Ryan</t>
   </si>
   <si>
-    <t>Jose Quintana</t>
-  </si>
-  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
@@ -421,21 +466,9 @@
     <t>German Marquez</t>
   </si>
   <si>
-    <t>Jeffrey Springs</t>
-  </si>
-  <si>
-    <t>José Berríos</t>
-  </si>
-  <si>
-    <t>José Soriano</t>
-  </si>
-  <si>
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Miles Mikolas</t>
-  </si>
-  <si>
     <t>Nick Pivetta</t>
   </si>
   <si>
@@ -445,12 +478,6 @@
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Clay Holmes</t>
-  </si>
-  <si>
-    <t>Dean Kremer</t>
-  </si>
-  <si>
     <t>Emmet Sheehan</t>
   </si>
   <si>
@@ -463,9 +490,6 @@
     <t>Keider Montero</t>
   </si>
   <si>
-    <t>Logan Webb</t>
-  </si>
-  <si>
     <t>Nick Martinez</t>
   </si>
   <si>
@@ -478,12 +502,6 @@
     <t>Taijuan Walker</t>
   </si>
   <si>
-    <t>Will Warren</t>
-  </si>
-  <si>
-    <t>Yu Darvish</t>
-  </si>
-  <si>
     <t>Zack Littell</t>
   </si>
   <si>
@@ -496,9 +514,6 @@
     <t>Brandon Walter</t>
   </si>
   <si>
-    <t>Chris Paddack</t>
-  </si>
-  <si>
     <t>Kyle Freeland</t>
   </si>
   <si>
@@ -511,9 +526,6 @@
     <t>Ryan Zeferjahn</t>
   </si>
   <si>
-    <t>Nathan Eovaldi</t>
-  </si>
-  <si>
     <t>Justin Hagenman</t>
   </si>
   <si>
@@ -710,9 +722,6 @@
   </si>
   <si>
     <t>Chase Petty</t>
-  </si>
-  <si>
-    <t>Aaron Nola</t>
   </si>
   <si>
     <t>Jordan Hicks</t>
@@ -1103,7 +1112,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1125,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>663903</v>
+        <v>605400</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1136,10 +1145,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>471911</v>
+        <v>671096</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1147,356 +1156,356 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>691587</v>
+        <v>571760</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>669302</v>
-      </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>680730</v>
+        <v>663978</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>694973</v>
+        <v>605280</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>681343</v>
+        <v>664299</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>682052</v>
+        <v>663436</v>
       </c>
       <c r="C9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>605288</v>
+        <v>665152</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>663559</v>
+        <v>607200</v>
       </c>
       <c r="C11" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>694297</v>
+        <v>676979</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>678394</v>
+        <v>669923</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>700249</v>
+        <v>665871</v>
       </c>
       <c r="C14" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>663554</v>
+        <v>605488</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>641778</v>
+        <v>621244</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>607200</v>
+        <v>500779</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>666200</v>
+        <v>667755</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>670912</v>
+        <v>671106</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>676664</v>
+        <v>657277</v>
       </c>
       <c r="C20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>434378</v>
+        <v>571945</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>608331</v>
+        <v>680730</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>647336</v>
+        <v>622503</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>666157</v>
+        <v>543135</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>571578</v>
+        <v>686752</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>682990</v>
+        <v>607192</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>645261</v>
+        <v>701542</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>640455</v>
+        <v>506433</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>677944</v>
+        <v>686701</v>
       </c>
       <c r="C29" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>543243</v>
+        <v>663903</v>
       </c>
       <c r="C30" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>685299</v>
+        <v>471911</v>
       </c>
       <c r="C31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>607192</v>
+        <v>691587</v>
       </c>
       <c r="C32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>579328</v>
+        <v>669302</v>
       </c>
       <c r="C33" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>669920</v>
+        <v>694973</v>
       </c>
       <c r="C34" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>681343</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>701519</v>
-      </c>
-      <c r="C35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B36">
+        <v>682052</v>
+      </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1504,10 +1513,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>671096</v>
+        <v>605288</v>
       </c>
       <c r="C37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1515,10 +1524,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>669923</v>
+        <v>663559</v>
       </c>
       <c r="C38" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1526,10 +1535,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>677958</v>
+        <v>694297</v>
       </c>
       <c r="C39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1537,10 +1546,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>573186</v>
+        <v>678394</v>
       </c>
       <c r="C40" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1548,10 +1557,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>686752</v>
+        <v>700249</v>
       </c>
       <c r="C41" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1559,10 +1568,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>450203</v>
+        <v>663554</v>
       </c>
       <c r="C42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1570,10 +1579,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>607067</v>
+        <v>641778</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1581,10 +1590,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>671212</v>
+        <v>666200</v>
       </c>
       <c r="C44" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1592,10 +1601,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>686563</v>
+        <v>670912</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1603,10 +1612,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>671106</v>
+        <v>676664</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1614,10 +1623,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>608337</v>
+        <v>434378</v>
       </c>
       <c r="C47" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1625,10 +1634,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>622663</v>
+        <v>608331</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1636,10 +1645,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>607625</v>
+        <v>647336</v>
       </c>
       <c r="C49" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1647,10 +1656,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>687922</v>
+        <v>666157</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1658,10 +1667,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>687064</v>
+        <v>571578</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1669,10 +1678,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>688138</v>
+        <v>682990</v>
       </c>
       <c r="C52" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1680,10 +1689,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>686701</v>
+        <v>645261</v>
       </c>
       <c r="C53" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1691,10 +1700,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>701487</v>
+        <v>640455</v>
       </c>
       <c r="C54" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1702,10 +1711,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>669467</v>
+        <v>677944</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1713,10 +1722,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>687134</v>
+        <v>543243</v>
       </c>
       <c r="C56" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1724,10 +1733,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>687931</v>
+        <v>685299</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1735,10 +1744,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>605135</v>
+        <v>579328</v>
       </c>
       <c r="C58" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1746,10 +1755,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>650911</v>
+        <v>669920</v>
       </c>
       <c r="C59" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1757,10 +1766,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>663436</v>
+        <v>701519</v>
       </c>
       <c r="C60" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1768,10 +1777,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>656876</v>
+        <v>677958</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1779,10 +1788,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>656302</v>
+        <v>573186</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1790,10 +1799,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>593958</v>
+        <v>450203</v>
       </c>
       <c r="C63" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1801,10 +1810,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>665795</v>
+        <v>607067</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1812,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>664285</v>
+        <v>671212</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1823,10 +1832,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>593423</v>
+        <v>686563</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1834,10 +1843,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>686799</v>
+        <v>608337</v>
       </c>
       <c r="C67" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1845,10 +1854,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>594798</v>
+        <v>622663</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1856,10 +1865,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>622491</v>
+        <v>607625</v>
       </c>
       <c r="C69" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1867,10 +1876,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>571510</v>
+        <v>687922</v>
       </c>
       <c r="C70" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1878,10 +1887,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>656605</v>
+        <v>687064</v>
       </c>
       <c r="C71" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1889,10 +1898,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>448179</v>
+        <v>688138</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1900,10 +1909,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>690916</v>
+        <v>701487</v>
       </c>
       <c r="C73" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1911,10 +1920,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>680573</v>
+        <v>669467</v>
       </c>
       <c r="C74" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1922,10 +1931,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>675911</v>
+        <v>687134</v>
       </c>
       <c r="C75" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1933,10 +1942,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>808967</v>
+        <v>687931</v>
       </c>
       <c r="C76" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1944,10 +1953,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>621107</v>
+        <v>605135</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1955,10 +1964,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>695418</v>
+        <v>650911</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1966,10 +1975,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>694819</v>
+        <v>656876</v>
       </c>
       <c r="C79" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1977,10 +1986,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>695505</v>
+        <v>656302</v>
       </c>
       <c r="C80" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1988,10 +1997,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>693645</v>
+        <v>593958</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1999,10 +2008,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>675512</v>
+        <v>665795</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2010,10 +2019,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>596295</v>
+        <v>664285</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2021,10 +2030,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>676962</v>
+        <v>593423</v>
       </c>
       <c r="C84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2032,10 +2041,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>693821</v>
+        <v>686799</v>
       </c>
       <c r="C85" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2043,10 +2052,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>607074</v>
+        <v>594798</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2054,10 +2063,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>669372</v>
+        <v>622491</v>
       </c>
       <c r="C87" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2065,10 +2074,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>656427</v>
+        <v>571510</v>
       </c>
       <c r="C88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2076,10 +2085,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>683004</v>
+        <v>656605</v>
       </c>
       <c r="C89" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2087,10 +2096,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>663623</v>
+        <v>448179</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2098,10 +2107,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>676282</v>
+        <v>690916</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2109,10 +2118,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>673540</v>
+        <v>680573</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2120,10 +2129,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>543294</v>
+        <v>675911</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2131,10 +2140,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>453286</v>
+        <v>808967</v>
       </c>
       <c r="C94" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2142,10 +2151,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>700241</v>
+        <v>621107</v>
       </c>
       <c r="C95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2153,10 +2162,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>680732</v>
+        <v>695418</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2164,10 +2173,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>669358</v>
+        <v>694819</v>
       </c>
       <c r="C97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2175,10 +2184,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>621111</v>
+        <v>695505</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2186,10 +2195,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>668678</v>
+        <v>693645</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2197,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>554430</v>
+        <v>675512</v>
       </c>
       <c r="C100" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2208,10 +2217,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>608372</v>
+        <v>596295</v>
       </c>
       <c r="C101" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2219,10 +2228,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>663568</v>
+        <v>676962</v>
       </c>
       <c r="C102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2230,10 +2239,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>676467</v>
+        <v>693821</v>
       </c>
       <c r="C103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2241,10 +2250,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>702070</v>
+        <v>607074</v>
       </c>
       <c r="C104" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2252,10 +2261,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>693313</v>
+        <v>669372</v>
       </c>
       <c r="C105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2263,10 +2272,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>650644</v>
+        <v>656427</v>
       </c>
       <c r="C106" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2274,10 +2283,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>571760</v>
+        <v>683004</v>
       </c>
       <c r="C107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2285,10 +2294,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>477132</v>
+        <v>663623</v>
       </c>
       <c r="C108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2296,10 +2305,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>656849</v>
+        <v>676282</v>
       </c>
       <c r="C109" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2307,10 +2316,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>676979</v>
+        <v>673540</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2318,10 +2327,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>668909</v>
+        <v>543294</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2329,10 +2338,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>656550</v>
+        <v>453286</v>
       </c>
       <c r="C112" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2340,10 +2349,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>686613</v>
+        <v>700241</v>
       </c>
       <c r="C113" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2351,10 +2360,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>657746</v>
+        <v>680732</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2362,10 +2371,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>500779</v>
+        <v>669358</v>
       </c>
       <c r="C115" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2373,10 +2382,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>592332</v>
+        <v>621111</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2384,10 +2393,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>663460</v>
+        <v>668678</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2395,10 +2404,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>669461</v>
+        <v>554430</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2406,10 +2415,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>518876</v>
+        <v>608372</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2417,10 +2426,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>608379</v>
+        <v>663568</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2428,10 +2437,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>681190</v>
+        <v>676467</v>
       </c>
       <c r="C121" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2439,10 +2448,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>624133</v>
+        <v>702070</v>
       </c>
       <c r="C122" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2450,10 +2459,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>592662</v>
+        <v>693313</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2461,10 +2470,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>676440</v>
+        <v>650644</v>
       </c>
       <c r="C124" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2472,10 +2481,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>669373</v>
+        <v>477132</v>
       </c>
       <c r="C125" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2483,10 +2492,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>669432</v>
+        <v>656849</v>
       </c>
       <c r="C126" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2494,10 +2503,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>542881</v>
+        <v>668909</v>
       </c>
       <c r="C127" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2505,10 +2514,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>690990</v>
+        <v>656550</v>
       </c>
       <c r="C128" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2516,10 +2525,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>669721</v>
+        <v>686613</v>
       </c>
       <c r="C129" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2527,10 +2536,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>689017</v>
+        <v>657746</v>
       </c>
       <c r="C130" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2538,10 +2547,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>701581</v>
+        <v>592332</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2549,10 +2558,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>806185</v>
+        <v>663460</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2560,10 +2569,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>693433</v>
+        <v>669461</v>
       </c>
       <c r="C133" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2571,10 +2580,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>608566</v>
+        <v>518876</v>
       </c>
       <c r="C134" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2582,10 +2591,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>605488</v>
+        <v>608379</v>
       </c>
       <c r="C135" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2593,10 +2602,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>621244</v>
+        <v>681190</v>
       </c>
       <c r="C136" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2604,10 +2613,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>667755</v>
+        <v>624133</v>
       </c>
       <c r="C137" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2615,10 +2624,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>669022</v>
+        <v>592662</v>
       </c>
       <c r="C138" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2626,10 +2635,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>571945</v>
+        <v>676440</v>
       </c>
       <c r="C139" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2637,10 +2646,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>601713</v>
+        <v>669373</v>
       </c>
       <c r="C140" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2648,10 +2657,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>656641</v>
+        <v>669432</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2659,10 +2668,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>615698</v>
+        <v>542881</v>
       </c>
       <c r="C142" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2670,10 +2679,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>605280</v>
+        <v>690990</v>
       </c>
       <c r="C143" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2681,18 +2690,21 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>665152</v>
+        <v>669721</v>
       </c>
       <c r="C144" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
+      <c r="B145">
+        <v>689017</v>
+      </c>
       <c r="C145" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2700,10 +2712,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>642547</v>
+        <v>701581</v>
       </c>
       <c r="C146" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2711,10 +2723,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>666214</v>
+        <v>806185</v>
       </c>
       <c r="C147" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2722,10 +2734,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>672456</v>
+        <v>693433</v>
       </c>
       <c r="C148" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2733,10 +2745,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>657277</v>
+        <v>608566</v>
       </c>
       <c r="C149" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2744,10 +2756,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>607259</v>
+        <v>669022</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2755,10 +2767,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>669194</v>
+        <v>601713</v>
       </c>
       <c r="C151" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2766,10 +2778,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>684007</v>
+        <v>656641</v>
       </c>
       <c r="C152" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2777,21 +2789,18 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>592836</v>
+        <v>615698</v>
       </c>
       <c r="C153" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
-      <c r="B154">
-        <v>701542</v>
-      </c>
       <c r="C154" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2799,10 +2808,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>506433</v>
+        <v>642547</v>
       </c>
       <c r="C155" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2810,10 +2819,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>641793</v>
+        <v>666214</v>
       </c>
       <c r="C156" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2821,10 +2830,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>805673</v>
+        <v>672456</v>
       </c>
       <c r="C157" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2832,10 +2841,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>681347</v>
+        <v>607259</v>
       </c>
       <c r="C158" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2843,10 +2852,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>687888</v>
+        <v>669194</v>
       </c>
       <c r="C159" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2854,10 +2863,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>663978</v>
+        <v>684007</v>
       </c>
       <c r="C160" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2865,10 +2874,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>607536</v>
+        <v>592836</v>
       </c>
       <c r="C161" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2876,10 +2885,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>681857</v>
+        <v>641793</v>
       </c>
       <c r="C162" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2887,10 +2896,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>671737</v>
+        <v>805673</v>
       </c>
       <c r="C163" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2898,10 +2907,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>666171</v>
+        <v>681347</v>
       </c>
       <c r="C164" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2909,10 +2918,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>543135</v>
+        <v>687888</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2920,10 +2929,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>663795</v>
+        <v>607536</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2931,10 +2940,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>696136</v>
+        <v>681857</v>
       </c>
       <c r="C167" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2942,10 +2951,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>680736</v>
+        <v>671737</v>
       </c>
       <c r="C168" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2953,10 +2962,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>694477</v>
+        <v>666171</v>
       </c>
       <c r="C169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2964,10 +2973,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>642216</v>
+        <v>663795</v>
       </c>
       <c r="C170" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2975,10 +2984,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>641927</v>
+        <v>696136</v>
       </c>
       <c r="C171" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2986,10 +2995,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>621112</v>
+        <v>680736</v>
       </c>
       <c r="C172" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2997,10 +3006,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>680885</v>
+        <v>694477</v>
       </c>
       <c r="C173" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3008,10 +3017,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>677952</v>
+        <v>642216</v>
       </c>
       <c r="C174" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3019,10 +3028,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>547179</v>
+        <v>641927</v>
       </c>
       <c r="C175" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3030,10 +3039,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>605513</v>
+        <v>621112</v>
       </c>
       <c r="C176" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3041,10 +3050,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>641302</v>
+        <v>680885</v>
       </c>
       <c r="C177" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3052,10 +3061,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>690928</v>
+        <v>677952</v>
       </c>
       <c r="C178" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3063,10 +3072,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>694918</v>
+        <v>547179</v>
       </c>
       <c r="C179" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3074,10 +3083,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>800311</v>
+        <v>605513</v>
       </c>
       <c r="C180" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3085,10 +3094,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>592791</v>
+        <v>641302</v>
       </c>
       <c r="C181" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3096,10 +3105,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>592866</v>
+        <v>690928</v>
       </c>
       <c r="C182" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3107,10 +3116,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>801403</v>
+        <v>694918</v>
       </c>
       <c r="C183" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3118,10 +3127,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>678024</v>
+        <v>800311</v>
       </c>
       <c r="C184" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3129,10 +3138,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>800049</v>
+        <v>592791</v>
       </c>
       <c r="C185" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3140,10 +3149,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>519242</v>
+        <v>592866</v>
       </c>
       <c r="C186" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3151,10 +3160,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>642232</v>
+        <v>801403</v>
       </c>
       <c r="C187" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3162,10 +3171,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>669422</v>
+        <v>678024</v>
       </c>
       <c r="C188" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3173,10 +3182,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>657376</v>
+        <v>800049</v>
       </c>
       <c r="C189" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3184,10 +3193,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>676508</v>
+        <v>519242</v>
       </c>
       <c r="C190" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3195,10 +3204,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>687223</v>
+        <v>642232</v>
       </c>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3206,10 +3215,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>690953</v>
+        <v>669422</v>
       </c>
       <c r="C192" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3217,10 +3226,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>656288</v>
+        <v>657376</v>
       </c>
       <c r="C193" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3228,10 +3237,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>690986</v>
+        <v>676508</v>
       </c>
       <c r="C194" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3239,10 +3248,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>687765</v>
+        <v>687223</v>
       </c>
       <c r="C195" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3250,10 +3259,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>641816</v>
+        <v>690953</v>
       </c>
       <c r="C196" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3261,10 +3270,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>687830</v>
+        <v>656288</v>
       </c>
       <c r="C197" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3272,18 +3281,21 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>676106</v>
+        <v>690986</v>
       </c>
       <c r="C198" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>199</v>
       </c>
+      <c r="B199">
+        <v>687765</v>
+      </c>
       <c r="C199" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3291,10 +3303,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>489119</v>
+        <v>641816</v>
       </c>
       <c r="C200" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3302,29 +3314,29 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>670102</v>
+        <v>687830</v>
       </c>
       <c r="C201" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>202</v>
       </c>
+      <c r="B202">
+        <v>676106</v>
+      </c>
       <c r="C202" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
-      <c r="B203">
-        <v>656731</v>
-      </c>
       <c r="C203" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3332,10 +3344,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>676961</v>
+        <v>489119</v>
       </c>
       <c r="C204" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3343,21 +3355,18 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>677960</v>
+        <v>670102</v>
       </c>
       <c r="C205" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
-      <c r="B206">
-        <v>682243</v>
-      </c>
       <c r="C206" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3365,10 +3374,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>605452</v>
+        <v>656731</v>
       </c>
       <c r="C207" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3376,10 +3385,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>666142</v>
+        <v>676961</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3387,10 +3396,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>689017</v>
+        <v>677960</v>
       </c>
       <c r="C209" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3398,10 +3407,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>664062</v>
+        <v>682243</v>
       </c>
       <c r="C210" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3409,10 +3418,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>687473</v>
+        <v>605452</v>
       </c>
       <c r="C211" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3420,10 +3429,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>676428</v>
+        <v>666142</v>
       </c>
       <c r="C212" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3431,10 +3440,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>668881</v>
+        <v>689017</v>
       </c>
       <c r="C213" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3442,10 +3451,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>674370</v>
+        <v>664062</v>
       </c>
       <c r="C214" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3453,10 +3462,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>641154</v>
+        <v>687473</v>
       </c>
       <c r="C215" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3464,10 +3473,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>676974</v>
+        <v>676428</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3475,10 +3484,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>669203</v>
+        <v>668881</v>
       </c>
       <c r="C217" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3486,10 +3495,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>680684</v>
+        <v>674370</v>
       </c>
       <c r="C218" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3497,10 +3506,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>700363</v>
+        <v>641154</v>
       </c>
       <c r="C219" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3508,10 +3517,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>663465</v>
+        <v>676974</v>
       </c>
       <c r="C220" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3519,10 +3528,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>695549</v>
+        <v>669203</v>
       </c>
       <c r="C221" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3530,10 +3539,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>663738</v>
+        <v>680684</v>
       </c>
       <c r="C222" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3541,10 +3550,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>701656</v>
+        <v>700363</v>
       </c>
       <c r="C223" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3552,10 +3561,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>650633</v>
+        <v>663465</v>
       </c>
       <c r="C224" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3563,10 +3572,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>694646</v>
+        <v>695549</v>
       </c>
       <c r="C225" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3574,10 +3583,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>669060</v>
+        <v>663738</v>
       </c>
       <c r="C226" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3585,10 +3594,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>669387</v>
+        <v>701656</v>
       </c>
       <c r="C227" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3596,10 +3605,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>502043</v>
+        <v>650633</v>
       </c>
       <c r="C228" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3607,10 +3616,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>669854</v>
+        <v>694646</v>
       </c>
       <c r="C229" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3618,10 +3627,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>668964</v>
+        <v>669060</v>
       </c>
       <c r="C230" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3629,10 +3638,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>695534</v>
+        <v>669387</v>
       </c>
       <c r="C231" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3640,10 +3649,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>605400</v>
+        <v>502043</v>
       </c>
       <c r="C232" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3651,10 +3660,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>663855</v>
+        <v>669854</v>
       </c>
       <c r="C233" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3662,10 +3671,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>678368</v>
+        <v>668964</v>
       </c>
       <c r="C234" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3673,10 +3682,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>594902</v>
+        <v>695534</v>
       </c>
       <c r="C235" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3684,10 +3693,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>656557</v>
+        <v>663855</v>
       </c>
       <c r="C236" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3695,10 +3704,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>669713</v>
+        <v>678368</v>
       </c>
       <c r="C237" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3706,10 +3715,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>570632</v>
+        <v>594902</v>
       </c>
       <c r="C238" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3717,10 +3726,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>663372</v>
+        <v>656557</v>
       </c>
       <c r="C239" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3728,10 +3737,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>686249</v>
+        <v>669713</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3739,10 +3748,43 @@
         <v>241</v>
       </c>
       <c r="B241">
+        <v>570632</v>
+      </c>
+      <c r="C241" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>663372</v>
+      </c>
+      <c r="C242" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>686249</v>
+      </c>
+      <c r="C243" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
         <v>527048</v>
       </c>
-      <c r="C241" t="s">
-        <v>243</v>
+      <c r="C244" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="251">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,183 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Andre Pallante</t>
+  </si>
+  <si>
+    <t>Bailey Ober</t>
+  </si>
+  <si>
+    <t>Brandon Pfaadt</t>
+  </si>
+  <si>
+    <t>Charlie Morton</t>
+  </si>
+  <si>
+    <t>Chris Bassitt</t>
+  </si>
+  <si>
+    <t>Colin Rea</t>
+  </si>
+  <si>
+    <t>Drew Rasmussen</t>
+  </si>
+  <si>
+    <t>Framber Valdez</t>
+  </si>
+  <si>
+    <t>Hurston Waldrep</t>
+  </si>
+  <si>
+    <t>J T Ginn</t>
+  </si>
+  <si>
+    <t>Jesus Luzardo</t>
+  </si>
+  <si>
+    <t>Johan Oviedo</t>
+  </si>
+  <si>
+    <t>JP Sears</t>
+  </si>
+  <si>
+    <t>Kodai Senga</t>
+  </si>
+  <si>
+    <t>Landen Roupp</t>
+  </si>
+  <si>
+    <t>Luis Castillo</t>
+  </si>
+  <si>
+    <t>Martín Pérez</t>
+  </si>
+  <si>
+    <t>Nick Martinez</t>
+  </si>
+  <si>
+    <t>Sandy Alcantara</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani</t>
+  </si>
+  <si>
+    <t>Tanner Gordon</t>
+  </si>
+  <si>
+    <t>Yusei Kikuchi</t>
+  </si>
+  <si>
+    <t>Brad Lord</t>
+  </si>
+  <si>
+    <t>Noah Cameron</t>
+  </si>
+  <si>
+    <t>Jacob Misiorowski</t>
+  </si>
+  <si>
+    <t>Jacob Latz</t>
+  </si>
+  <si>
+    <t>Cam Schlittler</t>
+  </si>
+  <si>
+    <t>Parker Messick</t>
+  </si>
+  <si>
+    <t>Austin Gomber</t>
+  </si>
+  <si>
+    <t>Bryce Elder</t>
+  </si>
+  <si>
+    <t>Bryce Miller</t>
+  </si>
+  <si>
+    <t>Carlos Rodón</t>
+  </si>
+  <si>
+    <t>Cristopher Sánchez</t>
+  </si>
+  <si>
+    <t>David Peterson</t>
+  </si>
+  <si>
+    <t>Eduardo Rodriguez</t>
+  </si>
+  <si>
+    <t>Edward Cabrera</t>
+  </si>
+  <si>
+    <t>Emmet Sheehan</t>
+  </si>
+  <si>
+    <t>Hunter Brown</t>
+  </si>
+  <si>
+    <t>Hunter Greene</t>
+  </si>
+  <si>
+    <t>Jake Irvin</t>
+  </si>
+  <si>
+    <t>Jameson Taillon</t>
+  </si>
+  <si>
+    <t>Joe Ryan</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks</t>
+  </si>
+  <si>
+    <t>Matthew Boyd</t>
+  </si>
+  <si>
+    <t>Max Scherzer</t>
+  </si>
+  <si>
+    <t>Merrill Kelly</t>
+  </si>
+  <si>
+    <t>Michael McGreevy</t>
+  </si>
+  <si>
+    <t>Mitch Keller</t>
+  </si>
+  <si>
+    <t>Nick Pivetta</t>
+  </si>
+  <si>
+    <t>Seth Lugo</t>
+  </si>
+  <si>
+    <t>Shane Baz</t>
+  </si>
+  <si>
+    <t>Tanner Bibee</t>
+  </si>
+  <si>
+    <t>Tarik Skubal</t>
+  </si>
+  <si>
+    <t>Walker Buehler</t>
+  </si>
+  <si>
+    <t>Tomoyuki Sugano</t>
+  </si>
+  <si>
+    <t>Shane Smith</t>
+  </si>
+  <si>
+    <t>Chad Patrick</t>
+  </si>
+  <si>
+    <t>Jacob Lopez</t>
+  </si>
+  <si>
+    <t>Kai-Wei Teng</t>
+  </si>
+  <si>
     <t>Aaron Nola</t>
   </si>
   <si>
@@ -121,21 +298,12 @@
     <t>Paul Skenes</t>
   </si>
   <si>
-    <t>Shane Smith</t>
-  </si>
-  <si>
-    <t>Jacob Lopez</t>
-  </si>
-  <si>
     <t>Adrian Houser</t>
   </si>
   <si>
     <t>Bailey Falter</t>
   </si>
   <si>
-    <t>Brandon Pfaadt</t>
-  </si>
-  <si>
     <t>Brayan Bello</t>
   </si>
   <si>
@@ -148,15 +316,6 @@
     <t>Eric Lauer</t>
   </si>
   <si>
-    <t>Jesus Luzardo</t>
-  </si>
-  <si>
-    <t>Johan Oviedo</t>
-  </si>
-  <si>
-    <t>JP Sears</t>
-  </si>
-  <si>
     <t>Justin Verlander</t>
   </si>
   <si>
@@ -175,9 +334,6 @@
     <t>Quinn Priester</t>
   </si>
   <si>
-    <t>Sandy Alcantara</t>
-  </si>
-  <si>
     <t>Sean Manaea</t>
   </si>
   <si>
@@ -187,12 +343,6 @@
     <t>Sonny Gray</t>
   </si>
   <si>
-    <t>Tanner Gordon</t>
-  </si>
-  <si>
-    <t>Yusei Kikuchi</t>
-  </si>
-  <si>
     <t>Jason Alexander</t>
   </si>
   <si>
@@ -205,12 +355,6 @@
     <t>Marcus Stroman</t>
   </si>
   <si>
-    <t>Charlie Morton</t>
-  </si>
-  <si>
-    <t>Colin Rea</t>
-  </si>
-  <si>
     <t>Joe Boyle</t>
   </si>
   <si>
@@ -223,9 +367,6 @@
     <t>Luis Severino</t>
   </si>
   <si>
-    <t>Seth Lugo</t>
-  </si>
-  <si>
     <t>Easton Lucas</t>
   </si>
   <si>
@@ -238,36 +379,15 @@
     <t>Pierson Ohl</t>
   </si>
   <si>
-    <t>Andre Pallante</t>
-  </si>
-  <si>
     <t>Bradley Blalock</t>
   </si>
   <si>
     <t>Carson Whisenhunt</t>
   </si>
   <si>
-    <t>Chris Bassitt</t>
-  </si>
-  <si>
-    <t>Cristopher Sánchez</t>
-  </si>
-  <si>
-    <t>Drew Rasmussen</t>
-  </si>
-  <si>
     <t>Dylan Cease</t>
   </si>
   <si>
-    <t>Eduardo Rodriguez</t>
-  </si>
-  <si>
-    <t>Edward Cabrera</t>
-  </si>
-  <si>
-    <t>Framber Valdez</t>
-  </si>
-  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
@@ -277,15 +397,6 @@
     <t>Jacob deGrom</t>
   </si>
   <si>
-    <t>Luis Castillo</t>
-  </si>
-  <si>
-    <t>Matthew Boyd</t>
-  </si>
-  <si>
-    <t>Mitch Keller</t>
-  </si>
-  <si>
     <t>Rich Hill</t>
   </si>
   <si>
@@ -304,87 +415,39 @@
     <t>Zach Eflin</t>
   </si>
   <si>
-    <t>Brad Lord</t>
-  </si>
-  <si>
-    <t>Jacob Misiorowski</t>
-  </si>
-  <si>
     <t>Chase Burns</t>
   </si>
   <si>
-    <t>Cam Schlittler</t>
-  </si>
-  <si>
     <t>Troy Melton</t>
   </si>
   <si>
-    <t>Austin Gomber</t>
-  </si>
-  <si>
     <t>Ben Brown</t>
   </si>
   <si>
-    <t>Bryce Elder</t>
-  </si>
-  <si>
-    <t>Carlos Rodón</t>
-  </si>
-  <si>
-    <t>J T Ginn</t>
-  </si>
-  <si>
     <t>Jack Flaherty</t>
   </si>
   <si>
     <t>Jack Leiter</t>
   </si>
   <si>
-    <t>Jake Irvin</t>
-  </si>
-  <si>
     <t>Joey Cantillo</t>
   </si>
   <si>
-    <t>Kodai Senga</t>
-  </si>
-  <si>
-    <t>Kyle Hendricks</t>
-  </si>
-  <si>
-    <t>Max Scherzer</t>
-  </si>
-  <si>
-    <t>Michael McGreevy</t>
-  </si>
-  <si>
     <t>Sean Burke</t>
   </si>
   <si>
-    <t>Shane Baz</t>
-  </si>
-  <si>
-    <t>Walker Buehler</t>
-  </si>
-  <si>
     <t>Zac Gallen</t>
   </si>
   <si>
     <t>Zack Wheeler</t>
   </si>
   <si>
-    <t>Tomoyuki Sugano</t>
-  </si>
-  <si>
     <t>Stephen Kolek</t>
   </si>
   <si>
     <t>Colton Gordon</t>
   </si>
   <si>
-    <t>Noah Cameron</t>
-  </si>
-  <si>
     <t>Carson Seymour</t>
   </si>
   <si>
@@ -394,21 +457,12 @@
     <t>Clayton Kershaw</t>
   </si>
   <si>
-    <t>David Peterson</t>
-  </si>
-  <si>
     <t>Gavin Williams</t>
   </si>
   <si>
     <t>Grant Holmes</t>
   </si>
   <si>
-    <t>Hunter Brown</t>
-  </si>
-  <si>
-    <t>Joe Ryan</t>
-  </si>
-  <si>
     <t>Kevin Gausman</t>
   </si>
   <si>
@@ -418,9 +472,6 @@
     <t>Matthew Liberatore</t>
   </si>
   <si>
-    <t>Merrill Kelly</t>
-  </si>
-  <si>
     <t>Michael Wacha</t>
   </si>
   <si>
@@ -433,12 +484,6 @@
     <t>Robbie Ray</t>
   </si>
   <si>
-    <t>Tanner Bibee</t>
-  </si>
-  <si>
-    <t>Tarik Skubal</t>
-  </si>
-  <si>
     <t>Trevor Rogers</t>
   </si>
   <si>
@@ -451,9 +496,6 @@
     <t>Davis Daniel</t>
   </si>
   <si>
-    <t>Landen Roupp</t>
-  </si>
-  <si>
     <t>David Festa</t>
   </si>
   <si>
@@ -469,18 +511,9 @@
     <t>MacKenzie Gore</t>
   </si>
   <si>
-    <t>Nick Pivetta</t>
-  </si>
-  <si>
-    <t>Jacob Latz</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
-    <t>Emmet Sheehan</t>
-  </si>
-  <si>
     <t>Freddy Peralta</t>
   </si>
   <si>
@@ -490,9 +523,6 @@
     <t>Keider Montero</t>
   </si>
   <si>
-    <t>Nick Martinez</t>
-  </si>
-  <si>
     <t>Ryne Nelson</t>
   </si>
   <si>
@@ -535,15 +565,9 @@
     <t>Justin Wrobleski</t>
   </si>
   <si>
-    <t>Chad Patrick</t>
-  </si>
-  <si>
     <t>Allan Winans</t>
   </si>
   <si>
-    <t>Bailey Ober</t>
-  </si>
-  <si>
     <t>Paul Blackburn</t>
   </si>
   <si>
@@ -571,9 +595,6 @@
     <t>Didier Fuentes</t>
   </si>
   <si>
-    <t>Jameson Taillon</t>
-  </si>
-  <si>
     <t>Trevor Williams</t>
   </si>
   <si>
@@ -646,9 +667,6 @@
     <t>Ryan Weathers</t>
   </si>
   <si>
-    <t>Bryce Miller</t>
-  </si>
-  <si>
     <t>Joe Ross</t>
   </si>
   <si>
@@ -667,9 +685,6 @@
     <t>Brant Hurter</t>
   </si>
   <si>
-    <t>Hunter Greene</t>
-  </si>
-  <si>
     <t>Osvaldo Bido</t>
   </si>
   <si>
@@ -746,9 +761,6 @@
   </si>
   <si>
     <t>Nathan Wiles</t>
-  </si>
-  <si>
-    <t>Martín Pérez</t>
   </si>
   <si>
     <t>RHP</t>
@@ -1112,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1134,10 +1146,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>605400</v>
+        <v>669467</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1145,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>671096</v>
+        <v>641927</v>
       </c>
       <c r="C3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1156,301 +1168,301 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>571760</v>
+        <v>694297</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>450203</v>
+      </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>663978</v>
+        <v>605135</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>605280</v>
+        <v>607067</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>664299</v>
+        <v>656876</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>663436</v>
+        <v>664285</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>665152</v>
+        <v>694462</v>
       </c>
       <c r="C10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>607200</v>
+        <v>669372</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>676979</v>
+        <v>666200</v>
       </c>
       <c r="C12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>669923</v>
+        <v>670912</v>
       </c>
       <c r="C13" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>665871</v>
+        <v>676664</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>605488</v>
+        <v>673540</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>621244</v>
+        <v>689017</v>
       </c>
       <c r="C16" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>500779</v>
+        <v>622491</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>667755</v>
+        <v>527048</v>
       </c>
       <c r="C18" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>671106</v>
+        <v>607259</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>657277</v>
+        <v>645261</v>
       </c>
       <c r="C20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>571945</v>
+        <v>660271</v>
       </c>
       <c r="C21" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>680730</v>
+        <v>685299</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>622503</v>
+        <v>579328</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>543135</v>
+        <v>695418</v>
       </c>
       <c r="C24" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>686752</v>
+        <v>702070</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>607192</v>
+        <v>694819</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>701542</v>
+        <v>656641</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>506433</v>
+        <v>693645</v>
       </c>
       <c r="C28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>686701</v>
+        <v>800048</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>663903</v>
+        <v>596295</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>471911</v>
-      </c>
       <c r="C31" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1458,10 +1470,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>691587</v>
+        <v>693821</v>
       </c>
       <c r="C32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1469,10 +1481,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>669302</v>
+        <v>682243</v>
       </c>
       <c r="C33" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1480,10 +1492,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>694973</v>
+        <v>607074</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1491,10 +1503,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>681343</v>
+        <v>650911</v>
       </c>
       <c r="C35" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1502,10 +1514,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>682052</v>
+        <v>656849</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1513,10 +1525,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>605288</v>
+        <v>593958</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1524,21 +1536,18 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>663559</v>
+        <v>665795</v>
       </c>
       <c r="C38" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>694297</v>
-      </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1546,10 +1555,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>678394</v>
+        <v>686613</v>
       </c>
       <c r="C40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1557,10 +1566,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>700249</v>
+        <v>668881</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1568,10 +1577,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>663554</v>
+        <v>663623</v>
       </c>
       <c r="C42" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1579,10 +1588,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>641778</v>
+        <v>592791</v>
       </c>
       <c r="C43" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1590,10 +1599,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>666200</v>
+        <v>657746</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1601,10 +1610,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>670912</v>
+        <v>543294</v>
       </c>
       <c r="C45" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1612,10 +1621,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>676664</v>
+        <v>571510</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1623,10 +1632,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>434378</v>
+        <v>453286</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1634,10 +1643,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>608331</v>
+        <v>518876</v>
       </c>
       <c r="C48" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1645,10 +1654,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>647336</v>
+        <v>700241</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1656,10 +1665,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>666157</v>
+        <v>656605</v>
       </c>
       <c r="C50" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1667,10 +1676,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>571578</v>
+        <v>601713</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1678,10 +1687,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>682990</v>
+        <v>607625</v>
       </c>
       <c r="C52" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1689,10 +1698,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>645261</v>
+        <v>669358</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1700,10 +1709,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>640455</v>
+        <v>676440</v>
       </c>
       <c r="C54" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1711,10 +1720,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>677944</v>
+        <v>669373</v>
       </c>
       <c r="C55" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1722,10 +1731,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>543243</v>
+        <v>621111</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1733,10 +1742,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>685299</v>
+        <v>608372</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1744,10 +1753,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>579328</v>
+        <v>681343</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1755,10 +1764,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>669920</v>
+        <v>694477</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1766,10 +1775,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>701519</v>
+        <v>682052</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1777,10 +1786,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>677958</v>
+        <v>678906</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1788,10 +1797,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>573186</v>
+        <v>605400</v>
       </c>
       <c r="C62" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1799,10 +1808,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>450203</v>
+        <v>671096</v>
       </c>
       <c r="C63" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1810,10 +1819,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>607067</v>
+        <v>571760</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1821,10 +1830,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>671212</v>
+        <v>663978</v>
       </c>
       <c r="C65" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1832,10 +1841,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>686563</v>
+        <v>605280</v>
       </c>
       <c r="C66" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1843,10 +1852,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>608337</v>
+        <v>664299</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1854,10 +1863,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>622663</v>
+        <v>663436</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1865,10 +1874,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>607625</v>
+        <v>665152</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1876,10 +1885,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>687922</v>
+        <v>607200</v>
       </c>
       <c r="C70" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1887,10 +1896,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>687064</v>
+        <v>676979</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1898,10 +1907,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>688138</v>
+        <v>669923</v>
       </c>
       <c r="C72" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1909,10 +1918,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>701487</v>
+        <v>665871</v>
       </c>
       <c r="C73" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1920,10 +1929,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>669467</v>
+        <v>605488</v>
       </c>
       <c r="C74" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1931,10 +1940,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>687134</v>
+        <v>621244</v>
       </c>
       <c r="C75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1942,10 +1951,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>687931</v>
+        <v>500779</v>
       </c>
       <c r="C76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1953,10 +1962,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>605135</v>
+        <v>667755</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1964,10 +1973,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>650911</v>
+        <v>671106</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1975,10 +1984,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>656876</v>
+        <v>657277</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1986,10 +1995,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>656302</v>
+        <v>571945</v>
       </c>
       <c r="C80" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1997,10 +2006,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>593958</v>
+        <v>680730</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2008,10 +2017,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>665795</v>
+        <v>622503</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2019,10 +2028,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>664285</v>
+        <v>543135</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2030,10 +2039,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>593423</v>
+        <v>686752</v>
       </c>
       <c r="C84" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2041,10 +2050,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>686799</v>
+        <v>607192</v>
       </c>
       <c r="C85" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2052,10 +2061,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>594798</v>
+        <v>701542</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2063,10 +2072,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>622491</v>
+        <v>506433</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2074,10 +2083,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>571510</v>
+        <v>686701</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2085,10 +2094,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>656605</v>
+        <v>663903</v>
       </c>
       <c r="C89" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2096,10 +2105,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>448179</v>
+        <v>471911</v>
       </c>
       <c r="C90" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2107,10 +2116,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>690916</v>
+        <v>691587</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2118,10 +2127,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>680573</v>
+        <v>669302</v>
       </c>
       <c r="C92" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2129,10 +2138,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>675911</v>
+        <v>694973</v>
       </c>
       <c r="C93" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2140,10 +2149,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>808967</v>
+        <v>605288</v>
       </c>
       <c r="C94" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2151,10 +2160,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>621107</v>
+        <v>663559</v>
       </c>
       <c r="C95" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2162,10 +2171,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>695418</v>
+        <v>678394</v>
       </c>
       <c r="C96" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2173,10 +2182,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>694819</v>
+        <v>700249</v>
       </c>
       <c r="C97" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2184,10 +2193,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>695505</v>
+        <v>663554</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2195,10 +2204,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>693645</v>
+        <v>641778</v>
       </c>
       <c r="C99" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2206,10 +2215,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>675512</v>
+        <v>434378</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2217,10 +2226,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>596295</v>
+        <v>608331</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2228,10 +2237,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>676962</v>
+        <v>647336</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2239,10 +2248,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>693821</v>
+        <v>666157</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2250,10 +2259,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>607074</v>
+        <v>571578</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2261,10 +2270,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>669372</v>
+        <v>682990</v>
       </c>
       <c r="C105" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2272,10 +2281,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>656427</v>
+        <v>640455</v>
       </c>
       <c r="C106" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2283,10 +2292,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>683004</v>
+        <v>677944</v>
       </c>
       <c r="C107" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2294,10 +2303,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>663623</v>
+        <v>543243</v>
       </c>
       <c r="C108" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2305,10 +2314,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>676282</v>
+        <v>669920</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2316,10 +2325,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>673540</v>
+        <v>701519</v>
       </c>
       <c r="C110" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2327,10 +2336,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>543294</v>
+        <v>677958</v>
       </c>
       <c r="C111" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2338,10 +2347,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>453286</v>
+        <v>573186</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2349,10 +2358,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>700241</v>
+        <v>671212</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2360,10 +2369,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>680732</v>
+        <v>686563</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2371,10 +2380,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>669358</v>
+        <v>608337</v>
       </c>
       <c r="C115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2382,10 +2391,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>621111</v>
+        <v>622663</v>
       </c>
       <c r="C116" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2393,10 +2402,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>668678</v>
+        <v>687922</v>
       </c>
       <c r="C117" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2404,10 +2413,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>554430</v>
+        <v>687064</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2415,10 +2424,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>608372</v>
+        <v>688138</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2426,10 +2435,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>663568</v>
+        <v>701487</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2437,10 +2446,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>676467</v>
+        <v>687134</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2448,10 +2457,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>702070</v>
+        <v>687931</v>
       </c>
       <c r="C122" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2459,10 +2468,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>693313</v>
+        <v>656302</v>
       </c>
       <c r="C123" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2470,10 +2479,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>650644</v>
+        <v>593423</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2481,10 +2490,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>477132</v>
+        <v>686799</v>
       </c>
       <c r="C125" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2492,10 +2501,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>656849</v>
+        <v>594798</v>
       </c>
       <c r="C126" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2503,10 +2512,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>668909</v>
+        <v>448179</v>
       </c>
       <c r="C127" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2514,10 +2523,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>656550</v>
+        <v>690916</v>
       </c>
       <c r="C128" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2525,10 +2534,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>686613</v>
+        <v>680573</v>
       </c>
       <c r="C129" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2536,10 +2545,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>657746</v>
+        <v>675911</v>
       </c>
       <c r="C130" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2547,10 +2556,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>592332</v>
+        <v>808967</v>
       </c>
       <c r="C131" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2558,10 +2567,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>663460</v>
+        <v>621107</v>
       </c>
       <c r="C132" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2569,10 +2578,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>669461</v>
+        <v>695505</v>
       </c>
       <c r="C133" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2580,10 +2589,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>518876</v>
+        <v>675512</v>
       </c>
       <c r="C134" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2591,10 +2600,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>608379</v>
+        <v>676962</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2602,10 +2611,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>681190</v>
+        <v>656427</v>
       </c>
       <c r="C136" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2613,10 +2622,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>624133</v>
+        <v>683004</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2624,10 +2633,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>592662</v>
+        <v>676282</v>
       </c>
       <c r="C138" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2635,10 +2644,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>676440</v>
+        <v>680732</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2646,10 +2655,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>669373</v>
+        <v>668678</v>
       </c>
       <c r="C140" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2657,10 +2666,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>669432</v>
+        <v>554430</v>
       </c>
       <c r="C141" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2668,10 +2677,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>542881</v>
+        <v>663568</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2679,10 +2688,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>690990</v>
+        <v>676467</v>
       </c>
       <c r="C143" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2690,10 +2699,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>669721</v>
+        <v>693313</v>
       </c>
       <c r="C144" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2701,10 +2710,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>689017</v>
+        <v>650644</v>
       </c>
       <c r="C145" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2712,10 +2721,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>701581</v>
+        <v>477132</v>
       </c>
       <c r="C146" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2723,10 +2732,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>806185</v>
+        <v>668909</v>
       </c>
       <c r="C147" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2734,10 +2743,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>693433</v>
+        <v>656550</v>
       </c>
       <c r="C148" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2745,10 +2754,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>608566</v>
+        <v>592332</v>
       </c>
       <c r="C149" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2756,10 +2765,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>669022</v>
+        <v>663460</v>
       </c>
       <c r="C150" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2767,10 +2776,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>601713</v>
+        <v>669461</v>
       </c>
       <c r="C151" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2778,10 +2787,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>656641</v>
+        <v>608379</v>
       </c>
       <c r="C152" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2789,18 +2798,21 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>615698</v>
+        <v>681190</v>
       </c>
       <c r="C153" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>154</v>
       </c>
+      <c r="B154">
+        <v>624133</v>
+      </c>
       <c r="C154" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2808,10 +2820,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>642547</v>
+        <v>592662</v>
       </c>
       <c r="C155" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2819,10 +2831,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>666214</v>
+        <v>669432</v>
       </c>
       <c r="C156" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2830,10 +2842,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>672456</v>
+        <v>542881</v>
       </c>
       <c r="C157" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2841,10 +2853,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>607259</v>
+        <v>690990</v>
       </c>
       <c r="C158" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2852,10 +2864,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>669194</v>
+        <v>669721</v>
       </c>
       <c r="C159" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2863,10 +2875,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>684007</v>
+        <v>701581</v>
       </c>
       <c r="C160" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2874,10 +2886,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>592836</v>
+        <v>806185</v>
       </c>
       <c r="C161" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2885,10 +2897,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>641793</v>
+        <v>693433</v>
       </c>
       <c r="C162" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2896,10 +2908,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>805673</v>
+        <v>608566</v>
       </c>
       <c r="C163" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2907,10 +2919,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>681347</v>
+        <v>669022</v>
       </c>
       <c r="C164" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2918,10 +2930,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>687888</v>
+        <v>615698</v>
       </c>
       <c r="C165" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2929,10 +2941,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>607536</v>
+        <v>642547</v>
       </c>
       <c r="C166" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2940,10 +2952,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>681857</v>
+        <v>666214</v>
       </c>
       <c r="C167" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2951,10 +2963,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>671737</v>
+        <v>672456</v>
       </c>
       <c r="C168" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2962,10 +2974,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>666171</v>
+        <v>669194</v>
       </c>
       <c r="C169" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2973,10 +2985,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>663795</v>
+        <v>684007</v>
       </c>
       <c r="C170" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2984,10 +2996,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>696136</v>
+        <v>592836</v>
       </c>
       <c r="C171" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2995,10 +3007,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>680736</v>
+        <v>641793</v>
       </c>
       <c r="C172" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3006,10 +3018,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>694477</v>
+        <v>805673</v>
       </c>
       <c r="C173" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3017,10 +3029,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>642216</v>
+        <v>681347</v>
       </c>
       <c r="C174" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3028,10 +3040,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>641927</v>
+        <v>687888</v>
       </c>
       <c r="C175" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3039,10 +3051,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>621112</v>
+        <v>607536</v>
       </c>
       <c r="C176" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3050,10 +3062,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>680885</v>
+        <v>681857</v>
       </c>
       <c r="C177" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3061,10 +3073,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>677952</v>
+        <v>671737</v>
       </c>
       <c r="C178" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3072,10 +3084,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>547179</v>
+        <v>666171</v>
       </c>
       <c r="C179" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3083,10 +3095,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>605513</v>
+        <v>663795</v>
       </c>
       <c r="C180" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3094,10 +3106,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>641302</v>
+        <v>696136</v>
       </c>
       <c r="C181" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3105,10 +3117,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>690928</v>
+        <v>680736</v>
       </c>
       <c r="C182" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3116,10 +3128,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>694918</v>
+        <v>642216</v>
       </c>
       <c r="C183" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3127,10 +3139,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>800311</v>
+        <v>621112</v>
       </c>
       <c r="C184" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3138,10 +3150,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>592791</v>
+        <v>680885</v>
       </c>
       <c r="C185" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3149,10 +3161,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>592866</v>
+        <v>677952</v>
       </c>
       <c r="C186" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3160,10 +3172,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>801403</v>
+        <v>547179</v>
       </c>
       <c r="C187" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3171,10 +3183,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>678024</v>
+        <v>605513</v>
       </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3182,10 +3194,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>800049</v>
+        <v>641302</v>
       </c>
       <c r="C189" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3193,10 +3205,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>519242</v>
+        <v>690928</v>
       </c>
       <c r="C190" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3204,10 +3216,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>642232</v>
+        <v>694918</v>
       </c>
       <c r="C191" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3215,10 +3227,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>669422</v>
+        <v>800311</v>
       </c>
       <c r="C192" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3226,10 +3238,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>657376</v>
+        <v>592866</v>
       </c>
       <c r="C193" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3237,10 +3249,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>676508</v>
+        <v>801403</v>
       </c>
       <c r="C194" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3248,10 +3260,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>687223</v>
+        <v>678024</v>
       </c>
       <c r="C195" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3259,10 +3271,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>690953</v>
+        <v>800049</v>
       </c>
       <c r="C196" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3270,10 +3282,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>656288</v>
+        <v>519242</v>
       </c>
       <c r="C197" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3281,10 +3293,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>690986</v>
+        <v>642232</v>
       </c>
       <c r="C198" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3292,10 +3304,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>687765</v>
+        <v>669422</v>
       </c>
       <c r="C199" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3303,10 +3315,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>641816</v>
+        <v>657376</v>
       </c>
       <c r="C200" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3314,10 +3326,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>687830</v>
+        <v>676508</v>
       </c>
       <c r="C201" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3325,18 +3337,21 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>676106</v>
+        <v>687223</v>
       </c>
       <c r="C202" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>203</v>
       </c>
+      <c r="B203">
+        <v>690953</v>
+      </c>
       <c r="C203" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3344,10 +3359,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>489119</v>
+        <v>656288</v>
       </c>
       <c r="C204" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3355,18 +3370,21 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>670102</v>
+        <v>690986</v>
       </c>
       <c r="C205" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>206</v>
       </c>
+      <c r="B206">
+        <v>687765</v>
+      </c>
       <c r="C206" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3374,10 +3392,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>656731</v>
+        <v>641816</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3385,10 +3403,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>676961</v>
+        <v>687830</v>
       </c>
       <c r="C208" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3396,21 +3414,18 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>677960</v>
+        <v>676106</v>
       </c>
       <c r="C209" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>210</v>
       </c>
-      <c r="B210">
-        <v>682243</v>
-      </c>
       <c r="C210" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3418,10 +3433,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>605452</v>
+        <v>489119</v>
       </c>
       <c r="C211" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3429,21 +3444,18 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>666142</v>
+        <v>670102</v>
       </c>
       <c r="C212" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
-      <c r="B213">
-        <v>689017</v>
-      </c>
       <c r="C213" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3451,10 +3463,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>664062</v>
+        <v>656731</v>
       </c>
       <c r="C214" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3462,10 +3474,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>687473</v>
+        <v>676961</v>
       </c>
       <c r="C215" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3473,10 +3485,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>676428</v>
+        <v>677960</v>
       </c>
       <c r="C216" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3484,10 +3496,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>668881</v>
+        <v>605452</v>
       </c>
       <c r="C217" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3495,10 +3507,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>674370</v>
+        <v>666142</v>
       </c>
       <c r="C218" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3506,10 +3518,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>641154</v>
+        <v>689017</v>
       </c>
       <c r="C219" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3517,10 +3529,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>676974</v>
+        <v>664062</v>
       </c>
       <c r="C220" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3528,10 +3540,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>669203</v>
+        <v>687473</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3539,10 +3551,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>680684</v>
+        <v>676428</v>
       </c>
       <c r="C222" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3550,10 +3562,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>700363</v>
+        <v>674370</v>
       </c>
       <c r="C223" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3561,10 +3573,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>663465</v>
+        <v>641154</v>
       </c>
       <c r="C224" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3572,10 +3584,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>695549</v>
+        <v>676974</v>
       </c>
       <c r="C225" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3583,10 +3595,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>663738</v>
+        <v>669203</v>
       </c>
       <c r="C226" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3594,10 +3606,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>701656</v>
+        <v>680684</v>
       </c>
       <c r="C227" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3605,10 +3617,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>650633</v>
+        <v>700363</v>
       </c>
       <c r="C228" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3616,10 +3628,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>694646</v>
+        <v>663465</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3627,10 +3639,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>669060</v>
+        <v>695549</v>
       </c>
       <c r="C230" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3638,10 +3650,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>669387</v>
+        <v>663738</v>
       </c>
       <c r="C231" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3649,10 +3661,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>502043</v>
+        <v>701656</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3660,10 +3672,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>669854</v>
+        <v>650633</v>
       </c>
       <c r="C233" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3671,10 +3683,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>668964</v>
+        <v>694646</v>
       </c>
       <c r="C234" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3682,10 +3694,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>695534</v>
+        <v>669060</v>
       </c>
       <c r="C235" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3693,10 +3705,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>663855</v>
+        <v>669387</v>
       </c>
       <c r="C236" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3704,10 +3716,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>678368</v>
+        <v>502043</v>
       </c>
       <c r="C237" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3715,10 +3727,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>594902</v>
+        <v>669854</v>
       </c>
       <c r="C238" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3726,10 +3738,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>656557</v>
+        <v>668964</v>
       </c>
       <c r="C239" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3737,10 +3749,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>669713</v>
+        <v>695534</v>
       </c>
       <c r="C240" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3748,10 +3760,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>570632</v>
+        <v>663855</v>
       </c>
       <c r="C241" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3759,10 +3771,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>663372</v>
+        <v>678368</v>
       </c>
       <c r="C242" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3770,10 +3782,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>686249</v>
+        <v>594902</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3781,10 +3793,54 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>527048</v>
+        <v>656557</v>
       </c>
       <c r="C244" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>669713</v>
+      </c>
+      <c r="C245" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
         <v>246</v>
+      </c>
+      <c r="B246">
+        <v>570632</v>
+      </c>
+      <c r="C246" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>663372</v>
+      </c>
+      <c r="C247" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>686249</v>
+      </c>
+      <c r="C248" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Historical_Starting_Pitchers.xlsx
+++ b/assets/Historical_Starting_Pitchers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="253">
   <si>
     <t>Baseball_Savant_Name</t>
   </si>
@@ -25,6 +25,60 @@
     <t>Handedness</t>
   </si>
   <si>
+    <t>Clayton Kershaw</t>
+  </si>
+  <si>
+    <t>Dylan Cease</t>
+  </si>
+  <si>
+    <t>Joe Boyle</t>
+  </si>
+  <si>
+    <t>José Ureña</t>
+  </si>
+  <si>
+    <t>Justin Verlander</t>
+  </si>
+  <si>
+    <t>Lucas Giolito</t>
+  </si>
+  <si>
+    <t>Luis Gil</t>
+  </si>
+  <si>
+    <t>MacKenzie Gore</t>
+  </si>
+  <si>
+    <t>Michael Lorenzen</t>
+  </si>
+  <si>
+    <t>Patrick Corbin</t>
+  </si>
+  <si>
+    <t>Quinn Priester</t>
+  </si>
+  <si>
+    <t>Sean Manaea</t>
+  </si>
+  <si>
+    <t>Shota Imanaga</t>
+  </si>
+  <si>
+    <t>Sonny Gray</t>
+  </si>
+  <si>
+    <t>Chase Dollander</t>
+  </si>
+  <si>
+    <t>Brandon Young</t>
+  </si>
+  <si>
+    <t>Jason Alexander</t>
+  </si>
+  <si>
+    <t>Jack Perkins</t>
+  </si>
+  <si>
     <t>Andre Pallante</t>
   </si>
   <si>
@@ -316,9 +370,6 @@
     <t>Eric Lauer</t>
   </si>
   <si>
-    <t>Justin Verlander</t>
-  </si>
-  <si>
     <t>Max Fried</t>
   </si>
   <si>
@@ -328,24 +379,9 @@
     <t>Nick Lodolo</t>
   </si>
   <si>
-    <t>Patrick Corbin</t>
-  </si>
-  <si>
-    <t>Quinn Priester</t>
-  </si>
-  <si>
-    <t>Sean Manaea</t>
-  </si>
-  <si>
     <t>Slade Cecconi</t>
   </si>
   <si>
-    <t>Sonny Gray</t>
-  </si>
-  <si>
-    <t>Jason Alexander</t>
-  </si>
-  <si>
     <t>Travis Adams</t>
   </si>
   <si>
@@ -355,24 +391,15 @@
     <t>Marcus Stroman</t>
   </si>
   <si>
-    <t>Joe Boyle</t>
-  </si>
-  <si>
     <t>Jonathan Cannon</t>
   </si>
   <si>
-    <t>Lucas Giolito</t>
-  </si>
-  <si>
     <t>Luis Severino</t>
   </si>
   <si>
     <t>Easton Lucas</t>
   </si>
   <si>
-    <t>Brandon Young</t>
-  </si>
-  <si>
     <t>Logan Evans</t>
   </si>
   <si>
@@ -385,9 +412,6 @@
     <t>Carson Whisenhunt</t>
   </si>
   <si>
-    <t>Dylan Cease</t>
-  </si>
-  <si>
     <t>Frankie Montas</t>
   </si>
   <si>
@@ -454,9 +478,6 @@
     <t>Aaron Civale</t>
   </si>
   <si>
-    <t>Clayton Kershaw</t>
-  </si>
-  <si>
     <t>Gavin Williams</t>
   </si>
   <si>
@@ -508,9 +529,6 @@
     <t>German Marquez</t>
   </si>
   <si>
-    <t>MacKenzie Gore</t>
-  </si>
-  <si>
     <t>Cal Quantrill</t>
   </si>
   <si>
@@ -526,9 +544,6 @@
     <t>Ryne Nelson</t>
   </si>
   <si>
-    <t>Shota Imanaga</t>
-  </si>
-  <si>
     <t>Taijuan Walker</t>
   </si>
   <si>
@@ -577,9 +592,6 @@
     <t>Braxton Ashcraft</t>
   </si>
   <si>
-    <t>Michael Lorenzen</t>
-  </si>
-  <si>
     <t>Spencer Turnbull</t>
   </si>
   <si>
@@ -598,9 +610,6 @@
     <t>Trevor Williams</t>
   </si>
   <si>
-    <t>Chase Dollander</t>
-  </si>
-  <si>
     <t>Mike Vasil</t>
   </si>
   <si>
@@ -754,19 +763,16 @@
     <t>Hayden Wesneski</t>
   </si>
   <si>
-    <t>José Ureña</t>
-  </si>
-  <si>
     <t>Ryan Feltner</t>
   </si>
   <si>
     <t>Nathan Wiles</t>
   </si>
   <si>
+    <t>LHP</t>
+  </si>
+  <si>
     <t>RHP</t>
-  </si>
-  <si>
-    <t>LHP</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,10 +1152,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>669467</v>
+        <v>477132</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1157,10 +1163,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>641927</v>
+        <v>656302</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1168,10 +1174,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>694297</v>
+        <v>671212</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1179,10 +1185,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>450203</v>
+        <v>570632</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1190,10 +1196,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>605135</v>
+        <v>434378</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1201,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>607067</v>
+        <v>608337</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1212,10 +1218,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>656876</v>
+        <v>661563</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1223,10 +1229,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>664285</v>
+        <v>669022</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1234,10 +1240,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>694462</v>
+        <v>547179</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1245,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>669372</v>
+        <v>571578</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1256,10 +1262,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>666200</v>
+        <v>682990</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1267,10 +1273,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>670912</v>
+        <v>640455</v>
       </c>
       <c r="C13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1278,10 +1284,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>676664</v>
+        <v>684007</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1289,10 +1295,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>673540</v>
+        <v>543243</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1300,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>689017</v>
+        <v>801403</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1311,10 +1317,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>622491</v>
+        <v>687064</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1322,10 +1328,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>527048</v>
+        <v>669920</v>
       </c>
       <c r="C18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1333,10 +1339,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>607259</v>
+        <v>678022</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1344,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>645261</v>
+        <v>669467</v>
       </c>
       <c r="C20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1355,10 +1361,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>660271</v>
+        <v>641927</v>
       </c>
       <c r="C21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1366,10 +1372,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>685299</v>
+        <v>694297</v>
       </c>
       <c r="C22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1377,10 +1383,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>579328</v>
+        <v>450203</v>
       </c>
       <c r="C23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1388,10 +1394,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>695418</v>
+        <v>605135</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1399,10 +1405,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>702070</v>
+        <v>607067</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1410,10 +1416,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>694819</v>
+        <v>656876</v>
       </c>
       <c r="C26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1421,10 +1427,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>656641</v>
+        <v>664285</v>
       </c>
       <c r="C27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1432,10 +1438,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>693645</v>
+        <v>694462</v>
       </c>
       <c r="C28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1443,10 +1449,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>800048</v>
+        <v>669372</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1454,210 +1460,213 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>596295</v>
+        <v>666200</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>670912</v>
+      </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>693821</v>
+        <v>676664</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>682243</v>
+        <v>673540</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>607074</v>
+        <v>689017</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>650911</v>
+        <v>622491</v>
       </c>
       <c r="C35" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>656849</v>
+        <v>527048</v>
       </c>
       <c r="C36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
-        <v>593958</v>
+        <v>607259</v>
       </c>
       <c r="C37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>665795</v>
+        <v>645261</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>660271</v>
       </c>
       <c r="C39" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>686613</v>
+        <v>685299</v>
       </c>
       <c r="C40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>668881</v>
+        <v>579328</v>
       </c>
       <c r="C41" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
-        <v>663623</v>
+        <v>695418</v>
       </c>
       <c r="C42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>592791</v>
+        <v>702070</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>657746</v>
+        <v>694819</v>
       </c>
       <c r="C44" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>543294</v>
+        <v>656641</v>
       </c>
       <c r="C45" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>571510</v>
+        <v>693645</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>453286</v>
+        <v>800048</v>
       </c>
       <c r="C47" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>518876</v>
+        <v>596295</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49">
-        <v>700241</v>
-      </c>
       <c r="C49" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1665,10 +1674,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>656605</v>
+        <v>693821</v>
       </c>
       <c r="C50" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1676,10 +1685,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>601713</v>
+        <v>682243</v>
       </c>
       <c r="C51" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1687,10 +1696,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>607625</v>
+        <v>607074</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1698,10 +1707,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>669358</v>
+        <v>650911</v>
       </c>
       <c r="C53" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1709,10 +1718,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>676440</v>
+        <v>656849</v>
       </c>
       <c r="C54" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1720,10 +1729,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>669373</v>
+        <v>593958</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1731,21 +1740,18 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>621111</v>
+        <v>665795</v>
       </c>
       <c r="C56" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>608372</v>
-      </c>
       <c r="C57" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1753,10 +1759,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>681343</v>
+        <v>686613</v>
       </c>
       <c r="C58" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1764,10 +1770,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>694477</v>
+        <v>668881</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1775,10 +1781,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>682052</v>
+        <v>663623</v>
       </c>
       <c r="C60" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1786,10 +1792,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>678906</v>
+        <v>592791</v>
       </c>
       <c r="C61" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1797,10 +1803,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>605400</v>
+        <v>657746</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1808,10 +1814,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>671096</v>
+        <v>543294</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1819,10 +1825,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>571760</v>
+        <v>571510</v>
       </c>
       <c r="C64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1830,10 +1836,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>663978</v>
+        <v>453286</v>
       </c>
       <c r="C65" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1841,10 +1847,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>605280</v>
+        <v>518876</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1852,10 +1858,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>664299</v>
+        <v>700241</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1863,10 +1869,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>663436</v>
+        <v>656605</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1874,10 +1880,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>665152</v>
+        <v>601713</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1885,10 +1891,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>607200</v>
+        <v>607625</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1896,10 +1902,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>676979</v>
+        <v>669358</v>
       </c>
       <c r="C71" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1907,10 +1913,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>669923</v>
+        <v>676440</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1918,10 +1924,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>665871</v>
+        <v>669373</v>
       </c>
       <c r="C73" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1929,10 +1935,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>605488</v>
+        <v>621111</v>
       </c>
       <c r="C74" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1940,10 +1946,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>621244</v>
+        <v>608372</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1951,10 +1957,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>500779</v>
+        <v>681343</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1962,10 +1968,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>667755</v>
+        <v>694477</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1973,10 +1979,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>671106</v>
+        <v>682052</v>
       </c>
       <c r="C78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1984,10 +1990,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>657277</v>
+        <v>678906</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1995,10 +2001,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>571945</v>
+        <v>605400</v>
       </c>
       <c r="C80" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2006,10 +2012,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>680730</v>
+        <v>671096</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2017,10 +2023,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>622503</v>
+        <v>571760</v>
       </c>
       <c r="C82" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2028,10 +2034,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>543135</v>
+        <v>663978</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2039,10 +2045,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>686752</v>
+        <v>605280</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2050,10 +2056,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>607192</v>
+        <v>664299</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2061,10 +2067,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>701542</v>
+        <v>663436</v>
       </c>
       <c r="C86" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2072,10 +2078,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>506433</v>
+        <v>665152</v>
       </c>
       <c r="C87" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2083,10 +2089,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>686701</v>
+        <v>607200</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2094,10 +2100,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>663903</v>
+        <v>676979</v>
       </c>
       <c r="C89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2105,10 +2111,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>471911</v>
+        <v>669923</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2116,10 +2122,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>691587</v>
+        <v>665871</v>
       </c>
       <c r="C91" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2127,10 +2133,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>669302</v>
+        <v>605488</v>
       </c>
       <c r="C92" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2138,10 +2144,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>694973</v>
+        <v>621244</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2149,10 +2155,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>605288</v>
+        <v>500779</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2160,10 +2166,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>663559</v>
+        <v>667755</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2171,10 +2177,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>678394</v>
+        <v>671106</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2182,10 +2188,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>700249</v>
+        <v>657277</v>
       </c>
       <c r="C97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2193,10 +2199,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>663554</v>
+        <v>571945</v>
       </c>
       <c r="C98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2204,10 +2210,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>641778</v>
+        <v>680730</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2215,10 +2221,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>434378</v>
+        <v>622503</v>
       </c>
       <c r="C100" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2226,10 +2232,10 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>608331</v>
+        <v>543135</v>
       </c>
       <c r="C101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2237,10 +2243,10 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>647336</v>
+        <v>686752</v>
       </c>
       <c r="C102" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2248,10 +2254,10 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>666157</v>
+        <v>607192</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2259,10 +2265,10 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>571578</v>
+        <v>701542</v>
       </c>
       <c r="C104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2270,10 +2276,10 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>682990</v>
+        <v>506433</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2281,10 +2287,10 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>640455</v>
+        <v>686701</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2292,10 +2298,10 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>677944</v>
+        <v>663903</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2303,10 +2309,10 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>543243</v>
+        <v>471911</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2314,10 +2320,10 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>669920</v>
+        <v>691587</v>
       </c>
       <c r="C109" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2325,10 +2331,10 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>701519</v>
+        <v>669302</v>
       </c>
       <c r="C110" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2336,10 +2342,10 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>677958</v>
+        <v>694973</v>
       </c>
       <c r="C111" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2347,10 +2353,10 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>573186</v>
+        <v>605288</v>
       </c>
       <c r="C112" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2358,10 +2364,10 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>671212</v>
+        <v>663559</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2369,10 +2375,10 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>686563</v>
+        <v>678394</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2380,10 +2386,10 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>608337</v>
+        <v>700249</v>
       </c>
       <c r="C115" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2391,10 +2397,10 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>622663</v>
+        <v>663554</v>
       </c>
       <c r="C116" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2402,10 +2408,10 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>687922</v>
+        <v>641778</v>
       </c>
       <c r="C117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2413,10 +2419,10 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>687064</v>
+        <v>608331</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2424,10 +2430,10 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>688138</v>
+        <v>647336</v>
       </c>
       <c r="C119" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2435,10 +2441,10 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>701487</v>
+        <v>666157</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2446,10 +2452,10 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>687134</v>
+        <v>677944</v>
       </c>
       <c r="C121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2457,10 +2463,10 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>687931</v>
+        <v>701519</v>
       </c>
       <c r="C122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2468,10 +2474,10 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>656302</v>
+        <v>677958</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2479,10 +2485,10 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>593423</v>
+        <v>573186</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2490,10 +2496,10 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>686799</v>
+        <v>686563</v>
       </c>
       <c r="C125" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2501,10 +2507,10 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>594798</v>
+        <v>622663</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2512,10 +2518,10 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>448179</v>
+        <v>687922</v>
       </c>
       <c r="C127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2523,10 +2529,10 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>690916</v>
+        <v>688138</v>
       </c>
       <c r="C128" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2534,10 +2540,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>680573</v>
+        <v>701487</v>
       </c>
       <c r="C129" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2545,10 +2551,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>675911</v>
+        <v>687134</v>
       </c>
       <c r="C130" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2556,10 +2562,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>808967</v>
+        <v>687931</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2567,10 +2573,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>621107</v>
+        <v>593423</v>
       </c>
       <c r="C132" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2578,10 +2584,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>695505</v>
+        <v>686799</v>
       </c>
       <c r="C133" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2589,10 +2595,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>675512</v>
+        <v>594798</v>
       </c>
       <c r="C134" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2600,10 +2606,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>676962</v>
+        <v>448179</v>
       </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2611,10 +2617,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>656427</v>
+        <v>690916</v>
       </c>
       <c r="C136" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2622,10 +2628,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>683004</v>
+        <v>680573</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2633,10 +2639,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>676282</v>
+        <v>675911</v>
       </c>
       <c r="C138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2644,10 +2650,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>680732</v>
+        <v>808967</v>
       </c>
       <c r="C139" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2655,10 +2661,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>668678</v>
+        <v>621107</v>
       </c>
       <c r="C140" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2666,10 +2672,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>554430</v>
+        <v>695505</v>
       </c>
       <c r="C141" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1